--- a/ControversialData.xlsx
+++ b/ControversialData.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +439,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie × Ongeveer 161.000 resultaten (0 50 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale migratie belgie illegaal persoon in huis illegaal werken in nederland illegaal verblijf niet strafbaar illegaal in nederland en trouwen anoniem melden ind vragen over immigratie geen verblijfsvergunning Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie × Ongeveer 161.000 resultaten (0 50 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen .. Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale migratie belgie illegaal persoon in huis illegaal werken in nederland illegaal verblijf niet strafbaar illegaal in nederland en trouwen anoniem melden ind vragen over immigratie geen verblijfsvergunning Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 161.000 resultaten (0 34 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale migratie belgie illegaal persoon in huis illegaal werken in nederland illegaal verblijf niet strafbaar illegaal in nederland en trouwen anoniem melden ind vragen over immigratie geen verblijfsvergunning Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6642 BP Beuningen - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 161.000 resultaten (0 34 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen .. Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale migratie belgie illegaal persoon in huis illegaal werken in nederland illegaal verblijf niet strafbaar illegaal in nederland en trouwen anoniem melden ind vragen over immigratie geen verblijfsvergunning Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6642 BP Beuningen - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -509,27 +509,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Връзки за достъпност Преминаване към основното съдържание Помощ за достъпността Отзиви за достъпността Google Около 521 000 резултата (0 43 секунди) Резултати от търсенето Резултати от мрежата Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › vraag-en-antwoord Превод на страницата Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening Превод на страницата Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening Превод на страницата (medicamenteuze abortus in het eerste trimester) breken met een zgn. abortuspil. Dit kan tot en met acht weken na de eerste dag van je laatste menstruatie. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › item42703 Превод на страницата Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewen Превод на страницата 17.03.2015 г. - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › nieuws › bij-abortus-telt-alle Превод на страницата 30.11.2014 г. - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › ab Превод на страницата Ben je ongewenst zwanger en overweeg je een abortus? welke zwangerschapsduur zij een abortusbehandeling doen variërend van 13 weken tot 23 weken. 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-ec Превод на страницата 8.09.2016 г. - Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later vaginaal moesten Op de echo bleek dat ik 6 weken zwanger was. Abortus | allesoverseks.be - van Sensoa https://www.allesoverseks.be › abortus Превод на страницата Wanneer kan ik een abortus laten doen? Hoeveel kost een abortus? Hoe gebeurt een abortus? Waar kan ik een abortus laten doen? Is een abortus pijnlijk? Abortus | allesoverseks.be - van Sensoa https://www.allesoverseks.be › wanneer-kan-ik-een- Превод на страницата Abortus kan in België tot 12 weken na de bevruchting. Hoeveel kost het hoe gebeurt? Навигация в страниците 1 2 3 4 5 6 7 8 9 10 Следваща Връзки в долния колонтитул Нидерландия6218 Маастрихт - Въз основа на предишната ви активност - Използване на точното местоположение - Научете повече ПомощИзпращане на отзивиПоверителностУсловия</t>
+          <t xml:space="preserve">Връзки за достъпност Преминаване към основното съдържание Помощ за достъпността Отзиви за достъпността Google Около 521 000 резултата (0 43 секунди) Резултати от търсенето Резултати от мрежата Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › vraag-en-antwoord Превод на страницата Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening Превод на страницата Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening Превод на страницата (medicamenteuze abortus in het eerste trimester) breken met een zgn. abortuspil. Dit kan tot en met acht weken na de eerste dag van je laatste menstruatie. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › item42703 Превод на страницата Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewen Превод на страницата 17.03.2015 г. - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › nieuws › bij-abortus-telt-alle Превод на страницата 30.11.2014 г. - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › ab Превод на страницата Ben je ongewenst zwanger en overweeg je een abortus? welke zwangerschapsduur zij een abortusbehandeling doen variërend van 13 weken tot 23 weken. 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-ec Превод на страницата 8.09.2016 г. - Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later vaginaal moesten Op de echo bleek dat ik 6 weken zwanger was. Abortus | allesoverseks.be - van Sensoa https://www.allesoverseks.be › abortus Превод на страницата Wanneer kan ik een abortus laten doen? Hoeveel kost een abortus? Hoe gebeurt een abortus? Waar kan ik een abortus laten doen? Is een abortus pijnlijk? Abortus | allesoverseks.be - van Sensoa https://www.allesoverseks.be › wanneer-kan-ik-een- Превод на страницата Abortus kan in België tot 12 weken na de bevruchting. Hoeveel kost het hoe gebeurt? Навигация в страниците 1 2 3 4 5 6 7 8 9 10 Следваща Връзки в долния колонтитул Нидерландия6218 Маастрихт - Въз основа на предишната ви активност - Използване на точното местоположение - Научете повече ПомощИзпращане на отзивиПоверителностУсловия </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 164.000 results (0 68 seconds) Ads Klimaatverandering | 10 feiten op een rij‎ Adwww.worldanimalprotection.nl/klimaat/verandering‎ De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. +50 jr actief voor dieren. Dieren horen in het wild. We stoppen dierenleed. Oorzaken Klimaatverandering | Kom Samen Met WNF In Actie‎ Adwww.wwf.nl/‎ 0800 1962 Lees hier wat WNF doet om klimaatverandering tegen te gaan en help mee! Interessen: Nieuwsbrief Donaties. Teken de PetitieGebiedenOnze AanpakThema's Search Results Scholarly articles for Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Cited by 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Cited by 5 Featured snippet from the web Image result for Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback About Featured Snippets Web results Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverande Translate this page Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen- Translate this page Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Translate this page Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Oorzaken - Klimaat.be https://www.klimaat.be › klimaatverandering › het-klimaat Translate this page De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek Translate this page May 15 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Translate this page Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Wat zijn de oorzaken en gevolgen van klimaatverandering https://www.knaw.nl › de-nederlandse-wetenschapsagenda Translate this page Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Klimaatverandering : oorzaken - Climategate https://www.climategate.nl › 2017/10 › klimaatveranderi Translate this page Oct 30 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “Climate change: The facts 2017” uitgegeven door het Institute waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaatvragen › waa Translate this page Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Wat is klimaatverandering? Wat zijn de oorzaken - LNE.be https://www.lne.be › wat-is-klimaatverandering Translate this page Op de website www.klimaat.be vind je meer uitleg i.vm. klimaatverandering: In het kort Het klimaat Klimaatverandering Oorzaken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6218 Maastricht - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t xml:space="preserve">Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 164.000 results (0 68 seconds) Ads Klimaatverandering | 10 feiten op een rij‎ Adwww.worldanimalprotection.nl/klimaat/verandering‎ De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. +50 jr actief voor dieren. Dieren horen in het wild. We stoppen dierenleed. Oorzaken Klimaatverandering | Kom Samen Met WNF In Actie‎ Adwww.wwf.nl/‎ 0800 1962 Lees hier wat WNF doet om klimaatverandering tegen te gaan en help mee! Interessen: Nieuwsbrief Donaties. Teken de PetitieGebiedenOnze AanpakThema's Search Results Scholarly articles for Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Cited by 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Cited by 5 Featured snippet from the web Image result for Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback About Featured Snippets Web results Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverande Translate this page Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen- Translate this page Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Translate this page Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Oorzaken - Klimaat.be https://www.klimaat.be › klimaatverandering › het-klimaat Translate this page De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek Translate this page May 15 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Translate this page Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Wat zijn de oorzaken en gevolgen van klimaatverandering https://www.knaw.nl › de-nederlandse-wetenschapsagenda Translate this page Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Klimaatverandering : oorzaken - Climategate https://www.climategate.nl › 2017/10 › klimaatveranderi Translate this page Oct 30 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “Climate change: The facts 2017” uitgegeven door het Institute waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaatvragen › waa Translate this page Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Wat is klimaatverandering? Wat zijn de oorzaken - LNE.be https://www.lne.be › wat-is-klimaatverandering Translate this page Op de website www.klimaat.be vind je meer uitleg i.vm. klimaatverandering: In het kort Het klimaat Klimaatverandering Oorzaken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6218 Maastricht - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 138.000 results (0 32 seconds) Search Results Web results Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte- Translate this page Nov 17 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-ro - Translate this page Nov 15 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpi Translate this page Nov 16 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vak Translate this page Nov 15 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Vermoeide schouders en hoorbare zucht: Zwarte Piet of - Lc https://www.lc.nl › friesland › Vermoeide-schouders-en- Translate this page Nov 18 2019 - Het grote Zwarte Pieten-spel is weer begonnen. De emoties over roetveegpieten en Zwarte Pieten laaiden de afgelopen dagen opnieuw op Alternatieve Sintjournaals zonder roetveegpiet: 'Er is vraag https://nos.nl › Translate this page Nov 11 2019 - De pieten in het Emmer Sinterklaasjournaal zijn wel zwart geschminkt Bekijk hieronder de verandering van Zwarte Piet naar roetveegpiet:. Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › › Alle uitslagen Translate this page Nov 14 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Zwarte pieten willen niet meer - NRC https://www.nrc.nl › nieuws › 2019/11/07 › de-pieten-l - Translate this page Nov 7 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Roetveegpiet wint het op scholen in grote steden zwarte piet https://www.omroepbrabant.nl › nieuws › Roetveegpiet- Translate this page Nov 26 2019 - Uit een inventarisatie van Omroep Brabant blijkt dat in de grote steden roetveegpiet het wint van Zwarte Piet. Scholen gaan daar mee met het Kijk Nou: Pro-Piet demonstreert onbedoeld als roetveegpiet https://joop.bnnvara.nl › kijk-nou › pro-piet-demonstree Translate this page Nov 14 2019 - Tijdens een demonstratie in Den Bosch voor het behoud van de racistische kenmerken van Zwarte Piet heeft een demonstrant per ongeluk Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6218 Maastricht - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t xml:space="preserve">Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 138.000 results (0 32 seconds) Search Results Web results Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte- Translate this page Nov 17 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-ro - Translate this page Nov 15 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpi Translate this page Nov 16 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vak Translate this page Nov 15 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Vermoeide schouders en hoorbare zucht: Zwarte Piet of - Lc https://www.lc.nl › friesland › Vermoeide-schouders-en- Translate this page Nov 18 2019 - Het grote Zwarte Pieten-spel is weer begonnen. De emoties over roetveegpieten en Zwarte Pieten laaiden de afgelopen dagen opnieuw op Alternatieve Sintjournaals zonder roetveegpiet: 'Er is vraag https://nos.nl › Translate this page Nov 11 2019 - De pieten in het Emmer Sinterklaasjournaal zijn wel zwart geschminkt Bekijk hieronder de verandering van Zwarte Piet naar roetveegpiet:. Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › › Alle uitslagen Translate this page Nov 14 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Zwarte pieten willen niet meer - NRC https://www.nrc.nl › nieuws › 2019/11/07 › de-pieten-l - Translate this page Nov 7 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Roetveegpiet wint het op scholen in grote steden zwarte piet https://www.omroepbrabant.nl › nieuws › Roetveegpiet- Translate this page Nov 26 2019 - Uit een inventarisatie van Omroep Brabant blijkt dat in de grote steden roetveegpiet het wint van Zwarte Piet. Scholen gaan daar mee met het Kijk Nou: Pro-Piet demonstreert onbedoeld als roetveegpiet https://joop.bnnvara.nl › kijk-nou › pro-piet-demonstree Translate this page Nov 14 2019 - Tijdens een demonstratie in Den Bosch voor het behoud van de racistische kenmerken van Zwarte Piet heeft een demonstrant per ongeluk Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6218 Maastricht - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 113.000 results (0 38 seconds) Ad Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ Adwww.npofocus.nl/Vaccineren‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. Verdieping. NPO Focus. Weet meer. Search Results Vaccinatie risico Een kind dat niet gevaccineerd is is onvoldoende beschermd tegen de gevaarlijke infectieziekten. Het risico dat het kind de bewuste infectieziekte krijgt is groter als het kind deel uitmaakt van een niet-gevaccineerde hechte gemeenschap. Vaccineren beschermt dus niet alleen een individu maar ook de hele bevolking. Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Search for: Vaccinatie risico Feedback About Featured Snippets Web results Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels Translate this page Jun 17 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma Translate this page Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF]De verborgen gevaren van vaccinaties - WantToKnow.nl https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren Jul 1 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Translate this page Stichting Vaccinvrij - voor transparante voorlichting en het behoud van een vrije vaccinatiekeuze. Aanvullende informatie voor een verantwoordelijke keuze! Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerking Translate this page Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. Janneke Bazelmans: 'Over nadelen vaccinatie wordt veelal https://www.volkskrant.nl › columns-opinie › janneke-b - Translate this page Jul 22 2013 - In de discussie omtrent vaccinaties mist het standpunt van een hun eigen kinderen maar ook de kinderen van anderen in gevaar brengen. Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-le Translate this page Jan 15 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › nieuws › 2019/06/19 › gevaarlijke- - Translate this page Jun 19 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf Translate this page May 3 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Gevaren van vaccinaties | Mens en Gezondheid: Diversen https://mens-en-gezondheid.infonu.nl › diversen › 1422 Translate this page Oct 9 2014 - Maar een steeds groter deel van de vaccinatieweigeraars zijn zich bewust geworden van de gevaren van vaccinaties. Het eerste vaccin Searches related to Gevaren vaccinaties tegen vaccinatie stichting vaccinvrij nadelen vaccinatie vaccineren verplicht vaccinatie autisme betoog vaccinatie wat is vaccinatie rijksvaccinatieprogramma Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6218 Maastricht - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t xml:space="preserve">Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 113.000 results (0 38 seconds) Ad Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ Adwww.npofocus.nl/Vaccineren‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. Verdieping. NPO Focus. Weet meer. Search Results Vaccinatie risico Een kind dat niet gevaccineerd is is onvoldoende beschermd tegen de gevaarlijke infectieziekten. Het risico dat het kind de bewuste infectieziekte krijgt is groter als het kind deel uitmaakt van een niet-gevaccineerde hechte gemeenschap. Vaccineren beschermt dus niet alleen een individu maar ook de hele bevolking. Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Search for: Vaccinatie risico Feedback About Featured Snippets Web results Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels Translate this page Jun 17 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma Translate this page Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF]De verborgen gevaren van vaccinaties - WantToKnow.nl https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren Jul 1 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Translate this page Stichting Vaccinvrij - voor transparante voorlichting en het behoud van een vrije vaccinatiekeuze. Aanvullende informatie voor een verantwoordelijke keuze! Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerking Translate this page Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. Janneke Bazelmans: 'Over nadelen vaccinatie wordt veelal https://www.volkskrant.nl › columns-opinie › janneke-b - Translate this page Jul 22 2013 - In de discussie omtrent vaccinaties mist het standpunt van een hun eigen kinderen maar ook de kinderen van anderen in gevaar brengen. Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-le Translate this page Jan 15 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › nieuws › 2019/06/19 › gevaarlijke- - Translate this page Jun 19 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf Translate this page May 3 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Gevaren van vaccinaties | Mens en Gezondheid: Diversen https://mens-en-gezondheid.infonu.nl › diversen › 1422 Translate this page Oct 9 2014 - Maar een steeds groter deel van de vaccinatieweigeraars zijn zich bewust geworden van de gevaren van vaccinaties. Het eerste vaccin Searches related to Gevaren vaccinaties tegen vaccinatie stichting vaccinvrij nadelen vaccinatie vaccineren verplicht vaccinatie autisme betoog vaccinatie wat is vaccinatie rijksvaccinatieprogramma Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6218 Maastricht - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 135.000 results (0 43 seconds) Including results for Gevolgen illegale migratie Search only for Gevolgen illegale immigratie Search Results Web results Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Translate this page Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdeling Translate this page Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland - Translate this page Oct 23 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocument Translate this page Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-h Translate this page Jun 7 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Translate this page Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migrante Translate this page Oct 9 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-ill Translate this page Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-o Translate this page Nov 15 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_v Translate this page De immigranten uit de laatste categorie zullen dan eerlijk over de lidstaten worden voor de terugkeer van illegaal verblijvende derdelanders (herschikking). Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6218 Maastricht - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t xml:space="preserve">Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 135.000 results (0 43 seconds) Including results for Gevolgen illegale migratie Search only for Gevolgen illegale immigratie Search Results Web results Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Translate this page Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdeling Translate this page Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland - Translate this page Oct 23 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocument Translate this page Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-h Translate this page Jun 7 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Translate this page Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migrante Translate this page Oct 9 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-ill Translate this page Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-o Translate this page Nov 15 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_v Translate this page De immigranten uit de laatste categorie zullen dan eerlijk over de lidstaten worden voor de terugkeer van illegaal verblijvende derdelanders (herschikking). Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6218 Maastricht - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms </t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Google Zoekmodi AlleNieuwsAfbeeldingenVideo'sMapsMeer InstellingenTools Ongeveer 164.000 resultaten (0 35 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. MIJ LATER HERINNEREN NU BEKIJKEN Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale migratie belgie illegaal persoon in huis illegaal werken in nederland illegaal verblijf niet strafbaar illegaal in nederland en trouwen anoniem melden ind vragen over immigratie hoeveel illegalen in nederland 2018 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Google Zoekmodi AlleNieuwsAfbeeldingenVideo'sMapsMeer InstellingenTools Ongeveer 164.000 resultaten (0 35 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. MIJ LATER HERINNEREN NU BEKIJKEN Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen .. Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale migratie belgie illegaal persoon in huis illegaal werken in nederland illegaal verblijf niet strafbaar illegaal in nederland en trouwen anoniem melden ind vragen over immigratie hoeveel illegalen in nederland 2018 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 147.000 resultaten (0 35 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale migratie belgie illegaal persoon in huis illegaal werken in nederland illegaal verblijf niet strafbaar illegaal in nederland en trouwen anoniem melden ind vragen over immigratie geen verblijfsvergunning Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandArnhem - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 147.000 resultaten (0 35 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen .. Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale migratie belgie illegaal persoon in huis illegaal werken in nederland illegaal verblijf niet strafbaar illegaal in nederland en trouwen anoniem melden ind vragen over immigratie geen verblijfsvergunning Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandArnhem - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 161.000 resultaten (0 31 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale migratie belgie illegaal persoon in huis illegaal werken in nederland illegaal verblijf niet strafbaar illegaal in nederland en trouwen anoniem melden ind vragen over immigratie geen verblijfsvergunning Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland3972 Driebergen-Rijsenburg - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 161.000 resultaten (0 31 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen .. Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale migratie belgie illegaal persoon in huis illegaal werken in nederland illegaal verblijf niet strafbaar illegaal in nederland en trouwen anoniem melden ind vragen over immigratie geen verblijfsvergunning Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland3972 Driebergen-Rijsenburg - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -629,27 +629,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Google Zoekmodi Alle Afbeeldingen Nieuws Video's Shopping Meer Instellingen Tools Ongeveer 668.000 resultaten (0 31 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over dit resultaat Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening › abortuspil_5_-_8_ Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ing 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep Volgens de huisarts had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later Abortus als laatste redmiddel | Gezondheidsnet https://www.gezondheidsnet.nl › zwanger › abortus-als-laatste-redmiddel 8 dec. 2016 - Een abortus mag in Nederland tot 23 weken zwangerschap gerekend vanaf de eerste dag van de laatste menstruatie. 5 dagen bedenktijd is Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken duitsland abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus kosten abortus 24 weken procedure abortus 24 weken hoe gaat dat instrumentele abortus abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland Nijmegen-Midden Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Google Zoekmodi Alle Afbeeldingen Nieuws Video's Shopping Meer Instellingen Tools Ongeveer 668.000 resultaten (0 34 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. https://www.rijksoverheid.nl/ https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord › a Tot hoeveel weken kan ik een abortus laten uitvoeren Feedback Over dit resultaat Webresultaten https://www.rijksoverheid.nl/ https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot hoeveel weken kan ik een abortus laten uitvoeren Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? https://www.bloemenhove.nl/ https://www.bloemenhove.nl/www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortus 13 tot 17 weken - Uitleg over de behandeling Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. https://www.bloemenhove.nl/ https://www.bloemenhove.nl/www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn https://www.thuisarts.nl/ https://www.thuisarts.nl/www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. https://www.trouw.nl/ https://www.trouw.nl/www.trouw.nl › nieuws › bij-abortus-telt-alleen-de-moeder~be9b8150 'Bij abortus telt alléén de moeder' | Trouw 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. https://www.gezondheidsplein.nl/ https://www.gezondheidsplein.nl/www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer en hoe kun je een abortus plegen? - Dossier Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet https://fiom.nl/ https://fiom.nl/fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling De abortusbehandeling | Fiom Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een https://www.telegraaf.nl/ https://www.telegraaf.nl/www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ingreep 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep Volgens de huisarts had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later https://www.gezondheidsnet.nl/ https://www.gezondheidsnet.nl/www.gezondheidsnet.nl › zwanger › abortus-als-laatste-redmiddel Abortus als laatste redmiddel | Gezondheidsnet 8 dec. 2016 - Een abortus mag in Nederland tot 23 weken zwangerschap gerekend vanaf de eerste dag van de laatste menstruatie. 5 dagen bedenktijd is https://www.schreeuwomleven.nl/ https://www.schreeuwomleven.nl/www.schreeuwomleven.nl › abortusmethoden Abortusmethoden - Schreeuw om Leven Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken duitsland abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus kosten abortus 24 weken procedure abortus 24 weken hoe gaat dat instrumentele abortus abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland Nijmegen-Midden Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Google Zoekmodi Alle Afbeeldingen Nieuws Video's Shopping Meer Instellingen Tools Ongeveer 165.000 resultaten (0 28 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Advertenties Oorzaken Klimaatverandering | Kom Samen Met WNF In Actie‎ Advertentiewww.wwf.nl/Klimaat/Oorzaken‎ Lees hier wat WNF doet om klimaatverandering tegen te gaan en help mee! Interessen: Nieuwsbrief Donaties. Klimaatverandering | 10 feiten op een rij‎ Advertentiewww.worldanimalprotection.nl/klimaat/verandering‎ De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. We stoppen dierenleed. +50 jr actief voor dieren. Dieren horen in het wild. Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over dit resultaat Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF] Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Klimaatverandering: Oorzaak de mens? - Climategate https://www.climategate.nl › 2019/08 › klimaatverandering-oorzaak-de-me 5 aug. 2019 - Echter… er zijn wel degelijk andere oorzaken van klimaatverandering aan te wijzen waaraan de mens schuldig is en deze kunnen een Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Wat zijn de oorzaken en gevolgen van klimaatverandering https://www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland Nijmegen-Midden Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Google Zoekmodi Alle Afbeeldingen Nieuws Video's Shopping Meer Instellingen Tools Ongeveer 165.000 resultaten (0 28 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Advertentie Advertentie·www.wwf.nl/Klimaat/Oorzaken‎ Oorzaken Klimaatverandering | Kom Samen Met WNF In Actie‎ ‎ 0800 1962 Lees hier wat WNF doet om klimaatverandering tegen te gaan en help mee! Interessen: Nieuwsbrief Donaties. Thema's Lees over de belangrijkste thema's waar WWF zich voor inzet! Gebieden Bekijk hier de primaire gebieden waar WWF actief is Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. https://www.ce.nl/ https://www.ce.nl/www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE Delft Feedback Over dit resultaat Webresultaten https://www.rijksoverheid.nl/ https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Klimaatverandering en gevolgen - Rijksoverheid Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de https://www.wur.nl/ https://www.wur.nl/www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Oorzaken klimaatverandering - WUR Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. https://www.ce.nl/ PDF https://www.ce.nl/www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE Delft Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. https://ec.europa.eu/ https://ec.europa.eu/ec.europa.eu › clima › change › causes_nl Causes of climate change | Klimaat - European Commission Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van https://www.klimaat.be/ https://www.klimaat.be/www.klimaat.be › nl-be › klimaatverandering › het-klimaat Oorzaken - Klimaat.be De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig https://www.hier.nu/ https://www.hier.nu/www.hier.nu › Thema's › Klimaatwoordenboek Klimaatverandering: oorzaken en gevolgen | HIER 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot https://www.urgenda.nl/ https://www.urgenda.nl/www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › wa waarom weten we zeker dat de mens klimaatverandering Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de https://www.climategate.nl/ https://www.climategate.nl/www.climategate.nl › 2019/08 › klimaatverandering-oorzaak-de-mens Klimaatverandering: Oorzaak de mens? - Climategate 5 aug. 2019 - Echter… er zijn wel degelijk andere oorzaken van klimaatverandering aan te wijzen waaraan de mens schuldig is en deze kunnen een https://milieudefensie.nl/ https://milieudefensie.nl/milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Wat is klimaatverandering? — Milieudefensie Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens https://www.knaw.nl/ https://www.knaw.nl/www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland Nijmegen-Midden Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Google Zoekmodi Alle Afbeeldingen Nieuws Video's Shopping Meer Instellingen Tools Ongeveer 165.000 resultaten (0 28 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Advertenties Oorzaken Klimaatverandering | Kom Samen Met WNF In Actie‎ Advertentiewww.wwf.nl/Klimaat/Oorzaken‎ Lees hier wat WNF doet om klimaatverandering tegen te gaan en help mee! Interessen: Nieuwsbrief Donaties. Klimaatverandering | 10 feiten op een rij‎ Advertentiewww.worldanimalprotection.nl/klimaat/verandering‎ De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. We stoppen dierenleed. +50 jr actief voor dieren. Dieren horen in het wild. Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over dit resultaat Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF] Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Klimaatverandering: Oorzaak de mens? - Climategate https://www.climategate.nl › 2019/08 › klimaatverandering-oorzaak-de-me 5 aug. 2019 - Echter… er zijn wel degelijk andere oorzaken van klimaatverandering aan te wijzen waaraan de mens schuldig is en deze kunnen een Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Wat zijn de oorzaken en gevolgen van klimaatverandering https://www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland Nijmegen-Midden Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Google Zoekmodi Alle Afbeeldingen Maps Nieuws Video's Meer Instellingen Tools Ongeveer 139.000 resultaten (0 29 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Zoekresultaten Video's 1:06 'Hier blèft ie zwarte piet' honderd demonstranten willen geen Omroep Brabant YouTube - 14 nov. 2019 1:00 Aanhangers anti- roetveegpiet: 'Mijn zoontje moet met Zwarte Omroep Zeeland YouTube - 12 nov. 2019 95% van Nederland wil zwarte piet. Slechts 5% wil roetveegpiet GiDS.tv - 24 sep. 2019 1:47 Reportage: Wat kiest Enschede: zwarte piet of roetveegpiet 1Twente Enschede YouTube - 8 nov. 2016 3:46 Editie NL - Zwarte Piet en Roetveegpiet samen Facebook - 22 nov. 2019 Daniël Verlaan on Twitter: "Pro-Piet- mevrouw demonstreert per ongeluk als Twitter - 14 nov. 2019 48:39 Sylvana Simons: "Zwarte Piet is een ontwrichtende figuur waar we afscheid van Bastiaan Meijer GiDS.tv - 29 nov. 2019 Video: Zwarte piet of roetveegpiet? Barendrechts Dagblad - 5 okt. 2018 5:11 Brabant blijft zwarte piet trouw geen roetveegpieten in grote Omroep Brabant YouTube - 10 okt. 2018 Webresultaten https://www.ad.nl/ https://www.ad.nl/www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-rug Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl 17 nov. 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is https://www.volkskrant.nl/ https://www.volkskrant.nl/www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terrein- De roetveegpiet wint terrein al nemen veel - Volkskrant 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in https://www.trouw.nl/ https://www.trouw.nl/www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en-d Waarom Roetveegpiet er bij Sylvie en Danny niet in komt 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. https://www.nu.nl/ https://www.nu.nl/www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpiet Gemeenten kiezen vaker voor roetveegpiet maar merendeel 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in https://www.lc.nl/ https://www.lc.nl/www.lc.nl › friesland › Vermoeide-schouders-en-hoorbare-zucht-Zwa Vermoeide schouders en hoorbare zucht: Zwarte Piet of - Lc 18 nov. 2019 - Het grote Zwarte Pieten-spel is weer begonnen. De emoties over roetveegpieten en Zwarte Pieten laaiden de afgelopen dagen opnieuw op https://nos.nl/ https://nos.nl/nos.nl › Alternatieve Sintjournaals zonder roetveegpiet: 'Er is vraag 11 nov. 2019 - De pieten in het Emmer Sinterklaasjournaal zijn wel zwart geschminkt Bekijk hieronder de verandering van Zwarte Piet naar roetveegpiet:. https://eenvandaag.avrotros.nl/ https://eenvandaag.avrotros.nl/eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen Weinig draagvlak voor roetveegpieten bij landelijke intocht 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch https://www.nrc.nl/ https://www.nrc.nl/www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 Zwarte pieten willen niet meer - NRC 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet https://www.omroepbrabant.nl/ https://www.omroepbrabant.nl/www.omroepbrabant.nl › nieuws › Roetveegpiet-wint-het-op-scholen- Roetveegpiet wint het op scholen in grote steden zwarte piet 26 nov. 2019 - Uit een inventarisatie van Omroep Brabant blijkt dat in de grote steden roetveegpiet het wint van Zwarte Piet. Scholen gaan daar mee met het Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland Nijmegen-Midden Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Google Zoekmodi Alle Afbeeldingen Nieuws Video's Shopping Meer Instellingen Tools Ongeveer 165.000 resultaten (0 28 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Advertenties Oorzaken Klimaatverandering | Kom Samen Met WNF In Actie‎ Advertentiewww.wwf.nl/Klimaat/Oorzaken‎ Lees hier wat WNF doet om klimaatverandering tegen te gaan en help mee! Interessen: Nieuwsbrief Donaties. Klimaatverandering | 10 feiten op een rij‎ Advertentiewww.worldanimalprotection.nl/klimaat/verandering‎ De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. We stoppen dierenleed. +50 jr actief voor dieren. Dieren horen in het wild. Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over dit resultaat Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF] Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Klimaatverandering: Oorzaak de mens? - Climategate https://www.climategate.nl › 2019/08 › klimaatverandering-oorzaak-de-me 5 aug. 2019 - Echter… er zijn wel degelijk andere oorzaken van klimaatverandering aan te wijzen waaraan de mens schuldig is en deze kunnen een Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Wat zijn de oorzaken en gevolgen van klimaatverandering https://www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland Nijmegen-Midden Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Google Zoekmodi Alle Nieuws Afbeeldingen Shopping Maps Meer Instellingen Tools Ongeveer 41.200 resultaten (0 28 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Zoekresultaten Webresultaten https://rijksvaccinatieprogramma.nl/ https://rijksvaccinatieprogramma.nl/rijksvaccinatieprogramma.nl › vaccinaties › twijfels Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn https://www.nvkp.nl/ https://www.nvkp.nl/www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Heeft het niet vaccineren van kinderen nadelige gevolgen? Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden https://www.wanttoknow.nl/ PDF https://www.wanttoknow.nl/www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren-v De verborgen gevaren van vaccinaties - WantToKnow.nl 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' https://stichtingvaccinvrij.nl/ https://stichtingvaccinvrij.nl/stichtingvaccinvrij.nl Stichting Vaccinvrij Stichting Vaccinvrij - voor transparante voorlichting en het behoud van een vrije vaccinatiekeuze. Aanvullende informatie voor een verantwoordelijke keuze! https://www.umcutrecht.nl/ https://www.umcutrecht.nl/www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-bescher Vaccineren: jezelf en anderen beschermen - UMC Utrecht 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt https://www.thuisvaccinatie.nl/ https://www.thuisvaccinatie.nl/www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. https://www.volkskrant.nl/ https://www.volkskrant.nl/www.volkskrant.nl › nieuws-achtergrond › vaccinatieweigeraars-waaro Vaccinatieweigeraars: waarom anti-vaxxers zo veel 14 feb. 2019 - De discussie over vaccinaties loopt de laatste tijd hoog op. Wat er de gevaren zijn van een te lage vaccinatiegraad is goed te zien in deze https://www.scientias.nl/ https://www.scientias.nl/www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend Vaccineren: levensgevaarlijk of levensreddend? - Scientias 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. https://dekennisvannu.nl/ https://dekennisvannu.nl/dekennisvannu.nl › site › artikel › Veelgestelde-vragen-over-vaccineren Artikel - Veelgestelde vragen over vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. https://www.nrc.nl/ https://www.nrc.nl/www.nrc.nl › 2019/06/19 › gevaarlijke-scepsis-over-vaccins-a3964399 Waarom zijn mensen sceptisch over het nut van vaccins? - NRC 19 jun. 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme niet vaccineren forum bijwerkingen vaccinaties wat is vaccineren wetenschappelijk onderzoek vaccinaties vaccinatie debat niet vaccineren kinderdagverblijf Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland Nijmegen-Midden Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Google Zoekmodi Alle Afbeeldingen Nieuws Video's Shopping Meer Instellingen Tools Ongeveer 165.000 resultaten (0 28 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Advertenties Oorzaken Klimaatverandering | Kom Samen Met WNF In Actie‎ Advertentiewww.wwf.nl/Klimaat/Oorzaken‎ Lees hier wat WNF doet om klimaatverandering tegen te gaan en help mee! Interessen: Nieuwsbrief Donaties. Klimaatverandering | 10 feiten op een rij‎ Advertentiewww.worldanimalprotection.nl/klimaat/verandering‎ De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. We stoppen dierenleed. +50 jr actief voor dieren. Dieren horen in het wild. Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over dit resultaat Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF] Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Klimaatverandering: Oorzaak de mens? - Climategate https://www.climategate.nl › 2019/08 › klimaatverandering-oorzaak-de-me 5 aug. 2019 - Echter… er zijn wel degelijk andere oorzaken van klimaatverandering aan te wijzen waaraan de mens schuldig is en deze kunnen een Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Wat zijn de oorzaken en gevolgen van klimaatverandering https://www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland Nijmegen-Midden Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Google Zoekmodi Alle Nieuws Afbeeldingen Video's Maps Meer Instellingen Tools Ongeveer 161.000 resultaten (0 25 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Zoekresultaten Webresultaten https://nl.wikipedia.org/ https://nl.wikipedia.org/nl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie - Wikipedia Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als https://www.volkskrant.nl/ https://www.volkskrant.nl/www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenken- Nederland moet diep nadenken over de vergaande gevolgen 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt https://www.politie.nl/ https://www.politie.nl/www.politie.nl › themas › illegaliteit-vreemdelingen Illegaliteit/vreemdelingen | politie.nl Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk https://europadecentraal.nl/ https://europadecentraal.nl/europadecentraal.nl › onderwerp › migratie Migratie - Europa decentraal Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn https://www.amnesty.nl/ https://www.amnesty.nl/www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-en- Ongedocumenteerden (illegalen) en uitgeprocedeerden Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de https://decorrespondent.nl/ https://decorrespondent.nl/decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-deze Als het om illegale migranten gaat hebben deze grote 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke https://www.rijksoverheid.nl/ https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-terug Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom https://jalta.nl/ https://jalta.nl/jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-van- Bedreigt illegale migratie het voorbestaan van de EU? | Jalta 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de https://www.socialevraagstukken.nl/ https://www.socialevraagstukken.nl/www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-ogen Je kunt migratie ook met andere ogen bekijken – Sociale 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen https://www.europa-nu.nl/ https://www.europa-nu.nl/www.europa-nu.nl › europese_maatregelen_in_verband_met Europese maatregelen in verband met migratie - Europa Nu Migratieroutes naar Europa Opvang en verdelen vluchtelingen .. Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale migratie belgie illegaal persoon in huis illegaal werken in nederland illegaal verblijf niet strafbaar illegaal in nederland en trouwen anoniem melden ind vragen over immigratie geen verblijfsvergunning Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland Nijmegen-Midden Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
     </row>
@@ -659,27 +659,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Google Zoekmodi Alle Afbeeldingen Nieuws Video's Shopping Meer Instellingen Tools Ongeveer 668.000 resultaten (0 34 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. https://www.rijksoverheid.nl/ https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord › a Tot hoeveel weken kan ik een abortus laten uitvoeren Feedback Over dit resultaat Webresultaten https://www.rijksoverheid.nl/ https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot hoeveel weken kan ik een abortus laten uitvoeren Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? https://www.bloemenhove.nl/ https://www.bloemenhove.nl/www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortus 13 tot 17 weken - Uitleg over de behandeling Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. https://www.bloemenhove.nl/ https://www.bloemenhove.nl/www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn https://www.thuisarts.nl/ https://www.thuisarts.nl/www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. https://www.trouw.nl/ https://www.trouw.nl/www.trouw.nl › nieuws › bij-abortus-telt-alleen-de-moeder~be9b8150 'Bij abortus telt alléén de moeder' | Trouw 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. https://www.gezondheidsplein.nl/ https://www.gezondheidsplein.nl/www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer en hoe kun je een abortus plegen? - Dossier Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet https://fiom.nl/ https://fiom.nl/fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling De abortusbehandeling | Fiom Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een https://www.telegraaf.nl/ https://www.telegraaf.nl/www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ingreep 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep Volgens de huisarts had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later https://www.gezondheidsnet.nl/ https://www.gezondheidsnet.nl/www.gezondheidsnet.nl › zwanger › abortus-als-laatste-redmiddel Abortus als laatste redmiddel | Gezondheidsnet 8 dec. 2016 - Een abortus mag in Nederland tot 23 weken zwangerschap gerekend vanaf de eerste dag van de laatste menstruatie. 5 dagen bedenktijd is https://www.schreeuwomleven.nl/ https://www.schreeuwomleven.nl/www.schreeuwomleven.nl › abortusmethoden Abortusmethoden - Schreeuw om Leven Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken duitsland abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus kosten abortus 24 weken procedure abortus 24 weken hoe gaat dat instrumentele abortus abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland Nijmegen-Midden Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenNieuwsVideo'sShoppingMeer InstellingenTools Ongeveer 668.000 resultaten (0 32 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over dit resultaat Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening › abortuspil_5_-_8_ Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ing 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep Volgens de huisarts had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Abortus als laatste redmiddel | Gezondheidsnet https://www.gezondheidsnet.nl › zwanger › abortus-als-laatste-redmiddel 8 dec. 2016 - Een abortus mag in Nederland tot 23 weken zwangerschap gerekend vanaf de eerste dag van de laatste menstruatie. 5 dagen bedenktijd is Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken duitsland abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus kosten abortus 24 weken procedure abortus 24 weken hoe gaat dat instrumentele abortus abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6212 Maastricht - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Google Zoekmodi Alle Afbeeldingen Nieuws Video's Shopping Meer Instellingen Tools Ongeveer 165.000 resultaten (0 28 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Advertentie Advertentie·www.wwf.nl/Klimaat/Oorzaken‎ Oorzaken Klimaatverandering | Kom Samen Met WNF In Actie‎ ‎ 0800 1962 Lees hier wat WNF doet om klimaatverandering tegen te gaan en help mee! Interessen: Nieuwsbrief Donaties. Thema's Lees over de belangrijkste thema's waar WWF zich voor inzet! Gebieden Bekijk hier de primaire gebieden waar WWF actief is Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. https://www.ce.nl/ https://www.ce.nl/www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE Delft Feedback Over dit resultaat Webresultaten https://www.rijksoverheid.nl/ https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Klimaatverandering en gevolgen - Rijksoverheid Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de https://www.wur.nl/ https://www.wur.nl/www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Oorzaken klimaatverandering - WUR Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. https://www.ce.nl/ PDF https://www.ce.nl/www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE Delft Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. https://ec.europa.eu/ https://ec.europa.eu/ec.europa.eu › clima › change › causes_nl Causes of climate change | Klimaat - European Commission Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van https://www.klimaat.be/ https://www.klimaat.be/www.klimaat.be › nl-be › klimaatverandering › het-klimaat Oorzaken - Klimaat.be De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig https://www.hier.nu/ https://www.hier.nu/www.hier.nu › Thema's › Klimaatwoordenboek Klimaatverandering: oorzaken en gevolgen | HIER 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot https://www.urgenda.nl/ https://www.urgenda.nl/www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › wa waarom weten we zeker dat de mens klimaatverandering Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de https://www.climategate.nl/ https://www.climategate.nl/www.climategate.nl › 2019/08 › klimaatverandering-oorzaak-de-mens Klimaatverandering: Oorzaak de mens? - Climategate 5 aug. 2019 - Echter… er zijn wel degelijk andere oorzaken van klimaatverandering aan te wijzen waaraan de mens schuldig is en deze kunnen een https://milieudefensie.nl/ https://milieudefensie.nl/milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Wat is klimaatverandering? — Milieudefensie Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens https://www.knaw.nl/ https://www.knaw.nl/www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland Nijmegen-Midden Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenNieuwsVideo'sShoppingMeer InstellingenTools Ongeveer 165.000 resultaten (0 30 seconden) Advertenties 10 feiten over klimaatverandering | World Animal Protection ‎ Advertentiewww.worldanimalprotection.nl/‎ World Animal Protection redt dieren in nood. Bekijk wat we doen en help mee! We stoppen dierenleed. +50 jr actief voor dieren. Dieren horen in het wild. Hoe kun je helpenDieren in rampsituatiesOlifanten - geen vermaakWat doen we? Oorzaken Klimaatverandering | Kom Samen Met WNF In Actie‎ Advertentiewww.wwf.nl/Klimaat/Oorzaken‎0800 1962 Lees hier wat WNF doet om klimaatverandering tegen te gaan en help mee! Interessen: Nieuwsbrief Donaties. Onze AanpakTeken de PetitieGebiedenBedreigde Dieren Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over dit resultaat Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Klimaatverandering: Oorzaak de mens? - Climategate https://www.climategate.nl › 2019/08 › klimaatverandering-oorzaak-de-me 5 aug. 2019 - Echter… er zijn wel degelijk andere oorzaken van klimaatverandering aan te wijzen waaraan de mens schuldig is en deze kunnen een Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Wat zijn de oorzaken en gevolgen van klimaatverandering https://www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6212 Maastricht - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Google Zoekmodi Alle Afbeeldingen Maps Nieuws Video's Meer Instellingen Tools Ongeveer 139.000 resultaten (0 29 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Zoekresultaten Video's 1:06 'Hier blèft ie zwarte piet' honderd demonstranten willen geen Omroep Brabant YouTube - 14 nov. 2019 1:00 Aanhangers anti- roetveegpiet: 'Mijn zoontje moet met Zwarte Omroep Zeeland YouTube - 12 nov. 2019 95% van Nederland wil zwarte piet. Slechts 5% wil roetveegpiet GiDS.tv - 24 sep. 2019 1:47 Reportage: Wat kiest Enschede: zwarte piet of roetveegpiet 1Twente Enschede YouTube - 8 nov. 2016 3:46 Editie NL - Zwarte Piet en Roetveegpiet samen Facebook - 22 nov. 2019 Daniël Verlaan on Twitter: "Pro-Piet- mevrouw demonstreert per ongeluk als Twitter - 14 nov. 2019 48:39 Sylvana Simons: "Zwarte Piet is een ontwrichtende figuur waar we afscheid van Bastiaan Meijer GiDS.tv - 29 nov. 2019 Video: Zwarte piet of roetveegpiet? Barendrechts Dagblad - 5 okt. 2018 5:11 Brabant blijft zwarte piet trouw geen roetveegpieten in grote Omroep Brabant YouTube - 10 okt. 2018 Webresultaten https://www.ad.nl/ https://www.ad.nl/www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-rug Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl 17 nov. 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is https://www.volkskrant.nl/ https://www.volkskrant.nl/www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terrein- De roetveegpiet wint terrein al nemen veel - Volkskrant 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in https://www.trouw.nl/ https://www.trouw.nl/www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en-d Waarom Roetveegpiet er bij Sylvie en Danny niet in komt 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. https://www.nu.nl/ https://www.nu.nl/www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpiet Gemeenten kiezen vaker voor roetveegpiet maar merendeel 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in https://www.lc.nl/ https://www.lc.nl/www.lc.nl › friesland › Vermoeide-schouders-en-hoorbare-zucht-Zwa Vermoeide schouders en hoorbare zucht: Zwarte Piet of - Lc 18 nov. 2019 - Het grote Zwarte Pieten-spel is weer begonnen. De emoties over roetveegpieten en Zwarte Pieten laaiden de afgelopen dagen opnieuw op https://nos.nl/ https://nos.nl/nos.nl › Alternatieve Sintjournaals zonder roetveegpiet: 'Er is vraag 11 nov. 2019 - De pieten in het Emmer Sinterklaasjournaal zijn wel zwart geschminkt Bekijk hieronder de verandering van Zwarte Piet naar roetveegpiet:. https://eenvandaag.avrotros.nl/ https://eenvandaag.avrotros.nl/eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen Weinig draagvlak voor roetveegpieten bij landelijke intocht 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch https://www.nrc.nl/ https://www.nrc.nl/www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 Zwarte pieten willen niet meer - NRC 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet https://www.omroepbrabant.nl/ https://www.omroepbrabant.nl/www.omroepbrabant.nl › nieuws › Roetveegpiet-wint-het-op-scholen- Roetveegpiet wint het op scholen in grote steden zwarte piet 26 nov. 2019 - Uit een inventarisatie van Omroep Brabant blijkt dat in de grote steden roetveegpiet het wint van Zwarte Piet. Scholen gaan daar mee met het Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland Nijmegen-Midden Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenMapsNieuwsVideo'sMeer InstellingenTools Ongeveer 140.000 resultaten (0 40 seconden) Zoekresultaten Video's 1:06 'Hier blèft ie zwarte piet' honderd demonstranten willen geen Omroep Brabant YouTube - 14 nov. 2019 1:00 Aanhangers anti-roetveegpiet: 'Mijn zoontje moet met Zwarte Omroep Zeeland YouTube - 12 nov. 2019 95% van Nederland wil zwarte piet. Slechts 5% wil roetveegpiet GiDS.tv - 24 sep. 2019 3:46 Editie NL - Zwarte Piet en Roetveegpiet samen Facebook - 22 nov. 2019 1:47 Reportage: Wat kiest Enschede: zwarte piet of roetveegpiet 1Twente Enschede YouTube - 8 nov. 2016 Daniël Verlaan on Twitter: "Pro-Piet-mevrouw demonstreert per ongeluk als roetveegpiet omdat d'r schmink op was en het is net zo prachtig als het klinkt.… https://t.co/Mx5nfk960i" Twitter - 14 nov. 2019 48:39 Sylvana Simons: "Zwarte Piet is een ontwrichtende figuur waar we afscheid van moeten nemen" Bastiaan Meijer GiDS.tv - 29 nov. 2019 Video: Zwarte piet of roetveegpiet? Barendrechts Dagblad - 5 okt. 2018 5:11 Brabant blijft zwarte piet trouw geen roetveegpieten in grote Omroep Brabant YouTube - 10 okt. 2018 0:29 Alleen roetveegpieten bij intocht Sinterklaas GiDS.tv - 17 sep. 2019 Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Vermoeide schouders en hoorbare zucht: Zwarte Piet of - Lc https://www.lc.nl › friesland › Vermoeide-schouders-en-hoorbare-zucht-Z 18 nov. 2019 - Het grote Zwarte Pieten-spel is weer begonnen. De emoties over roetveegpieten en Zwarte Pieten laaiden de afgelopen dagen opnieuw op Alternatieve Sintjournaals zonder roetveegpiet: 'Er is vraag https://nos.nl › 11 nov. 2019 - De pieten in het Emmer Sinterklaasjournaal zijn wel zwart geschminkt Bekijk hieronder de verandering van Zwarte Piet naar roetveegpiet:. Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Roetveegpiet wint het op scholen in grote steden zwarte piet https://www.omroepbrabant.nl › nieuws › Roetveegpiet-wint-het-op-schole 26 nov. 2019 - Uit een inventarisatie van Omroep Brabant blijkt dat in de grote steden roetveegpiet het wint van Zwarte Piet. Scholen gaan daar mee met het Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6212 Maastricht - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Google Zoekmodi Alle Nieuws Afbeeldingen Shopping Maps Meer Instellingen Tools Ongeveer 41.200 resultaten (0 28 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Zoekresultaten Webresultaten https://rijksvaccinatieprogramma.nl/ https://rijksvaccinatieprogramma.nl/rijksvaccinatieprogramma.nl › vaccinaties › twijfels Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn https://www.nvkp.nl/ https://www.nvkp.nl/www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Heeft het niet vaccineren van kinderen nadelige gevolgen? Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden https://www.wanttoknow.nl/ PDF https://www.wanttoknow.nl/www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren-v De verborgen gevaren van vaccinaties - WantToKnow.nl 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' https://stichtingvaccinvrij.nl/ https://stichtingvaccinvrij.nl/stichtingvaccinvrij.nl Stichting Vaccinvrij Stichting Vaccinvrij - voor transparante voorlichting en het behoud van een vrije vaccinatiekeuze. Aanvullende informatie voor een verantwoordelijke keuze! https://www.umcutrecht.nl/ https://www.umcutrecht.nl/www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-bescher Vaccineren: jezelf en anderen beschermen - UMC Utrecht 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt https://www.thuisvaccinatie.nl/ https://www.thuisvaccinatie.nl/www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. https://www.volkskrant.nl/ https://www.volkskrant.nl/www.volkskrant.nl › nieuws-achtergrond › vaccinatieweigeraars-waaro Vaccinatieweigeraars: waarom anti-vaxxers zo veel 14 feb. 2019 - De discussie over vaccinaties loopt de laatste tijd hoog op. Wat er de gevaren zijn van een te lage vaccinatiegraad is goed te zien in deze https://www.scientias.nl/ https://www.scientias.nl/www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend Vaccineren: levensgevaarlijk of levensreddend? - Scientias 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. https://dekennisvannu.nl/ https://dekennisvannu.nl/dekennisvannu.nl › site › artikel › Veelgestelde-vragen-over-vaccineren Artikel - Veelgestelde vragen over vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. https://www.nrc.nl/ https://www.nrc.nl/www.nrc.nl › 2019/06/19 › gevaarlijke-scepsis-over-vaccins-a3964399 Waarom zijn mensen sceptisch over het nut van vaccins? - NRC 19 jun. 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme niet vaccineren forum bijwerkingen vaccinaties wat is vaccineren wetenschappelijk onderzoek vaccinaties vaccinatie debat niet vaccineren kinderdagverblijf Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland Nijmegen-Midden Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleNieuwsAfbeeldingenShoppingMapsMeer InstellingenTools Ongeveer 41.200 resultaten (0 44 seconden) Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF]De verborgen gevaren van vaccinaties - WantToKnow.nl https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Stichting Vaccinvrij - voor transparante voorlichting en het behoud van een vrije vaccinatiekeuze. Aanvullende informatie voor een verantwoordelijke keuze! Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Vaccinatieweigeraars: waarom anti-vaxxers zo veel https://www.volkskrant.nl › nieuws-achtergrond › vaccinatieweigeraars-waar 14 feb. 2019 - De discussie over vaccinaties loopt de laatste tijd hoog op. Wat er de gevaren zijn van een te lage vaccinatiegraad is goed te zien in deze Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › 2019/06/19 › gevaarlijke-scepsis-over-vaccins-a3964399 19 jun. 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te Artikel - Veelgestelde vragen over vaccineren https://dekennisvannu.nl › site › Veelgestelde-vragen-over-vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme niet vaccineren forum bijwerkingen vaccinaties wat is vaccineren wetenschappelijk onderzoek vaccinaties vaccinatie debat bmr vaccinatie gevaarlijk Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6212 Maastricht - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Inloggen Google Zoekmodi Alle Nieuws Afbeeldingen Video's Maps Meer Instellingen Tools Ongeveer 161.000 resultaten (0 25 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Mij later herinneren Nu bekijken Zoekresultaten Webresultaten https://nl.wikipedia.org/ https://nl.wikipedia.org/nl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie - Wikipedia Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als https://www.volkskrant.nl/ https://www.volkskrant.nl/www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenken- Nederland moet diep nadenken over de vergaande gevolgen 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt https://www.politie.nl/ https://www.politie.nl/www.politie.nl › themas › illegaliteit-vreemdelingen Illegaliteit/vreemdelingen | politie.nl Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk https://europadecentraal.nl/ https://europadecentraal.nl/europadecentraal.nl › onderwerp › migratie Migratie - Europa decentraal Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn https://www.amnesty.nl/ https://www.amnesty.nl/www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-en- Ongedocumenteerden (illegalen) en uitgeprocedeerden Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de https://decorrespondent.nl/ https://decorrespondent.nl/decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-deze Als het om illegale migranten gaat hebben deze grote 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke https://www.rijksoverheid.nl/ https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-terug Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom https://jalta.nl/ https://jalta.nl/jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-van- Bedreigt illegale migratie het voorbestaan van de EU? | Jalta 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de https://www.socialevraagstukken.nl/ https://www.socialevraagstukken.nl/www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-ogen Je kunt migratie ook met andere ogen bekijken – Sociale 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen https://www.europa-nu.nl/ https://www.europa-nu.nl/www.europa-nu.nl › europese_maatregelen_in_verband_met Europese maatregelen in verband met migratie - Europa Nu Migratieroutes naar Europa Opvang en verdelen vluchtelingen Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale migratie belgie illegaal persoon in huis illegaal werken in nederland illegaal verblijf niet strafbaar illegaal in nederland en trouwen anoniem melden ind vragen over immigratie geen verblijfsvergunning Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland Nijmegen-Midden Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleNieuwsAfbeeldingenVideo'sMapsMeer InstellingenTools Ongeveer 161.000 resultaten (0 28 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen .. Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale migratie belgie illegaal persoon in huis illegaal werken in nederland illegaal verblijf niet strafbaar illegaal in nederland en trouwen anoniem melden ind vragen over immigratie hoeveel illegalen in nederland 2018 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6212 Maastricht - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -689,27 +689,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenNieuwsVideo'sShoppingMeer InstellingenTools Ongeveer 668.000 resultaten (0 32 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over dit resultaat Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening › abortuspil_5_-_8_ Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ing 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep Volgens de huisarts had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Abortus als laatste redmiddel | Gezondheidsnet https://www.gezondheidsnet.nl › zwanger › abortus-als-laatste-redmiddel 8 dec. 2016 - Een abortus mag in Nederland tot 23 weken zwangerschap gerekend vanaf de eerste dag van de laatste menstruatie. 5 dagen bedenktijd is Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken duitsland abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus kosten abortus 24 weken procedure abortus 24 weken hoe gaat dat instrumentele abortus abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6212 Maastricht - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Zoekmodi Alle Afbeeldingen Nieuws Video's Shopping Meer InstellingenTools Ongeveer 676.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over dit resultaat Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening › abortuspil_5_-_8_ Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ing 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep Volgens de huisarts had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap Ontbrekend: hoeveel Abortus als laatste redmiddel | Gezondheidsnet https://www.gezondheidsnet.nl › zwanger › abortus-als-laatste-redmiddel 8 dec. 2016 - Een abortus mag in Nederland tot 23 weken zwangerschap gerekend vanaf de eerste dag van de laatste menstruatie. 5 dagen bedenktijd is Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken duitsland abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus kosten abortus 24 weken procedure abortus 24 weken hoe gaat dat instrumentele abortus abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenNieuwsVideo'sShoppingMeer InstellingenTools Ongeveer 165.000 resultaten (0 30 seconden) Advertenties 10 feiten over klimaatverandering | World Animal Protection ‎ Advertentiewww.worldanimalprotection.nl/‎ World Animal Protection redt dieren in nood. Bekijk wat we doen en help mee! We stoppen dierenleed. +50 jr actief voor dieren. Dieren horen in het wild. Hoe kun je helpenDieren in rampsituatiesOlifanten - geen vermaakWat doen we? Oorzaken Klimaatverandering | Kom Samen Met WNF In Actie‎ Advertentiewww.wwf.nl/Klimaat/Oorzaken‎0800 1962 Lees hier wat WNF doet om klimaatverandering tegen te gaan en help mee! Interessen: Nieuwsbrief Donaties. Onze AanpakTeken de PetitieGebiedenBedreigde Dieren Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over dit resultaat Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Klimaatverandering: Oorzaak de mens? - Climategate https://www.climategate.nl › 2019/08 › klimaatverandering-oorzaak-de-me 5 aug. 2019 - Echter… er zijn wel degelijk andere oorzaken van klimaatverandering aan te wijzen waaraan de mens schuldig is en deze kunnen een Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Wat zijn de oorzaken en gevolgen van klimaatverandering https://www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6212 Maastricht - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Zoekmodi Alle Afbeeldingen Nieuws Video's Shopping Meer InstellingenTools Ongeveer 179.000 resultaten (0 36 seconden) Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over dit resultaat Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF] Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Klimaatverandering: Oorzaak de mens? - Climategate https://www.climategate.nl › 2019/08 › klimaatverandering-oorzaak-de-me 5 aug. 2019 - Echter… er zijn wel degelijk andere oorzaken van klimaatverandering aan te wijzen waaraan de mens schuldig is en deze kunnen een Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Wat zijn de oorzaken en gevolgen van klimaatverandering https://www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenMapsNieuwsVideo'sMeer InstellingenTools Ongeveer 140.000 resultaten (0 40 seconden) Zoekresultaten Video's 1:06 'Hier blèft ie zwarte piet' honderd demonstranten willen geen Omroep Brabant YouTube - 14 nov. 2019 1:00 Aanhangers anti-roetveegpiet: 'Mijn zoontje moet met Zwarte Omroep Zeeland YouTube - 12 nov. 2019 95% van Nederland wil zwarte piet. Slechts 5% wil roetveegpiet GiDS.tv - 24 sep. 2019 3:46 Editie NL - Zwarte Piet en Roetveegpiet samen Facebook - 22 nov. 2019 1:47 Reportage: Wat kiest Enschede: zwarte piet of roetveegpiet 1Twente Enschede YouTube - 8 nov. 2016 Daniël Verlaan on Twitter: "Pro-Piet-mevrouw demonstreert per ongeluk als roetveegpiet omdat d'r schmink op was en het is net zo prachtig als het klinkt.… https://t.co/Mx5nfk960i" Twitter - 14 nov. 2019 48:39 Sylvana Simons: "Zwarte Piet is een ontwrichtende figuur waar we afscheid van moeten nemen" Bastiaan Meijer GiDS.tv - 29 nov. 2019 Video: Zwarte piet of roetveegpiet? Barendrechts Dagblad - 5 okt. 2018 5:11 Brabant blijft zwarte piet trouw geen roetveegpieten in grote Omroep Brabant YouTube - 10 okt. 2018 0:29 Alleen roetveegpieten bij intocht Sinterklaas GiDS.tv - 17 sep. 2019 Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Vermoeide schouders en hoorbare zucht: Zwarte Piet of - Lc https://www.lc.nl › friesland › Vermoeide-schouders-en-hoorbare-zucht-Z 18 nov. 2019 - Het grote Zwarte Pieten-spel is weer begonnen. De emoties over roetveegpieten en Zwarte Pieten laaiden de afgelopen dagen opnieuw op Alternatieve Sintjournaals zonder roetveegpiet: 'Er is vraag https://nos.nl › 11 nov. 2019 - De pieten in het Emmer Sinterklaasjournaal zijn wel zwart geschminkt Bekijk hieronder de verandering van Zwarte Piet naar roetveegpiet:. Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Roetveegpiet wint het op scholen in grote steden zwarte piet https://www.omroepbrabant.nl › nieuws › Roetveegpiet-wint-het-op-schole 26 nov. 2019 - Uit een inventarisatie van Omroep Brabant blijkt dat in de grote steden roetveegpiet het wint van Zwarte Piet. Scholen gaan daar mee met het Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6212 Maastricht - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Zoekmodi Alle Afbeeldingen Maps Nieuws Video's Meer InstellingenTools Ongeveer 125.000 resultaten (0 42 seconden) Zoekresultaten Video's 1:06 'Hier blèft ie zwarte piet' honderd demonstranten willen geen Omroep Brabant YouTube - 14 nov. 2019 1:00 Aanhangers anti-roetveegpiet: 'Mijn zoontje moet met Zwarte Omroep Zeeland YouTube - 12 nov. 2019 95% van Nederland wil zwarte piet. Slechts 5% wil roetveegpiet GiDS.tv - 24 sep. 2019 1:47 Reportage: Wat kiest Enschede: zwarte piet of roetveegpiet 1Twente Enschede YouTube - 8 nov. 2016 Daniël Verlaan on Twitter: "Pro-Piet-mevrouw demonstreert per ongeluk als roetveegpiet omdat d'r schmink op was en het is net zo prachtig als het klinkt.… https://t.co/Mx5nfk960i" Twitter - 14 nov. 2019 Video: Zwarte piet of roetveegpiet? Barendrechts Dagblad - 5 okt. 2018 1:27 Weinig vraag Roetveegpiet bij Sintcentrales Rijnmond YouTube - 1 dec. 2017 5:11 Brabant blijft zwarte piet trouw geen roetveegpieten in grote Omroep Brabant YouTube - 10 okt. 2018 1:12 Roetveegpieten zijn discriminerend Omroep PowNed YouTube - 12 nov. 2016 Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Vermoeide schouders en hoorbare zucht: Zwarte Piet of - Lc https://www.lc.nl › friesland › Vermoeide-schouders-en-hoorbare-zucht-Z 18 nov. 2019 - Het grote Zwarte Pieten-spel is weer begonnen. De emoties over roetveegpieten en Zwarte Pieten laaiden de afgelopen dagen opnieuw op Alternatieve Sintjournaals zonder roetveegpiet: 'Er is vraag https://nos.nl › 11 nov. 2019 - De pieten in het Emmer Sinterklaasjournaal zijn wel zwart geschminkt Bekijk hieronder de verandering van Zwarte Piet naar roetveegpiet:. Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Roetveegpiet wint het op scholen in grote steden zwarte piet https://www.omroepbrabant.nl › nieuws › Roetveegpiet-wint-het-op-schole 26 nov. 2019 - Uit een inventarisatie van Omroep Brabant blijkt dat in de grote steden roetveegpiet het wint van Zwarte Piet. Scholen gaan daar mee met het Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleNieuwsAfbeeldingenShoppingMapsMeer InstellingenTools Ongeveer 41.200 resultaten (0 44 seconden) Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF]De verborgen gevaren van vaccinaties - WantToKnow.nl https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Stichting Vaccinvrij - voor transparante voorlichting en het behoud van een vrije vaccinatiekeuze. Aanvullende informatie voor een verantwoordelijke keuze! Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Vaccinatieweigeraars: waarom anti-vaxxers zo veel https://www.volkskrant.nl › nieuws-achtergrond › vaccinatieweigeraars-waar 14 feb. 2019 - De discussie over vaccinaties loopt de laatste tijd hoog op. Wat er de gevaren zijn van een te lage vaccinatiegraad is goed te zien in deze Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › 2019/06/19 › gevaarlijke-scepsis-over-vaccins-a3964399 19 jun. 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te Artikel - Veelgestelde vragen over vaccineren https://dekennisvannu.nl › site › Veelgestelde-vragen-over-vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme niet vaccineren forum bijwerkingen vaccinaties wat is vaccineren wetenschappelijk onderzoek vaccinaties vaccinatie debat bmr vaccinatie gevaarlijk Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6212 Maastricht - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Zoekmodi Alle Nieuws Afbeeldingen Shopping Maps Meer InstellingenTools Ongeveer 49.500 resultaten (0 48 seconden) Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF] De verborgen gevaren van vaccinaties - WantToKnow.nl https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Stichting Vaccinvrij - voor transparante voorlichting en het behoud van een vrije vaccinatiekeuze. Aanvullende informatie voor een verantwoordelijke keuze! Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Vaccinatieweigeraars: waarom anti-vaxxers zo veel https://www.volkskrant.nl › nieuws-achtergrond › vaccinatieweigeraars-waar 14 feb. 2019 - De discussie over vaccinaties loopt de laatste tijd hoog op. Wat er de gevaren zijn van een te lage vaccinatiegraad is goed te zien in deze Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › 2019/06/19 › gevaarlijke-scepsis-over-vaccins-a3964399 19 jun. 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Artikel - Veelgestelde vragen over vaccineren https://dekennisvannu.nl › site › Veelgestelde-vragen-over-vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme niet vaccineren forum bijwerkingen vaccinaties wat is vaccineren wetenschappelijk onderzoek vaccinaties vaccinatie debat bmr vaccinatie gevaarlijk Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleNieuwsAfbeeldingenVideo'sMapsMeer InstellingenTools Ongeveer 161.000 resultaten (0 28 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale migratie belgie illegaal persoon in huis illegaal werken in nederland illegaal verblijf niet strafbaar illegaal in nederland en trouwen anoniem melden ind vragen over immigratie hoeveel illegalen in nederland 2018 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6212 Maastricht - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve"> Over deze pagina Onze systemen hebben ongebruikelijk verkeer van uw computernetwerk vastgesteld. Op deze pagina wordt gecontroleerd of de verzoeken daadwerkelijk door u worden verzonden en niet door een robot. Waarom gebeurt dit? IP-adres: 2a02:a443:9ef5:1:95ee:648:9651:c873 Tijd: 2019-12-09T19:38:19Z URL: https://www.google.nl/search?ei=y_LoXfe4JInasAfh5YTgCw&amp;q=Gevolgen+illegale+immigratie&amp;oq=Gevolgen+illegale+immigratie&amp;gs_l=psy-ab.3..0i71l8.0.0..8338 0.2..0.0.0 .0 gws-wiz.DYsr3fnwVgM&amp;ved=0ahUKEwi3yoyWvJ7mAhUJLewKHeEyAbwQ4dUDCAs&amp;uact=5 Op Chrome het volgende resultaat: Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 173.000 resultaten (0 46 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen .. Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale migratie belgie illegaal persoon in huis illegaal werken in nederland illegaal verblijf niet strafbaar illegaal in nederland en trouwen anoniem melden ind vragen over immigratie geen verblijfsvergunning Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende </t>
         </is>
       </c>
     </row>
@@ -719,27 +719,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Zoekmodi Alle Afbeeldingen Nieuws Video's Shopping Meer InstellingenTools Ongeveer 676.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over dit resultaat Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening › abortuspil_5_-_8_ Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ing 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep Volgens de huisarts had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap Ontbrekend: hoeveel Abortus als laatste redmiddel | Gezondheidsnet https://www.gezondheidsnet.nl › zwanger › abortus-als-laatste-redmiddel 8 dec. 2016 - Een abortus mag in Nederland tot 23 weken zwangerschap gerekend vanaf de eerste dag van de laatste menstruatie. 5 dagen bedenktijd is Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken duitsland abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus kosten abortus 24 weken procedure abortus 24 weken hoe gaat dat instrumentele abortus abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende</t>
+          <t xml:space="preserve">Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 430.000 results (0 40 seconds) Search Results Featured snippet from the web Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback About Featured Snippets Web results Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › vraag-en-antwoord › abo Translate this page Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening Translate this page Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening Translate this page Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › nieuws › bij-abortus-telt-alleen-d Translate this page Nov 30 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Translate this page Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-z Translate this page Mar 17 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortus Translate this page Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een Abortus | allesoverseks.be - van Sensoa https://www.allesoverseks.be › abortus Translate this page Abortus kan in België tot 12 weken na de bevruchting. Hoe gebeurt het - hoeveel kost het - waar - veiligheid - abortuspil. 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-ee Translate this page Sep 8 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep Volgens de huisarts had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later Welke manier? | Sense.info https://sense.info › zwanger › zwangerschap-afbreken Translate this page De abortuspil kun je tot 9 weken na het begin van je laatste menstruatie gebruiken. Er zijn 2 verschillende medicijnen. Op de 1ste dag van de behandeling krijg Searches related to Abortus tot hoeveel weken? tot hoeveel weken abortuspil abortus kosten abortus in nederland tot wanneer abortus nederland wat is abortus abortuspil kopen hoe werkt een abortus baby 24 weken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsNijmegen-Oost Nijmegen - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Zoekmodi Alle Afbeeldingen Nieuws Video's Shopping Meer InstellingenTools Ongeveer 179.000 resultaten (0 36 seconden) Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over dit resultaat Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF] Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Klimaatverandering: Oorzaak de mens? - Climategate https://www.climategate.nl › 2019/08 › klimaatverandering-oorzaak-de-me 5 aug. 2019 - Echter… er zijn wel degelijk andere oorzaken van klimaatverandering aan te wijzen waaraan de mens schuldig is en deze kunnen een Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Wat zijn de oorzaken en gevolgen van klimaatverandering https://www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende</t>
+          <t xml:space="preserve">Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 166.000 results (0 39 seconds) Search Results Scholarly articles for Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Cited by 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Cited by 5 Featured snippet from the web Image result for Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback About Featured Snippets Web results Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverande Translate this page Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen- Translate this page Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken - Klimaat.be https://www.klimaat.be › klimaatverandering › het-klimaat Translate this page De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Translate this page Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek Translate this page May 15 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Wat zijn de oorzaken en gevolgen van klimaatverandering https://www.knaw.nl › de-nederlandse-wetenschapsagenda Translate this page Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Translate this page Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Klimaatverandering : oorzaken - Climategate https://www.climategate.nl › 2017/10 › klimaatveranderi Translate this page Oct 30 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “Climate change: The facts 2017” uitgegeven door het Institute waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaatvragen › waa Translate this page Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is- Translate this page Jump to Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens stoot Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsNijmegen-Oost Nijmegen - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Zoekmodi Alle Afbeeldingen Maps Nieuws Video's Meer InstellingenTools Ongeveer 125.000 resultaten (0 42 seconden) Zoekresultaten Video's 1:06 'Hier blèft ie zwarte piet' honderd demonstranten willen geen Omroep Brabant YouTube - 14 nov. 2019 1:00 Aanhangers anti-roetveegpiet: 'Mijn zoontje moet met Zwarte Omroep Zeeland YouTube - 12 nov. 2019 95% van Nederland wil zwarte piet. Slechts 5% wil roetveegpiet GiDS.tv - 24 sep. 2019 1:47 Reportage: Wat kiest Enschede: zwarte piet of roetveegpiet 1Twente Enschede YouTube - 8 nov. 2016 Daniël Verlaan on Twitter: "Pro-Piet-mevrouw demonstreert per ongeluk als roetveegpiet omdat d'r schmink op was en het is net zo prachtig als het klinkt.… https://t.co/Mx5nfk960i" Twitter - 14 nov. 2019 Video: Zwarte piet of roetveegpiet? Barendrechts Dagblad - 5 okt. 2018 1:27 Weinig vraag Roetveegpiet bij Sintcentrales Rijnmond YouTube - 1 dec. 2017 5:11 Brabant blijft zwarte piet trouw geen roetveegpieten in grote Omroep Brabant YouTube - 10 okt. 2018 1:12 Roetveegpieten zijn discriminerend Omroep PowNed YouTube - 12 nov. 2016 Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Vermoeide schouders en hoorbare zucht: Zwarte Piet of - Lc https://www.lc.nl › friesland › Vermoeide-schouders-en-hoorbare-zucht-Z 18 nov. 2019 - Het grote Zwarte Pieten-spel is weer begonnen. De emoties over roetveegpieten en Zwarte Pieten laaiden de afgelopen dagen opnieuw op Alternatieve Sintjournaals zonder roetveegpiet: 'Er is vraag https://nos.nl › 11 nov. 2019 - De pieten in het Emmer Sinterklaasjournaal zijn wel zwart geschminkt Bekijk hieronder de verandering van Zwarte Piet naar roetveegpiet:. Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Roetveegpiet wint het op scholen in grote steden zwarte piet https://www.omroepbrabant.nl › nieuws › Roetveegpiet-wint-het-op-schole 26 nov. 2019 - Uit een inventarisatie van Omroep Brabant blijkt dat in de grote steden roetveegpiet het wint van Zwarte Piet. Scholen gaan daar mee met het Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende</t>
+          <t xml:space="preserve">Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 119.000 results (0 42 seconds) Search Results Videos 1:06 'Hier blèft ie zwarte piet' honderd demonstranten willen geen Omroep Brabant YouTube - Nov 14 2019 1:00 Aanhangers anti- roetveegpiet: 'Mijn zoontje moet met Zwarte Omroep Zeeland YouTube - Nov 12 2019 95% van Nederland wil zwarte piet. Slechts 5% wil roetveegpiet GiDS.tv - Sep 24 2019 3:46 Editie NL - Zwarte Piet en Roetveegpiet samen Facebook - Nov 22 2019 Daniël Verlaan on Twitter: "Pro-Piet- mevrouw demonstreert per ongeluk als roetveegpiet omdat d'r schmink op was en het is net zo prachtig als het klinkt.… https://t.co/Mx5nfk960i" Twitter - Nov 14 2019 1:47 Reportage: Wat kiest Enschede: zwarte piet of roetveegpiet 1Twente Enschede YouTube - Nov 8 2016 Video: Zwarte piet of roetveegpiet? Barendrechts Dagblad - Oct 5 2018 1:45 NH Nieuws-panel is pietendiscussie zat: hulpsint stopt ermee NH Nieuws YouTube - Nov 7 2018 Preview 5:11 Brabant blijft zwarte piet trouw geen roetveegpieten in grote Omroep Brabant YouTube - Oct 10 2018 Liesje on Twitter: "ze zijn ook tegen roetveegpiet… " Twitter - Nov 7 2018 Web results Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte- Translate this page Nov 17 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-ro - Translate this page Nov 15 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpi Translate this page Nov 16 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vak Translate this page Nov 15 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Vermoeide schouders en hoorbare zucht: Zwarte Piet of - Lc https://www.lc.nl › friesland › Vermoeide-schouders-en- Translate this page Nov 18 2019 - Het grote Zwarte Pieten-spel is weer begonnen. De emoties over roetveegpieten en Zwarte Pieten laaiden de afgelopen dagen opnieuw op Alternatieve Sintjournaals zonder roetveegpiet: 'Er is vraag https://nos.nl › Translate this page Nov 11 2019 - De pieten in het Emmer Sinterklaasjournaal zijn wel zwart geschminkt Bekijk hieronder de verandering van Zwarte Piet naar roetveegpiet:. Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › › Alle uitslagen Translate this page Nov 14 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Zwarte pieten willen niet meer - NRC https://www.nrc.nl › nieuws › 2019/11/07 › de-pieten-l - Translate this page Nov 7 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Roetveegpiet wint het op scholen in grote steden zwarte piet https://www.omroepbrabant.nl › nieuws › Roetveegpiet- Translate this page Nov 26 2019 - Uit een inventarisatie van Omroep Brabant blijkt dat in de grote steden roetveegpiet het wint van Zwarte Piet. Scholen gaan daar mee met het Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsNijmegen-Oost Nijmegen - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Zoekmodi Alle Nieuws Afbeeldingen Shopping Maps Meer InstellingenTools Ongeveer 49.500 resultaten (0 48 seconden) Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF] De verborgen gevaren van vaccinaties - WantToKnow.nl https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Stichting Vaccinvrij - voor transparante voorlichting en het behoud van een vrije vaccinatiekeuze. Aanvullende informatie voor een verantwoordelijke keuze! Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Vaccinatieweigeraars: waarom anti-vaxxers zo veel https://www.volkskrant.nl › nieuws-achtergrond › vaccinatieweigeraars-waar 14 feb. 2019 - De discussie over vaccinaties loopt de laatste tijd hoog op. Wat er de gevaren zijn van een te lage vaccinatiegraad is goed te zien in deze Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › 2019/06/19 › gevaarlijke-scepsis-over-vaccins-a3964399 19 jun. 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Artikel - Veelgestelde vragen over vaccineren https://dekennisvannu.nl › site › Veelgestelde-vragen-over-vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme niet vaccineren forum bijwerkingen vaccinaties wat is vaccineren wetenschappelijk onderzoek vaccinaties vaccinatie debat bmr vaccinatie gevaarlijk Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende</t>
+          <t xml:space="preserve">Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 111.000 results (0 45 seconds) Search Results Vaccinatie risico Een kind dat niet gevaccineerd is is onvoldoende beschermd tegen de gevaarlijke infectieziekten. Het risico dat het kind de bewuste infectieziekte krijgt is groter als het kind deel uitmaakt van een niet-gevaccineerde hechte gemeenschap. Vaccineren beschermt dus niet alleen een individu maar ook de hele bevolking. Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Search for: Vaccinatie risico Feedback About Featured Snippets Web results Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels Translate this page Jun 17 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma Translate this page Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF]De verborgen gevaren van vaccinaties - WantToKnow.nl https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren Jul 1 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Translate this page Stichting Vaccinvrij - voor transparante voorlichting en het behoud van een vrije vaccinatiekeuze. Aanvullende informatie voor een verantwoordelijke keuze! Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerking Translate this page Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. Janneke Bazelmans: 'Over nadelen vaccinatie wordt veelal https://www.volkskrant.nl › columns-opinie › janneke-b - Translate this page Jul 22 2013 - In de discussie omtrent vaccinaties mist het standpunt van een hun eigen kinderen maar ook de kinderen van anderen in gevaar brengen. Vaccinatieweigeraars: waarom anti-vaxxers zo veel https://www.volkskrant.nl › nieuws-achtergrond › vacci - Translate this page Feb 14 2019 - De discussie over vaccinaties loopt de laatste tijd hoog op. Wat er de gevaren zijn van een te lage vaccinatiegraad is goed te zien in deze Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › nieuws › 2019/06/19 › gevaarlijke- - Translate this page Jun 19 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-le Translate this page Jan 15 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf Translate this page May 3 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Searches related to Gevaren vaccinaties tegen vaccinatie stichting vaccinvrij nadelen vaccinatie vaccineren verplicht vaccinatie autisme betoog vaccinatie wat is vaccinatie rijksvaccinatieprogramma Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsNijmegen-Oost Nijmegen - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Over deze pagina Onze systemen hebben ongebruikelijk verkeer van uw computernetwerk vastgesteld. Op deze pagina wordt gecontroleerd of de verzoeken daadwerkelijk door u worden verzonden en niet door een robot. Waarom gebeurt dit? IP-adres: 2a02:a443:9ef5:1:95ee:648:9651:c873 Tijd: 2019-12-09T19:38:19Z URL: https://www.google.nl/search?ei=y_LoXfe4JInasAfh5YTgCw&amp;q=Gevolgen+illegale+immigratie&amp;oq=Gevolgen+illegale+immigratie&amp;gs_l=psy-ab.3 0i71l8.0.0 8338 0.2 0.0.0 .0 gws-wiz.DYsr3fnwVgM&amp;ved=0ahUKEwi3yoyWvJ7mAhUJLewKHeEyAbwQ4dUDCAs&amp;uact=5 Op Chrome het volgende resultaat: Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 173.000 resultaten (0 46 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale migratie belgie illegaal persoon in huis illegaal werken in nederland illegaal verblijf niet strafbaar illegaal in nederland en trouwen anoniem melden ind vragen over immigratie geen verblijfsvergunning Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende</t>
+          <t xml:space="preserve">Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 129.000 results (0 36 seconds) Search Results Web results Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Translate this page Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdeling Translate this page Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland - Translate this page Oct 23 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Translate this page Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocument Translate this page Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-h Translate this page Jun 7 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migrante Translate this page Oct 9 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-o Translate this page Nov 15 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-ill Translate this page Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_v Translate this page De immigranten uit de laatste categorie zullen dan eerlijk over de lidstaten worden voor de terugkeer van illegaal verblijvende derdelanders (herschikking). Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsNijmegen-Oost Nijmegen - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms </t>
         </is>
       </c>
     </row>
@@ -749,27 +749,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 430.000 results (0 40 seconds) Search Results Featured snippet from the web Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback About Featured Snippets Web results Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › vraag-en-antwoord › abo Translate this page Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening Translate this page Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening Translate this page Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › nieuws › bij-abortus-telt-alleen-d Translate this page Nov 30 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Translate this page Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-z Translate this page Mar 17 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortus Translate this page Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een Abortus | allesoverseks.be - van Sensoa https://www.allesoverseks.be › abortus Translate this page Abortus kan in België tot 12 weken na de bevruchting. Hoe gebeurt het - hoeveel kost het - waar - veiligheid - abortuspil. 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-ee Translate this page Sep 8 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep Volgens de huisarts had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later Welke manier? | Sense.info https://sense.info › zwanger › zwangerschap-afbreken Translate this page De abortuspil kun je tot 9 weken na het begin van je laatste menstruatie gebruiken. Er zijn 2 verschillende medicijnen. Op de 1ste dag van de behandeling krijg Searches related to Abortus tot hoeveel weken? tot hoeveel weken abortuspil abortus kosten abortus in nederland tot wanneer abortus nederland wat is abortus abortuspil kopen hoe werkt een abortus baby 24 weken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsNijmegen-Oost Nijmegen - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Abortus tot hoeveel weken? About 430.000 results (0 40 seconds) Search Results Featured snippet from the web Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback About Featured Snippets Web results Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › vraag-en-antwoord › abo Translate this page Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening Translate this page Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening Translate this page Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › nieuws › bij-abortus-telt-alleen-d Translate this page Nov 30 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Translate this page Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-z Translate this page Mar 17 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortus Translate this page Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een Abortus | allesoverseks.be - van Sensoa https://www.allesoverseks.be › abortus Translate this page Abortus kan in België tot 12 weken na de bevruchting. Hoe gebeurt het - hoeveel kost het - waar - veiligheid - abortuspil. 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-ee Translate this page Sep 8 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep Volgens de huisarts had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later Welke manier? | Sense.info https://sense.info › zwanger › zwangerschap-afbreken Translate this page De abortuspil kun je tot 9 weken na het begin van je laatste menstruatie gebruiken. Er zijn 2 verschillende medicijnen. Op de 1ste dag van de behandeling krijg Searches related to Abortus tot hoeveel weken? tot hoeveel weken abortuspil abortus kosten abortus in nederland tot wanneer abortus nederland wat is abortus abortuspil kopen hoe werkt een abortus baby 24 weken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6524 AG Nijmegen - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 166.000 results (0 39 seconds) Search Results Scholarly articles for Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Cited by 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Cited by 5 Featured snippet from the web Image result for Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback About Featured Snippets Web results Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverande Translate this page Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen- Translate this page Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken - Klimaat.be https://www.klimaat.be › klimaatverandering › het-klimaat Translate this page De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Translate this page Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek Translate this page May 15 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Wat zijn de oorzaken en gevolgen van klimaatverandering https://www.knaw.nl › de-nederlandse-wetenschapsagenda Translate this page Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Translate this page Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Klimaatverandering : oorzaken - Climategate https://www.climategate.nl › 2017/10 › klimaatveranderi Translate this page Oct 30 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “Climate change: The facts 2017” uitgegeven door het Institute waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaatvragen › waa Translate this page Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is- Translate this page Jump to Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens stoot Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsNijmegen-Oost Nijmegen - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Oorzaken klimaatverandering Ongeveer 177.000 resultaten (0 33 seconden) Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over dit resultaat Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Klimaatverandering: Oorzaak de mens? - Climategate https://www.climategate.nl › 2019/08 › klimaatverandering-oorzaak-de-me 5 aug. 2019 - Echter… er zijn wel degelijk andere oorzaken van klimaatverandering aan te wijzen waaraan de mens schuldig is en deze kunnen een Klimaatverandering : oorzaken - Climategate https://www.climategate.nl › 2017/10 › klimaatverandering-oorzaken 30 okt. 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “Climate change: The facts 2017” uitgegeven door het Institute Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6524 AG Nijmegen - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 119.000 results (0 42 seconds) Search Results Videos 1:06 'Hier blèft ie zwarte piet' honderd demonstranten willen geen Omroep Brabant YouTube - Nov 14 2019 1:00 Aanhangers anti- roetveegpiet: 'Mijn zoontje moet met Zwarte Omroep Zeeland YouTube - Nov 12 2019 95% van Nederland wil zwarte piet. Slechts 5% wil roetveegpiet GiDS.tv - Sep 24 2019 3:46 Editie NL - Zwarte Piet en Roetveegpiet samen Facebook - Nov 22 2019 Daniël Verlaan on Twitter: "Pro-Piet- mevrouw demonstreert per ongeluk als roetveegpiet omdat d'r schmink op was en het is net zo prachtig als het klinkt.… https://t.co/Mx5nfk960i" Twitter - Nov 14 2019 1:47 Reportage: Wat kiest Enschede: zwarte piet of roetveegpiet 1Twente Enschede YouTube - Nov 8 2016 Video: Zwarte piet of roetveegpiet? Barendrechts Dagblad - Oct 5 2018 1:45 NH Nieuws-panel is pietendiscussie zat: hulpsint stopt ermee NH Nieuws YouTube - Nov 7 2018 Preview 5:11 Brabant blijft zwarte piet trouw geen roetveegpieten in grote Omroep Brabant YouTube - Oct 10 2018 Liesje on Twitter: "ze zijn ook tegen roetveegpiet… " Twitter - Nov 7 2018 Web results Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte- Translate this page Nov 17 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-ro - Translate this page Nov 15 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpi Translate this page Nov 16 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vak Translate this page Nov 15 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Vermoeide schouders en hoorbare zucht: Zwarte Piet of - Lc https://www.lc.nl › friesland › Vermoeide-schouders-en- Translate this page Nov 18 2019 - Het grote Zwarte Pieten-spel is weer begonnen. De emoties over roetveegpieten en Zwarte Pieten laaiden de afgelopen dagen opnieuw op Alternatieve Sintjournaals zonder roetveegpiet: 'Er is vraag https://nos.nl › Translate this page Nov 11 2019 - De pieten in het Emmer Sinterklaasjournaal zijn wel zwart geschminkt Bekijk hieronder de verandering van Zwarte Piet naar roetveegpiet:. Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › › Alle uitslagen Translate this page Nov 14 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Zwarte pieten willen niet meer - NRC https://www.nrc.nl › nieuws › 2019/11/07 › de-pieten-l - Translate this page Nov 7 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Roetveegpiet wint het op scholen in grote steden zwarte piet https://www.omroepbrabant.nl › nieuws › Roetveegpiet- Translate this page Nov 26 2019 - Uit een inventarisatie van Omroep Brabant blijkt dat in de grote steden roetveegpiet het wint van Zwarte Piet. Scholen gaan daar mee met het Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsNijmegen-Oost Nijmegen - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zwarte piet of roetveegpiet? Ongeveer 114.000 resultaten (0 42 seconden) Zoekresultaten Video's 1:06 'Hier blèft ie zwarte piet' honderd demonstranten willen geen Omroep Brabant YouTube - 14 nov. 2019 1:00 Aanhangers anti-roetveegpiet: 'Mijn zoontje moet met Zwarte Omroep Zeeland YouTube - 12 nov. 2019 95% van Nederland wil zwarte piet. Slechts 5% wil roetveegpiet GiDS.tv - 24 sep. 2019 1:47 Reportage: Wat kiest Enschede: zwarte piet of roetveegpiet 1Twente Enschede YouTube - 8 nov. 2016 3:46 Editie NL - Zwarte Piet en Roetveegpiet samen Facebook - 22 nov. 2019 Daniël Verlaan on Twitter: "Pro-Piet-mevrouw demonstreert per ongeluk als roetveegpiet omdat d'r schmink op was en het is net zo prachtig als het klinkt.… https://t.co/Mx5nfk960i" Twitter - 14 nov. 2019 Video: Zwarte piet of roetveegpiet? Barendrechts Dagblad - 5 okt. 2018 VOORBEELD 5:11 Brabant blijft zwarte piet trouw geen roetveegpieten in grote Omroep Brabant YouTube - 10 okt. 2018 Liesje on Twitter: "ze zijn ook tegen roetveegpiet… " Twitter - 7 nov. 2018 Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Vermoeide schouders en hoorbare zucht: Zwarte Piet of - Lc https://www.lc.nl › friesland › Vermoeide-schouders-en-hoorbare-zucht-Z 18 nov. 2019 - Het grote Zwarte Pieten-spel is weer begonnen. De emoties over roetveegpieten en Zwarte Pieten laaiden de afgelopen dagen opnieuw op Alternatieve Sintjournaals zonder roetveegpiet: 'Er is vraag https://nos.nl › 11 nov. 2019 - De pieten in het Emmer Sinterklaasjournaal zijn wel zwart geschminkt Bekijk hieronder de verandering van Zwarte Piet naar roetveegpiet:. Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Roetveegpiet wint het op scholen in grote steden zwarte piet https://www.omroepbrabant.nl › nieuws › Roetveegpiet-wint-het-op-schole 26 nov. 2019 - Uit een inventarisatie van Omroep Brabant blijkt dat in de grote steden roetveegpiet het wint van Zwarte Piet. Scholen gaan daar mee met het Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6524 AG Nijmegen - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 111.000 results (0 45 seconds) Search Results Vaccinatie risico Een kind dat niet gevaccineerd is is onvoldoende beschermd tegen de gevaarlijke infectieziekten. Het risico dat het kind de bewuste infectieziekte krijgt is groter als het kind deel uitmaakt van een niet-gevaccineerde hechte gemeenschap. Vaccineren beschermt dus niet alleen een individu maar ook de hele bevolking. Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Search for: Vaccinatie risico Feedback About Featured Snippets Web results Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels Translate this page Jun 17 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma Translate this page Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF]De verborgen gevaren van vaccinaties - WantToKnow.nl https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren Jul 1 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Translate this page Stichting Vaccinvrij - voor transparante voorlichting en het behoud van een vrije vaccinatiekeuze. Aanvullende informatie voor een verantwoordelijke keuze! Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerking Translate this page Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. Janneke Bazelmans: 'Over nadelen vaccinatie wordt veelal https://www.volkskrant.nl › columns-opinie › janneke-b - Translate this page Jul 22 2013 - In de discussie omtrent vaccinaties mist het standpunt van een hun eigen kinderen maar ook de kinderen van anderen in gevaar brengen. Vaccinatieweigeraars: waarom anti-vaxxers zo veel https://www.volkskrant.nl › nieuws-achtergrond › vacci - Translate this page Feb 14 2019 - De discussie over vaccinaties loopt de laatste tijd hoog op. Wat er de gevaren zijn van een te lage vaccinatiegraad is goed te zien in deze Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › nieuws › 2019/06/19 › gevaarlijke- - Translate this page Jun 19 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-le Translate this page Jan 15 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf Translate this page May 3 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Searches related to Gevaren vaccinaties tegen vaccinatie stichting vaccinvrij nadelen vaccinatie vaccineren verplicht vaccinatie autisme betoog vaccinatie wat is vaccinatie rijksvaccinatieprogramma Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsNijmegen-Oost Nijmegen - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevaren vaccinaties Ongeveer 42.500 resultaten (0 62 seconden) Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF]De verborgen gevaren van vaccinaties - WantToKnow.nl https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Stichting Vaccinvrij - voor transparante voorlichting en het behoud van een vrije vaccinatiekeuze. Aanvullende informatie voor een verantwoordelijke keuze! Je hebt deze pagina 2 keer bezocht. Laatste bezoek: 16-2-19 Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. Vaccinatieweigeraars: waarom anti-vaxxers zo veel https://www.volkskrant.nl › nieuws-achtergrond › vaccinatieweigeraars-waar 14 feb. 2019 - De discussie over vaccinaties loopt de laatste tijd hoog op. Wat er de gevaren zijn van een te lage vaccinatiegraad is goed te zien in deze Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › 2019/06/19 › gevaarlijke-scepsis-over-vaccins-a3964399 19 jun. 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Artikel - Veelgestelde vragen over vaccineren https://dekennisvannu.nl › site › Veelgestelde-vragen-over-vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme niet vaccineren forum bijwerkingen vaccinaties wat is vaccineren wetenschappelijk onderzoek vaccinaties vaccinatie debat niet vaccineren kinderdagverblijf Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6524 AG Nijmegen - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main content Accessibility help Accessibility feedback Google About 129.000 results (0 36 seconds) Search Results Web results Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Translate this page Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdeling Translate this page Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland - Translate this page Oct 23 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Translate this page Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocument Translate this page Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-h Translate this page Jun 7 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migrante Translate this page Oct 9 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-o Translate this page Nov 15 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-ill Translate this page Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_v Translate this page De immigranten uit de laatste categorie zullen dan eerlijk over de lidstaten worden voor de terugkeer van illegaal verblijvende derdelanders (herschikking). Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsNijmegen-Oost Nijmegen - Based on your past activity - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 135.000 resultaten (0 47 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen .. Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale migratie belgie illegaal persoon in huis illegaal werken in nederland illegaal verblijf niet strafbaar illegaal in nederland en trouwen anoniem melden ind vragen over immigratie geen verblijfsvergunning Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6524 AG Nijmegen - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -779,27 +779,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Abortus tot hoeveel weken? About 430.000 results (0 40 seconds) Search Results Featured snippet from the web Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback About Featured Snippets Web results Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › vraag-en-antwoord › abo Translate this page Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening Translate this page Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening Translate this page Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › nieuws › bij-abortus-telt-alleen-d Translate this page Nov 30 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Translate this page Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-z Translate this page Mar 17 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortus Translate this page Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een Abortus | allesoverseks.be - van Sensoa https://www.allesoverseks.be › abortus Translate this page Abortus kan in België tot 12 weken na de bevruchting. Hoe gebeurt het - hoeveel kost het - waar - veiligheid - abortuspil. 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-ee Translate this page Sep 8 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep Volgens de huisarts had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later Welke manier? | Sense.info https://sense.info › zwanger › zwangerschap-afbreken Translate this page De abortuspil kun je tot 9 weken na het begin van je laatste menstruatie gebruiken. Er zijn 2 verschillende medicijnen. Op de 1ste dag van de behandeling krijg Searches related to Abortus tot hoeveel weken? tot hoeveel weken abortuspil abortus kosten abortus in nederland tot wanneer abortus nederland wat is abortus abortuspil kopen hoe werkt een abortus baby 24 weken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands6524 AG Nijmegen - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Search modes AllImagesVideosNewsMapsMore SettingsTools About 486.000 results (0 40 seconds) Search Results Featured snippet from the web Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback About Featured Snippets Web results Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › vraag-en-antwoord › abo Translate this page Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening Translate this page Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening Translate this page Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › nieuws › bij-abortus-telt-alleen-d Translate this page Nov 30 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Translate this page Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-z Translate this page Mar 17 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortus Translate this page Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een Abortus | allesoverseks.be - van Sensoa https://www.allesoverseks.be › abortus Translate this page Abortus kan in België tot 12 weken na de bevruchting. Hoe gebeurt het - hoeveel kost het - waar - veiligheid - abortuspil. 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abor Translate this page Jan 23 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap Missing: hoeveel ‎| ‎Must include: ‎hoeveel 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-ee Translate this page Sep 8 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep Volgens de huisarts had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later Searches related to Abortus tot hoeveel weken? tot hoeveel weken abortuspil abortus kosten abortus in nederland tot wanneer abortus nederland wat is abortus abortuspil kopen hoe werkt een abortus foetus 24 weken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsZeist - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Oorzaken klimaatverandering Ongeveer 177.000 resultaten (0 33 seconden) Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over dit resultaat Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Klimaatverandering: Oorzaak de mens? - Climategate https://www.climategate.nl › 2019/08 › klimaatverandering-oorzaak-de-me 5 aug. 2019 - Echter… er zijn wel degelijk andere oorzaken van klimaatverandering aan te wijzen waaraan de mens schuldig is en deze kunnen een Klimaatverandering : oorzaken - Climategate https://www.climategate.nl › 2017/10 › klimaatverandering-oorzaken 30 okt. 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “Climate change: The facts 2017” uitgegeven door het Institute Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6524 AG Nijmegen - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Search modes AllImagesNewsVideosShoppingMore SettingsTools About 181.000 results (0 36 seconds) Ads 10 feiten op een rij over | Klimaatverandering‎ Adwww.worldanimalprotection.nl/klimaat/verandering‎ Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. We stoppen dierenleed. Dieren horen in het wild. +50 jr actief voor dieren. Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ Adwww.klimaatplein.com/klimaat/verandering‎073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. Verduurzamen bedrijf. Inzicht in besparing. Besparing energieverbruik. CO2 neutraal ondernemen. Services: SDE+ EIA MIA VAMIL. Wat is klimaatveranderingEnergiebesparingSubsidiewijzerEnergiebewust Ondernemen Search Results Scholarly articles for Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Cited by 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Cited by 5 Featured snippet from the web Image result for Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback About Featured Snippets Web results Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverande Translate this page Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen- Translate this page Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken - Klimaat.be https://www.klimaat.be › klimaatverandering › het-klimaat Translate this page De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Translate this page Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek Translate this page May 15 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Translate this page Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Wat zijn de oorzaken en gevolgen van klimaatverandering https://www.knaw.nl › de-nederlandse-wetenschapsagenda Translate this page Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Klimaatverandering : oorzaken - Climategate https://www.climategate.nl › 2017/10 › klimaatveranderi Translate this page Oct 30 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “ Climate change: The facts 2017” uitgegeven door het Institute waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaatvragen › waa Translate this page Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Wat is klimaatverandering? Wat zijn de oorzaken - LNE.be https://www.lne.be › wat-is-klimaatverandering Translate this page Op de website www.klimaat.be vind je meer uitleg i.vm. klimaatverandering: In het kort Het klimaat Klimaatverandering Oorzaken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsZeist - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zwarte piet of roetveegpiet? Ongeveer 114.000 resultaten (0 42 seconden) Zoekresultaten Video's 1:06 'Hier blèft ie zwarte piet' honderd demonstranten willen geen Omroep Brabant YouTube - 14 nov. 2019 1:00 Aanhangers anti-roetveegpiet: 'Mijn zoontje moet met Zwarte Omroep Zeeland YouTube - 12 nov. 2019 95% van Nederland wil zwarte piet. Slechts 5% wil roetveegpiet GiDS.tv - 24 sep. 2019 1:47 Reportage: Wat kiest Enschede: zwarte piet of roetveegpiet 1Twente Enschede YouTube - 8 nov. 2016 3:46 Editie NL - Zwarte Piet en Roetveegpiet samen Facebook - 22 nov. 2019 Daniël Verlaan on Twitter: "Pro-Piet-mevrouw demonstreert per ongeluk als roetveegpiet omdat d'r schmink op was en het is net zo prachtig als het klinkt.… https://t.co/Mx5nfk960i" Twitter - 14 nov. 2019 Video: Zwarte piet of roetveegpiet? Barendrechts Dagblad - 5 okt. 2018 VOORBEELD 5:11 Brabant blijft zwarte piet trouw geen roetveegpieten in grote Omroep Brabant YouTube - 10 okt. 2018 Liesje on Twitter: "ze zijn ook tegen roetveegpiet… " Twitter - 7 nov. 2018 Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Vermoeide schouders en hoorbare zucht: Zwarte Piet of - Lc https://www.lc.nl › friesland › Vermoeide-schouders-en-hoorbare-zucht-Z 18 nov. 2019 - Het grote Zwarte Pieten-spel is weer begonnen. De emoties over roetveegpieten en Zwarte Pieten laaiden de afgelopen dagen opnieuw op Alternatieve Sintjournaals zonder roetveegpiet: 'Er is vraag https://nos.nl › 11 nov. 2019 - De pieten in het Emmer Sinterklaasjournaal zijn wel zwart geschminkt Bekijk hieronder de verandering van Zwarte Piet naar roetveegpiet:. Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Roetveegpiet wint het op scholen in grote steden zwarte piet https://www.omroepbrabant.nl › nieuws › Roetveegpiet-wint-het-op-schole 26 nov. 2019 - Uit een inventarisatie van Omroep Brabant blijkt dat in de grote steden roetveegpiet het wint van Zwarte Piet. Scholen gaan daar mee met het Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6524 AG Nijmegen - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Search modes AllImagesMapsVideosNewsMore SettingsTools About 101.000 results (0 34 seconds) Search Results Web results Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte- Translate this page Nov 17 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-ro - Translate this page Nov 15 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpi Translate this page Nov 16 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vak Translate this page Nov 15 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Vermoeide schouders en hoorbare zucht: Zwarte Piet of - Lc https://www.lc.nl › friesland › Vermoeide-schouders-en- Translate this page Nov 18 2019 - Het grote Zwarte Pieten-spel is weer begonnen. De emoties over roetveegpieten en Zwarte Pieten laaiden de afgelopen dagen opnieuw op Zwarte pieten willen niet meer - NRC https://www.nrc.nl › nieuws › 2019/11/07 › de-pieten-l - Translate this page Nov 7 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Vooral zwarte pieten bij lokale intocht maar 'wenpiet' rukt op https://www.rtlnieuws.nl › editienl › artikel › zwart-roet Translate this page Nov 8 2019 - Bij 65 procent van de lokale intochten zijn de pieten helemaal zwart. Dat blijkt uit onderzoek Maar de roetveegpiet rukt overal in het land op. Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › › Alle uitslagen Translate this page Nov 14 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Annie Rijken uit Eindhoven 'Als ik roetveegpiet moet worden https://www.ed.nl › eindhoven › annie-rijken-uit-eindho Translate this page Nov 16 2019 - videoEINDHOVEN - Roetveegpiet worden? Annie Rijken peinst er niet over. Zwarte Piet is een kindervriend. Wat is daar op tegen? Voor wie Gemeenteraad: "Zwarte Piet vs Roetveegpiet" houvanarnhem.nl › gemeenteraad-zwarte-piet-vs-roetve Translate this page Onlangs gaf D66-raadslid Susan van Ommen haar mening over Zwarte Piet. Wij zijn tegen roetveegpiet capituleren aan het gedram van een kleine groep Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsZeist - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevaren vaccinaties Ongeveer 42.500 resultaten (0 62 seconden) Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF]De verborgen gevaren van vaccinaties - WantToKnow.nl https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Stichting Vaccinvrij - voor transparante voorlichting en het behoud van een vrije vaccinatiekeuze. Aanvullende informatie voor een verantwoordelijke keuze! Je hebt deze pagina 2 keer bezocht. Laatste bezoek: 16-2-19 Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. Vaccinatieweigeraars: waarom anti-vaxxers zo veel https://www.volkskrant.nl › nieuws-achtergrond › vaccinatieweigeraars-waar 14 feb. 2019 - De discussie over vaccinaties loopt de laatste tijd hoog op. Wat er de gevaren zijn van een te lage vaccinatiegraad is goed te zien in deze Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › 2019/06/19 › gevaarlijke-scepsis-over-vaccins-a3964399 19 jun. 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Artikel - Veelgestelde vragen over vaccineren https://dekennisvannu.nl › site › Veelgestelde-vragen-over-vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme niet vaccineren forum bijwerkingen vaccinaties wat is vaccineren wetenschappelijk onderzoek vaccinaties vaccinatie debat niet vaccineren kinderdagverblijf Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6524 AG Nijmegen - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Search modes AllImagesNewsMapsShoppingMore SettingsTools About 125.000 results (0 39 seconds) Search Results Vaccinatie risico Een kind dat niet gevaccineerd is is onvoldoende beschermd tegen de gevaarlijke infectieziekten. Het risico dat het kind de bewuste infectieziekte krijgt is groter als het kind deel uitmaakt van een niet-gevaccineerde hechte gemeenschap. Vaccineren beschermt dus niet alleen een individu maar ook de hele bevolking. Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Search for: Vaccinatie risico Feedback About Featured Snippets Web results Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels Translate this page Jun 17 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma Translate this page Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF]De verborgen gevaren van vaccinaties - WantToKnow.nl https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren Jul 1 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Translate this page Stichting Vaccinvrij - voor transparante voorlichting en het behoud van een vrije vaccinatiekeuze. Aanvullende informatie voor een verantwoordelijke keuze! Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerking Translate this page Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-le Translate this page Jan 15 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › nieuws › 2019/06/19 › gevaarlijke- - Translate this page Jun 19 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te Janneke Bazelmans: 'Over nadelen vaccinatie wordt veelal https://www.volkskrant.nl › columns-opinie › janneke-b - Translate this page Jul 22 2013 - Ouders die geen fervente tegenstanders van vaccinaties zijn maar kritisch kinderen maar ook de kinderen van anderen in gevaar brengen. Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf Translate this page May 3 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Gevaren van vaccinaties | Mens en Gezondheid: Diversen https://mens-en-gezondheid.infonu.nl › diversen › 1422 Translate this page Oct 9 2014 - Maar een steeds groter deel van de vaccinatieweigeraars zijn zich bewust geworden van de gevaren van vaccinaties. Het eerste vaccin Searches related to Gevaren vaccinaties tegen vaccinatie stichting vaccinvrij vaccineren verplicht nadelen vaccinatie betoog vaccinatie vaccinatie autisme wat is vaccinatie bmr vaccinatie Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsZeist - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 135.000 resultaten (0 47 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale migratie belgie illegaal persoon in huis illegaal werken in nederland illegaal verblijf niet strafbaar illegaal in nederland en trouwen anoniem melden ind vragen over immigratie geen verblijfsvergunning Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6524 AG Nijmegen - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Search modes AllNewsImagesVideosMapsMore SettingsTools About 152.000 results (0 37 seconds) Including results for Gevolgen illegale migratie Search only for Gevolgen illegale immigratie Search Results Web results Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Translate this page Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland - Translate this page Oct 23 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdeling Translate this page Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-h Translate this page Jun 7 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migrante Translate this page Oct 9 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-ill Translate this page Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-o Translate this page Nov 15 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_v Translate this page De immigranten uit de laatste categorie zullen dan eerlijk over de lidstaten worden voor de terugkeer van illegaal verblijvende derdelanders (herschikking ). Inreisverbod terugkeerbesluit en ongewenstverklaring - IND ind.nl › Paginas › Inreisverbod-terugkeerbesluit-en-ong Translate this page Wat zijn de gevolgen van een inreisverbod? Hebt u een inreisverbod? Dan mag u Immigratie- en Naturalisatiedienst Titel en Identiteit Postbus 10 ​9560 AA Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Translate this page Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsZeist - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
     </row>
@@ -809,27 +809,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Search modes AllImagesVideosNewsMapsMore SettingsTools About 486.000 results (0 40 seconds) Search Results Featured snippet from the web Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback About Featured Snippets Web results Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › vraag-en-antwoord › abo Translate this page Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening Translate this page Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening Translate this page Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › nieuws › bij-abortus-telt-alleen-d Translate this page Nov 30 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Translate this page Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-z Translate this page Mar 17 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortus Translate this page Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een Abortus | allesoverseks.be - van Sensoa https://www.allesoverseks.be › abortus Translate this page Abortus kan in België tot 12 weken na de bevruchting. Hoe gebeurt het - hoeveel kost het - waar - veiligheid - abortuspil. 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abor Translate this page Jan 23 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap Missing: hoeveel ‎| ‎Must include: ‎hoeveel 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-ee Translate this page Sep 8 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep Volgens de huisarts had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later Searches related to Abortus tot hoeveel weken? tot hoeveel weken abortuspil abortus kosten abortus in nederland tot wanneer abortus nederland wat is abortus abortuspil kopen hoe werkt een abortus foetus 24 weken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsZeist - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t xml:space="preserve">Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening › abortuspil_5_-_8_ Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Abortus als laatste redmiddel | Gezondheidsnet https://www.gezondheidsnet.nl › zwanger › abortus-als-laatste-redmiddel 8 dec. 2016 - Een abortus mag in Nederland tot 23 weken zwangerschap gerekend vanaf de eerste dag van de laatste menstruatie. 5 dagen bedenktijd is </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Search modes AllImagesNewsVideosShoppingMore SettingsTools About 181.000 results (0 36 seconds) Ads 10 feiten op een rij over | Klimaatverandering‎ Adwww.worldanimalprotection.nl/klimaat/verandering‎ Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. We stoppen dierenleed. Dieren horen in het wild. +50 jr actief voor dieren. Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ Adwww.klimaatplein.com/klimaat/verandering‎073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. Verduurzamen bedrijf. Inzicht in besparing. Besparing energieverbruik. CO2 neutraal ondernemen. Services: SDE+ EIA MIA VAMIL. Wat is klimaatveranderingEnergiebesparingSubsidiewijzerEnergiebewust Ondernemen Search Results Scholarly articles for Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Cited by 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Cited by 5 Featured snippet from the web Image result for Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback About Featured Snippets Web results Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverande Translate this page Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen- Translate this page Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken - Klimaat.be https://www.klimaat.be › klimaatverandering › het-klimaat Translate this page De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Translate this page Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek Translate this page May 15 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Translate this page Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Wat zijn de oorzaken en gevolgen van klimaatverandering https://www.knaw.nl › de-nederlandse-wetenschapsagenda Translate this page Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Klimaatverandering : oorzaken - Climategate https://www.climategate.nl › 2017/10 › klimaatveranderi Translate this page Oct 30 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “ Climate change: The facts 2017” uitgegeven door het Institute waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaatvragen › waa Translate this page Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Wat is klimaatverandering? Wat zijn de oorzaken - LNE.be https://www.lne.be › wat-is-klimaatverandering Translate this page Op de website www.klimaat.be vind je meer uitleg i.vm. klimaatverandering: In het kort Het klimaat Klimaatverandering Oorzaken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsZeist - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t xml:space="preserve"> Oorzaken Klimaatverandering? | Meer informatie op WNF.nl‎ Advertentiewww.wwf.nl/Klimaat/Oorzaken‎ 0800 1962 WNF zet zich in tegen klimaatverandering. Lees meer en kom in actie met WNF! Thema's · Onze Aanpak · Stop plastic · Gebieden Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ Advertentiewww.klimaatplein.com/klimaat/verandering‎ 073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. Inzicht in besparing. CO2 neutraal ondernemen. Besparing energieverbruik. Verduurzamen bedrijf. Services: SDE+ EIA MIA VAMIL. Wat is klimaatverandering · Zelf Energie Opwekken · Energie Besparen Op ICT Klimaatverandering | 10 feiten op een rij‎ Advertentiewww.worldanimalprotection.nl/klimaat/verandering‎ De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. +50 jr actief voor dieren. Dieren horen in het wild. We stoppen dierenleed. Klimaatverandering &amp; Armoede | Wat moet er veranderen?‎ Advertentiewww.oxfamnovib.nl/Klimaat/Verandering‎ Beoordeling voor oxfamnovib.nl: 4 6 - 696 reviews Wat zijn de maatregelen om klimaatverandering tegen te gaan? Ontdek wat jij kunt doen. Met jouw hulp kunnen wij vechten tegen klimaatverandering. Help je mee? Wereldwijde steun. Lees wat jij kunt doen. Steun Oxfam Novib. Ook jij kunt helpen. Maak het verschil. Noodhulp · Veelgestelde vragen · Onze projecten · Alle vacatures · Eindejaarsquiz · Contact Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over dit resultaat Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF] Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Klimaatverandering: Oorzaak de mens? - Climategate https://www.climategate.nl › 2019/08 › klimaatverandering-oorzaak-de-me 5 aug. 2019 - Echter… er zijn wel degelijk andere oorzaken van klimaatverandering aan te wijzen waaraan de mens schuldig is en deze kunnen een Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Klimaatverandering: oorzaken en effecten | Compendium voor https://www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Search modes AllImagesMapsVideosNewsMore SettingsTools About 101.000 results (0 34 seconds) Search Results Web results Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte- Translate this page Nov 17 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-ro - Translate this page Nov 15 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpi Translate this page Nov 16 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vak Translate this page Nov 15 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Vermoeide schouders en hoorbare zucht: Zwarte Piet of - Lc https://www.lc.nl › friesland › Vermoeide-schouders-en- Translate this page Nov 18 2019 - Het grote Zwarte Pieten-spel is weer begonnen. De emoties over roetveegpieten en Zwarte Pieten laaiden de afgelopen dagen opnieuw op Zwarte pieten willen niet meer - NRC https://www.nrc.nl › nieuws › 2019/11/07 › de-pieten-l - Translate this page Nov 7 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Vooral zwarte pieten bij lokale intocht maar 'wenpiet' rukt op https://www.rtlnieuws.nl › editienl › artikel › zwart-roet Translate this page Nov 8 2019 - Bij 65 procent van de lokale intochten zijn de pieten helemaal zwart. Dat blijkt uit onderzoek Maar de roetveegpiet rukt overal in het land op. Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › › Alle uitslagen Translate this page Nov 14 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Annie Rijken uit Eindhoven 'Als ik roetveegpiet moet worden https://www.ed.nl › eindhoven › annie-rijken-uit-eindho Translate this page Nov 16 2019 - videoEINDHOVEN - Roetveegpiet worden? Annie Rijken peinst er niet over. Zwarte Piet is een kindervriend. Wat is daar op tegen? Voor wie Gemeenteraad: "Zwarte Piet vs Roetveegpiet" houvanarnhem.nl › gemeenteraad-zwarte-piet-vs-roetve Translate this page Onlangs gaf D66-raadslid Susan van Ommen haar mening over Zwarte Piet. Wij zijn tegen roetveegpiet capituleren aan het gedram van een kleine groep Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsZeist - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t xml:space="preserve"> Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo https://www.ad.nl › rotterdam › regio-ziet-niets-in-roetveegpiet-bij-ons-blij 8 nov. 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Vermoeide schouders en hoorbare zucht: Zwarte Piet of - Lc https://www.lc.nl › friesland › Vermoeide-schouders-en-hoorbare-zucht-Z 18 nov. 2019 - Het grote Zwarte Pieten-spel is weer begonnen. De emoties over roetveegpieten en Zwarte Pieten laaiden de afgelopen dagen opnieuw op Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Roetveegpiet wint het op scholen in grote steden zwarte piet https://www.omroepbrabant.nl › nieuws › Roetveegpiet-wint-het-op-schole 26 nov. 2019 - Uit een inventarisatie van Omroep Brabant blijkt dat in de grote steden roetveegpiet het wint van Zwarte Piet. Scholen gaan daar mee met het Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Annie Rijken uit Eindhoven 'Als ik roetveegpiet moet worden https://www.ed.nl › eindhoven › annie-rijken-uit-eindhoven-als-ik-roetvee 16 nov. 2019 - videoEINDHOVEN - Roetveegpiet worden? Annie Rijken peinst er niet over. Zwarte Piet is een kindervriend. Wat is daar op tegen? Voor wie </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Search modes AllImagesNewsMapsShoppingMore SettingsTools About 125.000 results (0 39 seconds) Search Results Vaccinatie risico Een kind dat niet gevaccineerd is is onvoldoende beschermd tegen de gevaarlijke infectieziekten. Het risico dat het kind de bewuste infectieziekte krijgt is groter als het kind deel uitmaakt van een niet-gevaccineerde hechte gemeenschap. Vaccineren beschermt dus niet alleen een individu maar ook de hele bevolking. Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Search for: Vaccinatie risico Feedback About Featured Snippets Web results Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels Translate this page Jun 17 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma Translate this page Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF]De verborgen gevaren van vaccinaties - WantToKnow.nl https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren Jul 1 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Translate this page Stichting Vaccinvrij - voor transparante voorlichting en het behoud van een vrije vaccinatiekeuze. Aanvullende informatie voor een verantwoordelijke keuze! Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerking Translate this page Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-le Translate this page Jan 15 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › nieuws › 2019/06/19 › gevaarlijke- - Translate this page Jun 19 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te Janneke Bazelmans: 'Over nadelen vaccinatie wordt veelal https://www.volkskrant.nl › columns-opinie › janneke-b - Translate this page Jul 22 2013 - Ouders die geen fervente tegenstanders van vaccinaties zijn maar kritisch kinderen maar ook de kinderen van anderen in gevaar brengen. Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf Translate this page May 3 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Gevaren van vaccinaties | Mens en Gezondheid: Diversen https://mens-en-gezondheid.infonu.nl › diversen › 1422 Translate this page Oct 9 2014 - Maar een steeds groter deel van de vaccinatieweigeraars zijn zich bewust geworden van de gevaren van vaccinaties. Het eerste vaccin Searches related to Gevaren vaccinaties tegen vaccinatie stichting vaccinvrij vaccineren verplicht nadelen vaccinatie betoog vaccinatie vaccinatie autisme wat is vaccinatie bmr vaccinatie Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsZeist - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t xml:space="preserve"> Vaccinaties: vergoedingen 2020 | Vergelijk dekking &amp; vergoeding‎ Advertentiewww.independer.nl/vaccinaties/vergoeding‎ Vergelijk wat zorgverzekeraars vergoeden voor vaccinaties in 2020. De voorwaarden voor de vergoeding zijn per vaccinatie verschillend. 7 dagen p/w bereikbaar. Bellen mailen óf appen. Klantwaardering: 9.1. #1 vergelijker van NL. Typen: Zorgverzekering Basisverzekering. Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ Advertentiewww.npofocus.nl/Vaccineren‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. Weet meer. NPO Focus. Verdieping. Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF] De verborgen gevaren van vaccinaties - WantToKnow.nl https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Stichting Vaccinvrij - voor transparante voorlichting en het behoud van een vrije vaccinatiekeuze. Aanvullende informatie voor een verantwoordelijke keuze! Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › 2019/06/19 › gevaarlijke-scepsis-over-vaccins-a3964399 19 jun. 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt VACCINATIES PER LAND I GGDREISVACCINATIES https://www.ggdreisvaccinaties.nl › heb-ik-een-vaccinatie-nodig Voor welk land heeft u vaccinaties nodig? Dat verschilt per land. In de landenzoeker kunt u vinden of u vaccinaties of inentingen nodig heeft voor uw reis. Artikel - Veelgestelde vragen over vaccineren https://dekennisvannu.nl › site › Veelgestelde-vragen-over-vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Search modes AllNewsImagesVideosMapsMore SettingsTools About 152.000 results (0 37 seconds) Including results for Gevolgen illegale migratie Search only for Gevolgen illegale immigratie Search Results Web results Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Translate this page Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland - Translate this page Oct 23 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdeling Translate this page Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-h Translate this page Jun 7 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migrante Translate this page Oct 9 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-ill Translate this page Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-o Translate this page Nov 15 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_v Translate this page De immigranten uit de laatste categorie zullen dan eerlijk over de lidstaten worden voor de terugkeer van illegaal verblijvende derdelanders (herschikking ). Inreisverbod terugkeerbesluit en ongewenstverklaring - IND ind.nl › Paginas › Inreisverbod-terugkeerbesluit-en-ong Translate this page Wat zijn de gevolgen van een inreisverbod? Hebt u een inreisverbod? Dan mag u Immigratie- en Naturalisatiedienst Titel en Identiteit Postbus 10 ​9560 AA Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Translate this page Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsZeist - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t xml:space="preserve"> Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen .. Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen </t>
         </is>
       </c>
     </row>
@@ -839,27 +839,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening › abortuspil_5_-_8_ Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Abortus als laatste redmiddel | Gezondheidsnet https://www.gezondheidsnet.nl › zwanger › abortus-als-laatste-redmiddel 8 dec. 2016 - Een abortus mag in Nederland tot 23 weken zwangerschap gerekend vanaf de eerste dag van de laatste menstruatie. 5 dagen bedenktijd is</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Abortus tot hoeveel weken? Ongeveer 674.000 resultaten (0 52 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over dit resultaat Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening › abortuspil_5_-_8_ Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Abortus als laatste redmiddel | Gezondheidsnet https://www.gezondheidsnet.nl › zwanger › abortus-als-laatste-redmiddel 8 dec. 2016 - Een abortus mag in Nederland tot 23 weken zwangerschap gerekend vanaf de eerste dag van de laatste menstruatie. 5 dagen bedenktijd is Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken duitsland abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus kosten abortus 24 weken procedure abortus 24 weken hoe gaat dat instrumentele abortus abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNijmegen - Uit je locatiegeschiedenis - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Oorzaken Klimaatverandering? | Meer informatie op WNF.nl‎ Advertentiewww.wwf.nl/Klimaat/Oorzaken‎ 0800 1962 WNF zet zich in tegen klimaatverandering. Lees meer en kom in actie met WNF! Thema's · Onze Aanpak · Stop plastic · Gebieden Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ Advertentiewww.klimaatplein.com/klimaat/verandering‎ 073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. Inzicht in besparing. CO2 neutraal ondernemen. Besparing energieverbruik. Verduurzamen bedrijf. Services: SDE+ EIA MIA VAMIL. Wat is klimaatverandering · Zelf Energie Opwekken · Energie Besparen Op ICT Klimaatverandering | 10 feiten op een rij‎ Advertentiewww.worldanimalprotection.nl/klimaat/verandering‎ De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. +50 jr actief voor dieren. Dieren horen in het wild. We stoppen dierenleed. Klimaatverandering &amp; Armoede | Wat moet er veranderen?‎ Advertentiewww.oxfamnovib.nl/Klimaat/Verandering‎ Beoordeling voor oxfamnovib.nl: 4 6 - 696 reviews Wat zijn de maatregelen om klimaatverandering tegen te gaan? Ontdek wat jij kunt doen. Met jouw hulp kunnen wij vechten tegen klimaatverandering. Help je mee? Wereldwijde steun. Lees wat jij kunt doen. Steun Oxfam Novib. Ook jij kunt helpen. Maak het verschil. Noodhulp · Veelgestelde vragen · Onze projecten · Alle vacatures · Eindejaarsquiz · Contact Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over dit resultaat Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF] Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Klimaatverandering: Oorzaak de mens? - Climategate https://www.climategate.nl › 2019/08 › klimaatverandering-oorzaak-de-me 5 aug. 2019 - Echter… er zijn wel degelijk andere oorzaken van klimaatverandering aan te wijzen waaraan de mens schuldig is en deze kunnen een Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Klimaatverandering: oorzaken en effecten | Compendium voor https://www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Oorzaken klimaatverandering Ongeveer 161.000 resultaten (0 36 seconden) Advertenties Oorzaken Klimaatverandering | Kom Samen Met WNF In Actie‎ Advertentiewww.wwf.nl/Klimaat/Oorzaken‎0800 1962 Lees hier wat WNF doet om klimaatverandering tegen te gaan en help mee! Interessen: Nieuwsbrief Donaties. Gebieden Bekijk hier de primaire gebieden waar WWF actief is Teken de Petitie Voor een zee zonder palstic. Teken hier. Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ Advertentiewww.klimaatplein.com/klimaat/verandering‎073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. Inzicht in besparing. CO2 neutraal ondernemen. Besparing energieverbruik. Verduurzamen bedrijf. Services: SDE+ EIA MIA VAMIL. Wat is klimaatveranderingEnergiebesparingEnergie Besparen Op ICTDuurzame Energie Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over dit resultaat Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Klimaatverandering: Oorzaak de mens? - Climategate https://www.climategate.nl › 2019/08 › klimaatverandering-oorzaak-de-me 5 aug. 2019 - Echter… er zijn wel degelijk andere oorzaken van klimaatverandering aan te wijzen waaraan de mens schuldig is en deze kunnen een Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Klimaatverandering: oorzaken en effecten | Compendium voor https://www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNijmegen-Midden Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo https://www.ad.nl › rotterdam › regio-ziet-niets-in-roetveegpiet-bij-ons-blij 8 nov. 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Vermoeide schouders en hoorbare zucht: Zwarte Piet of - Lc https://www.lc.nl › friesland › Vermoeide-schouders-en-hoorbare-zucht-Z 18 nov. 2019 - Het grote Zwarte Pieten-spel is weer begonnen. De emoties over roetveegpieten en Zwarte Pieten laaiden de afgelopen dagen opnieuw op Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Roetveegpiet wint het op scholen in grote steden zwarte piet https://www.omroepbrabant.nl › nieuws › Roetveegpiet-wint-het-op-schole 26 nov. 2019 - Uit een inventarisatie van Omroep Brabant blijkt dat in de grote steden roetveegpiet het wint van Zwarte Piet. Scholen gaan daar mee met het Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Annie Rijken uit Eindhoven 'Als ik roetveegpiet moet worden https://www.ed.nl › eindhoven › annie-rijken-uit-eindhoven-als-ik-roetvee 16 nov. 2019 - videoEINDHOVEN - Roetveegpiet worden? Annie Rijken peinst er niet over. Zwarte Piet is een kindervriend. Wat is daar op tegen? Voor wie</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zwarte piet of roetveegpiet? Ongeveer 99.500 resultaten (0 47 seconden) Zoekresultaten Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Vermoeide schouders en hoorbare zucht: Zwarte Piet of - Lc https://www.lc.nl › friesland › Vermoeide-schouders-en-hoorbare-zucht-Z 18 nov. 2019 - Het grote Zwarte Pieten-spel is weer begonnen. De emoties over roetveegpieten en Zwarte Pieten laaiden de afgelopen dagen opnieuw op Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Roetveegpiet wint het op scholen in grote steden zwarte piet https://www.omroepbrabant.nl › nieuws › Roetveegpiet-wint-het-op-schole 26 nov. 2019 - Uit een inventarisatie van Omroep Brabant blijkt dat in de grote steden roetveegpiet het wint van Zwarte Piet. Scholen gaan daar mee met het Wie goed kijkt ziet in Zwolle afscheid Zwarte Piet naderen https://www.destentor.nl › zwolle › wie-goed-kijkt-ziet-in-zwolle-afscheid- 23 nov. 2019 - De roetveegpiet nieuw dit jaar bij de intocht in de Zwolse binnenstad. De zwarte-pietendiscussie lijkt verstomd in de Zwolse binnenstad Kijk Nou: Pro-Piet demonstreert onbedoeld als roetveegpiet https://joop.bnnvara.nl › kijk-nou › pro-piet-demonstreert-onbedoeld-als-r 14 nov. 2019 - Tijdens een demonstratie in Den Bosch voor het behoud van de racistische kenmerken van Zwarte Piet heeft een demonstrant per ongeluk Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNijmegen-Midden Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Vaccinaties: vergoedingen 2020 | Vergelijk dekking &amp; vergoeding‎ Advertentiewww.independer.nl/vaccinaties/vergoeding‎ Vergelijk wat zorgverzekeraars vergoeden voor vaccinaties in 2020. De voorwaarden voor de vergoeding zijn per vaccinatie verschillend. 7 dagen p/w bereikbaar. Bellen mailen óf appen. Klantwaardering: 9.1. #1 vergelijker van NL. Typen: Zorgverzekering Basisverzekering. Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ Advertentiewww.npofocus.nl/Vaccineren‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. Weet meer. NPO Focus. Verdieping. Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF] De verborgen gevaren van vaccinaties - WantToKnow.nl https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Stichting Vaccinvrij - voor transparante voorlichting en het behoud van een vrije vaccinatiekeuze. Aanvullende informatie voor een verantwoordelijke keuze! Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › 2019/06/19 › gevaarlijke-scepsis-over-vaccins-a3964399 19 jun. 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt VACCINATIES PER LAND I GGDREISVACCINATIES https://www.ggdreisvaccinaties.nl › heb-ik-een-vaccinatie-nodig Voor welk land heeft u vaccinaties nodig? Dat verschilt per land. In de landenzoeker kunt u vinden of u vaccinaties of inentingen nodig heeft voor uw reis. Artikel - Veelgestelde vragen over vaccineren https://dekennisvannu.nl › site › Veelgestelde-vragen-over-vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins.</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevaren vaccinaties Ongeveer 39.000 resultaten (0 44 seconden) Advertentie Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ Advertentiewww.npofocus.nl/Vaccineren‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. Verdieping. NPO Focus. Weet meer. Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF]De verborgen gevaren van vaccinaties - WantToKnow https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Veel mensen willen hun kinderen niet laten vaccineren. Daar is een reden voor. Denk mee denk na. Wij vaccineren niet! Trailer. Nederlands ondertiteld Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › 2019/06/19 › gevaarlijke-scepsis-over-vaccins-a3964399 19 jun. 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Artikel - Veelgestelde vragen over vaccineren https://dekennisvannu.nl › site › Veelgestelde-vragen-over-vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. VACCINATIES PER LAND I GGDREISVACCINATIES https://www.ggdreisvaccinaties.nl › heb-ik-een-vaccinatie-nodig Voor welk land heeft u vaccinaties nodig? Dat verschilt per land. In de landenzoeker kunt u vinden of u vaccinaties of inentingen nodig heeft voor uw reis. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme bijwerkingen vaccinaties niet vaccineren forum wat is vaccineren wetenschappelijk onderzoek vaccinaties vaccinatie debat bmr vaccinatie gevaarlijk Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNijmegen-Midden Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 163.000 resultaten (0 49 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen .. Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale migratie belgie illegaal persoon in huis illegaal werken in nederland anoniem melden ind vragen over immigratie geen verblijfsvergunning illegaal verblijf niet strafbaar illegalen opsporen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNijmegen-Midden Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -869,27 +869,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Abortus tot hoeveel weken? Ongeveer 674.000 resultaten (0 48 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over dit resultaat Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening › abortuspil_5_-_8_ Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ing 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep Volgens de huisarts had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken duitsland abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus kosten abortus 24 weken procedure abortus 24 weken hoe gaat dat instrumentele abortus abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandOost Utrecht - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 616.000 resultaten (0 25 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over dit resultaat Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening › abortuspil_5_-_8_ Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap Abortus als laatste redmiddel | Gezondheidsnet https://www.gezondheidsnet.nl › zwanger › abortus-als-laatste-redmiddel 8 dec. 2016 - Een abortus mag in Nederland tot 23 weken zwangerschap gerekend vanaf de eerste dag van de laatste menstruatie. 5 dagen bedenktijd is Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie abortus tot hoeveel weken duitsland tot hoeveel weken abortuspil abortus kosten abortus 24 weken procedure abortus tot wanneer abortus 24 weken hoe gaat dat instrumentele abortus Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandMaastricht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Oorzaken klimaatverandering Ongeveer 165.000 resultaten (0 38 seconden) Advertentie Oorzaken Klimaatverandering | Kom Samen Met WNF In Actie‎ Advertentiewww.wwf.nl/Klimaat/Oorzaken‎0800 1962 Lees hier wat WNF doet om klimaatverandering tegen te gaan en help mee! Interessen: Nieuwsbrief Donaties. Thema'sOnze AanpakTeken de PetitieGebieden Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over dit resultaat Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Klimaatverandering: Oorzaak de mens? - Climategate https://www.climategate.nl › 2019/08 › klimaatverandering-oorzaak-de-me 5 aug. 2019 - Echter… er zijn wel degelijk andere oorzaken van klimaatverandering aan te wijzen waaraan de mens schuldig is en deze kunnen een Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Klimaatverandering: oorzaken en effecten | Compendium voor https://www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandOost Utrecht - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 183.000 resultaten (0 33 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over dit resultaat Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: Oorzaak de mens? - Climategate https://www.climategate.nl › 2019/08 › klimaatverandering-oorzaak-de-me 5 aug. 2019 - Echter… er zijn wel degelijk andere oorzaken van klimaatverandering aan te wijzen waaraan de mens schuldig is en deze kunnen een Klimaatverandering : oorzaken - Climategate https://www.climategate.nl › 2017/10 › klimaatverandering-oorzaken 30 okt. 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “Climate change: The facts 2017” uitgegeven door het Institute waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandMaastricht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zwarte piet of roetveegpiet? Ongeveer 99.800 resultaten (0 36 seconden) Zoekresultaten Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo https://www.ad.nl › rotterdam › regio-ziet-niets-in-roetveegpiet-bij-ons-blij 8 nov. 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Vermoeide schouders en hoorbare zucht: Zwarte Piet of - Lc https://www.lc.nl › friesland › Vermoeide-schouders-en-hoorbare-zucht-Z 18 nov. 2019 - Het grote Zwarte Pieten-spel is weer begonnen. De emoties over roetveegpieten en Zwarte Pieten laaiden de afgelopen dagen opnieuw op Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Wie goed kijkt ziet in Zwolle afscheid Zwarte Piet naderen https://www.destentor.nl › zwolle › wie-goed-kijkt-ziet-in-zwolle-afscheid- 23 nov. 2019 - De roetveegpiet nieuw dit jaar bij de intocht in de Zwolse binnenstad. De zwarte-pietendiscussie lijkt verstomd in de Zwolse binnenstad Annie Rijken uit Eindhoven 'Als ik roetveegpiet moet worden https://www.ed.nl › eindhoven › annie-rijken-uit-eindhoven-als-ik-roetvee 16 nov. 2019 - videoEINDHOVEN - Roetveegpiet worden? Annie Rijken peinst er niet over. Zwarte Piet is een kindervriend. Wat is daar op tegen? Voor wie Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandOost Utrecht - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 103.000 resultaten (0 60 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Samenvatting van internet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet Feedback Over dit resultaat Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Gemeenteraad: "Zwarte Piet vs Roetveegpiet" houvanarnhem.nl › gemeenteraad-zwarte-piet-vs-roetveegpiet Onlangs gaf D66-raadslid Susan van Ommen haar mening over Zwarte Piet. Wij zijn tegen roetveegpiet capituleren aan het gedram van een kleine groep Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch 5 meningen over Zwarte Piet: van 'niet aanpassen' tot https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Vijf leden van het Opiniepanel vertellen hoe zij denken over Zwarte Piet. 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Alternatieve Sintjournaals zonder roetveegpiet: 'Er is vraag https://nos.nl › 11 nov. 2019 - De pieten in het Emmer Sinterklaasjournaal zijn wel zwart geschminkt Bekijk hieronder de verandering van Zwarte Piet naar roetveegpiet:. Annie Rijken uit Eindhoven 'Als ik roetveegpiet moet worden https://www.ed.nl › eindhoven › annie-rijken-uit-eindhoven-als-ik-roetvee 16 nov. 2019 - videoEINDHOVEN - Roetveegpiet worden? Annie Rijken peinst er niet over. Zwarte Piet is een kindervriend. Wat is daar op tegen? Voor wie Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie zwarte piet geschiedenis roetveegpiet schminken kick out zwarte piet roetveegpiet amsterdam roetveegpiet tekening zwarte piet voorstander zwarte pieten discussie 2018 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandMaastricht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zwarte piet of roetveegpiet? Ongeveer 99.800 resultaten (0 36 seconden) Zoekresultaten Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo https://www.ad.nl › rotterdam › regio-ziet-niets-in-roetveegpiet-bij-ons-blij 8 nov. 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Vermoeide schouders en hoorbare zucht: Zwarte Piet of - Lc https://www.lc.nl › friesland › Vermoeide-schouders-en-hoorbare-zucht-Z 18 nov. 2019 - Het grote Zwarte Pieten-spel is weer begonnen. De emoties over roetveegpieten en Zwarte Pieten laaiden de afgelopen dagen opnieuw op Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Wie goed kijkt ziet in Zwolle afscheid Zwarte Piet naderen https://www.destentor.nl › zwolle › wie-goed-kijkt-ziet-in-zwolle-afscheid- 23 nov. 2019 - De roetveegpiet nieuw dit jaar bij de intocht in de Zwolse binnenstad. De zwarte-pietendiscussie lijkt verstomd in de Zwolse binnenstad Annie Rijken uit Eindhoven 'Als ik roetveegpiet moet worden https://www.ed.nl › eindhoven › annie-rijken-uit-eindhoven-als-ik-roetvee 16 nov. 2019 - videoEINDHOVEN - Roetveegpiet worden? Annie Rijken peinst er niet over. Zwarte Piet is een kindervriend. Wat is daar op tegen? Voor wie Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandOost Utrecht - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 39.400 resultaten (0 41 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF]De verborgen gevaren van vaccinaties - WantToKnow https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Wij vaccineren niet! Trailer Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › 2019/06/19 › gevaarlijke-scepsis-over-vaccins-a3964399 19 jun. 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Artikel - Veelgestelde vragen over vaccineren https://dekennisvannu.nl › site › Veelgestelde-vragen-over-vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. Janneke Bazelmans: 'Over nadelen vaccinatie wordt veelal https://www.volkskrant.nl › columns-opinie › janneke-bazelmans-over-nadel 22 jul. 2013 - In de discussie omtrent vaccinaties mist het standpunt van een hun eigen kinderen maar ook de kinderen van anderen in gevaar brengen. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme bijwerkingen vaccinaties niet vaccineren forum wat is vaccineren vaccinatie debat bmr vaccinatie gevaarlijk niet vaccineren kinderdagverblijf Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandMaastricht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 164.000 resultaten (0 39 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale migratie belgie illegaal persoon in huis illegaal werken in nederland anoniem melden ind vragen over immigratie geen verblijfsvergunning illegalen opsporen illegaal verblijf niet strafbaar Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandOost Utrecht - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 154.000 resultaten (0 43 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen .. Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegale migratie illegaal persoon in huis mexicaanse migratie opvang illegale vluchtelingen anoniem melden ind illegaal werken in nederland hoeveel mexicanen in de vs Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandMaastricht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
     </row>
@@ -899,27 +899,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Abortus tot hoeveel weken? Ongeveer 674.000 resultaten (0 52 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over dit resultaat Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening › abortuspil_5_-_8_ Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Abortus als laatste redmiddel | Gezondheidsnet https://www.gezondheidsnet.nl › zwanger › abortus-als-laatste-redmiddel 8 dec. 2016 - Een abortus mag in Nederland tot 23 weken zwangerschap gerekend vanaf de eerste dag van de laatste menstruatie. 5 dagen bedenktijd is Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken duitsland abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus kosten abortus 24 weken procedure abortus 24 weken hoe gaat dat instrumentele abortus abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNijmegen - Uit je locatiegeschiedenis - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Abortus tot hoeveel weken? Ongeveer 597.000 resultaten (0 41 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over dit resultaat Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening › abortuspil_5_-_8_ Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ing 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep Volgens de huisarts had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie abortus tot hoeveel weken duitsland tot hoeveel weken abortuspil abortus kosten abortus 24 weken procedure abortus tot wanneer abortus 24 weken hoe gaat dat instrumentele abortus Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 HT Nijmegen - Uit je plaatsen (werk) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Oorzaken klimaatverandering Ongeveer 161.000 resultaten (0 36 seconden) Advertenties Oorzaken Klimaatverandering | Kom Samen Met WNF In Actie‎ Advertentiewww.wwf.nl/Klimaat/Oorzaken‎0800 1962 Lees hier wat WNF doet om klimaatverandering tegen te gaan en help mee! Interessen: Nieuwsbrief Donaties. Gebieden Bekijk hier de primaire gebieden waar WWF actief is Teken de Petitie Voor een zee zonder palstic. Teken hier. Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ Advertentiewww.klimaatplein.com/klimaat/verandering‎073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. Inzicht in besparing. CO2 neutraal ondernemen. Besparing energieverbruik. Verduurzamen bedrijf. Services: SDE+ EIA MIA VAMIL. Wat is klimaatveranderingEnergiebesparingEnergie Besparen Op ICTDuurzame Energie Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over dit resultaat Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Klimaatverandering: Oorzaak de mens? - Climategate https://www.climategate.nl › 2019/08 › klimaatverandering-oorzaak-de-me 5 aug. 2019 - Echter… er zijn wel degelijk andere oorzaken van klimaatverandering aan te wijzen waaraan de mens schuldig is en deze kunnen een Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Klimaatverandering: oorzaken en effecten | Compendium voor https://www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNijmegen-Midden Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Oorzaken klimaatverandering Ongeveer 182.000 resultaten (0 35 seconden) Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over dit resultaat Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: Oorzaak de mens? - Climategate https://www.climategate.nl › 2019/08 › klimaatverandering-oorzaak-de-me 5 aug. 2019 - Echter… er zijn wel degelijk andere oorzaken van klimaatverandering aan te wijzen waaraan de mens schuldig is en deze kunnen een Klimaatverandering : oorzaken - Climategate https://www.climategate.nl › 2017/10 › klimaatverandering-oorzaken 30 okt. 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “Climate change: The facts 2017” uitgegeven door het Institute Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 HT Nijmegen - Uit je plaatsen (werk) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zwarte piet of roetveegpiet? Ongeveer 99.500 resultaten (0 47 seconden) Zoekresultaten Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Vermoeide schouders en hoorbare zucht: Zwarte Piet of - Lc https://www.lc.nl › friesland › Vermoeide-schouders-en-hoorbare-zucht-Z 18 nov. 2019 - Het grote Zwarte Pieten-spel is weer begonnen. De emoties over roetveegpieten en Zwarte Pieten laaiden de afgelopen dagen opnieuw op Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Roetveegpiet wint het op scholen in grote steden zwarte piet https://www.omroepbrabant.nl › nieuws › Roetveegpiet-wint-het-op-schole 26 nov. 2019 - Uit een inventarisatie van Omroep Brabant blijkt dat in de grote steden roetveegpiet het wint van Zwarte Piet. Scholen gaan daar mee met het Wie goed kijkt ziet in Zwolle afscheid Zwarte Piet naderen https://www.destentor.nl › zwolle › wie-goed-kijkt-ziet-in-zwolle-afscheid- 23 nov. 2019 - De roetveegpiet nieuw dit jaar bij de intocht in de Zwolse binnenstad. De zwarte-pietendiscussie lijkt verstomd in de Zwolse binnenstad Kijk Nou: Pro-Piet demonstreert onbedoeld als roetveegpiet https://joop.bnnvara.nl › kijk-nou › pro-piet-demonstreert-onbedoeld-als-r 14 nov. 2019 - Tijdens een demonstratie in Den Bosch voor het behoud van de racistische kenmerken van Zwarte Piet heeft een demonstrant per ongeluk Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNijmegen-Midden Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zwarte piet of roetveegpiet? Ongeveer 93.900 resultaten (0 42 seconden) Zoekresultaten Samenvatting van internet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Zijn gezicht is voorzien van vegen van roet afkomstig van het roet in schoorstenen waar de piet doorheen moet om cadeaus af te leveren. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet Feedback Over dit resultaat Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Gemeenteraad: "Zwarte Piet vs Roetveegpiet" houvanarnhem.nl › gemeenteraad-zwarte-piet-vs-roetveegpiet Onlangs gaf D66-raadslid Susan van Ommen haar mening over Zwarte Piet. Wij zijn tegen roetveegpiet capituleren aan het gedram van een kleine groep Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Kijk Nou: Pro-Piet demonstreert onbedoeld als roetveegpiet https://joop.bnnvara.nl › kijk-nou › pro-piet-demonstreert-onbedoeld-als-r 14 nov. 2019 - Tijdens een demonstratie in Den Bosch voor het behoud van de racistische kenmerken van Zwarte Piet heeft een demonstrant per ongeluk Alternatieve Sintjournaals zonder roetveegpiet: 'Er is vraag https://nos.nl › 11 nov. 2019 - De pieten in het Emmer Sinterklaasjournaal zijn wel zwart geschminkt Bekijk hieronder de verandering van Zwarte Piet naar roetveegpiet:. Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie roetveegpiet sinterklaasjournaal roetveegpiet schminken zwarte piet geschiedenis kick out zwarte piet roetveegpiet amsterdam roetveegpiet tekening zwarte piet voorstander Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 HT Nijmegen - Uit je plaatsen (werk) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevaren vaccinaties Ongeveer 39.000 resultaten (0 44 seconden) Advertentie Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ Advertentiewww.npofocus.nl/Vaccineren‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. Verdieping. NPO Focus. Weet meer. Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF]De verborgen gevaren van vaccinaties - WantToKnow https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Veel mensen willen hun kinderen niet laten vaccineren. Daar is een reden voor. Denk mee denk na. Wij vaccineren niet! Trailer. Nederlands ondertiteld Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › 2019/06/19 › gevaarlijke-scepsis-over-vaccins-a3964399 19 jun. 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Artikel - Veelgestelde vragen over vaccineren https://dekennisvannu.nl › site › Veelgestelde-vragen-over-vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. VACCINATIES PER LAND I GGDREISVACCINATIES https://www.ggdreisvaccinaties.nl › heb-ik-een-vaccinatie-nodig Voor welk land heeft u vaccinaties nodig? Dat verschilt per land. In de landenzoeker kunt u vinden of u vaccinaties of inentingen nodig heeft voor uw reis. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme bijwerkingen vaccinaties niet vaccineren forum wat is vaccineren wetenschappelijk onderzoek vaccinaties vaccinatie debat bmr vaccinatie gevaarlijk Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNijmegen-Midden Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevaren vaccinaties Ongeveer 33.800 resultaten (0 57 seconden) Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF]De verborgen gevaren van vaccinaties - WantToKnow https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Veel mensen willen hun kinderen niet laten vaccineren. Daar is een reden voor. Denk mee denk na. Wij vaccineren niet! Trailer. Nederlands ondertiteld Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. 'Twijfels over vaccinaties gevaar voor volksgezondheid' | RTL https://www.rtlnieuws.nl › nieuws › buitenland › artikel › twijfels-over-vac 20 jun. 2019 - In Europa wordt zo veel getwijfeld aan de veiligheid en effectiviteit van vaccinaties dat het een gevaar voor de volksgezondheid begint te Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › 2019/06/19 › gevaarlijke-scepsis-over-vaccins-a3964399 19 jun. 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te VACCINATIES PER LAND I GGDREISVACCINATIES https://www.ggdreisvaccinaties.nl › heb-ik-een-vaccinatie-nodig Voor welk land heeft u vaccinaties nodig? Dat verschilt per land. In de landenzoeker kunt u vinden of u vaccinaties of inentingen nodig heeft voor uw reis. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme niet vaccineren forum bijwerkingen vaccinaties wat is vaccineren vaccinatie debat bmr vaccinatie gevaarlijk niet vaccineren kinderdagverblijf Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 HT Nijmegen - Uit je plaatsen (werk) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 163.000 resultaten (0 49 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale migratie belgie illegaal persoon in huis illegaal werken in nederland anoniem melden ind vragen over immigratie geen verblijfsvergunning illegaal verblijf niet strafbaar illegalen opsporen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandNijmegen-Midden Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 163.000 resultaten (0 40 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen .. Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Waarom de migratiestroom vanuit Mexico naar de VS weer https://www.volkskrant.nl › nieuws-achtergrond › waarom-de-migratiestroo 7 jun. 2019 - 'Dat tarief gaat op 10 juni in en wordt steeds hoger tot het probleem van illegale migratie is opgelost' twitterde Trump eind mei. Het nieuws Ontbrekend: Gevolgen VS stelt heffingen in tegen Mexico om migratie | Het Parool https://www.parool.nl › wereld › vs-stelt-heffingen-in-tegen-mexico-om-m 31 mei 2019 - 'Net zo lang tot het probleem van illegale immigratie is verholpen ' besloot de zal nadelige gevolgen hebben voor de Mexicaanse economie. Terugkeerbeleid | Terugkeer vreemdelingen | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › terugkeerbeleid Wat houdt het terugkeerbeleid voor illegale vreemdelingen in? Dan krijgt hij een terugkeerbesluit van de Immigratie- en Naturalisatiedienst (IND) de Politie of Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 HT Nijmegen - Uit je plaatsen (werk) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -929,27 +929,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 616.000 resultaten (0 25 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over dit resultaat Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening › abortuspil_5_-_8_ Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap Abortus als laatste redmiddel | Gezondheidsnet https://www.gezondheidsnet.nl › zwanger › abortus-als-laatste-redmiddel 8 dec. 2016 - Een abortus mag in Nederland tot 23 weken zwangerschap gerekend vanaf de eerste dag van de laatste menstruatie. 5 dagen bedenktijd is Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie abortus tot hoeveel weken duitsland tot hoeveel weken abortuspil abortus kosten abortus 24 weken procedure abortus tot wanneer abortus 24 weken hoe gaat dat instrumentele abortus Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandMaastricht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Happy Winter 2019! Abortus tot hoeveel weken? About 427.000 results (0 43 seconds) Search Results Featured snippet from the web Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback About Featured Snippets Web results Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › vraag-en-antwoord › abo Translate this page Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening Translate this page Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortus 18 tot 22 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening Translate this page Uitleg over de abortus behandeling in het laat 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de nacontrole. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Translate this page Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-z Translate this page Mar 17 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › nieuws › bij-abortus-telt-alleen-d Translate this page Nov 30 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortus Translate this page Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abor Translate this page Jan 23 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap Missing: hoeveel ‎| Must include: hoeveel 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-ee Translate this page Sep 8 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en kon deze Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later Abortus | allesoverseks.be - van Sensoa https://www.allesoverseks.be › abortus Translate this page Abortus kan in België tot 12 weken na de bevruchting. Hoe gebeurt het - hoeveel kost het - waar - veiligheid - abortuspil. Searches related to Abortus tot hoeveel weken? tot hoeveel weken abortuspil abortus kosten tot wanneer abortus nederland abortus in nederland abortus kliniek foetus 24 weken wat is abortus hoe werkt een abortus Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands3084 Rotterdam - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 183.000 resultaten (0 33 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over dit resultaat Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: Oorzaak de mens? - Climategate https://www.climategate.nl › 2019/08 › klimaatverandering-oorzaak-de-me 5 aug. 2019 - Echter… er zijn wel degelijk andere oorzaken van klimaatverandering aan te wijzen waaraan de mens schuldig is en deze kunnen een Klimaatverandering : oorzaken - Climategate https://www.climategate.nl › 2017/10 › klimaatverandering-oorzaken 30 okt. 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “Climate change: The facts 2017” uitgegeven door het Institute waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandMaastricht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Happy Winter 2019! Oorzaken klimaatverandering About 149.000 results (0 44 seconds) Ads Oorzaken Klimaatverandering | Kom Samen Met WNF In Actie‎ Adwww.wwf.nl/Klimaat/Oorzaken‎0800 1962 Lees hier wat WNF doet om klimaatverandering tegen te gaan en help mee! Bedreigde DierenStop plasticGebiedenOnze Aanpak Klimaatverandering | 10 feiten op een rij‎ Adwww.worldanimalprotection.nl/klimaat/verandering‎ Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. We stoppen dierenleed. +50 jr actief voor dieren. Dieren horen in het wild. Search Results Scholarly articles for Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Cited by 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Cited by 5 Featured snippet from the web Image result for Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback About Featured Snippets Web results Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen- Translate this page Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverande Translate this page Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Translate this page Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Oorzaken - Klimaat.be https://www.klimaat.be › klimaatverandering › het-klimaat Translate this page De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Translate this page Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek Translate this page May 15 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Wat zijn de oorzaken en gevolgen van klimaatverandering https://www.knaw.nl › de-nederlandse-wetenschapsagenda Translate this page Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Klimaatverandering : oorzaken - Climategate https://www.climategate.nl › 2017/10 › klimaatveranderi Translate this page Oct 30 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “Climate change: The facts 2017” uitgegeven door het Institute waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaatvragen › waa Translate this page Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Wat is klimaatverandering? Wat zijn de oorzaken - LNE.be https://www.lne.be › wat-is-klimaatverandering Translate this page Op de website www.klimaat.be vind je meer uitleg i.vm. klimaatverandering: In het kort Het klimaat Klimaatverandering Oorzaken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands3084 Rotterdam - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 103.000 resultaten (0 60 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Samenvatting van internet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet Feedback Over dit resultaat Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Gemeenteraad: "Zwarte Piet vs Roetveegpiet" houvanarnhem.nl › gemeenteraad-zwarte-piet-vs-roetveegpiet Onlangs gaf D66-raadslid Susan van Ommen haar mening over Zwarte Piet. Wij zijn tegen roetveegpiet capituleren aan het gedram van een kleine groep Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch 5 meningen over Zwarte Piet: van 'niet aanpassen' tot https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Vijf leden van het Opiniepanel vertellen hoe zij denken over Zwarte Piet. 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Alternatieve Sintjournaals zonder roetveegpiet: 'Er is vraag https://nos.nl › 11 nov. 2019 - De pieten in het Emmer Sinterklaasjournaal zijn wel zwart geschminkt Bekijk hieronder de verandering van Zwarte Piet naar roetveegpiet:. Annie Rijken uit Eindhoven 'Als ik roetveegpiet moet worden https://www.ed.nl › eindhoven › annie-rijken-uit-eindhoven-als-ik-roetvee 16 nov. 2019 - videoEINDHOVEN - Roetveegpiet worden? Annie Rijken peinst er niet over. Zwarte Piet is een kindervriend. Wat is daar op tegen? Voor wie Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie zwarte piet geschiedenis roetveegpiet schminken kick out zwarte piet roetveegpiet amsterdam roetveegpiet tekening zwarte piet voorstander zwarte pieten discussie 2018 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandMaastricht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Happy Winter 2019! Zwarte piet of roetveegpiet? About 86.700 results (0 40 seconds) Search Results Featured snippet from the web De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet Feedback About Featured Snippets Web results Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte- Translate this page Nov 17 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-ro - Translate this page Nov 15 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpi Translate this page Nov 16 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet Translate this page De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Zwarte pieten willen niet meer - NRC https://www.nrc.nl › nieuws › 2019/11/07 › de-pieten-l - Translate this page Nov 7 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Kijk Nou: Pro-Piet demonstreert onbedoeld als roetveegpiet https://joop.bnnvara.nl › kijk-nou › pro-piet-demonstree Translate this page Nov 14 2019 - Tijdens een demonstratie in Den Bosch voor het behoud van de racistische kenmerken van Zwarte Piet heeft een demonstrant per ongeluk Annie Rijken uit Eindhoven 'Als ik roetveegpiet moet worden https://www.ed.nl › eindhoven › annie-rijken-uit-eindho Translate this page Nov 21 2019 - videoEINDHOVEN - Roetveegpiet worden? Annie Rijken peinst er niet over. Zwarte Piet is een kindervriend. Wat is daar op tegen? Voor wie 5 meningen over Zwarte Piet: van 'niet aanpassen' tot https://eenvandaag.avrotros.nl › › Alle uitslagen Translate this page Nov 14 2019 - Vijf leden van het Opiniepanel vertellen hoe zij denken over Zwarte Piet. 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › › Alle uitslagen Translate this page Nov 14 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vak Translate this page Nov 15 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Searches related to Zwarte piet of roetveegpiet? roetveegpiet english kick out zwarte piet sinterklaasjournaal Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands3084 Rotterdam - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 39.400 resultaten (0 41 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF]De verborgen gevaren van vaccinaties - WantToKnow https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Wij vaccineren niet! Trailer Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › 2019/06/19 › gevaarlijke-scepsis-over-vaccins-a3964399 19 jun. 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Artikel - Veelgestelde vragen over vaccineren https://dekennisvannu.nl › site › Veelgestelde-vragen-over-vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. Janneke Bazelmans: 'Over nadelen vaccinatie wordt veelal https://www.volkskrant.nl › columns-opinie › janneke-bazelmans-over-nadel 22 jul. 2013 - In de discussie omtrent vaccinaties mist het standpunt van een hun eigen kinderen maar ook de kinderen van anderen in gevaar brengen. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme bijwerkingen vaccinaties niet vaccineren forum wat is vaccineren vaccinatie debat bmr vaccinatie gevaarlijk niet vaccineren kinderdagverblijf Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandMaastricht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Happy Winter 2019! Gevaren vaccinaties About 99.400 results (0 53 seconds) Ad Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ Adwww.npofocus.nl/Vaccineren‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. Verdieping. NPO Focus. Weet meer. Search Results Vaccinatie risico Sommige ouders laten hun kinderen niet inenten. Een kind dat niet gevaccineerd is is onvoldoende beschermd tegen de gevaarlijke infectieziekten. Het risico dat het kind de bewuste infectieziekte krijgt is groter als het kind deel uitmaakt van een niet-gevaccineerde hechte gemeenschap. Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Search for: Vaccinatie risico Feedback About Featured Snippets Web results Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels Translate this page Jun 17 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma Translate this page Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF]De verborgen gevaren van vaccinaties - WantToKnow https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren Jul 1 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Translate this page Wij vaccineren niet! Trailer . Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerking Translate this page Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-le Translate this page Jan 15 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Janneke Bazelmans: 'Over nadelen vaccinatie wordt veelal https://www.volkskrant.nl › columns-opinie › janneke-b - Translate this page Jul 22 2013 - In de discussie omtrent vaccinaties mist het standpunt van een hun eigen kinderen maar ook de kinderen van anderen in gevaar brengen. Gevaren van vaccinaties | Mens en Gezondheid: Diversen https://mens-en-gezondheid.infonu.nl › diversen › 1422 Translate this page Oct 9 2014 - Maar een steeds groter deel van de vaccinatieweigeraars zijn zich bewust geworden van de gevaren van vaccinaties. Het eerste vaccin Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › nieuws › 2019/06/19 › gevaarlijke- - Translate this page Jun 19 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf Translate this page May 3 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Searches related to Gevaren vaccinaties vaccinvrij vaccineren betekenis betoog vaccinatie nadelen vaccinatie vaccineren verplicht stichting vaccinvrij vaccinatie autisme wat is vaccinatie Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands3084 Rotterdam - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 154.000 resultaten (0 43 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegale migratie illegaal persoon in huis mexicaanse migratie opvang illegale vluchtelingen anoniem melden ind illegaal werken in nederland hoeveel mexicanen in de vs Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandMaastricht - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Happy Winter 2019! Gevolgen illegale immigratie About 151.000 results (0 37 seconds) Search Results Web results Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Translate this page Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdeling Translate this page Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-ill Translate this page Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Translate this page Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland - Translate this page Oct 23 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocument Translate this page Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migrante Translate this page Oct 9 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-h Translate this page Jun 7 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-o Translate this page Nov 15 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_v Translate this page De immigranten uit de laatste categorie zullen dan eerlijk over de lidstaten worden voor de terugkeer van illegaal verblijvende derdelanders (herschikking). Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands3084 Rotterdam - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
     </row>
@@ -959,27 +959,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Abortus tot hoeveel weken? Ongeveer 597.000 resultaten (0 41 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over dit resultaat Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening › abortuspil_5_-_8_ Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ing 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep Volgens de huisarts had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie abortus tot hoeveel weken duitsland tot hoeveel weken abortuspil abortus kosten abortus 24 weken procedure abortus tot wanneer abortus 24 weken hoe gaat dat instrumentele abortus Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 HT Nijmegen - Uit je plaatsen (werk) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Eerste dag van de winter 2019 Zoekmodi AlleAfbeeldingenNieuwsVideo'sShoppingMeer InstellingenTools Ongeveer 586.000 resultaten (0 55 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over dit resultaat Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening › abortuspil_5_-_8_ Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ing 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en kon deze Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie abortus tot hoeveel weken duitsland tot hoeveel weken abortuspil abortus kosten abortus 24 weken procedure abortus tot wanneer abortus 24 weken hoe gaat dat instrumentele abortus Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandBreda - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Oorzaken klimaatverandering Ongeveer 182.000 resultaten (0 35 seconden) Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over dit resultaat Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: Oorzaak de mens? - Climategate https://www.climategate.nl › 2019/08 › klimaatverandering-oorzaak-de-me 5 aug. 2019 - Echter… er zijn wel degelijk andere oorzaken van klimaatverandering aan te wijzen waaraan de mens schuldig is en deze kunnen een Klimaatverandering : oorzaken - Climategate https://www.climategate.nl › 2017/10 › klimaatverandering-oorzaken 30 okt. 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “Climate change: The facts 2017” uitgegeven door het Institute Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 HT Nijmegen - Uit je plaatsen (werk) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Eerste dag van de winter 2019 Zoekmodi AlleAfbeeldingenNieuwsVideo'sShoppingMeer InstellingenTools Ongeveer 145.000 resultaten (0 50 seconden) Advertenties Oorzaken Klimaatverandering | Lees Meer En Kom In Actie‎ Advertentiewww.wwf.nl/Klimaat/Oorzaken‎0800 1962 WNF zet zich wereldwijd in voor een beter klimaat. Lees meer en kom in actie! Bedreigde DierenGebiedenStop plasticOnze Aanpak Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ Advertentiewww.klimaatplein.com/klimaat/verandering‎073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. Besparing energieverbruik. Verduurzamen bedrijf. CO2 neutraal ondernemen. Inzicht in besparing. Services: SDE+ EIA MIA VAMIL. Zelf Energie OpwekkenDuurzaam BouwenWat is klimaatveranderingEnergiebesparing Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over dit resultaat Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: Oorzaak de mens? - Climategate https://www.climategate.nl › 2019/08 › klimaatverandering-oorzaak-de-me 5 aug. 2019 - Echter… er zijn wel degelijk andere oorzaken van klimaatverandering aan te wijzen waaraan de mens schuldig is en deze kunnen een Klimaatverandering : oorzaken - Climategate https://www.climategate.nl › 2017/10 › klimaatverandering-oorzaken 30 okt. 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “ Climate change: The facts 2017” uitgegeven door het Institute Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandBreda - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zwarte piet of roetveegpiet? Ongeveer 93.900 resultaten (0 42 seconden) Zoekresultaten Samenvatting van internet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Zijn gezicht is voorzien van vegen van roet afkomstig van het roet in schoorstenen waar de piet doorheen moet om cadeaus af te leveren. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet Feedback Over dit resultaat Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Gemeenteraad: "Zwarte Piet vs Roetveegpiet" houvanarnhem.nl › gemeenteraad-zwarte-piet-vs-roetveegpiet Onlangs gaf D66-raadslid Susan van Ommen haar mening over Zwarte Piet. Wij zijn tegen roetveegpiet capituleren aan het gedram van een kleine groep Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Kijk Nou: Pro-Piet demonstreert onbedoeld als roetveegpiet https://joop.bnnvara.nl › kijk-nou › pro-piet-demonstreert-onbedoeld-als-r 14 nov. 2019 - Tijdens een demonstratie in Den Bosch voor het behoud van de racistische kenmerken van Zwarte Piet heeft een demonstrant per ongeluk Alternatieve Sintjournaals zonder roetveegpiet: 'Er is vraag https://nos.nl › 11 nov. 2019 - De pieten in het Emmer Sinterklaasjournaal zijn wel zwart geschminkt Bekijk hieronder de verandering van Zwarte Piet naar roetveegpiet:. Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie roetveegpiet sinterklaasjournaal roetveegpiet schminken zwarte piet geschiedenis kick out zwarte piet roetveegpiet amsterdam roetveegpiet tekening zwarte piet voorstander Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 HT Nijmegen - Uit je plaatsen (werk) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Eerste dag van de winter 2019 Zoekmodi AlleAfbeeldingenMapsNieuwsVideo'sMeer InstellingenTools Ongeveer 88.000 resultaten (0 47 seconden) Zoekresultaten Samenvatting van internet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet Feedback Over dit resultaat Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Gemeenteraad: "Zwarte Piet vs Roetveegpiet" houvanarnhem.nl › gemeenteraad-zwarte-piet-vs-roetveegpiet Onlangs gaf D66-raadslid Susan van Ommen haar mening over Zwarte Piet. Wij zijn tegen roetveegpiet capituleren aan het gedram van een kleine groep Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch 5 meningen over Zwarte Piet: van 'niet aanpassen' tot https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Vijf leden van het Opiniepanel vertellen hoe zij denken over Zwarte Piet. 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Kijk Nou: Pro-Piet demonstreert onbedoeld als roetveegpiet https://joop.bnnvara.nl › kijk-nou › pro-piet-demonstreert-onbedoeld-als-r 14 nov. 2019 - Tijdens een demonstratie in Den Bosch voor het behoud van de racistische kenmerken van Zwarte Piet heeft een demonstrant per ongeluk Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie zwarte piet geschiedenis roetveegpiet schminken kick out zwarte piet roetveegpiet amsterdam roetveegpiet tekening zwarte piet voorstander zwarte pieten discussie 2018 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandBreda - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevaren vaccinaties Ongeveer 33.800 resultaten (0 57 seconden) Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF]De verborgen gevaren van vaccinaties - WantToKnow https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Veel mensen willen hun kinderen niet laten vaccineren. Daar is een reden voor. Denk mee denk na. Wij vaccineren niet! Trailer. Nederlands ondertiteld Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. 'Twijfels over vaccinaties gevaar voor volksgezondheid' | RTL https://www.rtlnieuws.nl › nieuws › buitenland › artikel › twijfels-over-vac 20 jun. 2019 - In Europa wordt zo veel getwijfeld aan de veiligheid en effectiviteit van vaccinaties dat het een gevaar voor de volksgezondheid begint te Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › 2019/06/19 › gevaarlijke-scepsis-over-vaccins-a3964399 19 jun. 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te VACCINATIES PER LAND I GGDREISVACCINATIES https://www.ggdreisvaccinaties.nl › heb-ik-een-vaccinatie-nodig Voor welk land heeft u vaccinaties nodig? Dat verschilt per land. In de landenzoeker kunt u vinden of u vaccinaties of inentingen nodig heeft voor uw reis. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme niet vaccineren forum bijwerkingen vaccinaties wat is vaccineren vaccinatie debat bmr vaccinatie gevaarlijk niet vaccineren kinderdagverblijf Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 HT Nijmegen - Uit je plaatsen (werk) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Eerste dag van de winter 2019 Zoekmodi AlleNieuwsAfbeeldingenShoppingMapsMeer InstellingenTools Ongeveer 37.300 resultaten (0 45 seconden) Advertentie Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ Advertentiewww.npofocus.nl/Vaccineren‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. Weet meer. Verdieping. NPO Focus. Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF]De verborgen gevaren van vaccinaties - WantToKnow https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Wij vaccineren niet! Trailer . Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › 2019/06/19 › gevaarlijke-scepsis-over-vaccins-a3964399 19 jun. 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te Artikel - Veelgestelde vragen over vaccineren https://dekennisvannu.nl › site › Veelgestelde-vragen-over-vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. Janneke Bazelmans: 'Over nadelen vaccinatie wordt veelal https://www.volkskrant.nl › columns-opinie › janneke-bazelmans-over-nadel 22 jul. 2013 - In de discussie omtrent vaccinaties mist het standpunt van een hun eigen kinderen maar ook de kinderen van anderen in gevaar brengen. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme bijwerkingen vaccinaties niet vaccineren forum wat is vaccineren vaccinatie debat bmr vaccinatie gevaarlijk niet vaccineren kinderdagverblijf Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandBreda - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 163.000 resultaten (0 40 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Waarom de migratiestroom vanuit Mexico naar de VS weer https://www.volkskrant.nl › nieuws-achtergrond › waarom-de-migratiestroo 7 jun. 2019 - 'Dat tarief gaat op 10 juni in en wordt steeds hoger tot het probleem van illegale migratie is opgelost' twitterde Trump eind mei. Het nieuws Ontbrekend: Gevolgen VS stelt heffingen in tegen Mexico om migratie | Het Parool https://www.parool.nl › wereld › vs-stelt-heffingen-in-tegen-mexico-om-m 31 mei 2019 - 'Net zo lang tot het probleem van illegale immigratie is verholpen ' besloot de zal nadelige gevolgen hebben voor de Mexicaanse economie. Terugkeerbeleid | Terugkeer vreemdelingen | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › terugkeerbeleid Wat houdt het terugkeerbeleid voor illegale vreemdelingen in? Dan krijgt hij een terugkeerbesluit van de Immigratie- en Naturalisatiedienst (IND) de Politie of Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 HT Nijmegen - Uit je plaatsen (werk) - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Eerste dag van de winter 2019 Zoekmodi AlleNieuwsAfbeeldingenVideo'sMapsMeer InstellingenTools Ongeveer 171.000 resultaten (0 51 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen .. Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegale migratie illegaal persoon in huis mexicaanse migratie opvang illegale vluchtelingen anoniem melden ind illegaal werken in nederland illegaal verblijf niet strafbaar Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandBreda - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -989,27 +989,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Advertentie Tot Hoeveel Weken Abortus? | Twijfel je over Abortus? | siriz.nl‎ Advertentiewww.siriz.nl/Abortus/Hoeveel-Weken‎0800 4400003 Bespreek de mogelijkheden &amp; zet alles op een rij. App of Chat met Siriz. Specialist bij onbedoelde zwangerschap. Wij bieden preventie ondersteuning en zorg. Persoonlijke begeleiding. Gratis hulp. Keuzegesprekken. Chat voor hulp De chat van Siriz is voor iedereen die met onbedoeld zwangerschap zit. Ben ik zwanger? Zwanger en geschrokken of hulp nodig? Bekijk de website. Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over dit resultaat Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening › abortuspil_5_-_8_ Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ing 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep Volgens de huisarts had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Eerste dag van de winter 2019 Ongeveer 586.000 resultaten (0 49 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over dit resultaat Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening › abortuspil_5_-_8_ Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ing 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en kon deze Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie abortus tot hoeveel weken duitsland tot hoeveel weken abortuspil abortus kosten abortus 24 weken procedure abortus tot wanneer abortus 24 weken hoe gaat dat instrumentele abortus Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandGroningen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Advertentie Tot Hoeveel Weken Abortus? | Twijfel je over Abortus? | siriz.nl‎ Advertentiewww.siriz.nl/Abortus/Hoeveel-Weken‎0800 4400003 Bespreek de mogelijkheden &amp; zet alles op een rij. App of Chat met Siriz. Specialist bij onbedoelde zwangerschap. Wij bieden preventie ondersteuning en zorg. Persoonlijke begeleiding. Gratis hulp. Keuzegesprekken. Chat voor hulp De chat van Siriz is voor iedereen die met onbedoeld zwangerschap zit. Ben ik zwanger? Zwanger en geschrokken of hulp nodig? Bekijk de website. Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over dit resultaat Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening › abortuspil_5_-_8_ Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ing 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep Volgens de huisarts had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Eerste dag van de winter 2019 Ongeveer 145.000 resultaten (0 51 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over dit resultaat Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: Oorzaak de mens? - Climategate https://www.climategate.nl › 2019/08 › klimaatverandering-oorzaak-de-me 5 aug. 2019 - Echter… er zijn wel degelijk andere oorzaken van klimaatverandering aan te wijzen waaraan de mens schuldig is en deze kunnen een Klimaatverandering : oorzaken - Climategate https://www.climategate.nl › 2017/10 › klimaatverandering-oorzaken 30 okt. 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “Climate change: The facts 2017” uitgegeven door het Institute Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandGroningen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Zoekresultaten Samenvatting van internet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Zijn gezicht is voorzien van vegen van roet afkomstig van het roet in schoorstenen waar de piet doorheen moet om cadeaus af te leveren. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet Feedback Over dit resultaat Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Afbeeldingen van Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Alles bekijken Meer afbeeldingen voor Zwarte piet of roetveegpiet? Afbeeldingen melden Webresultaten Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Gemeenteraad: "Zwarte Piet vs Roetveegpiet" houvanarnhem.nl › gemeenteraad-zwarte-piet-vs-roetveegpiet Onlangs gaf D66-raadslid Susan van Ommen haar mening over Zwarte Piet. Wij zijn tegen roetveegpiet capituleren aan het gedram van een kleine groep Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Alternatieve Sintjournaals zonder roetveegpiet: 'Er is vraag https://nos.nl › 11 nov. 2019 - De pieten in het Emmer Sinterklaasjournaal zijn wel zwart geschminkt Bekijk hieronder de verandering van Zwarte Piet naar roetveegpiet:.</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Eerste dag van de winter 2019 Ongeveer 89.800 resultaten (0 40 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Samenvatting van internet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet Feedback Over dit resultaat Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Gemeenteraad: "Zwarte Piet vs Roetveegpiet" houvanarnhem.nl › gemeenteraad-zwarte-piet-vs-roetveegpiet Onlangs gaf D66-raadslid Susan van Ommen haar mening over Zwarte Piet. Wij zijn tegen roetveegpiet capituleren aan het gedram van een kleine groep Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Kijk Nou: Pro-Piet demonstreert onbedoeld als roetveegpiet https://joop.bnnvara.nl › kijk-nou › pro-piet-demonstreert-onbedoeld-als-r 14 nov. 2019 - Tijdens een demonstratie in Den Bosch voor het behoud van de racistische kenmerken van Zwarte Piet heeft een demonstrant per ongeluk Alternatieve Sintjournaals zonder roetveegpiet: 'Er is vraag https://nos.nl › 11 nov. 2019 - De pieten in het Emmer Sinterklaasjournaal zijn wel zwart geschminkt Bekijk hieronder de verandering van Zwarte Piet naar roetveegpiet:. Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie roetveegpiet sinterklaasjournaal zwarte piet geschiedenis roetveegpiet schminken kick out zwarte piet roetveegpiet amsterdam roetveegpiet tekening zwarte piet voorstander Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandGroningen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Advertentie Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ Advertentiewww.npofocus.nl/Vaccineren‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. NPO Focus. Verdieping. Weet meer. Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF]De verborgen gevaren van vaccinaties - WantToKnow https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Veel mensen willen hun kinderen niet laten vaccineren. Daar is een reden voor. Denk mee denk na. Wij vaccineren niet! Trailer. Nederlands ondertiteld Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › 2019/06/19 › gevaarlijke-scepsis-over-vaccins-a3964399 19 jun. 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te Janneke Bazelmans: 'Over nadelen vaccinatie wordt veelal https://www.volkskrant.nl › columns-opinie › janneke-bazelmans-over-nadel 22 jul. 2013 - In de discussie omtrent vaccinaties mist het standpunt van een hun eigen kinderen maar ook de kinderen van anderen in gevaar brengen. Artikel - Veelgestelde vragen over vaccineren https://dekennisvannu.nl › site › Veelgestelde-vragen-over-vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins.</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Eerste dag van de winter 2019 Ongeveer 33.800 resultaten (0 49 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF]De verborgen gevaren van vaccinaties - WantToKnow https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Veel mensen willen hun kinderen niet laten vaccineren. Daar is een reden voor. Denk mee denk na. Wij vaccineren niet! Trailer. Nederlands ondertiteld Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › 2019/06/19 › gevaarlijke-scepsis-over-vaccins-a3964399 19 jun. 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te VACCINATIES PER LAND I GGDREISVACCINATIES https://www.ggdreisvaccinaties.nl › heb-ik-een-vaccinatie-nodig Voor welk land heeft u vaccinaties nodig? Dat verschilt per land. In de landenzoeker kunt u vinden of u vaccinaties of inentingen nodig heeft voor uw reis. Janneke Bazelmans: 'Over nadelen vaccinatie wordt veelal https://www.volkskrant.nl › columns-opinie › janneke-bazelmans-over-nadel 22 jul. 2013 - In de discussie omtrent vaccinaties mist het standpunt van een hun eigen kinderen maar ook de kinderen van anderen in gevaar brengen. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme bijwerkingen vaccinaties niet vaccineren forum wat is vaccineren vaccinatie debat bmr vaccinatie gevaarlijk niet vaccineren kinderdagverblijf Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandGroningen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Eerste dag van de winter 2019 Ongeveer 171.000 resultaten (0 53 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen .. Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegale migratie illegaal persoon in huis mexicaanse migratie opvang illegale vluchtelingen anoniem melden ind illegaal werken in nederland illegaal verblijf niet strafbaar Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandGroningen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
     </row>
@@ -1019,27 +1019,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Happy Winter 2019! Abortus tot hoeveel weken? About 427.000 results (0 43 seconds) Search Results Featured snippet from the web Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback About Featured Snippets Web results Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › vraag-en-antwoord › abo Translate this page Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening Translate this page Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortus 18 tot 22 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening Translate this page Uitleg over de abortus behandeling in het laat 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de nacontrole. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Translate this page Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-z Translate this page Mar 17 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › nieuws › bij-abortus-telt-alleen-d Translate this page Nov 30 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortus Translate this page Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abor Translate this page Jan 23 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap Missing: hoeveel ‎| Must include: hoeveel 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-ee Translate this page Sep 8 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en kon deze Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later Abortus | allesoverseks.be - van Sensoa https://www.allesoverseks.be › abortus Translate this page Abortus kan in België tot 12 weken na de bevruchting. Hoe gebeurt het - hoeveel kost het - waar - veiligheid - abortuspil. Searches related to Abortus tot hoeveel weken? tot hoeveel weken abortuspil abortus kosten tot wanneer abortus nederland abortus in nederland abortus kliniek foetus 24 weken wat is abortus hoe werkt een abortus Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands3084 Rotterdam - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Abortus tot hoeveel weken? Ongeveer 551.000 resultaten (0 49 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over dit resultaat Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening › abortuspil_5_-_8_ Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ing 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en kon deze Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie abortus tot hoeveel weken duitsland tot hoeveel weken abortuspil abortus kosten abortus 24 weken procedure abortus tot wanneer abortus 24 weken hoe gaat dat instrumentele abortus Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Happy Winter 2019! Oorzaken klimaatverandering About 149.000 results (0 44 seconds) Ads Oorzaken Klimaatverandering | Kom Samen Met WNF In Actie‎ Adwww.wwf.nl/Klimaat/Oorzaken‎0800 1962 Lees hier wat WNF doet om klimaatverandering tegen te gaan en help mee! Bedreigde DierenStop plasticGebiedenOnze Aanpak Klimaatverandering | 10 feiten op een rij‎ Adwww.worldanimalprotection.nl/klimaat/verandering‎ Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. We stoppen dierenleed. +50 jr actief voor dieren. Dieren horen in het wild. Search Results Scholarly articles for Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Cited by 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Cited by 5 Featured snippet from the web Image result for Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback About Featured Snippets Web results Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen- Translate this page Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverande Translate this page Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Translate this page Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Oorzaken - Klimaat.be https://www.klimaat.be › klimaatverandering › het-klimaat Translate this page De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Translate this page Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek Translate this page May 15 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Wat zijn de oorzaken en gevolgen van klimaatverandering https://www.knaw.nl › de-nederlandse-wetenschapsagenda Translate this page Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Klimaatverandering : oorzaken - Climategate https://www.climategate.nl › 2017/10 › klimaatveranderi Translate this page Oct 30 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “Climate change: The facts 2017” uitgegeven door het Institute waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaatvragen › waa Translate this page Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Wat is klimaatverandering? Wat zijn de oorzaken - LNE.be https://www.lne.be › wat-is-klimaatverandering Translate this page Op de website www.klimaat.be vind je meer uitleg i.vm. klimaatverandering: In het kort Het klimaat Klimaatverandering Oorzaken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands3084 Rotterdam - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Oorzaken klimaatverandering Ongeveer 148.000 resultaten (0 63 seconden) Advertenties Oorzaken Klimaatverandering | Kom Samen Met WNF In Actie‎ Advertentiewww.wwf.nl/Klimaat/Oorzaken‎0800 1962 Lees hier wat WNF doet om klimaatverandering tegen te gaan en help mee! Interessen: Nieuwsbrief Donaties. GebiedenBedreigde DierenStop plasticOnze Aanpak Klimaatverandering | 10 feiten op een rij‎ Advertentiewww.worldanimalprotection.nl/klimaat/verandering‎ De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. Dieren horen in het wild. We stoppen dierenleed. +50 jr actief voor dieren. Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ Advertentiewww.klimaatplein.com/klimaat/verandering‎073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. CO2 neutraal ondernemen. Verduurzamen bedrijf. Besparing energieverbruik. Inzicht in besparing. Services: SDE+ EIA MIA VAMIL. EnergiebesparingContact KlimaatpleinSubsidiewijzerWat is klimaatverandering Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over dit resultaat Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: Oorzaak de mens? - Climategate https://www.climategate.nl › 2019/08 › klimaatverandering-oorzaak-de-me 5 aug. 2019 - Echter… er zijn wel degelijk andere oorzaken van klimaatverandering aan te wijzen waaraan de mens schuldig is en deze kunnen een Klimaatverandering : oorzaken - Climategate https://www.climategate.nl › 2017/10 › klimaatverandering-oorzaken 30 okt. 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “Climate change: The facts 2017” uitgegeven door het Institute Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Happy Winter 2019! Zwarte piet of roetveegpiet? About 86.700 results (0 40 seconds) Search Results Featured snippet from the web De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet Feedback About Featured Snippets Web results Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte- Translate this page Nov 17 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-ro - Translate this page Nov 15 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpi Translate this page Nov 16 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet Translate this page De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Zwarte pieten willen niet meer - NRC https://www.nrc.nl › nieuws › 2019/11/07 › de-pieten-l - Translate this page Nov 7 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Kijk Nou: Pro-Piet demonstreert onbedoeld als roetveegpiet https://joop.bnnvara.nl › kijk-nou › pro-piet-demonstree Translate this page Nov 14 2019 - Tijdens een demonstratie in Den Bosch voor het behoud van de racistische kenmerken van Zwarte Piet heeft een demonstrant per ongeluk Annie Rijken uit Eindhoven 'Als ik roetveegpiet moet worden https://www.ed.nl › eindhoven › annie-rijken-uit-eindho Translate this page Nov 21 2019 - videoEINDHOVEN - Roetveegpiet worden? Annie Rijken peinst er niet over. Zwarte Piet is een kindervriend. Wat is daar op tegen? Voor wie 5 meningen over Zwarte Piet: van 'niet aanpassen' tot https://eenvandaag.avrotros.nl › › Alle uitslagen Translate this page Nov 14 2019 - Vijf leden van het Opiniepanel vertellen hoe zij denken over Zwarte Piet. 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › › Alle uitslagen Translate this page Nov 14 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vak Translate this page Nov 15 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Searches related to Zwarte piet of roetveegpiet? roetveegpiet english kick out zwarte piet sinterklaasjournaal Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands3084 Rotterdam - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Zwarte piet of roetveegpiet? Ongeveer 71.800 resultaten (0 44 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet Feedback Over dit resultaat Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Gemeenteraad: "Zwarte Piet vs Roetveegpiet" houvanarnhem.nl › gemeenteraad-zwarte-piet-vs-roetveegpiet Onlangs gaf D66-raadslid Susan van Ommen haar mening over Zwarte Piet. Wij zijn tegen roetveegpiet capituleren aan het gedram van een kleine groep Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch 5 meningen over Zwarte Piet: van 'niet aanpassen' tot https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Vijf leden van het Opiniepanel vertellen hoe zij denken over Zwarte Piet. 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Alternatieve Sintjournaals zonder roetveegpiet: 'Er is vraag https://nos.nl › 11 nov. 2019 - De pieten in het Emmer Sinterklaasjournaal zijn wel zwart geschminkt Bekijk hieronder de verandering van Zwarte Piet naar roetveegpiet:. Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie roetveegpiet sinterklaasjournaal roetveegpiet schminken zwarte piet geschiedenis kick out zwarte piet roetveegpiet amsterdam roetveegpiet tekening zwarte piet voorstander Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Happy Winter 2019! Gevaren vaccinaties About 99.400 results (0 53 seconds) Ad Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ Adwww.npofocus.nl/Vaccineren‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. Verdieping. NPO Focus. Weet meer. Search Results Vaccinatie risico Sommige ouders laten hun kinderen niet inenten. Een kind dat niet gevaccineerd is is onvoldoende beschermd tegen de gevaarlijke infectieziekten. Het risico dat het kind de bewuste infectieziekte krijgt is groter als het kind deel uitmaakt van een niet-gevaccineerde hechte gemeenschap. Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Search for: Vaccinatie risico Feedback About Featured Snippets Web results Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels Translate this page Jun 17 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma Translate this page Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF]De verborgen gevaren van vaccinaties - WantToKnow https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren Jul 1 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Translate this page Wij vaccineren niet! Trailer . Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerking Translate this page Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-le Translate this page Jan 15 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Janneke Bazelmans: 'Over nadelen vaccinatie wordt veelal https://www.volkskrant.nl › columns-opinie › janneke-b - Translate this page Jul 22 2013 - In de discussie omtrent vaccinaties mist het standpunt van een hun eigen kinderen maar ook de kinderen van anderen in gevaar brengen. Gevaren van vaccinaties | Mens en Gezondheid: Diversen https://mens-en-gezondheid.infonu.nl › diversen › 1422 Translate this page Oct 9 2014 - Maar een steeds groter deel van de vaccinatieweigeraars zijn zich bewust geworden van de gevaren van vaccinaties. Het eerste vaccin Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › nieuws › 2019/06/19 › gevaarlijke- - Translate this page Jun 19 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf Translate this page May 3 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Searches related to Gevaren vaccinaties vaccinvrij vaccineren betekenis betoog vaccinatie nadelen vaccinatie vaccineren verplicht stichting vaccinvrij vaccinatie autisme wat is vaccinatie Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands3084 Rotterdam - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Gevaren vaccinaties Ongeveer 39.000 resultaten (0 44 seconden) Advertentie Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ Advertentiewww.npofocus.nl/Vaccineren‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. Weet meer. NPO Focus. Verdieping. Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF]De verborgen gevaren van vaccinaties - WantToKnow https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Veel mensen willen hun kinderen niet laten vaccineren. Daar is een reden voor. Denk mee denk na. Wij vaccineren niet! Trailer. Nederlands ondertiteld Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. 'Twijfels over vaccinaties gevaar voor volksgezondheid' | RTL https://www.rtlnieuws.nl › nieuws › buitenland › artikel › twijfels-over-vac 20 jun. 2019 - In Europa wordt zo veel getwijfeld aan de veiligheid en effectiviteit van vaccinaties dat het een gevaar voor de volksgezondheid begint te Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › 2019/06/19 › gevaarlijke-scepsis-over-vaccins-a3964399 19 jun. 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te VACCINATIES PER LAND I GGDREISVACCINATIES https://www.ggdreisvaccinaties.nl › heb-ik-een-vaccinatie-nodig Voor welk land heeft u vaccinaties nodig? Dat verschilt per land. In de landenzoeker kunt u vinden of u vaccinaties of inentingen nodig heeft voor uw reis. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme niet vaccineren forum bijwerkingen vaccinaties wat is vaccineren vaccinatie debat bmr vaccinatie gevaarlijk niet vaccineren kinderdagverblijf Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende </t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Happy Winter 2019! Gevolgen illegale immigratie About 151.000 results (0 37 seconds) Search Results Web results Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Translate this page Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdeling Translate this page Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-ill Translate this page Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Translate this page Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland - Translate this page Oct 23 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocument Translate this page Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migrante Translate this page Oct 9 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-h Translate this page Jun 7 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-o Translate this page Nov 15 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_v Translate this page De immigranten uit de laatste categorie zullen dan eerlijk over de lidstaten worden voor de terugkeer van illegaal verblijvende derdelanders (herschikking). Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands3084 Rotterdam - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Gevolgen illegale immigratie Ongeveer 146.000 resultaten (0 37 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen .. Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegale migratie illegaal persoon in huis mexicaanse migratie opvang illegale vluchtelingen anoniem melden ind illegaal werken in nederland illegaal verblijf niet strafbaar Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende </t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Eerste dag van de winter 2019 Zoekmodi AlleAfbeeldingenNieuwsVideo'sShoppingMeer InstellingenTools Ongeveer 586.000 resultaten (0 55 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over dit resultaat Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening › abortuspil_5_-_8_ Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ing 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en kon deze Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie abortus tot hoeveel weken duitsland tot hoeveel weken abortuspil abortus kosten abortus 24 weken procedure abortus tot wanneer abortus 24 weken hoe gaat dat instrumentele abortus Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandBreda - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 594.000 resultaten (0 50 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over dit resultaat Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening › abortuspil_5_-_8_ Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ing 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en kon deze Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie abortus tot hoeveel weken duitsland tot hoeveel weken abortuspil abortus kosten abortus 24 weken procedure abortus tot wanneer abortus 24 weken hoe gaat dat instrumentele abortus Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Eerste dag van de winter 2019 Zoekmodi AlleAfbeeldingenNieuwsVideo'sShoppingMeer InstellingenTools Ongeveer 145.000 resultaten (0 50 seconden) Advertenties Oorzaken Klimaatverandering | Lees Meer En Kom In Actie‎ Advertentiewww.wwf.nl/Klimaat/Oorzaken‎0800 1962 WNF zet zich wereldwijd in voor een beter klimaat. Lees meer en kom in actie! Bedreigde DierenGebiedenStop plasticOnze Aanpak Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ Advertentiewww.klimaatplein.com/klimaat/verandering‎073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. Besparing energieverbruik. Verduurzamen bedrijf. CO2 neutraal ondernemen. Inzicht in besparing. Services: SDE+ EIA MIA VAMIL. Zelf Energie OpwekkenDuurzaam BouwenWat is klimaatveranderingEnergiebesparing Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over dit resultaat Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: Oorzaak de mens? - Climategate https://www.climategate.nl › 2019/08 › klimaatverandering-oorzaak-de-me 5 aug. 2019 - Echter… er zijn wel degelijk andere oorzaken van klimaatverandering aan te wijzen waaraan de mens schuldig is en deze kunnen een Klimaatverandering : oorzaken - Climategate https://www.climategate.nl › 2017/10 › klimaatverandering-oorzaken 30 okt. 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “ Climate change: The facts 2017” uitgegeven door het Institute Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandBreda - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 175.000 resultaten (0 45 seconden) Advertenties Klimaatverandering | 10 feiten op een rij‎ Advertentiewww.worldanimalprotection.nl/klimaat/verandering‎ De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. +50 jr actief voor dieren. We stoppen dierenleed. Dieren horen in het wild. Oorzaken Klimaatverandering | Kom Samen Met WNF In Actie‎ Advertentiewww.wwf.nl/Klimaat/Oorzaken‎ 0800 1962 Lees hier wat WNF doet om klimaatverandering tegen te gaan en help mee! Interessen: Nieuwsbrief Donaties. Thema'sStop plasticOnze AanpakGebieden Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ Advertentiewww.klimaatplein.com/klimaat/verandering‎ 073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. CO2 neutraal ondernemen. Inzicht in besparing. Verduurzamen bedrijf. Besparing energieverbruik. Services: SDE+ EIA MIA VAMIL. SubsidiewijzerContact KlimaatpleinEnergiebesparingEnergiebewust Ondernemen Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over dit resultaat Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF] Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Klimaatverandering : oorzaken - Climategate https://www.climategate.nl › 2017/10 › klimaatverandering-oorzaken 30 okt. 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “Climate change: The facts 2017” uitgegeven door het Institute Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Klimaatverandering: oorzaken en effecten | Compendium voor https://www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Eerste dag van de winter 2019 Zoekmodi AlleAfbeeldingenMapsNieuwsVideo'sMeer InstellingenTools Ongeveer 88.000 resultaten (0 47 seconden) Zoekresultaten Samenvatting van internet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet Feedback Over dit resultaat Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Gemeenteraad: "Zwarte Piet vs Roetveegpiet" houvanarnhem.nl › gemeenteraad-zwarte-piet-vs-roetveegpiet Onlangs gaf D66-raadslid Susan van Ommen haar mening over Zwarte Piet. Wij zijn tegen roetveegpiet capituleren aan het gedram van een kleine groep Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch 5 meningen over Zwarte Piet: van 'niet aanpassen' tot https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Vijf leden van het Opiniepanel vertellen hoe zij denken over Zwarte Piet. 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Kijk Nou: Pro-Piet demonstreert onbedoeld als roetveegpiet https://joop.bnnvara.nl › kijk-nou › pro-piet-demonstreert-onbedoeld-als-r 14 nov. 2019 - Tijdens een demonstratie in Den Bosch voor het behoud van de racistische kenmerken van Zwarte Piet heeft een demonstrant per ongeluk Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie zwarte piet geschiedenis roetveegpiet schminken kick out zwarte piet roetveegpiet amsterdam roetveegpiet tekening zwarte piet voorstander zwarte pieten discussie 2018 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandBreda - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 65.400 resultaten (0 41 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet Feedback Over dit resultaat Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Gemeenteraad: "Zwarte Piet vs Roetveegpiet" houvanarnhem.nl › gemeenteraad-zwarte-piet-vs-roetveegpiet Onlangs gaf D66-raadslid Susan van Ommen haar mening over Zwarte Piet. Wij zijn tegen roetveegpiet capituleren aan het gedram van een kleine groep Alternatieve Sintjournaals zonder roetveegpiet: 'Er is vraag https://nos.nl › 11 nov. 2019 - De pieten in het Emmer Sinterklaasjournaal zijn wel zwart geschminkt Bekijk hieronder de verandering van Zwarte Piet naar roetveegpiet:. Rechter wijst bezwaar tegen roetveegpieten bij landelijke https://nos.nl › 7 nov. 2019 - De rechtbank in Arnhem heeft de eis dat er ook zwarte pieten bij moeten zijn afgewezen de gemeente hoeft de vergunning voor de intocht niet Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie roetveegpiet sinterklaasjournaal zwarte piet geschiedenis roetveegpiet schminken kick out zwarte piet roetveegpiet amsterdam roetveegpiet tekening zwarte pieten discussie 2018 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Eerste dag van de winter 2019 Zoekmodi AlleNieuwsAfbeeldingenShoppingMapsMeer InstellingenTools Ongeveer 37.300 resultaten (0 45 seconden) Advertentie Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ Advertentiewww.npofocus.nl/Vaccineren‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. Weet meer. Verdieping. NPO Focus. Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF]De verborgen gevaren van vaccinaties - WantToKnow https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Wij vaccineren niet! Trailer . Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › 2019/06/19 › gevaarlijke-scepsis-over-vaccins-a3964399 19 jun. 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te Artikel - Veelgestelde vragen over vaccineren https://dekennisvannu.nl › site › Veelgestelde-vragen-over-vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. Janneke Bazelmans: 'Over nadelen vaccinatie wordt veelal https://www.volkskrant.nl › columns-opinie › janneke-bazelmans-over-nadel 22 jul. 2013 - In de discussie omtrent vaccinaties mist het standpunt van een hun eigen kinderen maar ook de kinderen van anderen in gevaar brengen. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme bijwerkingen vaccinaties niet vaccineren forum wat is vaccineren vaccinatie debat bmr vaccinatie gevaarlijk niet vaccineren kinderdagverblijf Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandBreda - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 33.700 resultaten (0 38 seconden) Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF] De verborgen gevaren van vaccinaties - WantToKnow https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Veel mensen willen hun kinderen niet laten vaccineren. Daar is een reden voor. Denk mee denk na. Wij vaccineren niet! Trailer. Nederlands ondertiteld Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. 'Twijfels over vaccinaties gevaar voor volksgezondheid' | RTL https://www.rtlnieuws.nl › nieuws › buitenland › artikel › twijfels-over-vac 20 jun. 2019 - In Europa wordt zo veel getwijfeld aan de veiligheid en effectiviteit van vaccinaties dat het een gevaar voor de volksgezondheid begint te Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt VACCINATIES PER LAND I GGDREISVACCINATIES https://www.ggdreisvaccinaties.nl › heb-ik-een-vaccinatie-nodig Voor welk land heeft u vaccinaties nodig? Dat verschilt per land. In de landenzoeker kunt u vinden of u vaccinaties of inentingen nodig heeft voor uw reis. Janneke Bazelmans: 'Over nadelen vaccinatie wordt veelal https://www.volkskrant.nl › columns-opinie › janneke-bazelmans-over-nadel 22 jul. 2013 - In de discussie omtrent vaccinaties mist het standpunt van een hun eigen kinderen maar ook de kinderen van anderen in gevaar brengen. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme niet vaccineren forum bijwerkingen vaccinaties wat is vaccineren vaccinatie debat bmr vaccinatie gevaarlijk niet vaccineren kinderdagverblijf Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Eerste dag van de winter 2019 Zoekmodi AlleNieuwsAfbeeldingenVideo'sMapsMeer InstellingenTools Ongeveer 171.000 resultaten (0 51 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegale migratie illegaal persoon in huis mexicaanse migratie opvang illegale vluchtelingen anoniem melden ind illegaal werken in nederland illegaal verblijf niet strafbaar Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandBreda - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 186.000 resultaten (0 37 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen .. Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Aantal illegale immigranten in Europa daalt licht | Nederlands https://www.nd.nl › nieuws › buitenland › aantal-illegale-immigranten-in-e 13 nov. 2019 - Na een piek in 2016 daalt het aantal illegale immigranten in Europa. Zij maken minder dan 1 procent uit van de totale Europese bevolking Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegale migratie illegaal persoon in huis mexicaanse migratie opvang illegale vluchtelingen anoniem melden ind illegaal werken in nederland illegaal verblijf niet strafbaar Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden </t>
         </is>
       </c>
     </row>
@@ -1079,27 +1079,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Eerste dag van de winter 2019 Ongeveer 586.000 resultaten (0 49 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over dit resultaat Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening › abortuspil_5_-_8_ Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ing 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en kon deze Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie abortus tot hoeveel weken duitsland tot hoeveel weken abortuspil abortus kosten abortus 24 weken procedure abortus tot wanneer abortus 24 weken hoe gaat dat instrumentele abortus Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandGroningen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>bortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord › a Tot hoeveel weken kan ik een abortus laten uitvoeren Feedback Over dit resultaat Webresultaten https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot hoeveel weken kan ik een abortus laten uitvoeren Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? https://www.bloemenhove.nl/www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortus 13 tot 17 weken - Uitleg over de behandeling Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. https://www.bloemenhove.nl/www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortus 18 tot 22 weken - Uitleg over de behandeling Uitleg over de abortus behandeling in het laat 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de nacontrole. https://www.thuisarts.nl/www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. https://www.trouw.nl/www.trouw.nl › nieuws › bij-abortus-telt-alleen-de-moeder~be9b8150 'Bij abortus telt alléén de moeder' | Trouw 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. https://www.gezondheidsplein.nl/www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer en hoe kun je een abortus plegen? - Dossier Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet https://fiom.nl/fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling De abortusbehandeling | Fiom Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een https://www.schreeuwomleven.nl/www.schreeuwomleven.nl › abortusmethoden Abortusmethoden - Schreeuw om Leven Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt https://www.telegraaf.nl/www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken-no 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap https://www.telegraaf.nl/www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ingreep 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en kon deze Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus tot hoeveel weken duitsland abortus 24 weken procedure abortus 24 weken hoe gaat dat abortus in nederland abortus kliniek abortus informatie</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Eerste dag van de winter 2019 Ongeveer 145.000 resultaten (0 51 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over dit resultaat Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: Oorzaak de mens? - Climategate https://www.climategate.nl › 2019/08 › klimaatverandering-oorzaak-de-me 5 aug. 2019 - Echter… er zijn wel degelijk andere oorzaken van klimaatverandering aan te wijzen waaraan de mens schuldig is en deze kunnen een Klimaatverandering : oorzaken - Climategate https://www.climategate.nl › 2017/10 › klimaatverandering-oorzaken 30 okt. 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “Climate change: The facts 2017” uitgegeven door het Institute Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandGroningen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve">Advertenties Advertentie· www.wwf.nl/Klimaat/Oorzaken ‎ Oorzaken Klimaatverandering | Lees Meer En Kom In Actie‎ ‎ 0800 1962 WNF zet zich wereldwijd in voor een beter klimaat. Lees meer en kom in actie! Interessen: Nieuwsbrief Donaties. Thema's Lees over de belangrijkste thema's waar WWF zich voor inzet! Teken de Petitie Voor een zee zonder palstic. Teken hier. Advertentie· www.worldanimalprotection.nl/klimaat/verandering ‎ Klimaatverandering | 10 feiten op een rij‎ ‎ De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. Dieren horen in het wild. We stoppen dierenleed. +50 jr actief voor dieren. Advertentie· www.klimaatplein.com/klimaat/verandering ‎ Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ ‎ 073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. CO2 neutraal ondernemen. Inzicht in besparing. Verduurzamen bedrijf. Besparing energieverbruik. Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. https://www.ce.nl/www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE Delft Feedback Over dit resultaat Webresultaten https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Klimaatverandering en gevolgen - Rijksoverheid Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de https://www.wur.nl/www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Oorzaken klimaatverandering - WUR Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. PDFhttps://www.ce.nl/www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE Delft Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. https://www.urgenda.nl/www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › wa waarom weten we zeker dat de mens klimaatverandering Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de https://ec.europa.eu/ec.europa.eu › clima › change › causes_nl Causes of climate change | Klimaat - European Commission Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van https://www.klimaat.be/www.klimaat.be › nl-be › klimaatverandering › het-klimaat Oorzaken - Klimaat.be De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig https://www.hier.nu/www.hier.nu › Thema's › Klimaatwoordenboek Klimaatverandering: oorzaken en gevolgen | HIER 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot https://milieudefensie.nl/milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Wat is klimaatverandering? — Milieudefensie Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens https://www.climategate.nl/www.climategate.nl › 2017/10 › klimaatverandering-oorzaken Klimaatverandering : oorzaken - Climategate 30 okt. 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “Climate change: The facts 2017” uitgegeven door het Institute https://www.clo.nl/www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten | Compendium voor Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Eerste dag van de winter 2019 Ongeveer 89.800 resultaten (0 40 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Samenvatting van internet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet Feedback Over dit resultaat Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Gemeenteraad: "Zwarte Piet vs Roetveegpiet" houvanarnhem.nl › gemeenteraad-zwarte-piet-vs-roetveegpiet Onlangs gaf D66-raadslid Susan van Ommen haar mening over Zwarte Piet. Wij zijn tegen roetveegpiet capituleren aan het gedram van een kleine groep Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Kijk Nou: Pro-Piet demonstreert onbedoeld als roetveegpiet https://joop.bnnvara.nl › kijk-nou › pro-piet-demonstreert-onbedoeld-als-r 14 nov. 2019 - Tijdens een demonstratie in Den Bosch voor het behoud van de racistische kenmerken van Zwarte Piet heeft een demonstrant per ongeluk Alternatieve Sintjournaals zonder roetveegpiet: 'Er is vraag https://nos.nl › 11 nov. 2019 - De pieten in het Emmer Sinterklaasjournaal zijn wel zwart geschminkt Bekijk hieronder de verandering van Zwarte Piet naar roetveegpiet:. Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie roetveegpiet sinterklaasjournaal zwarte piet geschiedenis roetveegpiet schminken kick out zwarte piet roetveegpiet amsterdam roetveegpiet tekening zwarte piet voorstander Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandGroningen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve">De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. https://nl.wikipedia.org/nl.wikipedia.org › wiki › Roetpiet Roetpiet - Wikipedia Feedback Over dit resultaat Webresultaten https://www.ad.nl/www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-rug Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is https://www.ad.nl/www.ad.nl › rotterdam › regio-ziet-niets-in-roetveegpiet-bij-ons-blijft Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo 8 nov. 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van https://www.volkskrant.nl/www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terrein- De roetveegpiet wint terrein al nemen veel - Volkskrant 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in https://www.trouw.nl/www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en-d Waarom Roetveegpiet er bij Sylvie en Danny niet in komt 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. https://www.nrc.nl/www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 Zwarte pieten willen niet meer - NRC 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet https://eenvandaag.avrotros.nl/eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen Weinig draagvlak voor roetveegpieten bij landelijke intocht 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch https://eenvandaag.avrotros.nl/eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 14 nov. 2019 - Vijf leden van het Opiniepanel vertellen hoe zij denken over Zwarte Piet. 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. https://nl.wikipedia.org/nl.wikipedia.org › wiki › Roetpiet Roetpiet - Wikipedia De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. http://houvanarnhem.nl/houvanarnhem.nl › gemeenteraad-zwarte-piet-vs-roetveegpiet Gemeenteraad: "Zwarte Piet vs Roetveegpiet" Onlangs gaf D66-raadslid Susan van Ommen haar mening over Zwarte Piet. Wij zijn tegen roetveegpiet capituleren aan het gedram van een kleine groep https://www.nu.nl/www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpiet Gemeenten kiezen vaker voor roetveegpiet maar merendeel 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende </t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Eerste dag van de winter 2019 Ongeveer 33.800 resultaten (0 49 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF]De verborgen gevaren van vaccinaties - WantToKnow https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Veel mensen willen hun kinderen niet laten vaccineren. Daar is een reden voor. Denk mee denk na. Wij vaccineren niet! Trailer. Nederlands ondertiteld Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › 2019/06/19 › gevaarlijke-scepsis-over-vaccins-a3964399 19 jun. 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te VACCINATIES PER LAND I GGDREISVACCINATIES https://www.ggdreisvaccinaties.nl › heb-ik-een-vaccinatie-nodig Voor welk land heeft u vaccinaties nodig? Dat verschilt per land. In de landenzoeker kunt u vinden of u vaccinaties of inentingen nodig heeft voor uw reis. Janneke Bazelmans: 'Over nadelen vaccinatie wordt veelal https://www.volkskrant.nl › columns-opinie › janneke-bazelmans-over-nadel 22 jul. 2013 - In de discussie omtrent vaccinaties mist het standpunt van een hun eigen kinderen maar ook de kinderen van anderen in gevaar brengen. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme bijwerkingen vaccinaties niet vaccineren forum wat is vaccineren vaccinatie debat bmr vaccinatie gevaarlijk niet vaccineren kinderdagverblijf Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandGroningen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve">Advertenties Advertentie· www.npofocus.nl/Vaccineren ‎ Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ ‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. NPO Focus. Weet meer. Verdieping. Zoekresultaten Webresultaten https://rijksvaccinatieprogramma.nl/rijksvaccinatieprogramma.nl › vaccinaties › twijfels Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn https://www.nvkp.nl/www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Heeft het niet vaccineren van kinderen nadelige gevolgen? Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden PDFhttps://www.wanttoknow.nl/www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren-v De verborgen gevaren van vaccinaties - WantToKnow 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' https://stichtingvaccinvrij.nl/stichtingvaccinvrij.nl Stichting Vaccinvrij Veel mensen willen hun kinderen niet laten vaccineren. Daar is een reden voor. Denk mee denk na. Wij vaccineren niet! Trailer. Nederlands ondertiteld https://www.thuisvaccinatie.nl/www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. https://www.scientias.nl/www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend Vaccineren: levensgevaarlijk of levensreddend? - Scientias 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. https://www.volkskrant.nl/www.volkskrant.nl › columns-opinie › janneke-bazelmans-over-nadelen Janneke Bazelmans: 'Over nadelen vaccinatie wordt veelal 22 jul. 2013 - Ouders die geen fervente tegenstanders van vaccinaties zijn maar kritisch kinderen maar ook de kinderen van anderen in gevaar brengen. https://www.umcutrecht.nl/www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-bescher Vaccineren: jezelf en anderen beschermen - UMC Utrecht 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt https://mens-en-gezondheid.infonu.nl/mens-en-gezondheid.infonu.nl › diversen › 142246-gevaren-van-vac Gevaren van vaccinaties | Mens en Gezondheid: Diversen 9 okt. 2014 - Maar een steeds groter deel van de vaccinatieweigeraars zijn zich bewust geworden van de gevaren van vaccinaties. Het eerste vaccin https://dekennisvannu.nl/dekennisvannu.nl › site › artikel › Veelgestelde-vragen-over-vaccineren Artikel - Veelgestelde vragen over vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme niet vaccineren niet vaccineren forum bijwerkingen vaccinaties anti vaccinatie facebook niet vaccineren kinderdagverblijf bmr vaccinatie Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende </t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Eerste dag van de winter 2019 Ongeveer 171.000 resultaten (0 53 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegale migratie illegaal persoon in huis mexicaanse migratie opvang illegale vluchtelingen anoniem melden ind illegaal werken in nederland illegaal verblijf niet strafbaar Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandGroningen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t xml:space="preserve">Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten https://nl.wikipedia.org/nl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie - Wikipedia Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als https://www.politie.nl/www.politie.nl › themas › illegaliteit-vreemdelingen Illegaliteit/vreemdelingen | politie.nl Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-terug Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom https://www.volkskrant.nl/www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenken- Nederland moet diep nadenken over de vergaande gevolgen 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt https://europadecentraal.nl/europadecentraal.nl › onderwerp › migratie Migratie - Europa decentraal Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn https://www.amnesty.nl/www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-en- Ongedocumenteerden (illegalen) en uitgeprocedeerden Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de https://decorrespondent.nl/decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-deze Als het om illegale migranten gaat hebben deze grote 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke https://www.nd.nl/www.nd.nl › nieuws › buitenland › aantal-illegale-immigranten-in-eur Aantal illegale immigranten in Europa daalt licht | Nederlands 13 nov. 2019 - Na een piek in 2016 daalt het aantal illegale immigranten in Europa. Zij maken minder dan 1 procent uit van de totale Europese bevolking https://www.europa-nu.nl/www.europa-nu.nl › europese_maatregelen_in_verband_met Europese maatregelen in verband met migratie - Europa Nu Migratieroutes naar Europa Opvang en verdelen vluchtelingen .. Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. https://jalta.nl/jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-van- Bedreigt illegale migratie het voorbestaan van de EU? | Jalta 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegaal persoon in huis illegale migratie mexicaanse migratie opvang illegale vluchtelingen anoniem melden ind illegaal verblijf niet strafbaar illegaal in nederland en trouwen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende </t>
         </is>
       </c>
     </row>
@@ -1109,27 +1109,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Abortus tot hoeveel weken? Ongeveer 551.000 resultaten (0 49 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over dit resultaat Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening › abortuspil_5_-_8_ Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ing 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en kon deze Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie abortus tot hoeveel weken duitsland tot hoeveel weken abortuspil abortus kosten abortus 24 weken procedure abortus tot wanneer abortus 24 weken hoe gaat dat instrumentele abortus Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenNieuwsVideo'sShoppingMeer InstellingenTools Ongeveer 623.000 resultaten (0 42 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over dit resultaat Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortus 18 tot 22 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_18_-_22_ Uitleg over de abortus behandeling in het laat 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de nacontrole. Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ing 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en kon deze Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus tot hoeveel weken duitsland abortus 24 weken procedure abortus 24 weken hoe gaat dat abortus in nederland abortus kliniek abortus informatie Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Oorzaken klimaatverandering Ongeveer 148.000 resultaten (0 63 seconden) Advertenties Oorzaken Klimaatverandering | Kom Samen Met WNF In Actie‎ Advertentiewww.wwf.nl/Klimaat/Oorzaken‎0800 1962 Lees hier wat WNF doet om klimaatverandering tegen te gaan en help mee! Interessen: Nieuwsbrief Donaties. GebiedenBedreigde DierenStop plasticOnze Aanpak Klimaatverandering | 10 feiten op een rij‎ Advertentiewww.worldanimalprotection.nl/klimaat/verandering‎ De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. Dieren horen in het wild. We stoppen dierenleed. +50 jr actief voor dieren. Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ Advertentiewww.klimaatplein.com/klimaat/verandering‎073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. CO2 neutraal ondernemen. Verduurzamen bedrijf. Besparing energieverbruik. Inzicht in besparing. Services: SDE+ EIA MIA VAMIL. EnergiebesparingContact KlimaatpleinSubsidiewijzerWat is klimaatverandering Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over dit resultaat Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: Oorzaak de mens? - Climategate https://www.climategate.nl › 2019/08 › klimaatverandering-oorzaak-de-me 5 aug. 2019 - Echter… er zijn wel degelijk andere oorzaken van klimaatverandering aan te wijzen waaraan de mens schuldig is en deze kunnen een Klimaatverandering : oorzaken - Climategate https://www.climategate.nl › 2017/10 › klimaatverandering-oorzaken 30 okt. 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “Climate change: The facts 2017” uitgegeven door het Institute Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenNieuwsVideo'sShoppingMeer InstellingenTools Ongeveer 161.000 resultaten (0 46 seconden) Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over dit resultaat Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Klimaatverandering : oorzaken - Climategate https://www.climategate.nl › 2017/10 › klimaatverandering-oorzaken 30 okt. 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “ Climate change: The facts 2017” uitgegeven door het Institute Klimaatverandering: oorzaken en effecten | Compendium voor https://www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Zwarte piet of roetveegpiet? Ongeveer 71.800 resultaten (0 44 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet Feedback Over dit resultaat Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Gemeenteraad: "Zwarte Piet vs Roetveegpiet" houvanarnhem.nl › gemeenteraad-zwarte-piet-vs-roetveegpiet Onlangs gaf D66-raadslid Susan van Ommen haar mening over Zwarte Piet. Wij zijn tegen roetveegpiet capituleren aan het gedram van een kleine groep Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch 5 meningen over Zwarte Piet: van 'niet aanpassen' tot https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Vijf leden van het Opiniepanel vertellen hoe zij denken over Zwarte Piet. 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Alternatieve Sintjournaals zonder roetveegpiet: 'Er is vraag https://nos.nl › 11 nov. 2019 - De pieten in het Emmer Sinterklaasjournaal zijn wel zwart geschminkt Bekijk hieronder de verandering van Zwarte Piet naar roetveegpiet:. Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie roetveegpiet sinterklaasjournaal roetveegpiet schminken zwarte piet geschiedenis kick out zwarte piet roetveegpiet amsterdam roetveegpiet tekening zwarte piet voorstander Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenMapsNieuwsVideo'sMeer InstellingenTools Ongeveer 76.000 resultaten (0 37 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet Feedback Over dit resultaat Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo https://www.ad.nl › rotterdam › regio-ziet-niets-in-roetveegpiet-bij-ons-blij 8 nov. 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch 5 meningen over Zwarte Piet: van 'niet aanpassen' tot https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Vijf leden van het Opiniepanel vertellen hoe zij denken over Zwarte Piet. 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Gemeenteraad: "Zwarte Piet vs Roetveegpiet" houvanarnhem.nl › gemeenteraad-zwarte-piet-vs-roetveegpiet Onlangs gaf D66-raadslid Susan van Ommen haar mening over Zwarte Piet. Wij zijn tegen roetveegpiet capituleren aan het gedram van een kleine groep Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Gevaren vaccinaties Ongeveer 39.000 resultaten (0 44 seconden) Advertentie Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ Advertentiewww.npofocus.nl/Vaccineren‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. Weet meer. NPO Focus. Verdieping. Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF]De verborgen gevaren van vaccinaties - WantToKnow https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Veel mensen willen hun kinderen niet laten vaccineren. Daar is een reden voor. Denk mee denk na. Wij vaccineren niet! Trailer. Nederlands ondertiteld Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. 'Twijfels over vaccinaties gevaar voor volksgezondheid' | RTL https://www.rtlnieuws.nl › nieuws › buitenland › artikel › twijfels-over-vac 20 jun. 2019 - In Europa wordt zo veel getwijfeld aan de veiligheid en effectiviteit van vaccinaties dat het een gevaar voor de volksgezondheid begint te Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › 2019/06/19 › gevaarlijke-scepsis-over-vaccins-a3964399 19 jun. 2019 - zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. kinderziektes dat dit een gevaar voor de volksgezondheid begint te VACCINATIES PER LAND I GGDREISVACCINATIES https://www.ggdreisvaccinaties.nl › heb-ik-een-vaccinatie-nodig Voor welk land heeft u vaccinaties nodig? Dat verschilt per land. In de landenzoeker kunt u vinden of u vaccinaties of inentingen nodig heeft voor uw reis. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme niet vaccineren forum bijwerkingen vaccinaties wat is vaccineren vaccinatie debat bmr vaccinatie gevaarlijk niet vaccineren kinderdagverblijf Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleNieuwsAfbeeldingenShoppingMapsMeer InstellingenTools Ongeveer 30.700 resultaten (0 35 seconden) Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF]De verborgen gevaren van vaccinaties - WantToKnow https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Veel mensen willen hun kinderen niet laten vaccineren. Daar is een reden voor. Denk mee denk na. Wij vaccineren niet! Trailer. Nederlands ondertiteld Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Janneke Bazelmans: 'Over nadelen vaccinatie wordt veelal https://www.volkskrant.nl › columns-opinie › janneke-bazelmans-over-nadel 22 jul. 2013 - Ouders die geen fervente tegenstanders van vaccinaties zijn maar kritisch kinderen maar ook de kinderen van anderen in gevaar brengen. VACCINATIES PER LAND I GGDREISVACCINATIES https://www.ggdreisvaccinaties.nl › heb-ik-een-vaccinatie-nodig Voor welk land heeft u vaccinaties nodig? Dat verschilt per land. In de landenzoeker kunt u vinden of u vaccinaties of inentingen nodig heeft voor uw reis. Gevaren van vaccinaties | Mens en Gezondheid: Diversen https://mens-en-gezondheid.infonu.nl › diversen › 142246-gevaren-van-v 9 okt. 2014 - Maar een steeds groter deel van de vaccinatieweigeraars zijn zich bewust geworden van de gevaren van vaccinaties. Het eerste vaccin Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme niet vaccineren spijt van niet vaccineren niet vaccineren forum bijwerkingen vaccinaties anti vaccinatie facebook niet vaccineren kinderdagverblijf Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Prettige feestdagen! Gevolgen illegale immigratie Ongeveer 146.000 resultaten (0 37 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegale migratie illegaal persoon in huis mexicaanse migratie opvang illegale vluchtelingen anoniem melden ind illegaal werken in nederland illegaal verblijf niet strafbaar Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleNieuwsAfbeeldingenVideo'sMapsMeer InstellingenTools Ongeveer 167.000 resultaten (0 41 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Aantal illegale immigranten in Europa daalt licht | Nederlands https://www.nd.nl › nieuws › buitenland › aantal-illegale-immigranten-in-e 13 nov. 2019 - Na een piek in 2016 daalt het aantal illegale immigranten in Europa. Zij maken minder dan 1 procent uit van de totale Europese bevolking Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen .. Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegaal persoon in huis illegale migratie mexicaanse migratie opvang illegale vluchtelingen anoniem melden ind illegaal verblijf niet strafbaar hoeveel mexicanen in de vs Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -1139,27 +1139,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 594.000 resultaten (0 50 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over dit resultaat Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening › abortuspil_5_-_8_ Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ing 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en kon deze Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie abortus tot hoeveel weken duitsland tot hoeveel weken abortuspil abortus kosten abortus 24 weken procedure abortus tot wanneer abortus 24 weken hoe gaat dat instrumentele abortus Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Abortus tot hoeveel weken? Ongeveer 601.000 resultaten (0 35 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over samenvattingen Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortus 18 tot 22 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_18_-_22_ Uitleg over de abortus behandeling in het laat 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de nacontrole. Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ing 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen nog maar vijf weken zwanger en kon deze zwangerschap dus 'makkelijk' Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later vaginaal Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken duitsland tot hoeveel weken abortuspil abortus 24 weken procedure abortus kosten abortus 24 weken hoe gaat dat abortus informatie hoeveel kost abortus abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 175.000 resultaten (0 45 seconden) Advertenties Klimaatverandering | 10 feiten op een rij‎ Advertentiewww.worldanimalprotection.nl/klimaat/verandering‎ De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. +50 jr actief voor dieren. We stoppen dierenleed. Dieren horen in het wild. Oorzaken Klimaatverandering | Kom Samen Met WNF In Actie‎ Advertentiewww.wwf.nl/Klimaat/Oorzaken‎ 0800 1962 Lees hier wat WNF doet om klimaatverandering tegen te gaan en help mee! Interessen: Nieuwsbrief Donaties. Thema'sStop plasticOnze AanpakGebieden Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ Advertentiewww.klimaatplein.com/klimaat/verandering‎ 073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. CO2 neutraal ondernemen. Inzicht in besparing. Verduurzamen bedrijf. Besparing energieverbruik. Services: SDE+ EIA MIA VAMIL. SubsidiewijzerContact KlimaatpleinEnergiebesparingEnergiebewust Ondernemen Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over dit resultaat Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF] Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Klimaatverandering : oorzaken - Climategate https://www.climategate.nl › 2017/10 › klimaatverandering-oorzaken 30 okt. 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “Climate change: The facts 2017” uitgegeven door het Institute Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Klimaatverandering: oorzaken en effecten | Compendium voor https://www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Oorzaken klimaatverandering Ongeveer 155.000 resultaten (0 29 seconden) Advertenties Oorzaken Klimaatverandering | Kom Samen Met WNF In Actie‎ Advertentiewww.wwf.nl/Klimaat/Oorzaken‎0800 1962 Lees hier wat WNF doet om klimaatverandering tegen te gaan en help mee! Interessen: Nieuwsbrief Donaties. Gebieden Bekijk hier de primaire gebieden waar WWF actief is Stop plastic Teken de petitie tegen wegwerpplastic Klimaatverandering | 10 feiten op een rij‎ Advertentiewww.worldanimalprotection.nl/‎ Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. Dieren horen in het wild. +50 jr actief voor dieren. We stoppen dierenleed. Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ Advertentiewww.klimaatplein.com/klimaat/verandering‎073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. Verduurzamen bedrijf. Inzicht in besparing. CO2 neutraal ondernemen. Energie Besparen Op ICTDuurzaam BouwenDuurzame EnergieEnergiebesparing Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over samenvattingen Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Klimaatverandering: oorzaken en effecten | Compendium voor https://www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie Klimaatverandering : oorzaken - Climategate https://www.climategate.nl › 2017/10 › klimaatverandering-oorzaken 30 okt. 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “Climate change: The facts 2017” uitgegeven door het Institute Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 GJ Nijmegen - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 65.400 resultaten (0 41 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet Feedback Over dit resultaat Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - VideoDe eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Gemeenteraad: "Zwarte Piet vs Roetveegpiet" houvanarnhem.nl › gemeenteraad-zwarte-piet-vs-roetveegpiet Onlangs gaf D66-raadslid Susan van Ommen haar mening over Zwarte Piet. Wij zijn tegen roetveegpiet capituleren aan het gedram van een kleine groep Alternatieve Sintjournaals zonder roetveegpiet: 'Er is vraag https://nos.nl › 11 nov. 2019 - De pieten in het Emmer Sinterklaasjournaal zijn wel zwart geschminkt Bekijk hieronder de verandering van Zwarte Piet naar roetveegpiet:. Rechter wijst bezwaar tegen roetveegpieten bij landelijke https://nos.nl › 7 nov. 2019 - De rechtbank in Arnhem heeft de eis dat er ook zwarte pieten bij moeten zijn afgewezen de gemeente hoeft de vergunning voor de intocht niet Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie roetveegpiet sinterklaasjournaal zwarte piet geschiedenis roetveegpiet schminken kick out zwarte piet roetveegpiet amsterdam roetveegpiet tekening zwarte pieten discussie 2018 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zwarte piet of roetveegpiet? Ongeveer 73.600 resultaten (0 34 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet Feedback Over samenvattingen Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo https://www.ad.nl › rotterdam › regio-ziet-niets-in-roetveegpiet-bij-ons-blij 8 nov. 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch 5 meningen over Zwarte Piet: van 'niet aanpassen' tot https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Wat moet er gebeuren met het uiterlijk van Zwarte Piet? En hoe wordt er 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Afbeeldingen van Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Alles bekijken Meer afbeeldingen voor Zwarte piet of roetveegpiet? Afbeeldingen melden Webresultaten Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Gemeenteraad: "Zwarte Piet vs Roetveegpiet" houvanarnhem.nl › gemeenteraad-zwarte-piet-vs-roetveegpiet Onlangs gaf D66-raadslid Susan van Ommen haar mening over Zwarte Piet. Wij zijn tegen roetveegpiet capituleren aan het gedram van een kleine groep Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 GJ Nijmegen - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 33.700 resultaten (0 38 seconden) Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF] De verborgen gevaren van vaccinaties - WantToKnow https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Veel mensen willen hun kinderen niet laten vaccineren. Daar is een reden voor. Denk mee denk na. Wij vaccineren niet! Trailer. Nederlands ondertiteld Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. 'Twijfels over vaccinaties gevaar voor volksgezondheid' | RTL https://www.rtlnieuws.nl › nieuws › buitenland › artikel › twijfels-over-vac 20 jun. 2019 - In Europa wordt zo veel getwijfeld aan de veiligheid en effectiviteit van vaccinaties dat het een gevaar voor de volksgezondheid begint te Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt VACCINATIES PER LAND I GGDREISVACCINATIES https://www.ggdreisvaccinaties.nl › heb-ik-een-vaccinatie-nodig Voor welk land heeft u vaccinaties nodig? Dat verschilt per land. In de landenzoeker kunt u vinden of u vaccinaties of inentingen nodig heeft voor uw reis. Janneke Bazelmans: 'Over nadelen vaccinatie wordt veelal https://www.volkskrant.nl › columns-opinie › janneke-bazelmans-over-nadel 22 jul. 2013 - In de discussie omtrent vaccinaties mist het standpunt van een hun eigen kinderen maar ook de kinderen van anderen in gevaar brengen. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme niet vaccineren forum bijwerkingen vaccinaties wat is vaccineren vaccinatie debat bmr vaccinatie gevaarlijk niet vaccineren kinderdagverblijf Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevaren vaccinaties Ongeveer 34.900 resultaten (0 34 seconden) Advertenties Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ Advertentiewww.npofocus.nl/Vaccineren‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. Weet meer. Verdieping. NPO Focus. Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF]De verborgen gevaren van vaccinaties - WantToKnow https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Veel mensen willen hun kinderen niet laten vaccineren. Daar is een reden voor. Denk mee denk na. Wij vaccineren niet! Trailer. Nederlands ondertiteld Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? 'Twijfels over vaccinaties gevaar voor volksgezondheid' | RTL https://www.rtlnieuws.nl › nieuws › buitenland › artikel › twijfels-over-vac 20 jun. 2019 - In Europa wordt zo veel getwijfeld aan de veiligheid en effectiviteit van vaccinaties dat het een gevaar voor de volksgezondheid begint te Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. VACCINATIES PER LAND I GGDREISVACCINATIES https://www.ggdreisvaccinaties.nl › heb-ik-een-vaccinatie-nodig Voor welk land heeft u vaccinaties nodig? Dat verschilt per land. In de landenzoeker kunt u vinden of u vaccinaties of inentingen nodig heeft voor uw reis. Janneke Bazelmans: 'Over nadelen vaccinatie wordt veelal https://www.volkskrant.nl › columns-opinie › janneke-bazelmans-over-nadel 22 jul. 2013 - Ouders die geen fervente tegenstanders van vaccinaties zijn maar kritisch kinderen maar ook de kinderen van anderen in gevaar brengen. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme niet vaccineren spijt van niet vaccineren niet vaccineren forum bijwerkingen vaccinaties anti vaccinatie facebook niet vaccineren kinderdagverblijf Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 GJ Nijmegen - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 186.000 resultaten (0 37 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Je kunt migratie ook met andere ogen bekijken – Sociale https://www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-oge 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Aantal illegale immigranten in Europa daalt licht | Nederlands https://www.nd.nl › nieuws › buitenland › aantal-illegale-immigranten-in-e 13 nov. 2019 - Na een piek in 2016 daalt het aantal illegale immigranten in Europa. Zij maken minder dan 1 procent uit van de totale Europese bevolking Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegale migratie illegaal persoon in huis mexicaanse migratie opvang illegale vluchtelingen anoniem melden ind illegaal werken in nederland illegaal verblijf niet strafbaar Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback verzendenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 215.000 resultaten (0 36 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Zonder immigratie zou Amsterdam een krimpregio zijn | Het https://www.parool.nl › amsterdam › zonder-immigratie-zou-amsterdam-een 5 dagen geleden - Zonder immigratie zou Amsterdam een krimpregio zijn op het aantal nieuwkomers zal grote gevolgen hebben voor Amsterdam immigratiestad bij uitstek. Gemeente sluit pand in West wegens illegale gokpraktijken Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegaal persoon in huis illegale migratie illegaal verblijf niet strafbaar opvang illegale vluchtelingen illegaal in nederland en trouwen anoniem melden ind hoeveel illegalen in nederland 2018 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 GJ Nijmegen - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -1169,27 +1169,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>bortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord › a Tot hoeveel weken kan ik een abortus laten uitvoeren Feedback Over dit resultaat Webresultaten https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot hoeveel weken kan ik een abortus laten uitvoeren Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? https://www.bloemenhove.nl/www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortus 13 tot 17 weken - Uitleg over de behandeling Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. https://www.bloemenhove.nl/www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortus 18 tot 22 weken - Uitleg over de behandeling Uitleg over de abortus behandeling in het laat 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de nacontrole. https://www.thuisarts.nl/www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. https://www.trouw.nl/www.trouw.nl › nieuws › bij-abortus-telt-alleen-de-moeder~be9b8150 'Bij abortus telt alléén de moeder' | Trouw 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. https://www.gezondheidsplein.nl/www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer en hoe kun je een abortus plegen? - Dossier Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet https://fiom.nl/fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling De abortusbehandeling | Fiom Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een https://www.schreeuwomleven.nl/www.schreeuwomleven.nl › abortusmethoden Abortusmethoden - Schreeuw om Leven Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt https://www.telegraaf.nl/www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken-no 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap https://www.telegraaf.nl/www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ingreep 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en kon deze Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus tot hoeveel weken duitsland abortus 24 weken procedure abortus 24 weken hoe gaat dat abortus in nederland abortus kliniek abortus informatie</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenNieuwsVideo'sShoppingMeer InstellingenTools Ongeveer 4.080.000 resultaten (0 37 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over samenvattingen Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortus 18 tot 22 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_18_-_22_ Uitleg over de abortus behandeling in het laat 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de nacontrole. Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ing 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen nog maar vijf weken zwanger en kon deze zwangerschap dus 'makkelijk' Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later vaginaal De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een Abortus als laatste redmiddel | Gezondheidsnet https://www.gezondheidsnet.nl › zwanger › abortus-als-laatste-redmiddel 8 dec. 2016 - Een abortus mag in Nederland tot 23 weken zwangerschap gerekend vanaf de eerste dag van de laatste menstruatie. 5 dagen bedenktijd is Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken duitsland tot hoeveel weken abortuspil abortus 24 weken procedure abortus kosten abortus 24 weken hoe gaat dat abortus informatie hoeveel kost abortus abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1191 VL Ouderkerk aan de Amstel - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Advertenties Advertentie· www.wwf.nl/Klimaat/Oorzaken ‎ Oorzaken Klimaatverandering | Lees Meer En Kom In Actie‎ ‎ 0800 1962 WNF zet zich wereldwijd in voor een beter klimaat. Lees meer en kom in actie! Interessen: Nieuwsbrief Donaties. Thema's Lees over de belangrijkste thema's waar WWF zich voor inzet! Teken de Petitie Voor een zee zonder palstic. Teken hier. Advertentie· www.worldanimalprotection.nl/klimaat/verandering ‎ Klimaatverandering | 10 feiten op een rij‎ ‎ De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. Dieren horen in het wild. We stoppen dierenleed. +50 jr actief voor dieren. Advertentie· www.klimaatplein.com/klimaat/verandering ‎ Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ ‎ 073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. CO2 neutraal ondernemen. Inzicht in besparing. Verduurzamen bedrijf. Besparing energieverbruik. Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. https://www.ce.nl/www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE Delft Feedback Over dit resultaat Webresultaten https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Klimaatverandering en gevolgen - Rijksoverheid Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de https://www.wur.nl/www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Oorzaken klimaatverandering - WUR Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. PDFhttps://www.ce.nl/www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE Delft Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. https://www.urgenda.nl/www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › wa waarom weten we zeker dat de mens klimaatverandering Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de https://ec.europa.eu/ec.europa.eu › clima › change › causes_nl Causes of climate change | Klimaat - European Commission Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van https://www.klimaat.be/www.klimaat.be › nl-be › klimaatverandering › het-klimaat Oorzaken - Klimaat.be De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig https://www.hier.nu/www.hier.nu › Thema's › Klimaatwoordenboek Klimaatverandering: oorzaken en gevolgen | HIER 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot https://milieudefensie.nl/milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Wat is klimaatverandering? — Milieudefensie Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens https://www.climategate.nl/www.climategate.nl › 2017/10 › klimaatverandering-oorzaken Klimaatverandering : oorzaken - Climategate 30 okt. 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “Climate change: The facts 2017” uitgegeven door het Institute https://www.clo.nl/www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten | Compendium voor Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenNieuwsVideo'sShoppingMeer InstellingenTools Ongeveer 163.000 resultaten (0 38 seconden) Advertenties Oorzaken Klimaatverandering? | Meer informatie op WNF.nl‎ Advertentiewww.wwf.nl/Klimaat/Oorzaken‎0800 1962 WNF zet zich in tegen klimaatverandering. Lees meer en kom in actie met WNF! Interessen: Nieuwsbrief Donaties. Stop plasticGebiedenOnze AanpakThema's 10 feiten op een rij over | Klimaatverandering‎ Advertentiewww.worldanimalprotection.nl/klimaat/verandering‎ Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. We stoppen dierenleed. +50 jr actief voor dieren. Dieren horen in het wild. Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ Advertentiewww.klimaatplein.com/klimaat/verandering‎073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. Verduurzamen bedrijf. CO2 neutraal ondernemen. Inzicht in besparing. Besparing energieverbruik. Services: SDE+ EIA MIA VAMIL. Energie Besparen Op ICTZelf Energie OpwekkenEnergiebesparingKlimaatverandering Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over samenvattingen Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Klimaatverandering: oorzaken en effecten | Compendium voor https://www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Klimaatverandering : oorzaken - Climategate https://www.climategate.nl › 2017/10 › klimaatverandering-oorzaken 30 okt. 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “ Climate change: The facts 2017” uitgegeven door het Institute Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1191 VL Ouderkerk aan de Amstel - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. https://nl.wikipedia.org/nl.wikipedia.org › wiki › Roetpiet Roetpiet - Wikipedia Feedback Over dit resultaat Webresultaten https://www.ad.nl/www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-rug Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is https://www.ad.nl/www.ad.nl › rotterdam › regio-ziet-niets-in-roetveegpiet-bij-ons-blijft Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo 8 nov. 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van https://www.volkskrant.nl/www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terrein- De roetveegpiet wint terrein al nemen veel - Volkskrant 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in https://www.trouw.nl/www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en-d Waarom Roetveegpiet er bij Sylvie en Danny niet in komt 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. https://www.nrc.nl/www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 Zwarte pieten willen niet meer - NRC 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet https://eenvandaag.avrotros.nl/eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen Weinig draagvlak voor roetveegpieten bij landelijke intocht 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch https://eenvandaag.avrotros.nl/eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 14 nov. 2019 - Vijf leden van het Opiniepanel vertellen hoe zij denken over Zwarte Piet. 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. https://nl.wikipedia.org/nl.wikipedia.org › wiki › Roetpiet Roetpiet - Wikipedia De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. http://houvanarnhem.nl/houvanarnhem.nl › gemeenteraad-zwarte-piet-vs-roetveegpiet Gemeenteraad: "Zwarte Piet vs Roetveegpiet" Onlangs gaf D66-raadslid Susan van Ommen haar mening over Zwarte Piet. Wij zijn tegen roetveegpiet capituleren aan het gedram van een kleine groep https://www.nu.nl/www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpiet Gemeenten kiezen vaker voor roetveegpiet maar merendeel 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenMapsNieuwsVideo'sMeer InstellingenTools Ongeveer 64.800 resultaten (0 38 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet Feedback Over samenvattingen Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo https://www.ad.nl › rotterdam › regio-ziet-niets-in-roetveegpiet-bij-ons-blij 8 nov. 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch 5 meningen over Zwarte Piet: van 'niet aanpassen' tot https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Wat moet er gebeuren met het uiterlijk van Zwarte Piet? En hoe wordt er 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Afbeeldingen van Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Alles bekijken Meer afbeeldingen voor Zwarte piet of roetveegpiet? Afbeeldingen melden Webresultaten Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie roetveegpiet schminken kick out zwarte piet zwarte piet geschiedenis roetveegpiet tekening roetveegpiet amsterdam sinterklaas regenboog piet Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1191 VL Ouderkerk aan de Amstel - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Advertenties Advertentie· www.npofocus.nl/Vaccineren ‎ Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ ‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. NPO Focus. Weet meer. Verdieping. Zoekresultaten Webresultaten https://rijksvaccinatieprogramma.nl/rijksvaccinatieprogramma.nl › vaccinaties › twijfels Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn https://www.nvkp.nl/www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Heeft het niet vaccineren van kinderen nadelige gevolgen? Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden PDFhttps://www.wanttoknow.nl/www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren-v De verborgen gevaren van vaccinaties - WantToKnow 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' https://stichtingvaccinvrij.nl/stichtingvaccinvrij.nl Stichting Vaccinvrij Veel mensen willen hun kinderen niet laten vaccineren. Daar is een reden voor. Denk mee denk na. Wij vaccineren niet! Trailer. Nederlands ondertiteld https://www.thuisvaccinatie.nl/www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. https://www.scientias.nl/www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend Vaccineren: levensgevaarlijk of levensreddend? - Scientias 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. https://www.volkskrant.nl/www.volkskrant.nl › columns-opinie › janneke-bazelmans-over-nadelen Janneke Bazelmans: 'Over nadelen vaccinatie wordt veelal 22 jul. 2013 - Ouders die geen fervente tegenstanders van vaccinaties zijn maar kritisch kinderen maar ook de kinderen van anderen in gevaar brengen. https://www.umcutrecht.nl/www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-bescher Vaccineren: jezelf en anderen beschermen - UMC Utrecht 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt https://mens-en-gezondheid.infonu.nl/mens-en-gezondheid.infonu.nl › diversen › 142246-gevaren-van-vac Gevaren van vaccinaties | Mens en Gezondheid: Diversen 9 okt. 2014 - Maar een steeds groter deel van de vaccinatieweigeraars zijn zich bewust geworden van de gevaren van vaccinaties. Het eerste vaccin https://dekennisvannu.nl/dekennisvannu.nl › site › artikel › Veelgestelde-vragen-over-vaccineren Artikel - Veelgestelde vragen over vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme niet vaccineren niet vaccineren forum bijwerkingen vaccinaties anti vaccinatie facebook niet vaccineren kinderdagverblijf bmr vaccinatie Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleNieuwsAfbeeldingenShoppingMapsMeer InstellingenTools Ongeveer 35.800 resultaten (0 37 seconden) Advertenties Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ Advertentiewww.npofocus.nl/‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. Weet meer. NPO Focus. Verdieping. Zoekresultaten Samenvatting van internet Meestal zijn bijwerkingen niet ernstig en betreft het lichte koorts of een rode gezwollen plek waar de prik is gegeven. Kleine kinderen kunnen wat hangerig zijn en vaker langer huilen. Bijwerkingen gaan meestal binnen enkele dagen vanzelf over. Ernstige bijwerkingen zijn zeer zeldzaam.6 dagen geleden Bijwerkingen van vaccinaties | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › bijwerkingen Feedback Over samenvattingen Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Bijwerkingen van vaccinaties | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › bijwerkingen 6 dagen geleden - Vaccinaties kunnen bijwerkingen hebben. Lees meer over de bijwerkingen en wat u hiertegen kunt doen. Bijwerking kunt u melden bij Lareb. [PDF]De verborgen gevaren van vaccinaties - WantToKnow https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? 'Twijfels over vaccinaties gevaar voor volksgezondheid' | RTL https://www.rtlnieuws.nl › nieuws › buitenland › artikel › twijfels-over-vac 20 jun. 2019 - In Europa wordt zo veel getwijfeld aan de veiligheid en effectiviteit van vaccinaties dat het een gevaar voor de volksgezondheid begint te Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › 2019/06/19 › gevaarlijke-scepsis-over-vaccins-a3964399 19 jun. 2019 - Wereldwijd onderzoek: Desinformatie via sociale media zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. In veel Europese Vaccinaties RIVM Rijksvaccinatieprogramma dood Kinderen https://www.larsvanhemmen.nl › Vaccinatie-RIVM Vaccinatie gevaren van het RIVM Rijksvaccinatieprogramma Sudden Deaths Autisme. Vaccinaties zijn onveilig voor kinderen zoals uitgelekte rapporten Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie bijwerkingen vaccinaties vaccineren autisme spijt van niet vaccineren wel of niet vaccineren 9 jaar niet vaccineren forum verplichte vaccinaties bmr vaccinatie gevaarlijk Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1191 VL Ouderkerk aan de Amstel - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten https://nl.wikipedia.org/nl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie - Wikipedia Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als https://www.politie.nl/www.politie.nl › themas › illegaliteit-vreemdelingen Illegaliteit/vreemdelingen | politie.nl Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-terug Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom https://www.volkskrant.nl/www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenken- Nederland moet diep nadenken over de vergaande gevolgen 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt https://europadecentraal.nl/europadecentraal.nl › onderwerp › migratie Migratie - Europa decentraal Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn https://www.amnesty.nl/www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-en- Ongedocumenteerden (illegalen) en uitgeprocedeerden Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de https://decorrespondent.nl/decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-deze Als het om illegale migranten gaat hebben deze grote 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke https://www.nd.nl/www.nd.nl › nieuws › buitenland › aantal-illegale-immigranten-in-eur Aantal illegale immigranten in Europa daalt licht | Nederlands 13 nov. 2019 - Na een piek in 2016 daalt het aantal illegale immigranten in Europa. Zij maken minder dan 1 procent uit van de totale Europese bevolking https://www.europa-nu.nl/www.europa-nu.nl › europese_maatregelen_in_verband_met Europese maatregelen in verband met migratie - Europa Nu Migratieroutes naar Europa Opvang en verdelen vluchtelingen Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. https://jalta.nl/jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-van- Bedreigt illegale migratie het voorbestaan van de EU? | Jalta 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegaal persoon in huis illegale migratie mexicaanse migratie opvang illegale vluchtelingen anoniem melden ind illegaal verblijf niet strafbaar illegaal in nederland en trouwen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleNieuwsAfbeeldingenVideo'sMapsMeer InstellingenTools Ongeveer 193.000 resultaten (0 34 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Overeenkomst tussen VS en Mexico over illegale migratie https://www.volkskrant.nl › nieuws-achtergrond › overeenkomst-tussen-vs-e 8 jun. 2019 - Overeenkomst tussen VS en Mexico over illegale migratie importheffingen gesloten over de aanpak van illegale immigratie vanuit Mexico naar de VS. Welke gevolgen heeft het doden van generaal Qassem Soleimani? Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Niemand weet hoeveel illegale migranten er in Europa zijn https://decorrespondent.nl › niemand-weet-hoeveel-illegale-migranten-er-i 8 aug. 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in Massa-immigratie betekent 'unsustainable' bevolkingsgroei en https://www.dagelijksestandaard.nl › 2019/04 › massa-immigratie-onhoud 30 apr. 2019 - Zo ook de massa-immigratie de bevolkingsexplosie en Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegale migratie illegaal persoon in huis opvang illegale vluchtelingen illegaal verblijf niet strafbaar mexicaanse migratie illegaal in nederland en trouwen anoniem melden ind Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1191 VL Ouderkerk aan de Amstel - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -1199,27 +1199,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenNieuwsVideo'sShoppingMeer InstellingenTools Ongeveer 623.000 resultaten (0 42 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over dit resultaat Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortus 18 tot 22 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_18_-_22_ Uitleg over de abortus behandeling in het laat 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de nacontrole. Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ing 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen had ik geluk ik was waarschijnlijk nog maar vijf weken zwanger en kon deze Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus tot hoeveel weken duitsland abortus 24 weken procedure abortus 24 weken hoe gaat dat abortus in nederland abortus kliniek abortus informatie Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Zoekmodi Alle Afbeeldingen Nieuws Video's Shopping Meer InstellingenTools Ongeveer 2.490.000 resultaten (0 40 seconden) Advertenties Advertentie· www.siriz.nl/Abortus/Hoeveel-Weken ‎ Tot Hoeveel Weken Abortus? | Twijfel je over Abortus? | siriz.nl‎ ‎ Bespreek de mogelijkheden &amp; zet alles op een rij. App of Chat met Siriz. Specialist bij onbedoelde zwangerschap. Wij bieden preventie ondersteuning en zorg. Keuzegesprekken. Gratis hulp. Persoonlijke begeleiding. Services: Zwanger en je keuze Abortus en je keuze. ContactBen ik zwanger?Chat voor hulp Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord › a Tot hoeveel weken kan ik een abortus laten uitvoeren Feedback Over samenvattingen Webresultaten www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot hoeveel weken kan ik een abortus laten uitvoeren Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortus 13 tot 17 weken - Uitleg over de behandeling Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortus 18 tot 22 weken - Uitleg over de behandeling Uitleg over de abortus behandeling in het laat 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de nacontrole. www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer en hoe kun je een abortus plegen? - Dossier Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet www.trouw.nl › nieuws › bij-abortus-telt-alleen-de-moeder~be9b8150 'Bij abortus telt alléén de moeder' | Trouw 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling De abortusbehandeling | Fiom Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken-no 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap www.schreeuwomleven.nl › abortusmethoden Abortusmethoden - Schreeuw om Leven Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt www.gezondheidsnet.nl › zwanger › abortus-als-laatste-redmiddel Abortus als laatste redmiddel | Gezondheidsnet 8 dec. 2016 - Een abortus mag in Nederland tot 23 weken zwangerschap gerekend vanaf de eerste dag van de laatste menstruatie. 5 dagen bedenktijd is Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken duitsland tot hoeveel weken abortuspil abortus 24 weken procedure abortus kosten abortus 24 weken hoe gaat dat abortus informatie hoeveel kost abortus abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandLisse - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenNieuwsVideo'sShoppingMeer InstellingenTools Ongeveer 161.000 resultaten (0 46 seconden) Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over dit resultaat Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Klimaatverandering : oorzaken - Climategate https://www.climategate.nl › 2017/10 › klimaatverandering-oorzaken 30 okt. 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “ Climate change: The facts 2017” uitgegeven door het Institute Klimaatverandering: oorzaken en effecten | Compendium voor https://www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Zoekmodi Alle Afbeeldingen Nieuws Video's Shopping Meer InstellingenTools Ongeveer 144.000 resultaten (0 50 seconden) Advertenties Advertentie· www.wwf.nl/Klimaat/Oorzaken ‎ Oorzaken Klimaatverandering | Kom Samen Met WNF In Actie‎ ‎ 0800 1962 Lees hier wat WNF doet om klimaatverandering tegen te gaan en help mee! Interessen: Nieuwsbrief Donaties. Thema'sTeken de PetitieGebiedenOnze Aanpak Advertentie· www.worldanimalprotection.nl/klimaat/verandering ‎ 10 feiten op een rij over | Klimaatverandering‎ ‎ Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. Dieren horen in het wild. +50 jr actief voor dieren. We stoppen dierenleed. Actuele informatieDieren beschermenDoe meeDoneer nu Advertentie· www.klimaatplein.com/klimaat/verandering ‎ Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ ‎ 073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. CO2 neutraal ondernemen. Inzicht in besparing. Besparing energieverbruik. Verduurzamen bedrijf. Services: SDE+ EIA MIA VAMIL. Wat is klimaatveranderingEnergie Besparen Op ICTSubsidiewijzerDuurzaam Bouwen Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE Delft Feedback Over samenvattingen Webresultaten www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Klimaatverandering en gevolgen - Rijksoverheid Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Oorzaken klimaatverandering - WUR Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE Delft PDF Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. ec.europa.eu › clima › change › causes_nl Causes of climate change | Klimaat - European Commission Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › wa waarom weten we zeker dat de mens klimaatverandering Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten | Compendium voor Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Wat is klimaatverandering? — Milieudefensie Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens www.klimaat.be › nl-be › klimaatverandering › het-klimaat Oorzaken - Klimaat.be De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig www.hier.nu › Thema's › Klimaatwoordenboek Klimaatverandering: oorzaken en gevolgen | HIER 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandLisse - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenMapsNieuwsVideo'sMeer InstellingenTools Ongeveer 76.000 resultaten (0 37 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet Feedback Over dit resultaat Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo https://www.ad.nl › rotterdam › regio-ziet-niets-in-roetveegpiet-bij-ons-blij 8 nov. 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch 5 meningen over Zwarte Piet: van 'niet aanpassen' tot https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Vijf leden van het Opiniepanel vertellen hoe zij denken over Zwarte Piet. 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Gemeenteraad: "Zwarte Piet vs Roetveegpiet" houvanarnhem.nl › gemeenteraad-zwarte-piet-vs-roetveegpiet Onlangs gaf D66-raadslid Susan van Ommen haar mening over Zwarte Piet. Wij zijn tegen roetveegpiet capituleren aan het gedram van een kleine groep Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Zoekmodi Alle Afbeeldingen Maps Nieuws Video's Meer InstellingenTools Ongeveer 73.000 resultaten (0 41 seconden) Zoekresultaten Samenvatting van internet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. nl.wikipedia.org › wiki › Roetpiet Roetpiet - Wikipedia Feedback Over samenvattingen Webresultaten www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-rug Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is www.ad.nl › rotterdam › regio-ziet-niets-in-roetveegpiet-bij-ons-blijft Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo 8 nov. 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terrein- De roetveegpiet wint terrein al nemen veel - Volkskrant 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in nl.wikipedia.org › wiki › Roetpiet Roetpiet - Wikipedia De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en-d Waarom Roetveegpiet er bij Sylvie en Danny niet in komt 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 Zwarte pieten willen niet meer - NRC 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen Weinig draagvlak voor roetveegpieten bij landelijke intocht 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 14 nov. 2019 - Wat moet er gebeuren met het uiterlijk van Zwarte Piet? En hoe wordt er 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Afbeeldingen van Zwarte piet of roetveegpiet? Alles bekijken Meer afbeeldingen voor Zwarte piet of roetveegpiet? Afbeeldingen melden Webresultaten www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpiet Gemeenten kiezen vaker voor roetveegpiet maar merendeel 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie roetveegpiet schminken kick out zwarte piet zwarte piet geschiedenis roetveegpiet tekening roetveegpiet amsterdam sinterklaas roetveegpiet cartoon Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandLisse - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleNieuwsAfbeeldingenShoppingMapsMeer InstellingenTools Ongeveer 30.700 resultaten (0 35 seconden) Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF]De verborgen gevaren van vaccinaties - WantToKnow https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Veel mensen willen hun kinderen niet laten vaccineren. Daar is een reden voor. Denk mee denk na. Wij vaccineren niet! Trailer. Nederlands ondertiteld Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Vaccinaties hebben bijwerkingen. Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het gevaar van de infectieziekte zelf. Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Janneke Bazelmans: 'Over nadelen vaccinatie wordt veelal https://www.volkskrant.nl › columns-opinie › janneke-bazelmans-over-nadel 22 jul. 2013 - Ouders die geen fervente tegenstanders van vaccinaties zijn maar kritisch kinderen maar ook de kinderen van anderen in gevaar brengen. VACCINATIES PER LAND I GGDREISVACCINATIES https://www.ggdreisvaccinaties.nl › heb-ik-een-vaccinatie-nodig Voor welk land heeft u vaccinaties nodig? Dat verschilt per land. In de landenzoeker kunt u vinden of u vaccinaties of inentingen nodig heeft voor uw reis. Gevaren van vaccinaties | Mens en Gezondheid: Diversen https://mens-en-gezondheid.infonu.nl › diversen › 142246-gevaren-van-v 9 okt. 2014 - Maar een steeds groter deel van de vaccinatieweigeraars zijn zich bewust geworden van de gevaren van vaccinaties. Het eerste vaccin Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme niet vaccineren spijt van niet vaccineren niet vaccineren forum bijwerkingen vaccinaties anti vaccinatie facebook niet vaccineren kinderdagverblijf Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Zoekmodi Alle Nieuws Afbeeldingen Shopping Maps Meer InstellingenTools Ongeveer 29.400 resultaten (0 50 seconden) Advertenties Advertentie· www.npofocus.nl/ ‎ Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ ‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. Verdieping. NPO Focus. Weet meer. Zoekresultaten Webresultaten rijksvaccinatieprogramma.nl › vaccinaties › twijfels Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren-v De verborgen gevaren van vaccinaties - WantToKnow PDF 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Heeft het niet vaccineren van kinderen nadelige gevolgen? Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden stichtingvaccinvrij.nl Stichting Vaccinvrij Wij vaccineren niet! Trailer Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend Vaccineren: levensgevaarlijk of levensreddend? - Scientias 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. www.rtlnieuws.nl › nieuws › buitenland › artikel › twijfels-over-vacci 'Twijfels over vaccinaties gevaar voor volksgezondheid' | RTL 20 jun. 2019 - In Europa wordt zo veel getwijfeld aan de veiligheid en effectiviteit van vaccinaties dat het een gevaar voor de volksgezondheid begint te www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-bescher Vaccineren: jezelf en anderen beschermen - UMC Utrecht 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt www.nieuwetijds-kindercoach.nl › Advies Vaccineren van je kind is niet - Nieuwetijds kindercoach Wie met z'n kind bij het consultatiebureau komt merkt al snel dat men ervan uitgaat dat je je kind zonder twijfel laat vaccineren. Er wordt niet gevraagd of en dekennisvannu.nl › site › artikel › Veelgestelde-vragen-over-vaccineren Artikel - Veelgestelde vragen over vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie niet vaccineren vaccineren autisme bijwerkingen vaccinaties niet vaccineren forum spijt van niet vaccineren niet vaccineren kinderdagverblijf wel of niet vaccineren 9 jaar Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandLisse - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleNieuwsAfbeeldingenVideo'sMapsMeer InstellingenTools Ongeveer 167.000 resultaten (0 41 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Aantal illegale immigranten in Europa daalt licht | Nederlands https://www.nd.nl › nieuws › buitenland › aantal-illegale-immigranten-in-e 13 nov. 2019 - Na een piek in 2016 daalt het aantal illegale immigranten in Europa. Zij maken minder dan 1 procent uit van de totale Europese bevolking Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegaal persoon in huis illegale migratie mexicaanse migratie opvang illegale vluchtelingen anoniem melden ind illegaal verblijf niet strafbaar hoeveel mexicanen in de vs Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandAmsterdam - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Zoekmodi Alle Nieuws Afbeeldingen Video's Maps Meer InstellingenTools Ongeveer 192.000 resultaten (0 40 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten nl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie - Wikipedia Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-terug Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom www.politie.nl › themas › illegaliteit-vreemdelingen Illegaliteit/vreemdelingen | politie.nl Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-en- Ongedocumenteerden (illegalen) en uitgeprocedeerden Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de europadecentraal.nl › onderwerp › migratie Migratie - Europa decentraal Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenken- Nederland moet diep nadenken over de vergaande gevolgen 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt www.volkskrant.nl › nieuws-achtergrond › overeenkomst-tussen-vs-en- Overeenkomst tussen VS en Mexico over illegale migratie 8 jun. 2019 - Overeenkomst tussen VS en Mexico over illegale migratie importheffingen gesloten over de aanpak van illegale immigratie vanuit Mexico naar de VS. Welke gevolgen heeft het doden van generaal Qassem Soleimani? decorrespondent.nl › niemand-weet-hoeveel-illegale-migranten-er-in- Niemand weet hoeveel illegale migranten er in Europa zijn 8 aug. 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-deze Als het om illegale migranten gaat hebben deze grote 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-van- Bedreigt illegale migratie het voorbestaan van de EU? | Jalta 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegaal persoon in huis illegale migratie opvang illegale vluchtelingen illegaal verblijf niet strafbaar mexicaanse migratie illegaal in nederland en trouwen anoniem melden ind Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandLisse - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden </t>
         </is>
       </c>
     </row>
@@ -1229,27 +1229,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Abortus tot hoeveel weken? Ongeveer 601.000 resultaten (0 35 seconden) Een privacyherinnering van Google In overeenstemming met wetgeving ten aanzien van gegevensbescherming vragen we je even de tijd te nemen de belangrijkste punten van ons Privacybeleid door te nemen. Dit beslaat alle Google-services en beschrijft hoe we gegevens gebruiken en welke mogelijkheden je hebt. Je moet dit vandaag nog doen. Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over samenvattingen Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortus 18 tot 22 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_18_-_22_ Uitleg over de abortus behandeling in het laat 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de nacontrole. Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ing 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen nog maar vijf weken zwanger en kon deze zwangerschap dus 'makkelijk' Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later vaginaal Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken duitsland tot hoeveel weken abortuspil abortus 24 weken procedure abortus kosten abortus 24 weken hoe gaat dat abortus informatie hoeveel kost abortus abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 Nijmegen - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Abortus tot hoeveel weken? Ongeveer 2.890.000 resultaten (0 58 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord › a Tot hoeveel weken kan ik een abortus laten uitvoeren Feedback Over samenvattingen Webresultaten https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot hoeveel weken kan ik een abortus laten uitvoeren Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? https://www.bloemenhove.nl/www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortus 13 tot 17 weken - Uitleg over de behandeling Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. https://www.bloemenhove.nl/www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortus 18 tot 22 weken - Uitleg over de behandeling Uitleg over de abortus behandeling in het laat 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de nacontrole. https://www.thuisarts.nl/www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. https://www.gezondheidsplein.nl/www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer en hoe kun je een abortus plegen? - Dossier Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet https://www.trouw.nl/www.trouw.nl › nieuws › bij-abortus-telt-alleen-de-moeder~be9b8150 'Bij abortus telt alléén de moeder' | Trouw 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. https://fiom.nl/fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling De abortusbehandeling | Fiom Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een https://www.telegraaf.nl/www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken-no 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap https://www.schreeuwomleven.nl/www.schreeuwomleven.nl › abortusmethoden Abortusmethoden - Schreeuw om Leven Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt https://www.gezondheidsnet.nl/www.gezondheidsnet.nl › zwanger › abortus-als-laatste-redmiddel Abortus als laatste redmiddel | Gezondheidsnet 8 dec. 2016 - Een abortus mag in Nederland tot 23 weken zwangerschap gerekend vanaf de eerste dag van de laatste menstruatie. 5 dagen bedenktijd is Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken duitsland tot hoeveel weken abortuspil abortus 24 weken procedure abortus kosten abortus 24 weken hoe gaat dat abortus informatie hoeveel kost abortus abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Oorzaken klimaatverandering Ongeveer 155.000 resultaten (0 29 seconden) Advertenties Oorzaken Klimaatverandering | Kom Samen Met WNF In Actie‎ Advertentiewww.wwf.nl/Klimaat/Oorzaken‎0800 1962 Lees hier wat WNF doet om klimaatverandering tegen te gaan en help mee! Interessen: Nieuwsbrief Donaties. Gebieden Bekijk hier de primaire gebieden waar WWF actief is Stop plastic Teken de petitie tegen wegwerpplastic Klimaatverandering | 10 feiten op een rij‎ Advertentiewww.worldanimalprotection.nl/‎ Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. Dieren horen in het wild. +50 jr actief voor dieren. We stoppen dierenleed. Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ Advertentiewww.klimaatplein.com/klimaat/verandering‎073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. Verduurzamen bedrijf. Inzicht in besparing. CO2 neutraal ondernemen. Energie Besparen Op ICTDuurzaam BouwenDuurzame EnergieEnergiebesparing Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over samenvattingen Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Klimaatverandering: oorzaken en effecten | Compendium voor https://www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie Klimaatverandering : oorzaken - Climategate https://www.climategate.nl › 2017/10 › klimaatverandering-oorzaken 30 okt. 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “Climate change: The facts 2017” uitgegeven door het Institute Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 GJ Nijmegen - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Oorzaken klimaatverandering Ongeveer 167.000 resultaten (0 51 seconden) Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. https://www.ce.nl/www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE Delft Feedback Over samenvattingen Webresultaten https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Klimaatverandering en gevolgen - Rijksoverheid Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de https://www.wur.nl/www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Oorzaken klimaatverandering - WUR Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. https://www.ce.nl/www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE Delft PDF Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. https://ec.europa.eu/ec.europa.eu › clima › change › causes_nl Causes of climate change | Klimaat - European Commission Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van https://www.urgenda.nl/www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › wa waarom weten we zeker dat de mens klimaatverandering Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de https://www.clo.nl/www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten | Compendium voor Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie https://milieudefensie.nl/milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Wat is klimaatverandering? — Milieudefensie Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens https://www.klimaat.be/www.klimaat.be › nl-be › klimaatverandering › het-klimaat Oorzaken - Klimaat.be De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig https://www.hier.nu/www.hier.nu › Thema's › Klimaatwoordenboek Klimaatverandering: oorzaken en gevolgen | HIER 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot https://www.climategate.nl/www.climategate.nl › 2017/10 › klimaatverandering-oorzaken Klimaatverandering : oorzaken - Climategate 30 okt. 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “Climate change: The facts 2017” uitgegeven door het Institute Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zwarte piet of roetveegpiet? Ongeveer 73.600 resultaten (0 34 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet Feedback Over samenvattingen Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo https://www.ad.nl › rotterdam › regio-ziet-niets-in-roetveegpiet-bij-ons-blij 8 nov. 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch 5 meningen over Zwarte Piet: van 'niet aanpassen' tot https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Wat moet er gebeuren met het uiterlijk van Zwarte Piet? En hoe wordt er 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Afbeeldingen van Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Alles bekijken Meer afbeeldingen voor Zwarte piet of roetveegpiet? Afbeeldingen melden Webresultaten Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Gemeenteraad: "Zwarte Piet vs Roetveegpiet" houvanarnhem.nl › gemeenteraad-zwarte-piet-vs-roetveegpiet Onlangs gaf D66-raadslid Susan van Ommen haar mening over Zwarte Piet. Wij zijn tegen roetveegpiet capituleren aan het gedram van een kleine groep Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 GJ Nijmegen - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zwarte piet of roetveegpiet? Ongeveer 65.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. https://nl.wikipedia.org/nl.wikipedia.org › wiki › Roetpiet Roetpiet - Wikipedia Feedback Over samenvattingen Webresultaten https://www.ad.nl/www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-rug Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is https://www.ad.nl/www.ad.nl › rotterdam › regio-ziet-niets-in-roetveegpiet-bij-ons-blijft Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo 8 nov. 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van https://www.volkskrant.nl/www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terrein- De roetveegpiet wint terrein al nemen veel - Volkskrant 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in https://nl.wikipedia.org/nl.wikipedia.org › wiki › Roetpiet Roetpiet - Wikipedia De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. https://www.trouw.nl/www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en-d Waarom Roetveegpiet er bij Sylvie en Danny niet in komt 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. https://www.nrc.nl/www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 Zwarte pieten willen niet meer - NRC 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet https://eenvandaag.avrotros.nl/eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen Weinig draagvlak voor roetveegpieten bij landelijke intocht 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch https://eenvandaag.avrotros.nl/eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 14 nov. 2019 - Wat moet er gebeuren met het uiterlijk van Zwarte Piet? En hoe wordt er 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Afbeeldingen van Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Alles bekijken Meer afbeeldingen voor Zwarte piet of roetveegpiet? Afbeeldingen melden Webresultaten https://www.nu.nl/www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpiet Gemeenten kiezen vaker voor roetveegpiet maar merendeel 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie roetveegpiet schminken kick out zwarte piet zwarte piet geschiedenis roetveegpiet tekening roetveegpiet amsterdam sinterklaas roetveegpiet cartoon Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende </t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevaren vaccinaties Ongeveer 34.900 resultaten (0 34 seconden) Advertenties Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ Advertentiewww.npofocus.nl/Vaccineren‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. Weet meer. Verdieping. NPO Focus. Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden [PDF]De verborgen gevaren van vaccinaties - WantToKnow https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Veel mensen willen hun kinderen niet laten vaccineren. Daar is een reden voor. Denk mee denk na. Wij vaccineren niet! Trailer. Nederlands ondertiteld Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? 'Twijfels over vaccinaties gevaar voor volksgezondheid' | RTL https://www.rtlnieuws.nl › nieuws › buitenland › artikel › twijfels-over-vac 20 jun. 2019 - In Europa wordt zo veel getwijfeld aan de veiligheid en effectiviteit van vaccinaties dat het een gevaar voor de volksgezondheid begint te Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. VACCINATIES PER LAND I GGDREISVACCINATIES https://www.ggdreisvaccinaties.nl › heb-ik-een-vaccinatie-nodig Voor welk land heeft u vaccinaties nodig? Dat verschilt per land. In de landenzoeker kunt u vinden of u vaccinaties of inentingen nodig heeft voor uw reis. Janneke Bazelmans: 'Over nadelen vaccinatie wordt veelal https://www.volkskrant.nl › columns-opinie › janneke-bazelmans-over-nadel 22 jul. 2013 - Ouders die geen fervente tegenstanders van vaccinaties zijn maar kritisch kinderen maar ook de kinderen van anderen in gevaar brengen. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme niet vaccineren spijt van niet vaccineren niet vaccineren forum bijwerkingen vaccinaties anti vaccinatie facebook niet vaccineren kinderdagverblijf Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 GJ Nijmegen - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevaren vaccinaties Ongeveer 35.400 resultaten (0 43 seconden) Zoekresultaten Webresultaten https://rijksvaccinatieprogramma.nl/rijksvaccinatieprogramma.nl › vaccinaties › twijfels Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn https://www.wanttoknow.nl/www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren-v De verborgen gevaren van vaccinaties - WantToKnowPDF 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' https://www.nvkp.nl/www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Heeft het niet vaccineren van kinderen nadelige gevolgen? Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden https://stichtingvaccinvrij.nl/stichtingvaccinvrij.nl Stichting Vaccinvrij Wij vaccineren niet! Trailer Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de https://www.thuisvaccinatie.nl/www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? https://www.scientias.nl/www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend Vaccineren: levensgevaarlijk of levensreddend? - Scientias 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. https://www.rtlnieuws.nl/www.rtlnieuws.nl › nieuws › buitenland › artikel › twijfels-over-vacci 'Twijfels over vaccinaties gevaar voor volksgezondheid' | RTL 20 jun. 2019 - In Europa wordt zo veel getwijfeld aan de veiligheid en effectiviteit van vaccinaties dat het een gevaar voor de volksgezondheid begint te https://www.umcutrecht.nl/www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-bescher Vaccineren: jezelf en anderen beschermen - UMC Utrecht 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt https://www.nieuwetijds-kindercoach.nl/www.nieuwetijds-kindercoach.nl › Advies Vaccineren van je kind is niet - Nieuwetijds kindercoach Wie met z'n kind bij het consultatiebureau komt merkt al snel dat men ervan uitgaat dat je je kind zonder twijfel laat vaccineren. Er wordt niet gevraagd of en https://dekennisvannu.nl/dekennisvannu.nl › site › artikel › Veelgestelde-vragen-over-vaccineren Artikel - Veelgestelde vragen over vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie niet vaccineren vaccineren autisme bijwerkingen vaccinaties niet vaccineren forum spijt van niet vaccineren niet vaccineren kinderdagverblijf wel of niet vaccineren 9 jaar Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 215.000 resultaten (0 36 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Zonder immigratie zou Amsterdam een krimpregio zijn | Het https://www.parool.nl › amsterdam › zonder-immigratie-zou-amsterdam-een 5 dagen geleden - Zonder immigratie zou Amsterdam een krimpregio zijn op het aantal nieuwkomers zal grote gevolgen hebben voor Amsterdam immigratiestad bij uitstek. Gemeente sluit pand in West wegens illegale gokpraktijken Europese maatregelen in verband met migratie - Europa Nu https://www.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen Schengen onder druk · Grensoverschrijdende criminaliteit terrorisme en illegale migratie. Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegaal persoon in huis illegale migratie illegaal verblijf niet strafbaar opvang illegale vluchtelingen illegaal in nederland en trouwen anoniem melden ind hoeveel illegalen in nederland 2018 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6525 GJ Nijmegen - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 181.000 resultaten (0 41 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten https://nl.wikipedia.org/nl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie - Wikipedia Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-terug Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom https://www.politie.nl/www.politie.nl › themas › illegaliteit-vreemdelingen Illegaliteit/vreemdelingen | politie.nl Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk https://www.amnesty.nl/www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-en- Ongedocumenteerden (illegalen) en uitgeprocedeerden Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de https://europadecentraal.nl/europadecentraal.nl › onderwerp › migratie Migratie - Europa decentraal Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn https://www.volkskrant.nl/www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenken- Nederland moet diep nadenken over de vergaande gevolgen 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt https://decorrespondent.nl/decorrespondent.nl › niemand-weet-hoeveel-illegale-migranten-er-in- Niemand weet hoeveel illegale migranten er in Europa zijn 8 aug. 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in https://decorrespondent.nl/decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-deze Als het om illegale migranten gaat hebben deze grote 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke https://jalta.nl/jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-van- Bedreigt illegale migratie het voorbestaan van de EU? | Jalta 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de https://www.ad.nl/www.ad.nl › buitenland › vs-bereiden-grootscheepse-arrestatie-illegal VS bereiden grootscheepse arrestatie illegale immigranten voor 22 jun. 2019 - De Verenigde Staten bereiden de arrestatie voor van 2.000 illegale immigranten die met hun gezin in het land leven. De operatie zou mogelijk Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegaal persoon in huis illegale migratie opvang illegale vluchtelingen illegaal verblijf niet strafbaar mexicaanse migratie illegaal in nederland en trouwen anoniem melden ind Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende </t>
         </is>
       </c>
     </row>
@@ -1259,27 +1259,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenNieuwsVideo'sShoppingMeer InstellingenTools Ongeveer 4.080.000 resultaten (0 37 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over samenvattingen Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortus 18 tot 22 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_18_-_22_ Uitleg over de abortus behandeling in het laat 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de nacontrole. Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ing 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen nog maar vijf weken zwanger en kon deze zwangerschap dus 'makkelijk' Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later vaginaal De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een Abortus als laatste redmiddel | Gezondheidsnet https://www.gezondheidsnet.nl › zwanger › abortus-als-laatste-redmiddel 8 dec. 2016 - Een abortus mag in Nederland tot 23 weken zwangerschap gerekend vanaf de eerste dag van de laatste menstruatie. 5 dagen bedenktijd is Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken duitsland tot hoeveel weken abortuspil abortus 24 weken procedure abortus kosten abortus 24 weken hoe gaat dat abortus informatie hoeveel kost abortus abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1191 VL Ouderkerk aan de Amstel - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Abortus tot hoeveel weken? Ongeveer 1.900.000 resultaten (0 41 seconden) Advertenties Tot Hoeveel Weken Abortus? | Twijfel je over Abortus? | siriz.nl‎ Advertentiewww.siriz.nl/‎ Bespreek de mogelijkheden &amp; zet alles op een rij. App of Chat met Siriz. Specialist bij onbedoelde zwangerschap. Wij bieden preventie ondersteuning en zorg. Keuzegesprekken. Gratis hulp. Persoonlijke begeleiding. Services: Zwanger en je keuze Abortus en je keuze. ContactChat voor hulpBen ik zwanger? Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over samenvattingen Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortus 18 tot 22 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_18_-_22_ Uitleg over de abortus behandeling in het laat 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de nacontrole. Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Abortus als laatste redmiddel | Gezondheidsnet https://www.gezondheidsnet.nl › zwanger › abortus-als-laatste-redmiddel 8 dec. 2016 - Een abortus mag in Nederland tot 23 weken zwangerschap gerekend vanaf de eerste dag van de laatste menstruatie. 5 dagen bedenktijd is Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken duitsland tot hoeveel weken abortuspil abortus 24 weken procedure abortus kosten abortus 24 weken hoe gaat dat abortus informatie hoeveel kost abortus abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandBreda Zuid Oost Breda - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenNieuwsVideo'sShoppingMeer InstellingenTools Ongeveer 163.000 resultaten (0 38 seconden) Advertenties Oorzaken Klimaatverandering? | Meer informatie op WNF.nl‎ Advertentiewww.wwf.nl/Klimaat/Oorzaken‎0800 1962 WNF zet zich in tegen klimaatverandering. Lees meer en kom in actie met WNF! Interessen: Nieuwsbrief Donaties. Stop plasticGebiedenOnze AanpakThema's 10 feiten op een rij over | Klimaatverandering‎ Advertentiewww.worldanimalprotection.nl/klimaat/verandering‎ Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. We stoppen dierenleed. +50 jr actief voor dieren. Dieren horen in het wild. Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ Advertentiewww.klimaatplein.com/klimaat/verandering‎073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. Verduurzamen bedrijf. CO2 neutraal ondernemen. Inzicht in besparing. Besparing energieverbruik. Services: SDE+ EIA MIA VAMIL. Energie Besparen Op ICTZelf Energie OpwekkenEnergiebesparingKlimaatverandering Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over samenvattingen Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Klimaatverandering: oorzaken en effecten | Compendium voor https://www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Klimaatverandering : oorzaken - Climategate https://www.climategate.nl › 2017/10 › klimaatverandering-oorzaken 30 okt. 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “ Climate change: The facts 2017” uitgegeven door het Institute Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1191 VL Ouderkerk aan de Amstel - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Oorzaken klimaatverandering Ongeveer 147.000 resultaten (0 35 seconden) Advertenties 10 feiten op een rij over | Klimaatverandering‎ Advertentiewww.worldanimalprotection.nl/klimaat/verandering‎ Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. We stoppen dierenleed. +50 jr actief voor dieren. Dieren horen in het wild. Doe meeActuele informatieDieren beschermenDoneer nu Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Klimaatverandering als journalistieke uitdaging: een … - ‎Wurff - Geciteerd door 3 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over samenvattingen Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Klimaatverandering: oorzaken en effecten | Compendium voor https://www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Wat zijn de oorzaken en gevolgen van klimaatverandering https://www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandBreda Zuid Oost Breda - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenMapsNieuwsVideo'sMeer InstellingenTools Ongeveer 64.800 resultaten (0 38 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet Feedback Over samenvattingen Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo https://www.ad.nl › rotterdam › regio-ziet-niets-in-roetveegpiet-bij-ons-blij 8 nov. 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch 5 meningen over Zwarte Piet: van 'niet aanpassen' tot https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Wat moet er gebeuren met het uiterlijk van Zwarte Piet? En hoe wordt er 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Afbeeldingen van Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Alles bekijken Meer afbeeldingen voor Zwarte piet of roetveegpiet? Afbeeldingen melden Webresultaten Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie roetveegpiet schminken kick out zwarte piet zwarte piet geschiedenis roetveegpiet tekening roetveegpiet amsterdam sinterklaas regenboog piet Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1191 VL Ouderkerk aan de Amstel - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zwarte piet of roetveegpiet? Ongeveer 64.600 resultaten (0 44 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet Feedback Over samenvattingen Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo https://www.ad.nl › rotterdam › regio-ziet-niets-in-roetveegpiet-bij-ons-blij 8 nov. 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch 5 meningen over Zwarte Piet: van 'niet aanpassen' tot https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Wat moet er gebeuren met het uiterlijk van Zwarte Piet? En hoe wordt er 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Afbeeldingen van Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Alles bekijken Meer afbeeldingen voor Zwarte piet of roetveegpiet? Afbeeldingen melden Webresultaten Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie roetveegpiet schminken kick out zwarte piet zwarte piet geschiedenis roetveegpiet tekening roetveegpiet amsterdam sinterklaas roetveegpiet cartoon Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandBreda Zuid Oost Breda - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleNieuwsAfbeeldingenShoppingMapsMeer InstellingenTools Ongeveer 35.800 resultaten (0 37 seconden) Advertenties Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ Advertentiewww.npofocus.nl/‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. Weet meer. NPO Focus. Verdieping. Zoekresultaten Samenvatting van internet Meestal zijn bijwerkingen niet ernstig en betreft het lichte koorts of een rode gezwollen plek waar de prik is gegeven. Kleine kinderen kunnen wat hangerig zijn en vaker langer huilen. Bijwerkingen gaan meestal binnen enkele dagen vanzelf over. Ernstige bijwerkingen zijn zeer zeldzaam.6 dagen geleden Bijwerkingen van vaccinaties | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › bijwerkingen Feedback Over samenvattingen Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Bijwerkingen van vaccinaties | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › bijwerkingen 6 dagen geleden - Vaccinaties kunnen bijwerkingen hebben. Lees meer over de bijwerkingen en wat u hiertegen kunt doen. Bijwerking kunt u melden bij Lareb. [PDF]De verborgen gevaren van vaccinaties - WantToKnow https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? 'Twijfels over vaccinaties gevaar voor volksgezondheid' | RTL https://www.rtlnieuws.nl › nieuws › buitenland › artikel › twijfels-over-vac 20 jun. 2019 - In Europa wordt zo veel getwijfeld aan de veiligheid en effectiviteit van vaccinaties dat het een gevaar voor de volksgezondheid begint te Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › 2019/06/19 › gevaarlijke-scepsis-over-vaccins-a3964399 19 jun. 2019 - Wereldwijd onderzoek: Desinformatie via sociale media zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. In veel Europese Vaccinaties RIVM Rijksvaccinatieprogramma dood Kinderen https://www.larsvanhemmen.nl › Vaccinatie-RIVM Vaccinatie gevaren van het RIVM Rijksvaccinatieprogramma Sudden Deaths Autisme. Vaccinaties zijn onveilig voor kinderen zoals uitgelekte rapporten Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie bijwerkingen vaccinaties vaccineren autisme spijt van niet vaccineren wel of niet vaccineren 9 jaar niet vaccineren forum verplichte vaccinaties bmr vaccinatie gevaarlijk Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1191 VL Ouderkerk aan de Amstel - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevaren vaccinaties Ongeveer 33.500 resultaten (0 43 seconden) Advertenties Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ Advertentiewww.npofocus.nl/Vaccineren‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. NPO Focus. Weet meer. Verdieping. Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn [PDF]De verborgen gevaren van vaccinaties - WantToKnow https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden Stichting Vaccinvrij https://stichtingvaccinvrij.nl Veel mensen willen hun kinderen niet laten vaccineren. Daar is een reden voor. Denk mee denk na. Wij vaccineren niet! Trailer. Nederlands ondertiteld Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? 'Twijfels over vaccinaties gevaar voor volksgezondheid' | RTL https://www.rtlnieuws.nl › nieuws › buitenland › artikel › twijfels-over-vac 20 jun. 2019 - In Europa wordt zo veel getwijfeld aan de veiligheid en effectiviteit van vaccinaties dat het een gevaar voor de volksgezondheid begint te Artikel - Veelgestelde vragen over vaccineren https://dekennisvannu.nl › site › Veelgestelde-vragen-over-vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Vaccineren van je kind is niet - Nieuwetijds kindercoach https://www.nieuwetijds-kindercoach.nl › Advies Wie met z'n kind bij het consultatiebureau komt merkt al snel dat men ervan uitgaat dat je je kind zonder twijfel laat vaccineren. Er wordt niet gevraagd of en Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme niet vaccineren wat is vaccineren bijwerkingen vaccinaties niet vaccineren forum spijt van niet vaccineren stichting vaccinvrij Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandBreda Zuid Oost Breda - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleNieuwsAfbeeldingenVideo'sMapsMeer InstellingenTools Ongeveer 193.000 resultaten (0 34 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Overeenkomst tussen VS en Mexico over illegale migratie https://www.volkskrant.nl › nieuws-achtergrond › overeenkomst-tussen-vs-e 8 jun. 2019 - Overeenkomst tussen VS en Mexico over illegale migratie importheffingen gesloten over de aanpak van illegale immigratie vanuit Mexico naar de VS. Welke gevolgen heeft het doden van generaal Qassem Soleimani? Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Niemand weet hoeveel illegale migranten er in Europa zijn https://decorrespondent.nl › niemand-weet-hoeveel-illegale-migranten-er-i 8 aug. 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in Massa-immigratie betekent 'unsustainable' bevolkingsgroei en https://www.dagelijksestandaard.nl › 2019/04 › massa-immigratie-onhoud 30 apr. 2019 - Zo ook de massa-immigratie de bevolkingsexplosie en Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegale migratie illegaal persoon in huis opvang illegale vluchtelingen illegaal verblijf niet strafbaar mexicaanse migratie illegaal in nederland en trouwen anoniem melden ind Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1191 VL Ouderkerk aan de Amstel - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 191.000 resultaten (0 40 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Niemand weet hoeveel illegale migranten er in Europa zijn https://decorrespondent.nl › niemand-weet-hoeveel-illegale-migranten-er-i 8 aug. 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Massa-immigratie betekent 'unsustainable' bevolkingsgroei en https://www.dagelijksestandaard.nl › 2019/04 › massa-immigratie-onhoud 30 apr. 2019 - Zo ook de massa-immigratie de bevolkingsexplosie en Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegale migratie illegaal persoon in huis opvang illegale vluchtelingen illegaal verblijf niet strafbaar mexicaanse migratie illegaal in nederland en trouwen anoniem melden ind Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandBreda Zuid Oost Breda - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -1289,27 +1289,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Zoekmodi Alle Afbeeldingen Nieuws Video's Shopping Meer InstellingenTools Ongeveer 2.490.000 resultaten (0 40 seconden) Advertenties Advertentie· www.siriz.nl/Abortus/Hoeveel-Weken ‎ Tot Hoeveel Weken Abortus? | Twijfel je over Abortus? | siriz.nl‎ ‎ Bespreek de mogelijkheden &amp; zet alles op een rij. App of Chat met Siriz. Specialist bij onbedoelde zwangerschap. Wij bieden preventie ondersteuning en zorg. Keuzegesprekken. Gratis hulp. Persoonlijke begeleiding. Services: Zwanger en je keuze Abortus en je keuze. ContactBen ik zwanger?Chat voor hulp Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord › a Tot hoeveel weken kan ik een abortus laten uitvoeren Feedback Over samenvattingen Webresultaten www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot hoeveel weken kan ik een abortus laten uitvoeren Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortus 13 tot 17 weken - Uitleg over de behandeling Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortus 18 tot 22 weken - Uitleg over de behandeling Uitleg over de abortus behandeling in het laat 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de nacontrole. www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer en hoe kun je een abortus plegen? - Dossier Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet www.trouw.nl › nieuws › bij-abortus-telt-alleen-de-moeder~be9b8150 'Bij abortus telt alléén de moeder' | Trouw 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling De abortusbehandeling | Fiom Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken-no 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap www.schreeuwomleven.nl › abortusmethoden Abortusmethoden - Schreeuw om Leven Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt www.gezondheidsnet.nl › zwanger › abortus-als-laatste-redmiddel Abortus als laatste redmiddel | Gezondheidsnet 8 dec. 2016 - Een abortus mag in Nederland tot 23 weken zwangerschap gerekend vanaf de eerste dag van de laatste menstruatie. 5 dagen bedenktijd is Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken duitsland tot hoeveel weken abortuspil abortus 24 weken procedure abortus kosten abortus 24 weken hoe gaat dat abortus informatie hoeveel kost abortus abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandLisse - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenNieuwsVideo'sShoppingMeer InstellingenTools Ongeveer 2.490.000 resultaten (0 49 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord › a Tot hoeveel weken kan ik een abortus laten uitvoeren Feedback Over samenvattingen Webresultaten https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot hoeveel weken kan ik een abortus laten uitvoeren Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? https://www.bloemenhove.nl/www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortus 13 tot 17 weken - Uitleg over de behandeling Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. https://www.bloemenhove.nl/www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortus 18 tot 22 weken - Uitleg over de behandeling Uitleg over de abortus behandeling in het laat 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de nacontrole. https://www.thuisarts.nl/www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. https://www.gezondheidsplein.nl/www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer en hoe kun je een abortus plegen? - Dossier Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet https://www.trouw.nl/www.trouw.nl › nieuws › bij-abortus-telt-alleen-de-moeder~be9b8150 'Bij abortus telt alléén de moeder' | Trouw 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. https://www.telegraaf.nl/www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken-no 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap https://fiom.nl/fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling De abortusbehandeling | Fiom Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een https://www.schreeuwomleven.nl/www.schreeuwomleven.nl › abortusmethoden Abortusmethoden - Schreeuw om Leven Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt https://www.gezondheidsnet.nl/www.gezondheidsnet.nl › zwanger › abortus-als-laatste-redmiddel Abortus als laatste redmiddel | Gezondheidsnet 8 dec. 2016 - Een abortus mag in Nederland tot 23 weken zwangerschap gerekend vanaf de eerste dag van de laatste menstruatie. 5 dagen bedenktijd is Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken duitsland tot hoeveel weken abortuspil abortus 24 weken procedure abortus kosten abortus 24 weken hoe gaat dat abortus informatie hoeveel kost abortus abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland3906 NK Veenendaal - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Zoekmodi Alle Afbeeldingen Nieuws Video's Shopping Meer InstellingenTools Ongeveer 144.000 resultaten (0 50 seconden) Advertenties Advertentie· www.wwf.nl/Klimaat/Oorzaken ‎ Oorzaken Klimaatverandering | Kom Samen Met WNF In Actie‎ ‎ 0800 1962 Lees hier wat WNF doet om klimaatverandering tegen te gaan en help mee! Interessen: Nieuwsbrief Donaties. Thema'sTeken de PetitieGebiedenOnze Aanpak Advertentie· www.worldanimalprotection.nl/klimaat/verandering ‎ 10 feiten op een rij over | Klimaatverandering‎ ‎ Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. Dieren horen in het wild. +50 jr actief voor dieren. We stoppen dierenleed. Actuele informatieDieren beschermenDoe meeDoneer nu Advertentie· www.klimaatplein.com/klimaat/verandering ‎ Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ ‎ 073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. CO2 neutraal ondernemen. Inzicht in besparing. Besparing energieverbruik. Verduurzamen bedrijf. Services: SDE+ EIA MIA VAMIL. Wat is klimaatveranderingEnergie Besparen Op ICTSubsidiewijzerDuurzaam Bouwen Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE Delft Feedback Over samenvattingen Webresultaten www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Klimaatverandering en gevolgen - Rijksoverheid Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Oorzaken klimaatverandering - WUR Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE Delft PDF Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. ec.europa.eu › clima › change › causes_nl Causes of climate change | Klimaat - European Commission Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › wa waarom weten we zeker dat de mens klimaatverandering Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten | Compendium voor Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Wat is klimaatverandering? — Milieudefensie Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens www.klimaat.be › nl-be › klimaatverandering › het-klimaat Oorzaken - Klimaat.be De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig www.hier.nu › Thema's › Klimaatwoordenboek Klimaatverandering: oorzaken en gevolgen | HIER 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandLisse - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenNieuwsVideo'sShoppingMeer InstellingenTools Ongeveer 139.000 resultaten (0 37 seconden) Advertenties Advertentie· www.worldanimalprotection.nl/ ‎ 10 feiten over klimaatverandering | World Animal Protection‎ ‎ World Animal Protection redt dieren in nood. Bekijk wat we doen en help mee! Dieren horen in het wild. We stoppen dierenleed. +50 jr actief voor dieren. Op de hoogte blijven?Dieren in rampsituatiesDieren in de veehouderijWat doen we? Advertentie· www.klimaatplein.com/klimaat/verandering ‎ Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ ‎ 073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. CO2 neutraal ondernemen. Verduurzamen bedrijf. Inzicht in besparing. Besparing energieverbruik. Services: SDE+ EIA MIA VAMIL. Contact KlimaatpleinEnergie Besparen Op ICTDuurzame EnergieDuurzaam Bouwen Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Klimaatverandering als journalistieke uitdaging: een … - ‎Wurff - Geciteerd door 3 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. https://www.ce.nl/www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE Delft Feedback Over samenvattingen Webresultaten https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Klimaatverandering en gevolgen - Rijksoverheid Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de https://www.wur.nl/www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Oorzaken klimaatverandering - WUR Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. https://www.ce.nl/www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE Delft PDF Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. https://ec.europa.eu/ec.europa.eu › clima › change › causes_nl Causes of climate change | Klimaat - European Commission Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van https://www.urgenda.nl/www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › wa waarom weten we zeker dat de mens klimaatverandering Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de https://www.clo.nl/www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten | Compendium voor Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie https://www.klimaat.be/www.klimaat.be › nl-be › klimaatverandering › het-klimaat Oorzaken - Klimaat.be De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig https://milieudefensie.nl/milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Wat is klimaatverandering? — Milieudefensie Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens https://www.hier.nu/www.hier.nu › Thema's › Klimaatwoordenboek Klimaatverandering: oorzaken en gevolgen | HIER 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot https://www.knaw.nl/www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland3906 NK Veenendaal - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Zoekmodi Alle Afbeeldingen Maps Nieuws Video's Meer InstellingenTools Ongeveer 73.000 resultaten (0 41 seconden) Zoekresultaten Samenvatting van internet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. nl.wikipedia.org › wiki › Roetpiet Roetpiet - Wikipedia Feedback Over samenvattingen Webresultaten www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-rug Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is www.ad.nl › rotterdam › regio-ziet-niets-in-roetveegpiet-bij-ons-blijft Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo 8 nov. 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terrein- De roetveegpiet wint terrein al nemen veel - Volkskrant 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in nl.wikipedia.org › wiki › Roetpiet Roetpiet - Wikipedia De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en-d Waarom Roetveegpiet er bij Sylvie en Danny niet in komt 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 Zwarte pieten willen niet meer - NRC 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen Weinig draagvlak voor roetveegpieten bij landelijke intocht 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 14 nov. 2019 - Wat moet er gebeuren met het uiterlijk van Zwarte Piet? En hoe wordt er 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Afbeeldingen van Zwarte piet of roetveegpiet? Alles bekijken Meer afbeeldingen voor Zwarte piet of roetveegpiet? Afbeeldingen melden Webresultaten www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpiet Gemeenten kiezen vaker voor roetveegpiet maar merendeel 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie roetveegpiet schminken kick out zwarte piet zwarte piet geschiedenis roetveegpiet tekening roetveegpiet amsterdam sinterklaas roetveegpiet cartoon Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandLisse - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenMapsNieuwsVideo'sMeer InstellingenTools Ongeveer 64.100 resultaten (0 41 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. https://nl.wikipedia.org/nl.wikipedia.org › wiki › Roetpiet Roetpiet - Wikipedia Feedback Over samenvattingen Webresultaten https://www.ad.nl/www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-rug Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is https://www.ad.nl/www.ad.nl › rotterdam › regio-ziet-niets-in-roetveegpiet-bij-ons-blijft Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo 8 nov. 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van https://www.volkskrant.nl/www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terrein- De roetveegpiet wint terrein al nemen veel - Volkskrant 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in https://nl.wikipedia.org/nl.wikipedia.org › wiki › Roetpiet Roetpiet - Wikipedia De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. https://www.trouw.nl/www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en-d Waarom Roetveegpiet er bij Sylvie en Danny niet in komt 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. https://www.nrc.nl/www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 Zwarte pieten willen niet meer - NRC 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet https://eenvandaag.avrotros.nl/eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen Weinig draagvlak voor roetveegpieten bij landelijke intocht 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch https://eenvandaag.avrotros.nl/eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 14 nov. 2019 - Wat moet er gebeuren met het uiterlijk van Zwarte Piet? En hoe wordt er 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Afbeeldingen van Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Alles bekijken Meer afbeeldingen voor Zwarte piet of roetveegpiet? Afbeeldingen melden Webresultaten https://www.nu.nl/www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpiet Gemeenten kiezen vaker voor roetveegpiet maar merendeel 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie roetveegpiet schminken kick out zwarte piet zwarte piet geschiedenis roetveegpiet tekening roetveegpiet amsterdam sinterklaas roetveegpiet cartoon Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland3906 NK Veenendaal - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Zoekmodi Alle Nieuws Afbeeldingen Shopping Maps Meer InstellingenTools Ongeveer 29.400 resultaten (0 50 seconden) Advertenties Advertentie· www.npofocus.nl/ ‎ Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ ‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. Verdieping. NPO Focus. Weet meer. Zoekresultaten Webresultaten rijksvaccinatieprogramma.nl › vaccinaties › twijfels Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren-v De verborgen gevaren van vaccinaties - WantToKnow PDF 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Heeft het niet vaccineren van kinderen nadelige gevolgen? Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden stichtingvaccinvrij.nl Stichting Vaccinvrij Wij vaccineren niet! Trailer Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend Vaccineren: levensgevaarlijk of levensreddend? - Scientias 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. www.rtlnieuws.nl › nieuws › buitenland › artikel › twijfels-over-vacci 'Twijfels over vaccinaties gevaar voor volksgezondheid' | RTL 20 jun. 2019 - In Europa wordt zo veel getwijfeld aan de veiligheid en effectiviteit van vaccinaties dat het een gevaar voor de volksgezondheid begint te www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-bescher Vaccineren: jezelf en anderen beschermen - UMC Utrecht 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt www.nieuwetijds-kindercoach.nl › Advies Vaccineren van je kind is niet - Nieuwetijds kindercoach Wie met z'n kind bij het consultatiebureau komt merkt al snel dat men ervan uitgaat dat je je kind zonder twijfel laat vaccineren. Er wordt niet gevraagd of en dekennisvannu.nl › site › artikel › Veelgestelde-vragen-over-vaccineren Artikel - Veelgestelde vragen over vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie niet vaccineren vaccineren autisme bijwerkingen vaccinaties niet vaccineren forum spijt van niet vaccineren niet vaccineren kinderdagverblijf wel of niet vaccineren 9 jaar Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandLisse - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleNieuwsAfbeeldingenShoppingMapsMeer InstellingenTools Ongeveer 30.800 resultaten (0 41 seconden) Zoekresultaten Webresultaten https://rijksvaccinatieprogramma.nl/rijksvaccinatieprogramma.nl › vaccinaties › twijfels Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn https://www.wanttoknow.nl/www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren-v De verborgen gevaren van vaccinaties - WantToKnowPDF 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' https://www.nvkp.nl/www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Heeft het niet vaccineren van kinderen nadelige gevolgen? Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden https://stichtingvaccinvrij.nl/stichtingvaccinvrij.nl Stichting Vaccinvrij Dinsdag bij het CB geweest. Ik heb verteld dat ik stop met vaccineren nadat mijn dochter na de BMR epilepsie heeft gekregen. Ik kreeg alle begrip hiervoor. https://www.scientias.nl/www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend Vaccineren: levensgevaarlijk of levensreddend? - Scientias 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. https://www.thuisvaccinatie.nl/www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? https://www.rtlnieuws.nl/www.rtlnieuws.nl › nieuws › buitenland › artikel › twijfels-over-vacci 'Twijfels over vaccinaties gevaar voor volksgezondheid' | RTL 20 jun. 2019 - In Europa wordt zo veel getwijfeld aan de veiligheid en effectiviteit van vaccinaties dat het een gevaar voor de volksgezondheid begint te https://www.umcutrecht.nl/www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-bescher Vaccineren: jezelf en anderen beschermen - UMC Utrecht 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt https://www.nieuwetijds-kindercoach.nl/www.nieuwetijds-kindercoach.nl › Advies Vaccineren van je kind is niet - Nieuwetijds kindercoach Wie met z'n kind bij het consultatiebureau komt merkt al snel dat men ervan uitgaat dat je je kind zonder twijfel laat vaccineren. Er wordt niet gevraagd of en https://dekennisvannu.nl/dekennisvannu.nl › site › artikel › Veelgestelde-vragen-over-vaccineren Artikel - Veelgestelde vragen over vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme niet vaccineren wat is vaccineren niet vaccineren forum bijwerkingen vaccinaties spijt van niet vaccineren stichting vaccinvrij Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland3906 NK Veenendaal - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Zoekmodi Alle Nieuws Afbeeldingen Video's Maps Meer InstellingenTools Ongeveer 192.000 resultaten (0 40 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten nl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie - Wikipedia Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-terug Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom www.politie.nl › themas › illegaliteit-vreemdelingen Illegaliteit/vreemdelingen | politie.nl Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-en- Ongedocumenteerden (illegalen) en uitgeprocedeerden Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de europadecentraal.nl › onderwerp › migratie Migratie - Europa decentraal Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenken- Nederland moet diep nadenken over de vergaande gevolgen 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt www.volkskrant.nl › nieuws-achtergrond › overeenkomst-tussen-vs-en- Overeenkomst tussen VS en Mexico over illegale migratie 8 jun. 2019 - Overeenkomst tussen VS en Mexico over illegale migratie importheffingen gesloten over de aanpak van illegale immigratie vanuit Mexico naar de VS. Welke gevolgen heeft het doden van generaal Qassem Soleimani? decorrespondent.nl › niemand-weet-hoeveel-illegale-migranten-er-in- Niemand weet hoeveel illegale migranten er in Europa zijn 8 aug. 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-deze Als het om illegale migranten gaat hebben deze grote 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-van- Bedreigt illegale migratie het voorbestaan van de EU? | Jalta 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegaal persoon in huis illegale migratie opvang illegale vluchtelingen illegaal verblijf niet strafbaar mexicaanse migratie illegaal in nederland en trouwen anoniem melden ind Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandLisse - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleNieuwsAfbeeldingenVideo'sMapsMeer InstellingenTools Ongeveer 189.000 resultaten (0 40 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten https://nl.wikipedia.org/nl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie - Wikipedia Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-terug Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom https://www.politie.nl/www.politie.nl › themas › illegaliteit-vreemdelingen Illegaliteit/vreemdelingen | politie.nl Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk https://www.amnesty.nl/www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-en- Ongedocumenteerden (illegalen) en uitgeprocedeerden Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de https://europadecentraal.nl/europadecentraal.nl › onderwerp › migratie Migratie - Europa decentraal Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn https://www.volkskrant.nl/www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenken- Nederland moet diep nadenken over de vergaande gevolgen 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt https://decorrespondent.nl/decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-deze Als het om illegale migranten gaat hebben deze grote 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke https://decorrespondent.nl/decorrespondent.nl › niemand-weet-hoeveel-illegale-migranten-er-in- Niemand weet hoeveel illegale migranten er in Europa zijn 8 aug. 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in https://www.dagelijksestandaard.nl/www.dagelijksestandaard.nl › 2019/04 › massa-immigratie-onhoudba Massa-immigratie betekent 'unsustainable' bevolkingsgroei en 30 apr. 2019 - Zo ook de massa-immigratie de bevolkingsexplosie en https://jalta.nl/jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-van- Bedreigt illegale migratie het voorbestaan van de EU? | Jalta 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegale migratie illegaal persoon in huis opvang illegale vluchtelingen illegaal verblijf niet strafbaar mexicaanse migratie illegaal in nederland en trouwen anoniem melden ind Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland3906 NK Veenendaal - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -1319,27 +1319,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Abortus tot hoeveel weken? Ongeveer 2.890.000 resultaten (0 58 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord › a Tot hoeveel weken kan ik een abortus laten uitvoeren Feedback Over samenvattingen Webresultaten https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot hoeveel weken kan ik een abortus laten uitvoeren Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? https://www.bloemenhove.nl/www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortus 13 tot 17 weken - Uitleg over de behandeling Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. https://www.bloemenhove.nl/www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortus 18 tot 22 weken - Uitleg over de behandeling Uitleg over de abortus behandeling in het laat 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de nacontrole. https://www.thuisarts.nl/www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. https://www.gezondheidsplein.nl/www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer en hoe kun je een abortus plegen? - Dossier Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet https://www.trouw.nl/www.trouw.nl › nieuws › bij-abortus-telt-alleen-de-moeder~be9b8150 'Bij abortus telt alléén de moeder' | Trouw 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. https://fiom.nl/fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling De abortusbehandeling | Fiom Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een https://www.telegraaf.nl/www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken-no 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap https://www.schreeuwomleven.nl/www.schreeuwomleven.nl › abortusmethoden Abortusmethoden - Schreeuw om Leven Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt https://www.gezondheidsnet.nl/www.gezondheidsnet.nl › zwanger › abortus-als-laatste-redmiddel Abortus als laatste redmiddel | Gezondheidsnet 8 dec. 2016 - Een abortus mag in Nederland tot 23 weken zwangerschap gerekend vanaf de eerste dag van de laatste menstruatie. 5 dagen bedenktijd is Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken duitsland tot hoeveel weken abortuspil abortus 24 weken procedure abortus kosten abortus 24 weken hoe gaat dat abortus informatie hoeveel kost abortus abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Abortus tot hoeveel weken? About 112.000 results (0 40 seconds) A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Ads Ad· www.siriz.nl/Abortus/Hoeveel-Weken ‎ Tot Hoeveel Weken Abortus? | Twijfel je over Abortus? | siriz.nl‎ ‎ 0800 4400003 Bespreek de mogelijkheden &amp; zet alles op een rij. Bel e-mail of chat met Siriz. Specialist bij onbedoelde zwangerschap. Wij bieden preventie ondersteuning en zorg. Persoonlijke begeleiding. Keuzegesprekken. Gratis hulp. Chat voor hulp De chat van Siriz is voor iedereen die met onbedoeld zwangerschap zit. Ben ik zwanger? Zwanger en geschrokken of hulp nodig? Bekijk de website. Search Results Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord › a Tot hoeveel weken kan ik een abortus laten uitvoeren Feedback Over samenvattingen Web results www.bloemenhove.nl › abortus_hulpverlening › a Abortus 13 tot 17 weken - Uitleg over de behandeling Translate this page Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. www.bloemenhove.nl › abortus_hulpverlening › a Abortus 18 tot 22 weken - Uitleg over de behandeling Translate this page Uitleg over de abortus behandeling in het laat 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de nacontrole. www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer en hoe kun je een abortus plegen? - Dossier Translate this page Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet www.thuisarts.nl › abortus › ik-ben-ongewenst-zwa Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts Translate this page Mar 17 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. www.trouw.nl › nieuws › bij-abortus-telt-alleen-de- 'Bij abortus telt alléén de moeder' | Trouw Translate this page Nov 30 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. www.telegraaf.nl › vrouw › ridicuul-dat-een-abortu 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is Translate this page Jan 23 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap fiom.nl › ongewenst-zwanger › abortus › abortusbe De abortusbehandeling | Fiom Translate this page Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een www.ad.nl › home › laat-24-wekengrens-bij-abortu 'Laat 24-wekengrens bij abortus los' | Wonen | AD.nl Translate this page Sep 30 2013 - Laat de grens van 24 weken bij abortus los. Daarvoor pleiten onderzoekers van het Erasmus MC en het AMC bij minister Edith Schippers van www.schreeuwomleven.nl › abortusmethoden Abortusmethoden - Schreeuw om Leven Translate this page Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Searches related to Abortus tot hoeveel weken? tot hoeveel weken abortuspil abortus kosten abortus in nederland abortus plegen baby 24 weken wat is abortus hoe werkt een abortus overtijdbehandeling Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands4814 TV Breda - From your device - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Oorzaken klimaatverandering Ongeveer 167.000 resultaten (0 51 seconden) Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. https://www.ce.nl/www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE Delft Feedback Over samenvattingen Webresultaten https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Klimaatverandering en gevolgen - Rijksoverheid Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de https://www.wur.nl/www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Oorzaken klimaatverandering - WUR Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. https://www.ce.nl/www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE Delft PDF Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. https://ec.europa.eu/ec.europa.eu › clima › change › causes_nl Causes of climate change | Klimaat - European Commission Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van https://www.urgenda.nl/www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › wa waarom weten we zeker dat de mens klimaatverandering Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de https://www.clo.nl/www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten | Compendium voor Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie https://milieudefensie.nl/milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Wat is klimaatverandering? — Milieudefensie Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens https://www.klimaat.be/www.klimaat.be › nl-be › klimaatverandering › het-klimaat Oorzaken - Klimaat.be De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig https://www.hier.nu/www.hier.nu › Thema's › Klimaatwoordenboek Klimaatverandering: oorzaken en gevolgen | HIER 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot https://www.climategate.nl/www.climategate.nl › 2017/10 › klimaatverandering-oorzaken Klimaatverandering : oorzaken - Climategate 30 okt. 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “Climate change: The facts 2017” uitgegeven door het Institute Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Oorzaken klimaatverandering About 155.000 results (0 36 seconds) A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Ads Ad· www.worldanimalprotection.nl/klimaat/verandering ‎ 10 feiten op een rij over | Klimaatverandering‎ ‎ Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. +50 jr actief voor dieren. We stoppen dierenleed. Dieren horen in het wild. Doneer nuDoe meeActuele informatieDieren beschermen Ad· www.heifer.nl/projecten ‎ Oorzaken Klimaatverandering | Heifer Nederland | heifer.nl‎ ‎ Help de Afrikaanse boeren zodat ze armoede kunnen overwinnen. Doneer! Plattelandsontwikkeling. Geef een Dier Cadeau. Directe Hulp. Veehouderij Expert. Landbouwspecialist. Boeren Staan Centraal. Geluk Geef je Door. Kom in Actie. Ad· www.oxfamnovib.nl/ ‎ De ongemakkelijke gevolgen van klimaatverandering‎ ‎ Wij zijn een wereldwijde beweging die armoede verslaat. Doe mee. Eerlijke cadeaus. Ad· www.klimaatplein.com/ ‎ Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ ‎ 073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools Search Results Scholarly articles for Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Cited by 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Cited by 5 Klimaatverandering als journalistieke uitdaging: een … - ‎Wurff - Cited by 3 Samenvatting van internet Image result for Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE DelftPDF Feedback Over samenvattingen Web results www.rijksoverheid.nl › onderwerpen › gevolgen-kl Klimaatverandering en gevolgen - Rijksoverheid Translate this page Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de www.wur.nl › artikel › Oorzaken-klimaatveranderi Oorzaken klimaatverandering - WUR Translate this page Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. ec.europa.eu › clima › change › causes_nl Causes of climate change | Klimaat - European Commission Translate this page Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van www.klimaat.be › klimaatverandering › het-klimaat Oorzaken - Klimaat.be Translate this page De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig www.urgenda.nl › themas › klimaatvragen › waaro waarom weten we zeker dat de mens klimaatverandering Translate this page Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de www.knaw.nl › de-nederlandse-wetenschapsagenda Wat zijn de oorzaken en gevolgen van klimaatverandering Translate this page Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn www.hier.nu › Thema's › Klimaatwoordenboek Klimaatverandering: oorzaken en gevolgen | HIER Translate this page May 15 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten | Compendium voor Translate this page Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie www.lne.be › wat-is-klimaatverandering Wat is klimaatverandering? Wat zijn de oorzaken - LNE.be Translate this page Op de website www.klimaat.be vind je meer uitleg i.vm. klimaatverandering: In het kort Het klimaat Klimaatverandering Oorzaken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands4814 TE Breda - From your device - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zwarte piet of roetveegpiet? Ongeveer 65.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. https://nl.wikipedia.org/nl.wikipedia.org › wiki › Roetpiet Roetpiet - Wikipedia Feedback Over samenvattingen Webresultaten https://www.ad.nl/www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-rug Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is https://www.ad.nl/www.ad.nl › rotterdam › regio-ziet-niets-in-roetveegpiet-bij-ons-blijft Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo 8 nov. 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van https://www.volkskrant.nl/www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terrein- De roetveegpiet wint terrein al nemen veel - Volkskrant 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in https://nl.wikipedia.org/nl.wikipedia.org › wiki › Roetpiet Roetpiet - Wikipedia De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. https://www.trouw.nl/www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en-d Waarom Roetveegpiet er bij Sylvie en Danny niet in komt 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. https://www.nrc.nl/www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 Zwarte pieten willen niet meer - NRC 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet https://eenvandaag.avrotros.nl/eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen Weinig draagvlak voor roetveegpieten bij landelijke intocht 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch https://eenvandaag.avrotros.nl/eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 14 nov. 2019 - Wat moet er gebeuren met het uiterlijk van Zwarte Piet? En hoe wordt er 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Afbeeldingen van Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Alles bekijken Meer afbeeldingen voor Zwarte piet of roetveegpiet? Afbeeldingen melden Webresultaten https://www.nu.nl/www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpiet Gemeenten kiezen vaker voor roetveegpiet maar merendeel 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie roetveegpiet schminken kick out zwarte piet zwarte piet geschiedenis roetveegpiet tekening roetveegpiet amsterdam sinterklaas roetveegpiet cartoon Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Zwarte piet of roetveegpiet? About 60.700 results (0 50 seconds) A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Search Results Samenvatting van internet Image result for Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. nl.wikipedia.org › wiki › Roetpiet Roetpiet - Wikipedia Feedback Over samenvattingen Web results www.ad.nl › rotterdam › rotterdam-keert-zwarte-pi Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl Translate this page Nov 17 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is www.ad.nl › rotterdam › regio-ziet-niets-in-roetvee Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo Translate this page Nov 8 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van www.volkskrant.nl › nieuws-achtergrond › de-roet De roetveegpiet wint terrein al nemen veel - Volkskrant- Translate this page Nov 15 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in www.trouw.nl › binnenland › waarom-roetveegpiet Waarom Roetveegpiet er bij Sylvie en Danny niet in komt Translate this page Nov 16 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. www.nrc.nl › nieuws › 2019/11/07 › de-pieten-lop Zwarte pieten willen niet meer - NRC- Translate this page Nov 7 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet www.nu.nl › sinterklaas › gemeenten-kiezen-vaker- Gemeenten kiezen vaker voor roetveegpiet maar merendeel Translate this page Nov 15 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in www.rtlnieuws.nl › editienl › artikel › zwart-roetve Vooral zwarte pieten bij lokale intocht maar 'wenpiet' rukt op Translate this page Nov 8 2019 - Bij 65 procent van de lokale intochten zijn de pieten helemaal zwart. Dat blijkt uit onderzoek Maar de roetveegpiet rukt overal in het land op. eenvandaag.avrotros.nl › › Alle uitslagen 5 meningen over Zwarte Piet: van 'niet aanpassen' tot Translate this page Nov 14 2019 - Wat moet er gebeuren met het uiterlijk van Zwarte Piet? En hoe wordt er 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. nos.nl › Alternatieve Sintjournaals zonder roetveegpiet: 'Er is vraag Translate this page Nov 11 2019 - Wie geen afscheid wil nemen van de zwart geschminkte Piet kan terecht bij verschillende alternatieve Sinterklaasjournaals. Op veel plaatsen Searches related to Zwarte piet of roetveegpiet? roetveegpiet english zwarte piet song sinterklaas en zwarte piet sinterklaasjournaal Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands4814 TE Breda - From your device - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevaren vaccinaties Ongeveer 35.400 resultaten (0 43 seconden) Zoekresultaten Webresultaten https://rijksvaccinatieprogramma.nl/rijksvaccinatieprogramma.nl › vaccinaties › twijfels Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn https://www.wanttoknow.nl/www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren-v De verborgen gevaren van vaccinaties - WantToKnowPDF 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' https://www.nvkp.nl/www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Heeft het niet vaccineren van kinderen nadelige gevolgen? Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden https://stichtingvaccinvrij.nl/stichtingvaccinvrij.nl Stichting Vaccinvrij Wij vaccineren niet! Trailer Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de https://www.thuisvaccinatie.nl/www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? https://www.scientias.nl/www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend Vaccineren: levensgevaarlijk of levensreddend? - Scientias 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. https://www.rtlnieuws.nl/www.rtlnieuws.nl › nieuws › buitenland › artikel › twijfels-over-vacci 'Twijfels over vaccinaties gevaar voor volksgezondheid' | RTL 20 jun. 2019 - In Europa wordt zo veel getwijfeld aan de veiligheid en effectiviteit van vaccinaties dat het een gevaar voor de volksgezondheid begint te https://www.umcutrecht.nl/www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-bescher Vaccineren: jezelf en anderen beschermen - UMC Utrecht 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt https://www.nieuwetijds-kindercoach.nl/www.nieuwetijds-kindercoach.nl › Advies Vaccineren van je kind is niet - Nieuwetijds kindercoach Wie met z'n kind bij het consultatiebureau komt merkt al snel dat men ervan uitgaat dat je je kind zonder twijfel laat vaccineren. Er wordt niet gevraagd of en https://dekennisvannu.nl/dekennisvannu.nl › site › artikel › Veelgestelde-vragen-over-vaccineren Artikel - Veelgestelde vragen over vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie niet vaccineren vaccineren autisme bijwerkingen vaccinaties niet vaccineren forum spijt van niet vaccineren niet vaccineren kinderdagverblijf wel of niet vaccineren 9 jaar Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Gevaren vaccinaties About 79.300 results (0 44 seconds) A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Search Results Vaccinatie risico Sommige ouders laten hun kinderen niet inenten. Een kind dat niet gevaccineerd is is onvoldoende beschermd tegen de gevaarlijke infectieziekten. Het risico dat het kind de bewuste infectieziekte krijgt is groter als het kind deel uitmaakt van een niet-gevaccineerde hechte gemeenschap. www.nvkp.nl › veelgestelde-vragen › over-het-rijksvaccinatieprogramma Heeft het niet vaccineren van kinderen nadelige gevolgen? Search for: Vaccinatie risico Feedback Over samenvattingen Web results rijksvaccinatieprogramma.nl › vaccinaties › twijfels Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl Translate this page Jun 17 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren-v De verborgen gevaren van vaccinaties - WantToKnow.nlPDF Jul 1 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' stichtingvaccinvrij.nl Stichting Vaccinvrij Translate this page Wij vaccineren niet! Trailer Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de www.thuisvaccinatie.nl › vaccinaties › bijwerkinge Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! Translate this page Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? www.scientias.nl › vaccineren-levensgevaarlijk-leve Vaccineren: levensgevaarlijk of levensreddend? - Scientias Translate this page Jan 15 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. www.rtlnieuws.nl › nieuws › buitenland › artikel 'Twijfels over vaccinaties gevaar voor volksgezondheid' | RTL Translate this page Jun 20 2019 - In Europa wordt zo veel getwijfeld aan de veiligheid en effectiviteit van vaccinaties dat het een gevaar voor de volksgezondheid begint te mens-en-gezondheid.infonu.nl › diversen › 14224 Gevaren van vaccinaties | Mens en Gezondheid: Diversen Translate this page Oct 9 2014 - Maar een steeds groter deel van de vaccinatieweigeraars zijn zich bewust geworden van de gevaren van vaccinaties. Het eerste vaccin www.larsvanhemmen.nl › Vaccinatie-RIVM Vaccinaties RIVM Rijksvaccinatieprogramma dood Kinderen - Translate this page Vaccinatie gevaren van het RIVM Rijksvaccinatieprogramma Sudden Deaths Autisme. Vaccinaties zijn onveilig voor kinderen zoals uitgelekte rapporten www.volkskrant.nl › columns-opinie › janneke-baz Janneke Bazelmans: 'Over nadelen vaccinatie wordt veelal - Translate this page Jul 22 2013 - Ouders die geen fervente tegenstanders van vaccinaties zijn maar kritisch kinderen maar ook de kinderen van anderen in gevaar brengen. Searches related to Gevaren vaccinaties anti vaccinatie stichting vaccinvrij nadelen vaccinatie vaccineren verplicht vaccineren betekenis bijwerkingen vaccinaties wat is vaccinatie dktp vaccinatie Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands4814 TE Breda - From your device - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 181.000 resultaten (0 41 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten https://nl.wikipedia.org/nl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie - Wikipedia Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-terug Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom https://www.politie.nl/www.politie.nl › themas › illegaliteit-vreemdelingen Illegaliteit/vreemdelingen | politie.nl Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk https://www.amnesty.nl/www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-en- Ongedocumenteerden (illegalen) en uitgeprocedeerden Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de https://europadecentraal.nl/europadecentraal.nl › onderwerp › migratie Migratie - Europa decentraal Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn https://www.volkskrant.nl/www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenken- Nederland moet diep nadenken over de vergaande gevolgen 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt https://decorrespondent.nl/decorrespondent.nl › niemand-weet-hoeveel-illegale-migranten-er-in- Niemand weet hoeveel illegale migranten er in Europa zijn 8 aug. 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in https://decorrespondent.nl/decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-deze Als het om illegale migranten gaat hebben deze grote 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke https://jalta.nl/jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-van- Bedreigt illegale migratie het voorbestaan van de EU? | Jalta 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de https://www.ad.nl/www.ad.nl › buitenland › vs-bereiden-grootscheepse-arrestatie-illegal VS bereiden grootscheepse arrestatie illegale immigranten voor 22 jun. 2019 - De Verenigde Staten bereiden de arrestatie voor van 2.000 illegale immigranten die met hun gezin in het land leven. De operatie zou mogelijk Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegaal persoon in huis illegale migratie opvang illegale vluchtelingen illegaal verblijf niet strafbaar mexicaanse migratie illegaal in nederland en trouwen anoniem melden ind Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Gevolgen illegale immigratie About 152.000 results (0 36 seconds) Including results for Gevolgen illegale migratie Search only for Gevolgen illegale immigratie A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Search Results Samenvatting van internet Illegale immigratie. Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen schendt. Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. nl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie - Wikipedia Feedback Over samenvattingen Web results www.rijksoverheid.nl › onderwerpen › minder-ille Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl Translate this page Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom www.politie.nl › themas › illegaliteit-vreemdelingen Illegaliteit/vreemdelingen | politie.nl Translate this page Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk www.amnesty.nl › encyclopedie › ongedocumentee Ongedocumenteerden (illegalen) en uitgeprocedeerden Translate this page Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de europadecentraal.nl › onderwerp › migratie Migratie - Europa decentraal Translate this page Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn decorrespondent.nl › niemand-weet-hoeveel-illegal Niemand weet hoeveel illegale migranten er in Europa zijn Translate this page Aug 8 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in decorrespondent.nl › als-het-om-illegale-migranten Als het om illegale migranten gaat hebben deze grote Translate this page Oct 9 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke eur-lex.europa.eu › legal-content › TXT › HTML 52004DC0412 - NL - EUR-Lex Translate this page DE REGIO'S - Studie naar de samenhang tussen legale en illegale migratie wijzigingen door te voeren om de gevolgen van de vergrijzing op te vangen. eur-lex.europa.eu › legal-content › TXT 52001DC0672 - EN - EUR-Lex - EUR-Lex- Translate this page De preventie en bestrijding van de illegale immigratie zijn wezenlijke de methoden van binnenkomst en de gevolgen voor onze samenlevingen vereist. www.volkskrant.nl › columns-opinie › nederland- Nederland moet diep nadenken over de vergaande gevolgen - Translate this page Oct 23 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands4814 TE Breda - From your device - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
     </row>
@@ -1349,27 +1349,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Abortus tot hoeveel weken? Ongeveer 1.900.000 resultaten (0 41 seconden) Advertenties Tot Hoeveel Weken Abortus? | Twijfel je over Abortus? | siriz.nl‎ Advertentiewww.siriz.nl/‎ Bespreek de mogelijkheden &amp; zet alles op een rij. App of Chat met Siriz. Specialist bij onbedoelde zwangerschap. Wij bieden preventie ondersteuning en zorg. Keuzegesprekken. Gratis hulp. Persoonlijke begeleiding. Services: Zwanger en je keuze Abortus en je keuze. ContactChat voor hulpBen ik zwanger? Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over samenvattingen Webresultaten Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortus 18 tot 22 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_18_-_22_ Uitleg over de abortus behandeling in het laat 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de nacontrole. Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Abortus als laatste redmiddel | Gezondheidsnet https://www.gezondheidsnet.nl › zwanger › abortus-als-laatste-redmiddel 8 dec. 2016 - Een abortus mag in Nederland tot 23 weken zwangerschap gerekend vanaf de eerste dag van de laatste menstruatie. 5 dagen bedenktijd is Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken duitsland tot hoeveel weken abortuspil abortus 24 weken procedure abortus kosten abortus 24 weken hoe gaat dat abortus informatie hoeveel kost abortus abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandBreda Zuid Oost Breda - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Abortus tot hoeveel weken? Ongeveer 338.000 resultaten (0 39 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord › a Tot hoeveel weken kan ik een abortus laten uitvoeren Feedback Over samenvattingen Webresultaten www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortus 13 tot 17 weken - Uitleg over de behandeling Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortus 18 tot 22 weken - Uitleg over de behandeling Uitleg over de abortus behandeling in het laat 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de nacontrole. www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. www.trouw.nl › nieuws › bij-abortus-telt-alleen-de-moeder~be9b8150 'Bij abortus telt alléén de moeder' | Trouw 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer en hoe kun je een abortus plegen? - Dossier Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken-no 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling De abortusbehandeling | Fiom Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een www.schreeuwomleven.nl › abortusmethoden Abortusmethoden - Schreeuw om Leven Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt www.gezondheidsnet.nl › zwanger › abortus-als-laatste-redmiddel Abortus als laatste redmiddel | Gezondheidsnet 8 dec. 2016 - Een abortus mag in Nederland tot 23 weken zwangerschap gerekend vanaf de eerste dag van de laatste menstruatie. 5 dagen bedenktijd is Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus tot hoeveel weken duitsland abortus 24 weken procedure abortus 24 weken hoe gaat dat abortus kosten abortus kliniek hoeveel kost abortus Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland5741 Beek en Donk - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Oorzaken klimaatverandering Ongeveer 147.000 resultaten (0 35 seconden) Advertenties 10 feiten op een rij over | Klimaatverandering‎ Advertentiewww.worldanimalprotection.nl/klimaat/verandering‎ Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. We stoppen dierenleed. +50 jr actief voor dieren. Dieren horen in het wild. Doe meeActuele informatieDieren beschermenDoneer nu Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Klimaatverandering als journalistieke uitdaging: een … - ‎Wurff - Geciteerd door 3 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over samenvattingen Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Klimaatverandering: oorzaken en effecten | Compendium voor https://www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Wat zijn de oorzaken en gevolgen van klimaatverandering https://www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandBreda Zuid Oost Breda - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Oorzaken klimaatverandering Ongeveer 148.000 resultaten (0 36 seconden) Advertenties Advertentie· www.wwf.nl/ ‎ Oorzaken Klimaatverandering | Kom Samen Met WNF In Actie‎ ‎ 0800 1962 Lees hier wat WNF doet om klimaatverandering tegen te gaan en help mee! Interessen: Nieuwsbrief Donaties. Stop plasticOnze AanpakThema'sGebieden Advertentie· www.klimaatplein.com/ ‎ Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ ‎ 073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. CO2 neutraal ondernemen. Inzicht in besparing. Verduurzamen bedrijf. Besparing energieverbruik. Services: SDE+ EIA MIA VAMIL. Wat is klimaatveranderingDuurzaam BouwenSubsidiewijzerEnergiebesparing Advertentie· www.worldanimalprotection.nl/klimaat/verandering ‎ 10 feiten op een rij over | Klimaatverandering‎ ‎ Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. +50 jr actief voor dieren. We stoppen dierenleed. Dieren horen in het wild. Actuele informatieDieren beschermenDoe meeDoneer nu Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering als journalistieke uitdaging: een … - ‎Wurff - Geciteerd door 3 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE DelftPDF Feedback Over samenvattingen Webresultaten www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Klimaatverandering en gevolgen - Rijksoverheid Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Oorzaken klimaatverandering - WUR Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › wa waarom weten we zeker dat de mens klimaatverandering Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de ec.europa.eu › clima › change › causes_nl Causes of climate change | Klimaat - European Commission Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten | Compendium voor Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie www.klimaat.be › nl-be › klimaatverandering › het-klimaat Oorzaken - Klimaat.be De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Wat is klimaatverandering? — Milieudefensie Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn www.hier.nu › Thema's › Klimaatwoordenboek Klimaatverandering: oorzaken en gevolgen | HIER 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland5741 Beek en Donk - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zwarte piet of roetveegpiet? Ongeveer 64.600 resultaten (0 44 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet Feedback Over samenvattingen Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo https://www.ad.nl › rotterdam › regio-ziet-niets-in-roetveegpiet-bij-ons-blij 8 nov. 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch 5 meningen over Zwarte Piet: van 'niet aanpassen' tot https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Wat moet er gebeuren met het uiterlijk van Zwarte Piet? En hoe wordt er 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Afbeeldingen van Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Alles bekijken Meer afbeeldingen voor Zwarte piet of roetveegpiet? Afbeeldingen melden Webresultaten Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie roetveegpiet schminken kick out zwarte piet zwarte piet geschiedenis roetveegpiet tekening roetveegpiet amsterdam sinterklaas roetveegpiet cartoon Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandBreda Zuid Oost Breda - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zwarte piet of roetveegpiet? Ongeveer 64.600 resultaten (0 41 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. nl.wikipedia.org › wiki › Roetpiet Roetpiet - Wikipedia Feedback Over samenvattingen Webresultaten www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-rug Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is www.ad.nl › rotterdam › regio-ziet-niets-in-roetveegpiet-bij-ons-blijft Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo 8 nov. 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terrein- De roetveegpiet wint terrein al nemen veel - Volkskrant 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en-d Waarom Roetveegpiet er bij Sylvie en Danny niet in komt 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 Zwarte pieten willen niet meer - NRC 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpiet Gemeenten kiezen vaker voor roetveegpiet maar merendeel 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 14 nov. 2019 - Wat moet er gebeuren met het uiterlijk van Zwarte Piet? En hoe wordt er 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen Weinig draagvlak voor roetveegpieten bij landelijke intocht 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch joop.bnnvara.nl › kijk-nou › pro-piet-demonstreert-onbedoeld-als-roe Kijk Nou: Pro-Piet demonstreert onbedoeld als roetveegpiet 14 nov. 2019 - Tijdens een demonstratie in Den Bosch voor het behoud van de racistische kenmerken van Zwarte Piet heeft een demonstrant per ongeluk Gerelateerde zoekopdracht Sinterklaas serie Nog 2+ weergeven Sinterklaasjournaal Sinterklaasjournaal RTL Nieuws RTL Nieuws Dag Sinterklaas Dag Sinterklaas Landelijke intocht van Sinterklaas Landelijke intocht van Sint Slot Marsepeinstein Slot Marsepeinstein Het Grote Sinterklaasverhaal Het Grote Sinterklaasverhaal Hij komt hij komt De intrede van de Sint Hij komt hij komt De intre Feedback Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie roetveegpiet schminken kick out zwarte piet zwarte piet geschiedenis roetveegpiet tekening roetveegpiet amsterdam sinterklaas roetveegpiet cartoon Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland5741 Beek en Donk - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevaren vaccinaties Ongeveer 33.500 resultaten (0 43 seconden) Advertenties Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ Advertentiewww.npofocus.nl/Vaccineren‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. NPO Focus. Weet meer. Verdieping. Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn [PDF]De verborgen gevaren van vaccinaties - WantToKnow https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden Stichting Vaccinvrij https://stichtingvaccinvrij.nl Veel mensen willen hun kinderen niet laten vaccineren. Daar is een reden voor. Denk mee denk na. Wij vaccineren niet! Trailer. Nederlands ondertiteld Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? 'Twijfels over vaccinaties gevaar voor volksgezondheid' | RTL https://www.rtlnieuws.nl › nieuws › buitenland › artikel › twijfels-over-vac 20 jun. 2019 - In Europa wordt zo veel getwijfeld aan de veiligheid en effectiviteit van vaccinaties dat het een gevaar voor de volksgezondheid begint te Artikel - Veelgestelde vragen over vaccineren https://dekennisvannu.nl › site › Veelgestelde-vragen-over-vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Vaccineren van je kind is niet - Nieuwetijds kindercoach https://www.nieuwetijds-kindercoach.nl › Advies Wie met z'n kind bij het consultatiebureau komt merkt al snel dat men ervan uitgaat dat je je kind zonder twijfel laat vaccineren. Er wordt niet gevraagd of en Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme niet vaccineren wat is vaccineren bijwerkingen vaccinaties niet vaccineren forum spijt van niet vaccineren stichting vaccinvrij Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandBreda Zuid Oost Breda - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevaren vaccinaties Ongeveer 29.000 resultaten (0 42 seconden) Advertenties Advertentie· www.npofocus.nl/Vaccineren ‎ Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ ‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. Weet meer. NPO Focus. Verdieping. Zoekresultaten Webresultaten rijksvaccinatieprogramma.nl › vaccinaties › twijfels Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren-v De verborgen gevaren van vaccinaties - WantToKnowPDF 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Heeft het niet vaccineren van kinderen nadelige gevolgen? Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden stichtingvaccinvrij.nl Stichting Vaccinvrij Wij vaccineren niet! Trailer Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend Vaccineren: levensgevaarlijk of levensreddend? - Scientias 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. www.rtlnieuws.nl › nieuws › buitenland › artikel › twijfels-over-vacci 'Twijfels over vaccinaties gevaar voor volksgezondheid' | RTL 20 jun. 2019 - In Europa wordt zo veel getwijfeld aan de veiligheid en effectiviteit van vaccinaties dat het een gevaar voor de volksgezondheid begint te www.larsvanhemmen.nl › Vaccinatie-RIVM Vaccinaties RIVM Rijksvaccinatieprogramma dood Kinderen Vaccinatie gevaren van het RIVM Rijksvaccinatieprogramma Sudden Deaths Autisme. Vaccinaties zijn onveilig voor kinderen zoals uitgelekte rapporten www.ggdreisvaccinaties.nl › heb-ik-een-vaccinatie-nodig VACCINATIES PER LAND I GGDREISVACCINATIES Voor welk land heeft u vaccinaties nodig? Dat verschilt per land. In de landenzoeker kunt u vinden of u vaccinaties of inentingen nodig heeft voor uw reis. www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-bescher Vaccineren: jezelf en anderen beschermen - UMC Utrecht 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie niet vaccineren vaccineren autisme bijwerkingen vaccinaties niet vaccineren forum spijt van niet vaccineren wat is vaccineren niet vaccineren kinderdagverblijf Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland5741 Beek en Donk - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 191.000 resultaten (0 40 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke Niemand weet hoeveel illegale migranten er in Europa zijn https://decorrespondent.nl › niemand-weet-hoeveel-illegale-migranten-er-i 8 aug. 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Massa-immigratie betekent 'unsustainable' bevolkingsgroei en https://www.dagelijksestandaard.nl › 2019/04 › massa-immigratie-onhoud 30 apr. 2019 - Zo ook de massa-immigratie de bevolkingsexplosie en Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegale migratie illegaal persoon in huis opvang illegale vluchtelingen illegaal verblijf niet strafbaar mexicaanse migratie illegaal in nederland en trouwen anoniem melden ind Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandBreda Zuid Oost Breda - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 169.000 resultaten (0 38 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Samenvatting van internet Illegale immigratie. Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen schendt. Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. nl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie - Wikipedia Feedback Over samenvattingen Webresultaten www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-terug Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom www.politie.nl › themas › illegaliteit-vreemdelingen Illegaliteit/vreemdelingen | politie.nl Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-en- Ongedocumenteerden (illegalen) en uitgeprocedeerden Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de europadecentraal.nl › onderwerp › migratie Migratie - Europa decentraal Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn decorrespondent.nl › niemand-weet-hoeveel-illegale-migranten-er-in- Niemand weet hoeveel illegale migranten er in Europa zijn 8 aug. 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-deze Als het om illegale migranten gaat hebben deze grote 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenken- Nederland moet diep nadenken over de vergaande gevolgen 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt www.volkskrant.nl › nieuws-achtergrond › overeenkomst-tussen-vs-en- Overeenkomst tussen VS en Mexico over illegale migratie 8 jun. 2019 - Na drie dagen onderhandelen hebben de Verenigde Staten en Mexico een overeenkomst gesloten over de aanpak van illegale immigratie eur-lex.europa.eu › legal-content › TXT 52001DC0672 - EN - EUR-Lex - EUR-Lex De preventie en bestrijding van de illegale immigratie zijn wezenlijke de methoden van binnenkomst en de gevolgen voor onze samenlevingen vereist. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegale migratie illegaal persoon in huis opvang illegale vluchtelingen illegaal verblijf niet strafbaar mexicaanse migratie illegaal in nederland en trouwen anoniem melden ind Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland5741 Beek en Donk - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -1379,27 +1379,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenNieuwsVideo'sShoppingMeer InstellingenTools Ongeveer 2.490.000 resultaten (0 49 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord › a Tot hoeveel weken kan ik een abortus laten uitvoeren Feedback Over samenvattingen Webresultaten https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Tot hoeveel weken kan ik een abortus laten uitvoeren Tot welke week van de zwangerschap mag een arts een abortus uitvoeren? https://www.bloemenhove.nl/www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortus 13 tot 17 weken - Uitleg over de behandeling Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. https://www.bloemenhove.nl/www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortus 18 tot 22 weken - Uitleg over de behandeling Uitleg over de abortus behandeling in het laat 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de nacontrole. https://www.thuisarts.nl/www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. https://www.gezondheidsplein.nl/www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer en hoe kun je een abortus plegen? - Dossier Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet https://www.trouw.nl/www.trouw.nl › nieuws › bij-abortus-telt-alleen-de-moeder~be9b8150 'Bij abortus telt alléén de moeder' | Trouw 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. https://www.telegraaf.nl/www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken-no 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap https://fiom.nl/fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling De abortusbehandeling | Fiom Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een https://www.schreeuwomleven.nl/www.schreeuwomleven.nl › abortusmethoden Abortusmethoden - Schreeuw om Leven Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt https://www.gezondheidsnet.nl/www.gezondheidsnet.nl › zwanger › abortus-als-laatste-redmiddel Abortus als laatste redmiddel | Gezondheidsnet 8 dec. 2016 - Een abortus mag in Nederland tot 23 weken zwangerschap gerekend vanaf de eerste dag van de laatste menstruatie. 5 dagen bedenktijd is Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken duitsland tot hoeveel weken abortuspil abortus 24 weken procedure abortus kosten abortus 24 weken hoe gaat dat abortus informatie hoeveel kost abortus abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland3906 NK Veenendaal - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenNieuwsVideo'sShoppingMeer InstellingenTools Ongeveer 338.000 resultaten (0 50 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over samenvattingen Webresultaten Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortus 18 tot 22 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_18_-_22_ Uitleg over de abortus behandeling in het laat 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de nacontrole. Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Abortus als laatste redmiddel | Gezondheidsnet https://www.gezondheidsnet.nl › zwanger › abortus-als-laatste-redmiddel 8 dec. 2016 - Een abortus mag in Nederland tot 23 weken zwangerschap gerekend vanaf de eerste dag van de laatste menstruatie. 5 dagen bedenktijd is Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus tot hoeveel weken duitsland abortus 24 weken procedure abortus 24 weken hoe gaat dat abortus kosten abortus kliniek hoeveel kost abortus Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1191 VL Ouderkerk aan de Amstel - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenNieuwsVideo'sShoppingMeer InstellingenTools Ongeveer 139.000 resultaten (0 37 seconden) Advertenties Advertentie· www.worldanimalprotection.nl/ ‎ 10 feiten over klimaatverandering | World Animal Protection‎ ‎ World Animal Protection redt dieren in nood. Bekijk wat we doen en help mee! Dieren horen in het wild. We stoppen dierenleed. +50 jr actief voor dieren. Op de hoogte blijven?Dieren in rampsituatiesDieren in de veehouderijWat doen we? Advertentie· www.klimaatplein.com/klimaat/verandering ‎ Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ ‎ 073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. CO2 neutraal ondernemen. Verduurzamen bedrijf. Inzicht in besparing. Besparing energieverbruik. Services: SDE+ EIA MIA VAMIL. Contact KlimaatpleinEnergie Besparen Op ICTDuurzame EnergieDuurzaam Bouwen Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Klimaatverandering als journalistieke uitdaging: een … - ‎Wurff - Geciteerd door 3 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. https://www.ce.nl/www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE Delft Feedback Over samenvattingen Webresultaten https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Klimaatverandering en gevolgen - Rijksoverheid Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de https://www.wur.nl/www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Oorzaken klimaatverandering - WUR Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. https://www.ce.nl/www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE Delft PDF Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. https://ec.europa.eu/ec.europa.eu › clima › change › causes_nl Causes of climate change | Klimaat - European Commission Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van https://www.urgenda.nl/www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › wa waarom weten we zeker dat de mens klimaatverandering Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de https://www.clo.nl/www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten | Compendium voor Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie https://www.klimaat.be/www.klimaat.be › nl-be › klimaatverandering › het-klimaat Oorzaken - Klimaat.be De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig https://milieudefensie.nl/milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Wat is klimaatverandering? — Milieudefensie Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens https://www.hier.nu/www.hier.nu › Thema's › Klimaatwoordenboek Klimaatverandering: oorzaken en gevolgen | HIER 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot https://www.knaw.nl/www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland3906 NK Veenendaal - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenNieuwsVideo'sShoppingMeer InstellingenTools Ongeveer 129.000 resultaten (0 35 seconden) Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering als journalistieke uitdaging: een … - ‎Wurff - Geciteerd door 3 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over samenvattingen Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Klimaatverandering: oorzaken en effecten | Compendium voor https://www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Wat zijn de oorzaken en gevolgen van klimaatverandering https://www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1191 VL Ouderkerk aan de Amstel - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenMapsNieuwsVideo'sMeer InstellingenTools Ongeveer 64.100 resultaten (0 41 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. https://nl.wikipedia.org/nl.wikipedia.org › wiki › Roetpiet Roetpiet - Wikipedia Feedback Over samenvattingen Webresultaten https://www.ad.nl/www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-rug Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is https://www.ad.nl/www.ad.nl › rotterdam › regio-ziet-niets-in-roetveegpiet-bij-ons-blijft Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo 8 nov. 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van https://www.volkskrant.nl/www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terrein- De roetveegpiet wint terrein al nemen veel - Volkskrant 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in https://nl.wikipedia.org/nl.wikipedia.org › wiki › Roetpiet Roetpiet - Wikipedia De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. https://www.trouw.nl/www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en-d Waarom Roetveegpiet er bij Sylvie en Danny niet in komt 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. https://www.nrc.nl/www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 Zwarte pieten willen niet meer - NRC 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet https://eenvandaag.avrotros.nl/eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen Weinig draagvlak voor roetveegpieten bij landelijke intocht 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch https://eenvandaag.avrotros.nl/eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 14 nov. 2019 - Wat moet er gebeuren met het uiterlijk van Zwarte Piet? En hoe wordt er 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Afbeeldingen van Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Alles bekijken Meer afbeeldingen voor Zwarte piet of roetveegpiet? Afbeeldingen melden Webresultaten https://www.nu.nl/www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpiet Gemeenten kiezen vaker voor roetveegpiet maar merendeel 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie roetveegpiet schminken kick out zwarte piet zwarte piet geschiedenis roetveegpiet tekening roetveegpiet amsterdam sinterklaas roetveegpiet cartoon Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland3906 NK Veenendaal - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenMapsNieuwsVideo'sMeer InstellingenTools Ongeveer 64.600 resultaten (0 40 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet Feedback Over samenvattingen Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo https://www.ad.nl › rotterdam › regio-ziet-niets-in-roetveegpiet-bij-ons-blij 8 nov. 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in 5 meningen over Zwarte Piet: van 'niet aanpassen' tot https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Wat moet er gebeuren met het uiterlijk van Zwarte Piet? En hoe wordt er 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Kijk Nou: Pro-Piet demonstreert onbedoeld als roetveegpiet https://joop.bnnvara.nl › kijk-nou › pro-piet-demonstreert-onbedoeld-als-r 14 nov. 2019 - Tijdens een demonstratie in Den Bosch voor het behoud van de racistische kenmerken van Zwarte Piet heeft een demonstrant per ongeluk Gerelateerde zoekopdracht Sinterklaas serie Nog 2+ weergeven Sinterklaasjournaal Sinterklaasjournaal RTL Nieuws RTL Nieuws Dag Sinterklaas Dag Sinterklaas Landelijke intocht van Sinterklaas Landelijke intocht van Sint Slot Marsepeinstein Slot Marsepeinstein Het Grote Sinterklaasverhaal Het Grote Sinterklaasverhaal Hij komt hij komt De intrede van de Sint Hij komt hij komt De intre Feedback Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie roetveegpiet schminken kick out zwarte piet zwarte piet geschiedenis roetveegpiet tekening roetveegpiet amsterdam sinterklaas roetveegpiet cartoon Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1191 VL Ouderkerk aan de Amstel - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleNieuwsAfbeeldingenShoppingMapsMeer InstellingenTools Ongeveer 30.800 resultaten (0 41 seconden) Zoekresultaten Webresultaten https://rijksvaccinatieprogramma.nl/rijksvaccinatieprogramma.nl › vaccinaties › twijfels Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn https://www.wanttoknow.nl/www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren-v De verborgen gevaren van vaccinaties - WantToKnowPDF 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' https://www.nvkp.nl/www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Heeft het niet vaccineren van kinderen nadelige gevolgen? Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden https://stichtingvaccinvrij.nl/stichtingvaccinvrij.nl Stichting Vaccinvrij Dinsdag bij het CB geweest. Ik heb verteld dat ik stop met vaccineren nadat mijn dochter na de BMR epilepsie heeft gekregen. Ik kreeg alle begrip hiervoor. https://www.scientias.nl/www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend Vaccineren: levensgevaarlijk of levensreddend? - Scientias 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. https://www.thuisvaccinatie.nl/www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? https://www.rtlnieuws.nl/www.rtlnieuws.nl › nieuws › buitenland › artikel › twijfels-over-vacci 'Twijfels over vaccinaties gevaar voor volksgezondheid' | RTL 20 jun. 2019 - In Europa wordt zo veel getwijfeld aan de veiligheid en effectiviteit van vaccinaties dat het een gevaar voor de volksgezondheid begint te https://www.umcutrecht.nl/www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-bescher Vaccineren: jezelf en anderen beschermen - UMC Utrecht 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt https://www.nieuwetijds-kindercoach.nl/www.nieuwetijds-kindercoach.nl › Advies Vaccineren van je kind is niet - Nieuwetijds kindercoach Wie met z'n kind bij het consultatiebureau komt merkt al snel dat men ervan uitgaat dat je je kind zonder twijfel laat vaccineren. Er wordt niet gevraagd of en https://dekennisvannu.nl/dekennisvannu.nl › site › artikel › Veelgestelde-vragen-over-vaccineren Artikel - Veelgestelde vragen over vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie vaccineren autisme niet vaccineren wat is vaccineren niet vaccineren forum bijwerkingen vaccinaties spijt van niet vaccineren stichting vaccinvrij Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland3906 NK Veenendaal - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleNieuwsAfbeeldingenShoppingMapsMeer InstellingenTools Ongeveer 28.200 resultaten (0 39 seconden) Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn [PDF]De verborgen gevaren van vaccinaties - WantToKnow.nl https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden Stichting Vaccinvrij https://stichtingvaccinvrij.nl Wij vaccineren niet! Trailer Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. 'Twijfels over vaccinaties gevaar voor volksgezondheid' | RTL https://www.rtlnieuws.nl › nieuws › buitenland › artikel › twijfels-over-vac 20 jun. 2019 - In Europa wordt zo veel getwijfeld aan de veiligheid en effectiviteit van vaccinaties dat het een gevaar voor de volksgezondheid begint te Vaccinaties RIVM Rijksvaccinatieprogramma dood Kinderen https://www.larsvanhemmen.nl › Vaccinatie-RIVM Vaccinatie gevaren van het RIVM Rijksvaccinatieprogramma Sudden Deaths Autisme. Vaccinaties zijn onveilig voor kinderen zoals uitgelekte rapporten Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › 2019/06/19 › gevaarlijke-scepsis-over-vaccins-a3964399 19 jun. 2019 - Wereldwijd onderzoek: Desinformatie via sociale media zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. In veel Europese Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie niet vaccineren vaccineren autisme bijwerkingen vaccinaties niet vaccineren forum spijt van niet vaccineren wat is vaccineren niet vaccineren kinderdagverblijf Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1191 VL Ouderkerk aan de Amstel - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleNieuwsAfbeeldingenVideo'sMapsMeer InstellingenTools Ongeveer 189.000 resultaten (0 40 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten https://nl.wikipedia.org/nl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie - Wikipedia Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen https://www.rijksoverheid.nl/www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-terug Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom https://www.politie.nl/www.politie.nl › themas › illegaliteit-vreemdelingen Illegaliteit/vreemdelingen | politie.nl Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk https://www.amnesty.nl/www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-en- Ongedocumenteerden (illegalen) en uitgeprocedeerden Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de https://europadecentraal.nl/europadecentraal.nl › onderwerp › migratie Migratie - Europa decentraal Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn https://www.volkskrant.nl/www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenken- Nederland moet diep nadenken over de vergaande gevolgen 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt https://decorrespondent.nl/decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-deze Als het om illegale migranten gaat hebben deze grote 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke https://decorrespondent.nl/decorrespondent.nl › niemand-weet-hoeveel-illegale-migranten-er-in- Niemand weet hoeveel illegale migranten er in Europa zijn 8 aug. 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in https://www.dagelijksestandaard.nl/www.dagelijksestandaard.nl › 2019/04 › massa-immigratie-onhoudba Massa-immigratie betekent 'unsustainable' bevolkingsgroei en 30 apr. 2019 - Zo ook de massa-immigratie de bevolkingsexplosie en https://jalta.nl/jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-van- Bedreigt illegale migratie het voorbestaan van de EU? | Jalta 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegale migratie illegaal persoon in huis opvang illegale vluchtelingen illegaal verblijf niet strafbaar mexicaanse migratie illegaal in nederland en trouwen anoniem melden ind Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland3906 NK Veenendaal - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleNieuwsAfbeeldingenVideo'sMapsMeer InstellingenTools Ongeveer 169.000 resultaten (0 46 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Samenvatting van internet Illegale immigratie. Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen schendt. Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Feedback Over samenvattingen Webresultaten Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Overeenkomst tussen VS en Mexico over illegale migratie https://www.volkskrant.nl › nieuws-achtergrond › overeenkomst-tussen-vs-e 8 jun. 2019 - Na drie dagen onderhandelen hebben de Verenigde Staten en Mexico een overeenkomst gesloten over de aanpak van illegale immigratie Niemand weet hoeveel illegale migranten er in Europa zijn https://decorrespondent.nl › niemand-weet-hoeveel-illegale-migranten-er-i 8 aug. 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke 52001DC0672 - EN - EUR-Lex - EUR-Lex https://eur-lex.europa.eu › legal-content › TXT De preventie en bestrijding van de illegale immigratie zijn wezenlijke de methoden van binnenkomst en de gevolgen voor onze samenlevingen vereist. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegale migratie illegaal persoon in huis opvang illegale vluchtelingen mexicaanse migratie illegaal verblijf niet strafbaar illegaal in nederland en trouwen anoniem melden ind Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1191 VL Ouderkerk aan de Amstel - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
@@ -1409,27 +1409,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Abortus tot hoeveel weken? About 112.000 results (0 40 seconds) A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Ads Ad· www.siriz.nl/Abortus/Hoeveel-Weken ‎ Tot Hoeveel Weken Abortus? | Twijfel je over Abortus? | siriz.nl‎ ‎ 0800 4400003 Bespreek de mogelijkheden &amp; zet alles op een rij. Bel e-mail of chat met Siriz. Specialist bij onbedoelde zwangerschap. Wij bieden preventie ondersteuning en zorg. Persoonlijke begeleiding. Keuzegesprekken. Gratis hulp. Chat voor hulp De chat van Siriz is voor iedereen die met onbedoeld zwangerschap zit. Ben ik zwanger? Zwanger en geschrokken of hulp nodig? Bekijk de website. Search Results Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord › a Tot hoeveel weken kan ik een abortus laten uitvoeren Feedback Over samenvattingen Web results www.bloemenhove.nl › abortus_hulpverlening › a Abortus 13 tot 17 weken - Uitleg over de behandeling Translate this page Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. www.bloemenhove.nl › abortus_hulpverlening › a Abortus 18 tot 22 weken - Uitleg over de behandeling Translate this page Uitleg over de abortus behandeling in het laat 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de nacontrole. www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer en hoe kun je een abortus plegen? - Dossier Translate this page Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet www.thuisarts.nl › abortus › ik-ben-ongewenst-zwa Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts Translate this page Mar 17 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. www.trouw.nl › nieuws › bij-abortus-telt-alleen-de- 'Bij abortus telt alléén de moeder' | Trouw Translate this page Nov 30 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. www.telegraaf.nl › vrouw › ridicuul-dat-een-abortu 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is Translate this page Jan 23 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap fiom.nl › ongewenst-zwanger › abortus › abortusbe De abortusbehandeling | Fiom Translate this page Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een www.ad.nl › home › laat-24-wekengrens-bij-abortu 'Laat 24-wekengrens bij abortus los' | Wonen | AD.nl Translate this page Sep 30 2013 - Laat de grens van 24 weken bij abortus los. Daarvoor pleiten onderzoekers van het Erasmus MC en het AMC bij minister Edith Schippers van www.schreeuwomleven.nl › abortusmethoden Abortusmethoden - Schreeuw om Leven Translate this page Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Searches related to Abortus tot hoeveel weken? tot hoeveel weken abortuspil abortus kosten abortus in nederland abortus plegen baby 24 weken wat is abortus hoe werkt een abortus overtijdbehandeling Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands4814 TV Breda - From your device - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 219.000 resultaten (0 30 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord › a Tot hoeveel weken kan ik een abortus laten uitvoeren Feedback Over samenvattingen Webresultaten www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortus 13 tot 17 weken - Uitleg over de behandeling Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. www.trouw.nl › nieuws › bij-abortus-telt-alleen-de-moeder~be9b8150 'Bij abortus telt alléén de moeder' | Trouw 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. Dankzij vooruitgang in de neonatologie is die grens verlaagd tot 24 weken. Sommige www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer en hoe kun je een abortus plegen? - Dossier Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling De abortusbehandeling | Fiom Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken-no 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ingreep 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen nog maar vijf weken zwanger en kon deze zwangerschap dus 'makkelijk' Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later vaginaal www.schreeuwomleven.nl › abortusmethoden Abortusmethoden - Schreeuw om Leven Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus tot hoeveel weken duitsland abortus kosten abortus 24 weken procedure abortus 24 weken hoe gaat dat abortus kliniek hoe werkt abortus Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandBurgh-Haamstede - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Oorzaken klimaatverandering About 155.000 results (0 36 seconds) A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Ads Ad· www.worldanimalprotection.nl/klimaat/verandering ‎ 10 feiten op een rij over | Klimaatverandering‎ ‎ Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. +50 jr actief voor dieren. We stoppen dierenleed. Dieren horen in het wild. Doneer nuDoe meeActuele informatieDieren beschermen Ad· www.heifer.nl/projecten ‎ Oorzaken Klimaatverandering | Heifer Nederland | heifer.nl‎ ‎ Help de Afrikaanse boeren zodat ze armoede kunnen overwinnen. Doneer! Plattelandsontwikkeling. Geef een Dier Cadeau. Directe Hulp. Veehouderij Expert. Landbouwspecialist. Boeren Staan Centraal. Geluk Geef je Door. Kom in Actie. Ad· www.oxfamnovib.nl/ ‎ De ongemakkelijke gevolgen van klimaatverandering‎ ‎ Wij zijn een wereldwijde beweging die armoede verslaat. Doe mee. Eerlijke cadeaus. Ad· www.klimaatplein.com/ ‎ Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ ‎ 073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools Search Results Scholarly articles for Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Cited by 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Cited by 5 Klimaatverandering als journalistieke uitdaging: een … - ‎Wurff - Cited by 3 Samenvatting van internet Image result for Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE DelftPDF Feedback Over samenvattingen Web results www.rijksoverheid.nl › onderwerpen › gevolgen-kl Klimaatverandering en gevolgen - Rijksoverheid Translate this page Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de www.wur.nl › artikel › Oorzaken-klimaatveranderi Oorzaken klimaatverandering - WUR Translate this page Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. ec.europa.eu › clima › change › causes_nl Causes of climate change | Klimaat - European Commission Translate this page Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van www.klimaat.be › klimaatverandering › het-klimaat Oorzaken - Klimaat.be Translate this page De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig www.urgenda.nl › themas › klimaatvragen › waaro waarom weten we zeker dat de mens klimaatverandering Translate this page Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de www.knaw.nl › de-nederlandse-wetenschapsagenda Wat zijn de oorzaken en gevolgen van klimaatverandering Translate this page Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn www.hier.nu › Thema's › Klimaatwoordenboek Klimaatverandering: oorzaken en gevolgen | HIER Translate this page May 15 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten | Compendium voor Translate this page Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie www.lne.be › wat-is-klimaatverandering Wat is klimaatverandering? Wat zijn de oorzaken - LNE.be Translate this page Op de website www.klimaat.be vind je meer uitleg i.vm. klimaatverandering: In het kort Het klimaat Klimaatverandering Oorzaken Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands4814 TE Breda - From your device - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 146.000 resultaten (0 46 seconden) Advertenties Advertentie· www.wwf.nl/ ‎ Oorzaken Klimaatverandering | Kom Samen Met WNF In Actie‎ ‎ 0800 1962 Lees hier wat WNF doet om klimaatverandering tegen te gaan en help mee! Interessen: Activiteiten Nieuwsbrief Donaties. Thema'sGebiedenTeken de PetitieOnze Aanpak Advertentie· www.worldanimalprotection.nl/ ‎ 10 feiten op een rij over | Klimaatverandering‎ ‎ Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. +50 jr actief voor dieren. We stoppen dierenleed. Dieren horen in het wild. Actuele informatieDieren beschermenDoneer nuDoe mee Advertentie· www.klimaatplein.com/ ‎ Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ ‎ 073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. CO2 neutraal ondernemen. Inzicht in besparing. Verduurzamen bedrijf. Besparing energieverbruik. Services: SDE+ EIA MIA VAMIL. Duurzame EnergieWat is klimaatveranderingEnergie Besparen Op ICTSubsidiewijzer Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering als journalistieke uitdaging: een … - ‎Wurff - Geciteerd door 3 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE Delft PDF Feedback Over samenvattingen Webresultaten www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Klimaatverandering en gevolgen - Rijksoverheid Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Oorzaken klimaatverandering - WUR Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten | Compendium voor Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › wa waarom weten we zeker dat de mens klimaatverandering Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de ec.europa.eu › clima › change › causes_nl Causes of climate change | Klimaat - European Commission Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van www.klimaat.be › nl-be › klimaatverandering › het-klimaat Oorzaken - Klimaat.be De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Wat is klimaatverandering? — Milieudefensie Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn www.hier.nu › Thema's › Klimaatwoordenboek Klimaatverandering: oorzaken en gevolgen | HIER 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandBurgh-Haamstede - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Zwarte piet of roetveegpiet? About 60.700 results (0 50 seconds) A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Search Results Samenvatting van internet Image result for Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. nl.wikipedia.org › wiki › Roetpiet Roetpiet - Wikipedia Feedback Over samenvattingen Web results www.ad.nl › rotterdam › rotterdam-keert-zwarte-pi Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl Translate this page Nov 17 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is www.ad.nl › rotterdam › regio-ziet-niets-in-roetvee Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo Translate this page Nov 8 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van www.volkskrant.nl › nieuws-achtergrond › de-roet De roetveegpiet wint terrein al nemen veel - Volkskrant- Translate this page Nov 15 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in www.trouw.nl › binnenland › waarom-roetveegpiet Waarom Roetveegpiet er bij Sylvie en Danny niet in komt Translate this page Nov 16 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. www.nrc.nl › nieuws › 2019/11/07 › de-pieten-lop Zwarte pieten willen niet meer - NRC- Translate this page Nov 7 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet www.nu.nl › sinterklaas › gemeenten-kiezen-vaker- Gemeenten kiezen vaker voor roetveegpiet maar merendeel Translate this page Nov 15 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in www.rtlnieuws.nl › editienl › artikel › zwart-roetve Vooral zwarte pieten bij lokale intocht maar 'wenpiet' rukt op Translate this page Nov 8 2019 - Bij 65 procent van de lokale intochten zijn de pieten helemaal zwart. Dat blijkt uit onderzoek Maar de roetveegpiet rukt overal in het land op. eenvandaag.avrotros.nl › › Alle uitslagen 5 meningen over Zwarte Piet: van 'niet aanpassen' tot Translate this page Nov 14 2019 - Wat moet er gebeuren met het uiterlijk van Zwarte Piet? En hoe wordt er 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. nos.nl › Alternatieve Sintjournaals zonder roetveegpiet: 'Er is vraag Translate this page Nov 11 2019 - Wie geen afscheid wil nemen van de zwart geschminkte Piet kan terecht bij verschillende alternatieve Sinterklaasjournaals. Op veel plaatsen Searches related to Zwarte piet of roetveegpiet? roetveegpiet english zwarte piet song sinterklaas en zwarte piet sinterklaasjournaal Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands4814 TE Breda - From your device - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 59.200 resultaten (0 39 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. nl.wikipedia.org › wiki › Roetpiet Roetpiet - Wikipedia Feedback Over samenvattingen Webresultaten www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-rug Rotterdam keert Zwarte Piet definitief de rug toe: 'De - Ad 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is www.ad.nl › rotterdam › regio-ziet-niets-in-roetveegpiet-bij-ons-blijft Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo 8 nov. 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terrein- De roetveegpiet wint terrein al nemen veel - Volkskrant 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en-d Waarom Roetveegpiet er bij Sylvie en Danny niet in komt 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen Weinig draagvlak voor roetveegpieten bij landelijke intocht 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 14 nov. 2019 - Wat moet er gebeuren met het uiterlijk van Zwarte Piet? En hoe wordt er 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Afbeeldingen van Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Alles bekijken Meer afbeeldingen voor Zwarte piet of roetveegpiet? Afbeeldingen melden Webresultaten www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 Zwarte pieten willen niet meer - NRC 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpiet Gemeenten kiezen vaker voor roetveegpiet maar merendeel 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie roetveegpiet schminken kick out zwarte piet zwarte piet geschiedenis roetveegpiet tekening roetveegpiet amsterdam sinterklaas roetveegpiet cartoon Paginanavigatie 1 2 3 4 5 6 7 8 9 Volgende Links in voettekst NederlandBurgh-Haamstede - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Gevaren vaccinaties About 79.300 results (0 44 seconds) A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Search Results Vaccinatie risico Sommige ouders laten hun kinderen niet inenten. Een kind dat niet gevaccineerd is is onvoldoende beschermd tegen de gevaarlijke infectieziekten. Het risico dat het kind de bewuste infectieziekte krijgt is groter als het kind deel uitmaakt van een niet-gevaccineerde hechte gemeenschap. www.nvkp.nl › veelgestelde-vragen › over-het-rijksvaccinatieprogramma Heeft het niet vaccineren van kinderen nadelige gevolgen? Search for: Vaccinatie risico Feedback Over samenvattingen Web results rijksvaccinatieprogramma.nl › vaccinaties › twijfels Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl Translate this page Jun 17 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren-v De verborgen gevaren van vaccinaties - WantToKnow.nlPDF Jul 1 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' stichtingvaccinvrij.nl Stichting Vaccinvrij Translate this page Wij vaccineren niet! Trailer Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de www.thuisvaccinatie.nl › vaccinaties › bijwerkinge Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! Translate this page Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? www.scientias.nl › vaccineren-levensgevaarlijk-leve Vaccineren: levensgevaarlijk of levensreddend? - Scientias Translate this page Jan 15 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. www.rtlnieuws.nl › nieuws › buitenland › artikel 'Twijfels over vaccinaties gevaar voor volksgezondheid' | RTL Translate this page Jun 20 2019 - In Europa wordt zo veel getwijfeld aan de veiligheid en effectiviteit van vaccinaties dat het een gevaar voor de volksgezondheid begint te mens-en-gezondheid.infonu.nl › diversen › 14224 Gevaren van vaccinaties | Mens en Gezondheid: Diversen Translate this page Oct 9 2014 - Maar een steeds groter deel van de vaccinatieweigeraars zijn zich bewust geworden van de gevaren van vaccinaties. Het eerste vaccin www.larsvanhemmen.nl › Vaccinatie-RIVM Vaccinaties RIVM Rijksvaccinatieprogramma dood Kinderen - Translate this page Vaccinatie gevaren van het RIVM Rijksvaccinatieprogramma Sudden Deaths Autisme. Vaccinaties zijn onveilig voor kinderen zoals uitgelekte rapporten www.volkskrant.nl › columns-opinie › janneke-baz Janneke Bazelmans: 'Over nadelen vaccinatie wordt veelal - Translate this page Jul 22 2013 - Ouders die geen fervente tegenstanders van vaccinaties zijn maar kritisch kinderen maar ook de kinderen van anderen in gevaar brengen. Searches related to Gevaren vaccinaties anti vaccinatie stichting vaccinvrij nadelen vaccinatie vaccineren verplicht vaccineren betekenis bijwerkingen vaccinaties wat is vaccinatie dktp vaccinatie Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands4814 TE Breda - From your device - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 27.500 resultaten (0 39 seconden) Advertenties Advertentie· www.npofocus.nl/Vaccineren ‎ Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ ‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. Weet meer. Verdieping. NPO Focus. Zoekresultaten Webresultaten rijksvaccinatieprogramma.nl › vaccinaties › twijfels Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren-v De verborgen gevaren van vaccinaties - WantToKnow.nl PDF 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Heeft het niet vaccineren van kinderen nadelige gevolgen? Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden stichtingvaccinvrij.nl Stichting Vaccinvrij Wij vaccineren niet! Trailer Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend Vaccineren: levensgevaarlijk of levensreddend? - Scientias 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-bescher Vaccineren: jezelf en anderen beschermen - UMC Utrecht 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt www.nieuwetijds-kindercoach.nl › Advies Vaccineren van je kind is niet - Nieuwetijds kindercoach Wie met z'n kind bij het consultatiebureau komt merkt al snel dat men ervan uitgaat dat je je kind zonder twijfel laat vaccineren. Er wordt niet gevraagd of en www.ggdreisvaccinaties.nl › heb-ik-een-vaccinatie-nodig VACCINATIES PER LAND I GGDREISVACCINATIES Voor welk land heeft u vaccinaties nodig? Dat verschilt per land. In de landenzoeker kunt u vinden of u vaccinaties of inentingen nodig heeft voor uw reis. dekennisvannu.nl › site › artikel › Veelgestelde-vragen-over-vaccineren Artikel - Veelgestelde vragen over vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie niet vaccineren vaccineren autisme bijwerkingen vaccinaties niet vaccineren forum spijt van niet vaccineren wat is vaccineren niet vaccineren kinderdagverblijf Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandBurgh-Haamstede - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Gevolgen illegale immigratie About 152.000 results (0 36 seconds) Including results for Gevolgen illegale migratie Search only for Gevolgen illegale immigratie A privacy reminder from Google To be consistent with data protection laws we're asking that you take a moment to review key points of our Privacy Policy which covers all Google services and describes how we use data and what options you have. We'll need you to do this today. Search Results Samenvatting van internet Illegale immigratie. Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen schendt. Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. nl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie - Wikipedia Feedback Over samenvattingen Web results www.rijksoverheid.nl › onderwerpen › minder-ille Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl Translate this page Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom www.politie.nl › themas › illegaliteit-vreemdelingen Illegaliteit/vreemdelingen | politie.nl Translate this page Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk www.amnesty.nl › encyclopedie › ongedocumentee Ongedocumenteerden (illegalen) en uitgeprocedeerden Translate this page Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de europadecentraal.nl › onderwerp › migratie Migratie - Europa decentraal Translate this page Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn decorrespondent.nl › niemand-weet-hoeveel-illegal Niemand weet hoeveel illegale migranten er in Europa zijn Translate this page Aug 8 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in decorrespondent.nl › als-het-om-illegale-migranten Als het om illegale migranten gaat hebben deze grote Translate this page Oct 9 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke eur-lex.europa.eu › legal-content › TXT › HTML 52004DC0412 - NL - EUR-Lex Translate this page DE REGIO'S - Studie naar de samenhang tussen legale en illegale migratie wijzigingen door te voeren om de gevolgen van de vergrijzing op te vangen. eur-lex.europa.eu › legal-content › TXT 52001DC0672 - EN - EUR-Lex - EUR-Lex- Translate this page De preventie en bestrijding van de illegale immigratie zijn wezenlijke de methoden van binnenkomst en de gevolgen voor onze samenlevingen vereist. www.volkskrant.nl › columns-opinie › nederland- Nederland moet diep nadenken over de vergaande gevolgen - Translate this page Oct 23 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands4814 TE Breda - From your device - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 137.000 resultaten (0 39 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten nl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie - Wikipedia Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen ‎Oorzaken · ‎Neoklassieke model · ‎Structurele vraag in · ‎Oorlog en asiel www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-terug Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom www.politie.nl › themas › illegaliteit-vreemdelingen Illegaliteit/vreemdelingen | politie.nl Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-en- Ongedocumenteerden (illegalen) en uitgeprocedeerden Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenken- Nederland moet diep nadenken over de vergaande gevolgen 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt www.volkskrant.nl › nieuws-achtergrond › overeenkomst-tussen-vs-en- Overeenkomst tussen VS en Mexico over illegale migratie 8 jun. 2019 - Na drie dagen onderhandelen hebben de Verenigde Staten en Mexico een overeenkomst gesloten over de aanpak van illegale immigratie europadecentraal.nl › onderwerp › migratie Migratie - Europa decentraal Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn decorrespondent.nl › niemand-weet-hoeveel-illegale-migranten-er-in- Niemand weet hoeveel illegale migranten er in Europa zijn 8 aug. 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in eur-lex.europa.eu › legal-content › TXT 52001DC0672 - EN - EUR-Lex - EUR-Lex De preventie en bestrijding van de illegale immigratie zijn wezenlijke de methoden van binnenkomst en de gevolgen voor onze samenlevingen vereist. eur-lex.europa.eu › legal-content › TXT › HTML 52004DC0412 - NL - EUR-Lex DE REGIO'S - Studie naar de samenhang tussen legale en illegale migratie wijzigingen door te voeren om de gevolgen van de vergrijzing op te vangen. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegale migratie illegaal persoon in huis opvang illegale vluchtelingen mexicaanse migratie illegaal verblijf niet strafbaar illegaal in nederland en trouwen anoniem melden ind Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandBurgh-Haamstede - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden </t>
         </is>
       </c>
     </row>
@@ -1439,27 +1439,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Abortus tot hoeveel weken? Ongeveer 338.000 resultaten (0 39 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord › a Tot hoeveel weken kan ik een abortus laten uitvoeren Feedback Over samenvattingen Webresultaten www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortus 13 tot 17 weken - Uitleg over de behandeling Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortus 18 tot 22 weken - Uitleg over de behandeling Uitleg over de abortus behandeling in het laat 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de nacontrole. www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. www.trouw.nl › nieuws › bij-abortus-telt-alleen-de-moeder~be9b8150 'Bij abortus telt alléén de moeder' | Trouw 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer en hoe kun je een abortus plegen? - Dossier Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken-no 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling De abortusbehandeling | Fiom Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een www.schreeuwomleven.nl › abortusmethoden Abortusmethoden - Schreeuw om Leven Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt www.gezondheidsnet.nl › zwanger › abortus-als-laatste-redmiddel Abortus als laatste redmiddel | Gezondheidsnet 8 dec. 2016 - Een abortus mag in Nederland tot 23 weken zwangerschap gerekend vanaf de eerste dag van de laatste menstruatie. 5 dagen bedenktijd is Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus tot hoeveel weken duitsland abortus 24 weken procedure abortus 24 weken hoe gaat dat abortus kosten abortus kliniek hoeveel kost abortus Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland5741 Beek en Donk - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 218.000 resultaten (0 34 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord › a Tot hoeveel weken kan ik een abortus laten uitvoeren Feedback Over samenvattingen Webresultaten www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortus 13 tot 17 weken - Uitleg over de behandeling Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. www.trouw.nl › nieuws › bij-abortus-telt-alleen-de-moeder~be9b8150 'Bij abortus telt alléén de moeder' | Trouw 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. Dankzij vooruitgang in de neonatologie is die grens verlaagd tot 24 weken. Sommige www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer en hoe kun je een abortus plegen? - Dossier Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling De abortusbehandeling | Fiom Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken-no 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ingreep 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen nog maar vijf weken zwanger en kon deze zwangerschap dus 'makkelijk' Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later vaginaal www.schreeuwomleven.nl › abortusmethoden Abortusmethoden - Schreeuw om Leven Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus tot hoeveel weken duitsland abortus kosten abortus 24 weken procedure abortus 24 weken hoe gaat dat abortus kliniek hoe werkt abortus Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandArcen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Oorzaken klimaatverandering Ongeveer 148.000 resultaten (0 36 seconden) Advertenties Advertentie· www.wwf.nl/ ‎ Oorzaken Klimaatverandering | Kom Samen Met WNF In Actie‎ ‎ 0800 1962 Lees hier wat WNF doet om klimaatverandering tegen te gaan en help mee! Interessen: Nieuwsbrief Donaties. Stop plasticOnze AanpakThema'sGebieden Advertentie· www.klimaatplein.com/ ‎ Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ ‎ 073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. CO2 neutraal ondernemen. Inzicht in besparing. Verduurzamen bedrijf. Besparing energieverbruik. Services: SDE+ EIA MIA VAMIL. Wat is klimaatveranderingDuurzaam BouwenSubsidiewijzerEnergiebesparing Advertentie· www.worldanimalprotection.nl/klimaat/verandering ‎ 10 feiten op een rij over | Klimaatverandering‎ ‎ Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. +50 jr actief voor dieren. We stoppen dierenleed. Dieren horen in het wild. Actuele informatieDieren beschermenDoe meeDoneer nu Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering als journalistieke uitdaging: een … - ‎Wurff - Geciteerd door 3 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE DelftPDF Feedback Over samenvattingen Webresultaten www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Klimaatverandering en gevolgen - Rijksoverheid Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Oorzaken klimaatverandering - WUR Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › wa waarom weten we zeker dat de mens klimaatverandering Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de ec.europa.eu › clima › change › causes_nl Causes of climate change | Klimaat - European Commission Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten | Compendium voor Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie www.klimaat.be › nl-be › klimaatverandering › het-klimaat Oorzaken - Klimaat.be De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Wat is klimaatverandering? — Milieudefensie Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn www.hier.nu › Thema's › Klimaatwoordenboek Klimaatverandering: oorzaken en gevolgen | HIER 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland5741 Beek en Donk - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 152.000 resultaten (0 30 seconden) Advertenties Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering als journalistieke uitdaging: een … - ‎Wurff - Geciteerd door 3 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Samenvatting van internet Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE Delft PDF Feedback Over samenvattingen Webresultaten www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Klimaatverandering en gevolgen - Rijksoverheid Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Oorzaken klimaatverandering - WUR Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten | Compendium voor Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › wa waarom weten we zeker dat de mens klimaatverandering Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de ec.europa.eu › clima › change › causes_nl Causes of climate change | Klimaat - European Commission Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van www.klimaat.be › nl-be › klimaatverandering › het-klimaat Oorzaken - Klimaat.be De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Wat is klimaatverandering? — Milieudefensie Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn www.climategate.nl › 2017/10 › klimaatverandering-oorzaken Klimaatverandering : oorzaken - Climategate 30 okt. 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “Climate change: The facts 2017” uitgegeven door het Institute Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandArcen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zwarte piet of roetveegpiet? Ongeveer 64.600 resultaten (0 41 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. nl.wikipedia.org › wiki › Roetpiet Roetpiet - Wikipedia Feedback Over samenvattingen Webresultaten www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-rug Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is www.ad.nl › rotterdam › regio-ziet-niets-in-roetveegpiet-bij-ons-blijft Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo 8 nov. 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terrein- De roetveegpiet wint terrein al nemen veel - Volkskrant 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en-d Waarom Roetveegpiet er bij Sylvie en Danny niet in komt 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 Zwarte pieten willen niet meer - NRC 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpiet Gemeenten kiezen vaker voor roetveegpiet maar merendeel 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 14 nov. 2019 - Wat moet er gebeuren met het uiterlijk van Zwarte Piet? En hoe wordt er 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen Weinig draagvlak voor roetveegpieten bij landelijke intocht 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch joop.bnnvara.nl › kijk-nou › pro-piet-demonstreert-onbedoeld-als-roe Kijk Nou: Pro-Piet demonstreert onbedoeld als roetveegpiet 14 nov. 2019 - Tijdens een demonstratie in Den Bosch voor het behoud van de racistische kenmerken van Zwarte Piet heeft een demonstrant per ongeluk Gerelateerde zoekopdracht Sinterklaas serie Nog 2+ weergeven Sinterklaasjournaal Sinterklaasjournaal RTL Nieuws RTL Nieuws Dag Sinterklaas Dag Sinterklaas Landelijke intocht van Sinterklaas Landelijke intocht van Sint Slot Marsepeinstein Slot Marsepeinstein Het Grote Sinterklaasverhaal Het Grote Sinterklaasverhaal Hij komt hij komt De intrede van de Sint Hij komt hij komt De intre Feedback Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie roetveegpiet schminken kick out zwarte piet zwarte piet geschiedenis roetveegpiet tekening roetveegpiet amsterdam sinterklaas roetveegpiet cartoon Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland5741 Beek en Donk - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 63.800 resultaten (0 34 seconden) Zoekresultaten Samenvatting van internet De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. nl.wikipedia.org › wiki › Roetpiet Roetpiet - Wikipedia Feedback Over samenvattingen Webresultaten www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-rug Rotterdam keert Zwarte Piet definitief de rug toe: 'De - Ad 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is www.ad.nl › rotterdam › regio-ziet-niets-in-roetveegpiet-bij-ons-blijft Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo 8 nov. 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terrein- De roetveegpiet wint terrein al nemen veel - Volkskrant 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en-d Waarom Roetveegpiet er bij Sylvie en Danny niet in komt 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen Weinig draagvlak voor roetveegpieten bij landelijke intocht 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 14 nov. 2019 - Wat moet er gebeuren met het uiterlijk van Zwarte Piet? En hoe wordt er 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Afbeeldingen van Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Alles bekijken Meer afbeeldingen voor Zwarte piet of roetveegpiet? Afbeeldingen melden Webresultaten www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 Zwarte pieten willen niet meer - NRC 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpiet Gemeenten kiezen vaker voor roetveegpiet maar merendeel 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie roetveegpiet schminken kick out zwarte piet zwarte piet geschiedenis roetveegpiet tekening roetveegpiet amsterdam sinterklaas roetveegpiet cartoon Paginanavigatie 1 2 3 4 5 6 7 8 9 Volgende Links in voettekst NederlandArcen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevaren vaccinaties Ongeveer 29.000 resultaten (0 42 seconden) Advertenties Advertentie· www.npofocus.nl/Vaccineren ‎ Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ ‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. Weet meer. NPO Focus. Verdieping. Zoekresultaten Webresultaten rijksvaccinatieprogramma.nl › vaccinaties › twijfels Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren-v De verborgen gevaren van vaccinaties - WantToKnowPDF 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Heeft het niet vaccineren van kinderen nadelige gevolgen? Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden stichtingvaccinvrij.nl Stichting Vaccinvrij Wij vaccineren niet! Trailer Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend Vaccineren: levensgevaarlijk of levensreddend? - Scientias 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. www.rtlnieuws.nl › nieuws › buitenland › artikel › twijfels-over-vacci 'Twijfels over vaccinaties gevaar voor volksgezondheid' | RTL 20 jun. 2019 - In Europa wordt zo veel getwijfeld aan de veiligheid en effectiviteit van vaccinaties dat het een gevaar voor de volksgezondheid begint te www.larsvanhemmen.nl › Vaccinatie-RIVM Vaccinaties RIVM Rijksvaccinatieprogramma dood Kinderen Vaccinatie gevaren van het RIVM Rijksvaccinatieprogramma Sudden Deaths Autisme. Vaccinaties zijn onveilig voor kinderen zoals uitgelekte rapporten www.ggdreisvaccinaties.nl › heb-ik-een-vaccinatie-nodig VACCINATIES PER LAND I GGDREISVACCINATIES Voor welk land heeft u vaccinaties nodig? Dat verschilt per land. In de landenzoeker kunt u vinden of u vaccinaties of inentingen nodig heeft voor uw reis. www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-bescher Vaccineren: jezelf en anderen beschermen - UMC Utrecht 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie niet vaccineren vaccineren autisme bijwerkingen vaccinaties niet vaccineren forum spijt van niet vaccineren wat is vaccineren niet vaccineren kinderdagverblijf Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland5741 Beek en Donk - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 35.700 resultaten (0 32 seconden) Zoekresultaten Webresultaten rijksvaccinatieprogramma.nl › vaccinaties › twijfels Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren-v De verborgen gevaren van vaccinaties - WantToKnow.nl PDF 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' stichtingvaccinvrij.nl Stichting Vaccinvrij Wij vaccineren niet! Trailer Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Heeft het niet vaccineren van kinderen nadelige gevolgen? Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend Vaccineren: levensgevaarlijk of levensreddend? - Scientias 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-bescher Vaccineren: jezelf en anderen beschermen - UMC Utrecht 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt www.nieuwetijds-kindercoach.nl › Advies Vaccineren van je kind is niet - Nieuwetijds kindercoach Wie met z'n kind bij het consultatiebureau komt merkt al snel dat men ervan uitgaat dat je je kind zonder twijfel laat vaccineren. Er wordt niet gevraagd of en www.ggdreisvaccinaties.nl › heb-ik-een-vaccinatie-nodig VACCINATIES PER LAND I GGDREISVACCINATIES Voor welk land heeft u vaccinaties nodig? Dat verschilt per land. In de landenzoeker kunt u vinden of u vaccinaties of inentingen nodig heeft voor uw reis. dekennisvannu.nl › site › artikel › Veelgestelde-vragen-over-vaccineren Artikel - Veelgestelde vragen over vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie niet vaccineren vaccineren autisme bijwerkingen vaccinaties niet vaccineren forum spijt van niet vaccineren wat is vaccineren niet vaccineren kinderdagverblijf Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandArcen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden </t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 169.000 resultaten (0 38 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Samenvatting van internet Illegale immigratie. Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen schendt. Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. nl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie - Wikipedia Feedback Over samenvattingen Webresultaten www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-terug Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom www.politie.nl › themas › illegaliteit-vreemdelingen Illegaliteit/vreemdelingen | politie.nl Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-en- Ongedocumenteerden (illegalen) en uitgeprocedeerden Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de europadecentraal.nl › onderwerp › migratie Migratie - Europa decentraal Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn decorrespondent.nl › niemand-weet-hoeveel-illegale-migranten-er-in- Niemand weet hoeveel illegale migranten er in Europa zijn 8 aug. 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-deze Als het om illegale migranten gaat hebben deze grote 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenken- Nederland moet diep nadenken over de vergaande gevolgen 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt www.volkskrant.nl › nieuws-achtergrond › overeenkomst-tussen-vs-en- Overeenkomst tussen VS en Mexico over illegale migratie 8 jun. 2019 - Na drie dagen onderhandelen hebben de Verenigde Staten en Mexico een overeenkomst gesloten over de aanpak van illegale immigratie eur-lex.europa.eu › legal-content › TXT 52001DC0672 - EN - EUR-Lex - EUR-Lex De preventie en bestrijding van de illegale immigratie zijn wezenlijke de methoden van binnenkomst en de gevolgen voor onze samenlevingen vereist. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegale migratie illegaal persoon in huis opvang illegale vluchtelingen illegaal verblijf niet strafbaar mexicaanse migratie illegaal in nederland en trouwen anoniem melden ind Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland5741 Beek en Donk - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t xml:space="preserve">Toegankelijkheidslinks Naar hoofdcontent Hulp bij toegankelijkheid Feedback over toegankelijkheid Google Ongeveer 155.000 resultaten (0 38 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten nl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie - Wikipedia Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen ‎Oorzaken · ‎Neoklassieke model · ‎Structurele vraag in · ‎Oorlog en asiel www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-terug Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom www.politie.nl › themas › illegaliteit-vreemdelingen Illegaliteit/vreemdelingen | politie.nl Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-en- Ongedocumenteerden (illegalen) en uitgeprocedeerden Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenken- Nederland moet diep nadenken over de vergaande gevolgen 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt www.volkskrant.nl › nieuws-achtergrond › overeenkomst-tussen-vs-en- Overeenkomst tussen VS en Mexico over illegale migratie 8 jun. 2019 - Na drie dagen onderhandelen hebben de Verenigde Staten en Mexico een overeenkomst gesloten over de aanpak van illegale immigratie europadecentraal.nl › onderwerp › migratie Migratie - Europa decentraal Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn decorrespondent.nl › niemand-weet-hoeveel-illegale-migranten-er-in- Niemand weet hoeveel illegale migranten er in Europa zijn 8 aug. 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in eur-lex.europa.eu › legal-content › TXT 52001DC0672 - EN - EUR-Lex - EUR-Lex De preventie en bestrijding van de illegale immigratie zijn wezenlijke de methoden van binnenkomst en de gevolgen voor onze samenlevingen vereist. eur-lex.europa.eu › legal-content › TXT › HTML 52004DC0412 - NL - EUR-Lex DE REGIO'S - Studie naar de samenhang tussen legale en illegale migratie wijzigingen door te voeren om de gevolgen van de vergrijzing op te vangen. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegale migratie illegaal persoon in huis opvang illegale vluchtelingen mexicaanse migratie illegaal verblijf niet strafbaar illegaal in nederland en trouwen anoniem melden ind Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandArcen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden </t>
         </is>
       </c>
     </row>
@@ -1469,27 +1469,417 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenNieuwsVideo'sShoppingMeer InstellingenTools Ongeveer 338.000 resultaten (0 50 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over samenvattingen Webresultaten Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortus 18 tot 22 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_18_-_22_ Uitleg over de abortus behandeling in het laat 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de nacontrole. Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. "Mensen lijken wel een obsessie te hebben met het precieze aantal weken. Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Abortus als laatste redmiddel | Gezondheidsnet https://www.gezondheidsnet.nl › zwanger › abortus-als-laatste-redmiddel 8 dec. 2016 - Een abortus mag in Nederland tot 23 weken zwangerschap gerekend vanaf de eerste dag van de laatste menstruatie. 5 dagen bedenktijd is Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus tot hoeveel weken duitsland abortus 24 weken procedure abortus 24 weken hoe gaat dat abortus kosten abortus kliniek hoeveel kost abortus Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1191 VL Ouderkerk aan de Amstel - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Abortus tot hoeveel weken? About 112.000 results (0 40 seconds) Search Results Featured snippet from the web Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord › a Tot hoeveel weken kan ik een abortus laten uitvoeren Feedback About Featured Snippets Web results www.bloemenhove.nl › abortus_hulpverlening › a Abortus 13 tot 17 weken - Uitleg over de behandeling Translate this page Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. www.bloemenhove.nl › abortus_hulpverlening › a Abortus 18 tot 22 weken - Uitleg over de behandeling Translate this page Uitleg over de abortus behandeling in het laat 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de nacontrole. www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer en hoe kun je een abortus plegen? - Dossier Translate this page Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet www.thuisarts.nl › abortus › ik-ben-ongewenst-zwa Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts Translate this page Mar 17 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. www.trouw.nl › nieuws › bij-abortus-telt-alleen-de- 'Bij abortus telt alléén de moeder' | Trouw Translate this page Nov 30 2014 - De grens tot wanneer abortus mag staat ter discussie. rechtvaardigt dat een vrouw die 24 weken en 2 dagen zwanger is géén abortus mag www.telegraaf.nl › vrouw › ridicuul-dat-een-abortu 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is Translate this page Jan 23 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap www.telegraaf.nl › vrouw › de-abortuspil-echt-een- 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw Translate this page Sep 8 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen nog maar vijf weken zwanger en kon deze zwangerschap dus 'makkelijk' Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later vaginaal fiom.nl › ongewenst-zwanger › abortus › abortusbe De abortusbehandeling | Fiom Translate this page Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een sense.info › zwanger › zwangerschap-afbreken › w Welke manier? | Sense.info Translate this page De abortuspil kun je tot 9 weken na het begin van je laatste menstruatie gebruiken. Er zijn 2 verschillende medicijnen. Op de 1ste dag van de behandeling krijg Searches related to Abortus tot hoeveel weken? tot hoeveel weken abortuspil abortus kosten abortus in nederland baby 24 weken wat is abortus hoe werkt een abortus overtijdbehandeling abortus informatie Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsTilburg - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenNieuwsVideo'sShoppingMeer InstellingenTools Ongeveer 129.000 resultaten (0 35 seconden) Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering als journalistieke uitdaging: een … - ‎Wurff - Geciteerd door 3 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over samenvattingen Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Klimaatverandering: oorzaken en effecten | Compendium voor https://www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Oorzaken - Klimaat.be https://www.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Wat zijn de oorzaken en gevolgen van klimaatverandering https://www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Klimaatverandering: oorzaken en gevolgen | HIER https://www.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1191 VL Ouderkerk aan de Amstel - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Oorzaken klimaatverandering About 143.000 results (0 43 seconds) Search Results Scholarly articles for Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Cited by 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Cited by 5 Klimaatverandering als journalistieke uitdaging: een … - ‎Wurff - Cited by 3 Featured snippet from the web Image result for Oorzaken klimaatverandering www.wur.nl Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE DelftPDF Feedback About Featured Snippets Web results www.wur.nl › artikel › Oorzaken-klimaatveranderi Oorzaken klimaatverandering - WUR Translate this page Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. www.hier.nu › Thema's › Klimaatwoordenboek Klimaatverandering: oorzaken en gevolgen | HIER Translate this page May 15 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot ec.europa.eu › clima › change › causes_nl Causes of climate change | Klimaat - European Commission Translate this page Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van www.rijksoverheid.nl › onderwerpen › gevolgen-kl Klimaatverandering en gevolgen - Rijksoverheid Translate this page Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de www.klimaat.be › klimaatverandering › het-klimaat Oorzaken - Klimaat.be Translate this page De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig www.climategate.nl › 2017/10 › klimaatveranderin Klimaatverandering : oorzaken - Climategate Translate this page Oct 30 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “Climate change: The facts 2017” uitgegeven door het Institute www.climategate.nl › 2016/11 Oorzaken van klimaatverandering - Climategate Translate this page Oct 7 2017 - Oorzaken waar de mens invloed op heeft. 1.a Antropogene emissie van CO2. In een vorige bijdrage is over dit onderwerp “CO2 in onze www.energievergelijk.nl › Onderwerpen Klimaatverandering (oorzaak &amp; gevolg) – Energievergelijk Translate this page Oct 2 2019 - Klimaatverandering kent veel verschillende oorzaken. In de intro hierboven zijn de natuurlijke oorzaken al even kort aan bod gekomen. www.urgenda.nl › themas › klimaatvragen › waaro waarom weten we zeker dat de mens klimaatverandering Translate this page Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsTilburg - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenMapsNieuwsVideo'sMeer InstellingenTools Ongeveer 64.600 resultaten (0 40 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet Feedback Over samenvattingen Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo https://www.ad.nl › rotterdam › regio-ziet-niets-in-roetveegpiet-bij-ons-blij 8 nov. 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in 5 meningen over Zwarte Piet: van 'niet aanpassen' tot https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Wat moet er gebeuren met het uiterlijk van Zwarte Piet? En hoe wordt er 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Kijk Nou: Pro-Piet demonstreert onbedoeld als roetveegpiet https://joop.bnnvara.nl › kijk-nou › pro-piet-demonstreert-onbedoeld-als-r 14 nov. 2019 - Tijdens een demonstratie in Den Bosch voor het behoud van de racistische kenmerken van Zwarte Piet heeft een demonstrant per ongeluk Gerelateerde zoekopdracht Sinterklaas serie Nog 2+ weergeven Sinterklaasjournaal Sinterklaasjournaal RTL Nieuws RTL Nieuws Dag Sinterklaas Dag Sinterklaas Landelijke intocht van Sinterklaas Landelijke intocht van Sint Slot Marsepeinstein Slot Marsepeinstein Het Grote Sinterklaasverhaal Het Grote Sinterklaasverhaal Hij komt hij komt De intrede van de Sint Hij komt hij komt De intre Feedback Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie roetveegpiet schminken kick out zwarte piet zwarte piet geschiedenis roetveegpiet tekening roetveegpiet amsterdam sinterklaas roetveegpiet cartoon Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1191 VL Ouderkerk aan de Amstel - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Zwarte piet of roetveegpiet? About 36.500 results (0 40 seconds) Search Results Featured snippet from the web Image result for Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. nl.wikipedia.org › wiki › Roetpiet Roetpiet - Wikipedia Feedback About Featured Snippets Web results www.ad.nl › rotterdam › rotterdam-keert-zwarte-pi Rotterdam keert Zwarte Piet definitief de rug toe: 'De - Ad Translate this page Nov 17 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is www.ad.nl › rotterdam › regio-ziet-niets-in-roetvee Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo Translate this page Nov 8 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van www.volkskrant.nl › nieuws-achtergrond › de-roet De roetveegpiet wint terrein al nemen veel - Volkskrant- Translate this page Nov 15 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in www.trouw.nl › binnenland › waarom-roetveegpiet Waarom Roetveegpiet er bij Sylvie en Danny niet in komt Translate this page Nov 16 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. eenvandaag.avrotros.nl › › Alle uitslagen 5 meningen over Zwarte Piet: van 'niet aanpassen' tot Translate this page Nov 14 2019 - Wat moet er gebeuren met het uiterlijk van Zwarte Piet? En hoe wordt er 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. eenvandaag.avrotros.nl › › Alle uitslagen Weinig draagvlak voor roetveegpieten bij landelijke intocht Translate this page Nov 14 2019 - Dat blijkt uit het jaarlijkse Zwarte Piet-onderzoek van EenVandaag. 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. www.nu.nl › sinterklaas › gemeenten-kiezen-vaker- Gemeenten kiezen vaker voor roetveegpiet maar merendeel Translate this page Nov 15 2019 - In 2017 liep de roetveegpiet nog in zeventien gemeenten mee bleek uit Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet joop.bnnvara.nl › kijk-nou › pro-piet-demonstreert Kijk Nou: Pro-Piet demonstreert onbedoeld als roetveegpiet Translate this page Nov 14 2019 - Tijdens een demonstratie in Den Bosch voor het behoud van de racistische kenmerken van Zwarte Piet heeft een demonstrant per ongeluk www.nrc.nl › nieuws › 2019/11/07 › de-pieten-lop Zwarte pieten willen niet meer - NRC- Translate this page Nov 7 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker Lees het volledige nieuwsbericht: De roetveegpiet kruipt de regio in Searches related to Zwarte piet of roetveegpiet? roetveegpiet english zwarte piet song sinterklaas en zwarte piet sinterklaasjournaal Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsTilburg - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleNieuwsAfbeeldingenShoppingMapsMeer InstellingenTools Ongeveer 28.200 resultaten (0 39 seconden) Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 17 jun. 2019 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn [PDF]De verborgen gevaren van vaccinaties - WantToKnow.nl https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden Stichting Vaccinvrij https://stichtingvaccinvrij.nl Wij vaccineren niet! Trailer Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. 'Twijfels over vaccinaties gevaar voor volksgezondheid' | RTL https://www.rtlnieuws.nl › nieuws › buitenland › artikel › twijfels-over-vac 20 jun. 2019 - In Europa wordt zo veel getwijfeld aan de veiligheid en effectiviteit van vaccinaties dat het een gevaar voor de volksgezondheid begint te Vaccinaties RIVM Rijksvaccinatieprogramma dood Kinderen https://www.larsvanhemmen.nl › Vaccinatie-RIVM Vaccinatie gevaren van het RIVM Rijksvaccinatieprogramma Sudden Deaths Autisme. Vaccinaties zijn onveilig voor kinderen zoals uitgelekte rapporten Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Waarom zijn mensen sceptisch over het nut van vaccins? - NRC https://www.nrc.nl › 2019/06/19 › gevaarlijke-scepsis-over-vaccins-a3964399 19 jun. 2019 - Wereldwijd onderzoek: Desinformatie via sociale media zaait in allerlei landen twijfel over nut en effectiviteit van vaccinatie. In veel Europese Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie niet vaccineren vaccineren autisme bijwerkingen vaccinaties niet vaccineren forum spijt van niet vaccineren wat is vaccineren niet vaccineren kinderdagverblijf Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1191 VL Ouderkerk aan de Amstel - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Gevaren vaccinaties About 86.400 results (0 42 seconds) Search Results Nadelen vaccinatie De nadelen van vaccinaties Vaak zijn er lichte bijwerkingen zoals een rode huid en koorts. In sommige gevallen zijn er heftigere bijwerkingen zoals een koortsstuip. Jun 17 2019 rijksvaccinatieprogramma.nl › vaccinaties › twijfels Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl Search for: Nadelen vaccinatie Feedback About Featured Snippets Web results www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren-v De verborgen gevaren van vaccinaties - WantToKnowPDF Jul 1 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' www.nvkp.nl › over-het-rijksvaccinatieprogramma Heeft het niet vaccineren van kinderen nadelige gevolgen? Translate this page Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden stichtingvaccinvrij.nl Stichting Vaccinvrij Translate this page Wij vaccineren niet! Trailer Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de www.thuisvaccinatie.nl › vaccinaties › bijwerkinge Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! Translate this page Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? www.scientias.nl › vaccineren-levensgevaarlijk-leve Vaccineren: levensgevaarlijk of levensreddend? - Scientias Translate this page Jan 15 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. www.volkskrant.nl › columns-opinie › janneke-baz Janneke Bazelmans: 'Over nadelen vaccinatie wordt veelal - Translate this page Jul 22 2013 - Ouders die geen fervente tegenstanders van vaccinaties zijn maar kritisch kinderen maar ook de kinderen van anderen in gevaar brengen. mens-en-gezondheid.infonu.nl › diversen › 14224 Gevaren van vaccinaties | Mens en Gezondheid: Diversen Translate this page Oct 9 2014 - Maar een steeds groter deel van de vaccinatieweigeraars zijn zich bewust geworden van de gevaren van vaccinaties. Het eerste vaccin www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-e Vaccineren: jezelf en anderen beschermen - UMC Utrecht Translate this page May 3 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt www.laatjevaccineren.be › 5-misvattingen-over-vac 5 misvattingen over vaccinatie - Laat je vaccineren Translate this page Er bestaan veel mythes en misvattingen over vaccinatie. De 5 meest Vaccinaties uitstellen kan je gezondheid onnodig in gevaar brengen. Het is beter om het Searches related to Gevaren vaccinaties anti vaccinatie stichting vaccinvrij waarom vaccineren nadelen vaccinatie vaccineren verplicht vaccineren betekenis bijwerkingen vaccinaties wat is vaccinatie Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsTilburg - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleNieuwsAfbeeldingenVideo'sMapsMeer InstellingenTools Ongeveer 169.000 resultaten (0 46 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Samenvatting van internet Illegale immigratie. Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen schendt. Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Feedback Over samenvattingen Webresultaten Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Ongedocumenteerden (illegalen) en uitgeprocedeerden https://www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-e Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Overeenkomst tussen VS en Mexico over illegale migratie https://www.volkskrant.nl › nieuws-achtergrond › overeenkomst-tussen-vs-e 8 jun. 2019 - Na drie dagen onderhandelen hebben de Verenigde Staten en Mexico een overeenkomst gesloten over de aanpak van illegale immigratie Niemand weet hoeveel illegale migranten er in Europa zijn https://decorrespondent.nl › niemand-weet-hoeveel-illegale-migranten-er-i 8 aug. 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in Als het om illegale migranten gaat hebben deze grote https://decorrespondent.nl › als-het-om-illegale-migranten-gaat-hebben-de 9 okt. 2019 - Het beleid dat illegale migratie moet tegengaan zorgt voor het Ook in Athene worstelt het stadsbestuur met de gevolgen van landelijke 52001DC0672 - EN - EUR-Lex - EUR-Lex https://eur-lex.europa.eu › legal-content › TXT De preventie en bestrijding van de illegale immigratie zijn wezenlijke de methoden van binnenkomst en de gevolgen voor onze samenlevingen vereist. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegale migratie illegaal persoon in huis opvang illegale vluchtelingen mexicaanse migratie illegaal verblijf niet strafbaar illegaal in nederland en trouwen anoniem melden ind Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1191 VL Ouderkerk aan de Amstel - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Gevolgen illegale immigratie About 145.000 results (0 48 seconds) Search Results Featured snippet from the web Illegale immigratie. Mensen die zich hieraan schuldig maken worden illegale immigranten of illegalen genoemd. Illegale immigratie gebeurt vaak naar landen waar zaken als arbeidsplaatsen onderkomens en sociaal-etnische netwerken voorhanden zijn. nl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie - Wikipedia Feedback About Featured Snippets Web results www.rijksoverheid.nl › onderwerpen › minder-ille Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl Translate this page Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom www.politie.nl › themas › illegaliteit-vreemdelingen Illegaliteit/vreemdelingen | politie.nl Translate this page Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk www.amnesty.nl › encyclopedie › ongedocumentee Ongedocumenteerden (illegalen) en uitgeprocedeerden Translate this page Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de europadecentraal.nl › onderwerp › migratie Migratie - Europa decentraal Translate this page Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn eur-lex.europa.eu › legal-content › TXT 52001DC0672 - EN - EUR-Lex - EUR-Lex- Translate this page De preventie en bestrijding van de illegale immigratie zijn wezenlijke de methoden van binnenkomst en de gevolgen voor onze samenlevingen vereist. eur-lex.europa.eu › legal-content › TXT › HTML 52004DC0412 - NL - EUR-Lex Translate this page DE REGIO'S - Studie naar de samenhang tussen legale en illegale migratie wijzigingen door te voeren om de gevolgen van de vergrijzing op te vangen. decorrespondent.nl › niemand-weet-hoeveel-illegal Niemand weet hoeveel illegale migranten er in Europa zijn Translate this page Aug 8 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in www.volkskrant.nl › columns-opinie › nederland- Nederland moet diep nadenken over de vergaande gevolgen - Translate this page Oct 23 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt www.volkskrant.nl › nieuws-achtergrond › overeen Overeenkomst tussen VS en Mexico over illegale migratie - Translate this page Jun 8 2019 - Na drie dagen onderhandelen hebben de Verenigde Staten en Mexico een overeenkomst gesloten over de aanpak van illegale immigratie Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsTilburg - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Abortus tot hoeveel weken? Ongeveer 202.000 resultaten (0 39 seconden) Advertenties Advertentie· www.siriz.nl/Abortus/Hoeveel-Weken ‎ Tot Hoeveel Weken Abortus? | Twijfel je over Abortus? | siriz.nl‎ ‎ 0800 4400003 Bespreek de mogelijkheden &amp; zet alles op een rij. App of Chat met Siriz. Specialist bij onbedoelde zwangerschap. Wij bieden preventie ondersteuning en zorg. Persoonlijke begeleiding. Gratis hulp. Keuzegesprekken. Chat voor hulp De chat van Siriz is voor iedereen die met onbedoeld zwangerschap zit. App voor Hulp App met een van onze specialisten Maatschappelijk Werkers voor Hulp. Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord › a Tot hoeveel weken kan ik een abortus laten uitvoeren Feedback Over samenvattingen Webresultaten www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortus 13 tot 17 weken - Uitleg over de behandeling Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. www.trouw.nl › nieuws › bij-abortus-telt-alleen-de-moeder~be9b8150 'Bij abortus telt alléén de moeder' | Trouw 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. Dankzij vooruitgang in de neonatologie is die grens verlaagd tot 24 weken. Sommige www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer en hoe kun je een abortus plegen? - Dossier Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken-no 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ingreep 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen nog maar vijf weken zwanger en kon deze zwangerschap dus 'makkelijk' Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later vaginaal fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling De abortusbehandeling | Fiom Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een www.schreeuwomleven.nl › abortusmethoden Abortusmethoden - Schreeuw om Leven Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus tot hoeveel weken duitsland abortus kosten abortus 24 weken procedure abortus 24 weken hoe gaat dat abortus kliniek hoe werkt abortus Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandArnhem - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Oorzaken klimaatverandering Ongeveer 160.000 resultaten (0 33 seconden) Advertenties Advertentie· www.worldanimalprotection.nl/ ‎ Klimaatverandering | 10 feiten op een rij‎ ‎ De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. Dieren horen in het wild. +50 jr actief voor dieren. We stoppen dierenleed. Doe meeDieren beschermenActuele informatieDoneer nu Advertentie· www.wwf.nl/ ‎ Oorzaken Opwarming Aarde? | Meer informatie op WNF.nl‎ ‎ WNF zet zich in tegen opwarming van de aarde. Lees meer en kom in actie met WNF! Interessen: Activiteiten Nieuwsbrief Donaties. Een Gift aan de NatuurWord donateur Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering als journalistieke uitdaging: een … - ‎Wurff - Geciteerd door 3 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering Afbeeldingsresultaat voor Oorzaken klimaatverandering Afbeeldingsresultaat voor Oorzaken klimaatverandering Alles bekijken Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE DelftPDF Feedback Over samenvattingen Webresultaten www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Klimaatverandering en gevolgen - Rijksoverheid Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Oorzaken klimaatverandering - WUR Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. ec.europa.eu › clima › change › causes_nl Causes of climate change | Klimaat - European Commission Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten | Compendium voor Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › wa waarom weten we zeker dat de mens klimaatverandering Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Wat is klimaatverandering? — Milieudefensie Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens nl.wikipedia.org › wiki › Opwarming_van_de_Aarde Opwarming van de Aarde - Wikipedia Er zijn verschillende maatregelen mogelijk om de schade door klimaatverandering te minimaliseren. Aan de ene kant is het mogelijk de oorzaak aan te pakken michielhaas.nl › Blog › Duurzaamheid Klimaatverandering 1: Oorzaken klimaatverandering 21 nov. 2017 - Klimaatverandering 1: Oorzaken klimaatverandering. Dit is het eerste artikel in een serie over klimaatverandering een long read met veel Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandArnhem - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zwarte piet of roetveegpiet? Ongeveer 52.900 resultaten (0 40 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. nl.wikipedia.org › wiki › Roetpiet Roetpiet - Wikipedia Feedback Over samenvattingen Webresultaten www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-rug Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terrein- De roetveegpiet wint terrein al nemen veel - Volkskrant 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en-d Waarom Roetveegpiet er bij Sylvie en Danny niet in komt 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen Weinig draagvlak voor roetveegpieten bij landelijke intocht 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 14 nov. 2019 - Wat moet er gebeuren met het uiterlijk van Zwarte Piet? En hoe wordt er 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Afbeeldingen van Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Alles bekijken Meer afbeeldingen voor Zwarte piet of roetveegpiet? Afbeeldingen melden Webresultaten www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpiet Gemeenten kiezen vaker voor roetveegpiet maar merendeel 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 Zwarte pieten willen niet meer - NRC 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet nos.nl › Rechter wijst bezwaar tegen roetveegpieten bij landelijke 7 nov. 2019 - De rechtbank in Arnhem heeft de eis dat er ook zwarte pieten bij moeten zijn afgewezen de gemeente hoeft de vergunning voor de intocht niet Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie zwarte piet geschiedenis roetveegpiet schminken roetveegpiet tekening kick out zwarte piet roetveegpiet amsterdam sinterklaas regenboog piet Paginanavigatie 1 2 3 4 5 6 7 8 9 Volgende Links in voettekst NederlandArnhem - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevaren vaccinaties Ongeveer 36.700 resultaten (0 41 seconden) Advertenties Advertentie· www.npofocus.nl/ ‎ Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ ‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. Verdieping. Weet meer. NPO Focus. Zoekresultaten Webresultaten rijksvaccinatieprogramma.nl › vaccinaties › twijfels Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl 4 dagen geleden - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren-v De verborgen gevaren van vaccinaties - WantToKnowPDF 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' stichtingvaccinvrij.nl Stichting Vaccinvrij Wij vaccineren niet! Trailer Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Heeft het niet vaccineren van kinderen nadelige gevolgen? Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend Vaccineren: levensgevaarlijk of levensreddend? - Scientias 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-bescher Vaccineren: jezelf en anderen beschermen - UMC Utrecht 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt dekennisvannu.nl › site › artikel › Veelgestelde-vragen-over-vaccineren Artikel - Veelgestelde vragen over vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. mens-en-gezondheid.infonu.nl › diversen › 142246-gevaren-van-vac Gevaren van vaccinaties | Mens en Gezondheid: Diversen 9 okt. 2014 - Maar een steeds groter deel van de vaccinatieweigeraars zijn zich bewust geworden van de gevaren van vaccinaties. Het eerste vaccin www.nieuwetijds-kindercoach.nl › Advies Vaccineren van je kind is niet - Nieuwetijds kindercoach Wie met z'n kind bij het consultatiebureau komt merkt al snel dat men ervan uitgaat dat je je kind zonder twijfel laat vaccineren. Er wordt niet gevraagd of en Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie niet vaccineren vaccineren autisme bijwerkingen vaccinaties niet vaccineren forum spijt van niet vaccineren wat is vaccineren niet vaccineren kinderdagverblijf Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandArnhem - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 172.000 resultaten (0 40 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten nl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie - Wikipedia Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen ‎Oorzaken · ‎Neoklassieke model · ‎Structurele vraag in · ‎Oorlog en asiel www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-terug Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom www.politie.nl › themas › illegaliteit-vreemdelingen Illegaliteit/vreemdelingen | politie.nl Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk decorrespondent.nl › niemand-weet-hoeveel-illegale-migranten-er-in- Niemand weet hoeveel illegale migranten er in Europa zijn 8 aug. 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenken- Nederland moet diep nadenken over de vergaande gevolgen 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt www.volkskrant.nl › nieuws-achtergrond › overeenkomst-tussen-vs-en- Overeenkomst tussen VS en Mexico over illegale migratie 8 jun. 2019 - Na drie dagen onderhandelen hebben de Verenigde Staten en Mexico een overeenkomst gesloten over de aanpak van illegale immigratie europadecentraal.nl › onderwerp › migratie Migratie - Europa decentraal Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-van- Bedreigt illegale migratie het voorbestaan van de EU? | Jalta 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de eur-lex.europa.eu › legal-content › TXT › HTML 52004DC0412 - NL - EUR-Lex DE REGIO'S - Studie naar de samenhang tussen legale en illegale migratie wijzigingen door te voeren om de gevolgen van de vergrijzing op te vangen. www2.openvld.be › standpunten asiel &amp; migratie - Open Vld Een opengrenzenbeleid heeft catastrofale gevolgen voor onze welvaart en onze Zo nemen we de grondoorzaken van illegale migratie naar Europa weg. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegaal persoon in huis illegale vluchteling in huis nemen illegale migratie opvang illegale vluchtelingen mexicaanse migratie anoniem melden ind illegaal verblijf niet strafbaar migratie van mexico naar de vs Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6835 Arnhem - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenNieuwsMapsVideo'sMeer InstellingenTools Ongeveer 202.000 resultaten (0 63 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren https://www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord Feedback Over samenvattingen Webresultaten Abortus 13 tot 17 weken - Uitleg over de behandeling https://www.bloemenhove.nl › abortus_hulpverlening › abortus_13_-_17_ Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove https://www.bloemenhove.nl › abortus_hulpverlening › abortuspil_5_-_8_ Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts https://www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouw https://www.trouw.nl › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. Dankzij vooruitgang in de neonatologie is die grens verlaagd tot 24 weken. Sommige Tot wanneer en hoe kun je een abortus plegen? - Dossier https://www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is https://www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken- 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw https://www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ing 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen nog maar vijf weken zwanger en kon deze zwangerschap dus 'makkelijk' Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later vaginaal De abortusbehandeling | Fiom https://fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een Abortusmethoden - Schreeuw om Leven https://www.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus tot hoeveel weken duitsland abortus kosten abortus 24 weken procedure abortus 24 weken hoe gaat dat abortus kliniek hoe werkt abortus Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandDen Haag - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenNieuwsVideo'sShoppingMeer InstellingenTools Ongeveer 125.000 resultaten (0 38 seconden) Advertenties Oorzaken Opwarming Aarde? | Meer informatie op WNF.nl‎ Advertentiewww.wwf.nl/‎ WNF zet zich in tegen opwarming van de aarde. Lees meer en kom in actie met WNF! Interessen: Activiteiten Nieuwsbrief Donaties. 10 feiten op een rij over | Klimaatverandering‎ Advertentiewww.worldanimalprotection.nl/‎ Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. +50 jr actief voor dieren. We stoppen dierenleed. Dieren horen in het wild. Actuele informatieDoneer nuDoe meeDieren beschermen Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ Advertentiewww.klimaatplein.com/‎073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. Besparing energieverbruik. CO2 neutraal ondernemen. Inzicht in besparing. Verduurzamen bedrijf. Services: SDE+ EIA MIA VAMIL. Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering als journalistieke uitdaging: een … - ‎Wurff - Geciteerd door 3 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering Afbeeldingsresultaat voor Oorzaken klimaatverandering Afbeeldingsresultaat voor Oorzaken klimaatverandering Alles bekijken Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. [PDF]Klimaatverandering: oorzaken gevolgen en - CE Delft https://www.ce.nl › publicaties › download Feedback Over samenvattingen Webresultaten Klimaatverandering en gevolgen - Rijksoverheid https://www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WUR https://www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. Causes of climate change | Klimaat - European Commission https://ec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Wat zijn de oorzaken en gevolgen van klimaatverandering https://www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Klimaatverandering: oorzaken en effecten | Compendium voor https://www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie waarom weten we zeker dat de mens klimaatverandering https://www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › w Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Wat is klimaatverandering? — Milieudefensie https://milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Opwarming van de Aarde - Wikipedia https://nl.wikipedia.org › wiki › Opwarming_van_de_Aarde Er zijn verschillende maatregelen mogelijk om de schade door klimaatverandering te minimaliseren. Aan de ene kant is het mogelijk de oorzaak aan te pakken Klimaatverandering 1: Oorzaken klimaatverandering https://michielhaas.nl › Blog › Duurzaamheid 21 nov. 2017 - Klimaatverandering 1: Oorzaken klimaatverandering. Dit is het eerste artikel in een serie over klimaatverandering een long read met veel Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandDen Haag - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenMapsNieuwsVideo'sMeer InstellingenTools Ongeveer 52.900 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedia https://nl.wikipedia.org › wiki › Roetpiet Feedback Over samenvattingen Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl https://www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-r 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrant https://www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terre 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt https://www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Weinig draagvlak voor roetveegpieten bij landelijke intocht https://eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Gemeenten kiezen vaker voor roetveegpiet maar merendeel https://www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpi 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Afbeeldingen van Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Alles bekijken Meer afbeeldingen voor Zwarte piet of roetveegpiet? Afbeeldingen melden Webresultaten Zwarte pieten willen niet meer - NRC https://www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Rechter wijst bezwaar tegen roetveegpieten bij landelijke https://nos.nl › 7 nov. 2019 - De rechtbank in Arnhem heeft de eis dat er ook zwarte pieten bij moeten zijn afgewezen de gemeente hoeft de vergunning voor de intocht niet Kijk Nou: Pro-Piet demonstreert onbedoeld als roetveegpiet https://joop.bnnvara.nl › kijk-nou › pro-piet-demonstreert-onbedoeld-als-r 14 nov. 2019 - Tijdens een demonstratie in Den Bosch voor het behoud van de racistische kenmerken van Zwarte Piet heeft een demonstrant per ongeluk Paginanavigatie 1 2 3 4 5 6 7 8 9 Volgende Links in voettekst NederlandDen Haag - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleNieuwsAfbeeldingenShoppingMapsMeer InstellingenTools Ongeveer 36.700 resultaten (0 48 seconden) Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl https://rijksvaccinatieprogramma.nl › vaccinaties › twijfels 4 dagen geleden - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn [PDF]De verborgen gevaren van vaccinaties - WantToKnow https://www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrij https://stichtingvaccinvrij.nl Wij vaccineren niet! Trailer Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de Heeft het niet vaccineren van kinderen nadelige gevolgen? https://www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet- Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! https://www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? Vaccineren: levensgevaarlijk of levensreddend? - Scientias https://www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Artikel - Veelgestelde vragen over vaccineren https://dekennisvannu.nl › site › Veelgestelde-vragen-over-vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. Vaccineren: jezelf en anderen beschermen - UMC Utrecht https://www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-besch 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Vaccineren van je kind is niet - Nieuwetijds kindercoach https://www.nieuwetijds-kindercoach.nl › Advies Wie met z'n kind bij het consultatiebureau komt merkt al snel dat men ervan uitgaat dat je je kind zonder twijfel laat vaccineren. Er wordt niet gevraagd of en Het weigeren van vaccinaties is geen individuele keuze maar https://www.volkskrant.nl › columns-opinie › het-weigeren-van-vaccinaties-i 5 apr. 2019 - Het weigeren van vaccinaties is geen individuele keuze maar een keuze die iedereen in gevaar brengt. Bethany Mandel is redacteur bij het Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie niet vaccineren vaccineren autisme bijwerkingen vaccinaties niet vaccineren forum spijt van niet vaccineren wat is vaccineren niet vaccineren kinderdagverblijf Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandDen Haag - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleNieuwsAfbeeldingenVideo'sMapsMeer InstellingenTools Ongeveer 143.000 resultaten (0 43 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedia https://nl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen ‎Oorzaken · ‎Neoklassieke model · ‎Structurele vraag in · ‎Oorlog en asiel Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl https://www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-teru Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Illegaliteit/vreemdelingen | politie.nl https://www.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Niemand weet hoeveel illegale migranten er in Europa zijn https://decorrespondent.nl › niemand-weet-hoeveel-illegale-migranten-er-i 8 aug. 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in Nederland moet diep nadenken over de vergaande gevolgen https://www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenke 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Overeenkomst tussen VS en Mexico over illegale migratie https://www.volkskrant.nl › nieuws-achtergrond › overeenkomst-tussen-vs-e 8 jun. 2019 - Na drie dagen onderhandelen hebben de Verenigde Staten en Mexico een overeenkomst gesloten over de aanpak van illegale immigratie Migratie - Europa decentraal https://europadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Bedreigt illegale migratie het voorbestaan van de EU? | Jalta https://jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-va 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de 52004DC0412 - NL - EUR-Lex https://eur-lex.europa.eu › legal-content › TXT › HTML DE REGIO'S - Studie naar de samenhang tussen legale en illegale migratie wijzigingen door te voeren om de gevolgen van de vergrijzing op te vangen. asiel &amp; migratie - Open Vld https://www2.openvld.be › standpunten Een opengrenzenbeleid heeft catastrofale gevolgen voor onze welvaart en onze Zo nemen we de grondoorzaken van illegale migratie naar Europa weg. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegale vluchteling in huis nemen illegaal persoon in huis illegale migratie opvang illegale vluchtelingen mexicaanse migratie anoniem melden ind migratie van mexico naar de vs illegaal verblijf niet strafbaar Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandDen Haag - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Abortus tot hoeveel weken? Ongeveer 190.000 resultaten (0 41 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord › a Tot hoeveel weken kan ik een abortus laten uitvoeren Feedback Over samenvattingen Webresultaten www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortus 13 tot 17 weken - Uitleg over de behandeling Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. www.trouw.nl › nieuws › bij-abortus-telt-alleen-de-moeder~be9b8150 'Bij abortus telt alléén de moeder' | Trouw 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. Dankzij vooruitgang in de neonatologie is die grens verlaagd tot 24 weken. Sommige www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer en hoe kun je een abortus plegen? - Dossier Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling De abortusbehandeling | Fiom Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken-no 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ingreep 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen nog maar vijf weken zwanger en kon deze zwangerschap dus 'makkelijk' Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later vaginaal www.schreeuwomleven.nl › abortusmethoden Abortusmethoden - Schreeuw om Leven Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus tot hoeveel weken duitsland abortus kosten abortus 22 weken abortus 24 weken procedure abortus 24 weken hoe gaat dat abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6833 HS Arnhem - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Oorzaken klimaatverandering Ongeveer 152.000 resultaten (0 34 seconden) Advertenties Advertentie· www.heifer.nl/projecten ‎ Oorzaken Klimaatverandering | Heifer Nederland | heifer.nl‎ ‎ Help de Afrikaanse boeren zodat ze armoede kunnen overwinnen. Doneer! Zelf Armoede Overwinnen. Kom in Actie. Plattelandsontwikkeling. Doorgeefsysteem. Passing on the Gift. Toekomst voor de JeugdContactHelp een BoerInkomensverbeteringOns Werk Zadenpakket - € 10 00 - Vruchtbare Moestuin · Meer Advertentie· www.worldanimalprotection.nl/ ‎ Klimaatverandering | 10 feiten op een rij‎ ‎ De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. +50 jr actief voor dieren. Dieren horen in het wild. We stoppen dierenleed. Doe meeDoneer nuActuele informatieDieren beschermen Advertentie· www.klimaatplein.com/ ‎ Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ ‎ 073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. Verduurzamen bedrijf. CO2 neutraal ondernemen. Inzicht in besparing. Besparing energieverbruik. Services: SDE+ EIA MIA VAMIL. KlimaatveranderingEnergiebewust OndernemenContact KlimaatpleinSubsidiewijzer Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering als journalistieke uitdaging: een … - ‎Wurff - Geciteerd door 3 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering Afbeeldingsresultaat voor Oorzaken klimaatverandering Afbeeldingsresultaat voor Oorzaken klimaatverandering Alles bekijken Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE DelftPDF Feedback Over samenvattingen Webresultaten www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Klimaatverandering en gevolgen - Rijksoverheid Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Oorzaken klimaatverandering - WUR Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. www.klimaat.be › nl-be › klimaatverandering › het-klimaat Oorzaken - Klimaat.be De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig ec.europa.eu › clima › change › causes_nl Causes of climate change | Klimaat - European Commission Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › wa waarom weten we zeker dat de mens klimaatverandering Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Wat is klimaatverandering? — Milieudefensie Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn www.hier.nu › Thema's › Klimaatwoordenboek Klimaatverandering: oorzaken en gevolgen | HIER 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten | Compendium voor Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6833 HS Arnhem - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zwarte piet of roetveegpiet? Ongeveer 58.600 resultaten (0 48 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. nl.wikipedia.org › wiki › Roetpiet Roetpiet - Wikipedia Feedback Over samenvattingen Webresultaten www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-rug Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terrein- De roetveegpiet wint terrein al nemen veel - Volkskrant 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en-d Waarom Roetveegpiet er bij Sylvie en Danny niet in komt 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpiet Gemeenten kiezen vaker voor roetveegpiet maar merendeel 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen Weinig draagvlak voor roetveegpieten bij landelijke intocht 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch nos.nl › Rechter wijst bezwaar tegen roetveegpieten bij landelijke 7 nov. 2019 - De rechtbank in Arnhem heeft de eis dat er ook zwarte pieten bij moeten zijn afgewezen de gemeente hoeft de vergunning voor de intocht niet Afbeeldingen van Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Alles bekijken Meer afbeeldingen voor Zwarte piet of roetveegpiet? Afbeeldingen melden Webresultaten www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 Zwarte pieten willen niet meer - NRC 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet www.rtvoost.nl › nieuws › Uiterlijk-Zwarte-Piet-weerspiegelt-onze-tij "Uiterlijk Zwarte Piet weerspiegelt onze tijdsgeest" - RTV Oost 5 dec. 2019 - Hoe Zwarte Piet eruit ziet en hoe hij zich gedraagt hangt sterkt van de tijdsgeest. Zwarte Piet blijkt vooral een spiegel van de tijdsgeest. Burgemeester noemt reacties op introductie roetveegpiet in Deventer 'ernstig'. Paginanavigatie 1 2 3 4 5 6 7 8 9 Volgende Links in voettekst Nederland6833 HS Arnhem - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevaren vaccinaties Ongeveer 29.800 resultaten (0 52 seconden) Advertenties Advertentie· www.npofocus.nl/ ‎ Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ ‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. Weet meer. Verdieping. NPO Focus. Zoekresultaten Webresultaten rijksvaccinatieprogramma.nl › vaccinaties › twijfels Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl 7 dagen geleden - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren-v De verborgen gevaren van vaccinaties - WantToKnowPDF 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' stichtingvaccinvrij.nl Stichting Vaccinvrij Wij vaccineren niet! Trailer Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Heeft het niet vaccineren van kinderen nadelige gevolgen? Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend Vaccineren: levensgevaarlijk of levensreddend? - Scientias 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-bescher Vaccineren: jezelf en anderen beschermen - UMC Utrecht 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt www.nieuwetijds-kindercoach.nl › Advies Vaccineren van je kind is niet - Nieuwetijds kindercoach Wie met z'n kind bij het consultatiebureau komt merkt al snel dat men ervan uitgaat dat je je kind zonder twijfel laat vaccineren. Er wordt niet gevraagd of en www.ggdreisvaccinaties.nl › heb-ik-een-vaccinatie-nodig VACCINATIES PER LAND I GGDREISVACCINATIES Voor welk land heeft u vaccinaties nodig? Dat verschilt per land. In de landenzoeker kunt u vinden of u vaccinaties of inentingen nodig heeft voor uw reis. www.volkskrant.nl › columns-opinie › janneke-bazelmans-over-nadelen Janneke Bazelmans: 'Over nadelen vaccinatie wordt veelal 22 jul. 2013 - Ouders die geen fervente tegenstanders van vaccinaties zijn maar kritisch kinderen maar ook de kinderen van anderen in gevaar brengen. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie niet vaccineren bijwerkingen vaccinaties vaccineren autisme niet vaccineren forum spijt van niet vaccineren wetenschappelijk onderzoek vaccinaties stichting vaccinvrij Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6833 HS Arnhem - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 142.000 resultaten (0 41 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten nl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie - Wikipedia Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen ‎Oorzaken · ‎Neoklassieke model · ‎Structurele vraag in · ‎Oorlog en asiel www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-terug Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom www.politie.nl › themas › illegaliteit-vreemdelingen Illegaliteit/vreemdelingen | politie.nl Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk decorrespondent.nl › niemand-weet-hoeveel-illegale-migranten-er-in- Niemand weet hoeveel illegale migranten er in Europa zijn 8 aug. 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-en- Ongedocumenteerden (illegalen) en uitgeprocedeerden Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenken- Nederland moet diep nadenken over de vergaande gevolgen 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt www.volkskrant.nl › nieuws-achtergrond › overeenkomst-tussen-vs-en- Overeenkomst tussen VS en Mexico over illegale migratie 8 jun. 2019 - Na drie dagen onderhandelen hebben de Verenigde Staten en Mexico een overeenkomst gesloten over de aanpak van illegale immigratie europadecentraal.nl › onderwerp › migratie Migratie - Europa decentraal Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-van- Bedreigt illegale migratie het voorbestaan van de EU? | Jalta 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de eur-lex.europa.eu › legal-content › TXT › HTML 52004DC0412 - NL - EUR-Lex DE REGIO'S - Studie naar de samenhang tussen legale en illegale migratie wijzigingen door te voeren om de gevolgen van de vergrijzing op te vangen. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegaal persoon in huis illegaal in nederland en ziek illegaal verblijf niet strafbaar illegaal in nederland en trouwen anoniem melden ind hoeveel illegalen in nederland 2018 illegale vluchteling in huis nemen illegaal in nederland en zwanger Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland6833 HS Arnhem - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenNieuwsMapsVideo'sMeer InstellingenTools Ongeveer 174.000 resultaten (0 48 seconden) Advertenties Advertentie· www.siriz.nl/Abortus/Hoeveel-Weken ‎ Tot Hoeveel Weken Abortus? | Twijfel je over Abortus? | siriz.nl‎ ‎ 0800 4400003 Bespreek de mogelijkheden &amp; zet alles op een rij. App of Chat met Siriz. Specialist bij onbedoelde zwangerschap. Wij bieden preventie ondersteuning en zorg. Persoonlijke begeleiding. Gratis hulp. Keuzegesprekken. Chat voor hulp De chat van Siriz is voor iedereen die met onbedoeld zwangerschap zit. Contact Hulp nodig? Je kunt ons bereiken via de telefoon e-mail of chat. Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord › a Tot hoeveel weken kan ik een abortus laten uitvoeren Feedback Over samenvattingen Webresultaten www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortus 13 tot 17 weken - Uitleg over de behandeling Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. www.trouw.nl › nieuws › bij-abortus-telt-alleen-de-moeder~be9b8150 'Bij abortus telt alléén de moeder' | Trouw 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. Dankzij vooruitgang in de neonatologie is die grens verlaagd tot 24 weken. Sommige www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer en hoe kun je een abortus plegen? - Dossier Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling De abortusbehandeling | Fiom Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken-no 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ingreep 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen nog maar vijf weken zwanger en kon deze zwangerschap dus 'makkelijk' Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later vaginaal www.schreeuwomleven.nl › abortusmethoden Abortusmethoden - Schreeuw om Leven Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus tot hoeveel weken duitsland abortus kosten abortus 22 weken abortus 24 weken procedure abortus 24 weken hoe gaat dat abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandDe Baarsjes Amsterdam - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenNieuwsVideo'sShoppingMeer InstellingenTools Ongeveer 118.000 resultaten (0 35 seconden) Advertenties Advertentie· www.worldanimalprotection.nl/ ‎ 10 feiten op een rij over | Klimaatverandering‎ ‎ Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. +50 jr actief voor dieren. We stoppen dierenleed. Dieren horen in het wild. Dieren beschermenActuele informatieDoneer nuDoe mee Advertentie· www.wwf.nl/ ‎ Oorzaken Opwarming Aarde | Lees Meer En Kom In Actie‎ ‎ WNF zet zich wereldwijd in voor een beter klimaat. Lees meer en kom in actie! Interessen: Activiteiten Nieuwsbrief Donaties. Word donateurWord Vrijwilliger Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering als journalistieke uitdaging: een … - ‎Wurff - Geciteerd door 3 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering Afbeeldingsresultaat voor Oorzaken klimaatverandering Afbeeldingsresultaat voor Oorzaken klimaatverandering Alles bekijken Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE DelftPDF Feedback Over samenvattingen Webresultaten www.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Klimaatverandering en gevolgen - Rijksoverheid Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de www.wur.nl › artikel › Oorzaken-klimaatverandering-1 Oorzaken klimaatverandering - WUR Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. www.klimaat.be › nl-be › klimaatverandering › het-klimaat Oorzaken - Klimaat.be De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig ec.europa.eu › clima › change › causes_nl Causes of climate change | Klimaat - European Commission Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › wa waarom weten we zeker dat de mens klimaatverandering Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de milieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Wat is klimaatverandering? — Milieudefensie Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens www.hier.nu › Thema's › Klimaatwoordenboek Klimaatverandering: oorzaken en gevolgen | HIER 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten | Compendium voor Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandDe Baarsjes Amsterdam - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenMapsNieuwsVideo'sMeer InstellingenTools Ongeveer 52.100 resultaten (0 44 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. nl.wikipedia.org › wiki › Roetpiet Roetpiet - Wikipedia Feedback Over samenvattingen Webresultaten www.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-rug Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is www.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terrein- De roetveegpiet wint terrein al nemen veel - Volkskrant 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en-d Waarom Roetveegpiet er bij Sylvie en Danny niet in komt 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpiet Gemeenten kiezen vaker voor roetveegpiet maar merendeel 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen Weinig draagvlak voor roetveegpieten bij landelijke intocht 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch www.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 Zwarte pieten willen niet meer - NRC 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet nos.nl › Rechter wijst bezwaar tegen roetveegpieten bij landelijke 7 nov. 2019 - De rechtbank in Arnhem heeft de eis dat er ook zwarte pieten bij moeten zijn afgewezen de gemeente hoeft de vergunning voor de intocht niet www.rtvoost.nl › nieuws › Uiterlijk-Zwarte-Piet-weerspiegelt-onze-tij "Uiterlijk Zwarte Piet weerspiegelt onze tijdsgeest" - RTV Oost 5 dec. 2019 - Hoe Zwarte Piet eruit ziet en hoe hij zich gedraagt hangt sterkt van de tijdsgeest. Zwarte Piet blijkt vooral een spiegel van de tijdsgeest. Burgemeester noemt reacties op introductie roetveegpiet in Deventer 'ernstig'. www.omroepbrabant.nl › nieuws › Roetveegpiet-wint-het-op-scholen- Roetveegpiet wint het op scholen in grote steden zwarte piet 26 nov. 2019 - Uit een inventarisatie van Omroep Brabant blijkt dat in de grote steden roetveegpiet het wint van Zwarte Piet. Scholen gaan daar mee met het Paginanavigatie 1 2 3 4 5 6 7 8 9 Volgende Links in voettekst NederlandDe Baarsjes Amsterdam - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleNieuwsAfbeeldingenShoppingMapsMeer InstellingenTools Ongeveer 37.100 resultaten (0 45 seconden) Advertenties Advertentie· www.npofocus.nl/ ‎ Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ ‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. Verdieping. NPO Focus. Weet meer. Zoekresultaten Webresultaten rijksvaccinatieprogramma.nl › vaccinaties › twijfels Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl 6 feb. 2020 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren-v De verborgen gevaren van vaccinaties - WantToKnowPDF 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' stichtingvaccinvrij.nl Stichting Vaccinvrij Wij vaccineren niet! Trailer Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Heeft het niet vaccineren van kinderen nadelige gevolgen? Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? www.scientias.nl › vaccineren-levensgevaarlijk-levensreddend Vaccineren: levensgevaarlijk of levensreddend? - Scientias 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-bescher Vaccineren: jezelf en anderen beschermen - UMC Utrecht 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt www.nieuwetijds-kindercoach.nl › Advies Vaccineren van je kind is niet - Nieuwetijds kindercoach Wie met z'n kind bij het consultatiebureau komt merkt al snel dat men ervan uitgaat dat je je kind zonder twijfel laat vaccineren. Er wordt niet gevraagd of en www.volkskrant.nl › nieuws-achtergrond › vaccinatieweigeraars-waaro Vaccinatieweigeraars: waarom anti-vaxxers zo veel 14 feb. 2019 - De discussie over vaccinaties loopt de laatste tijd hoog op. Wat er de gevaren zijn van een te lage vaccinatiegraad is goed te zien in deze www.rivm.nl › mazelen Mazelen | RIVM 14 nov. 2019 - Een patiënt met mazelen is besmettelijk zodra de eerste symptomen beginnen. Mazelen kan voorkómen worden door vaccinatie. In Nederland Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie niet vaccineren bijwerkingen vaccinaties vaccineren autisme niet vaccineren forum spijt van niet vaccineren wetenschappelijk onderzoek vaccinaties stichting vaccinvrij Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandDe Baarsjes Amsterdam - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleNieuwsAfbeeldingenVideo'sMapsMeer InstellingenTools Ongeveer 142.000 resultaten (0 37 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten nl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie - Wikipedia Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen ‎Oorzaken · ‎Neoklassieke model · ‎Structurele vraag in · ‎Oorlog en asiel www.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-terug Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom www.politie.nl › themas › illegaliteit-vreemdelingen Illegaliteit/vreemdelingen | politie.nl Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk decorrespondent.nl › niemand-weet-hoeveel-illegale-migranten-er-in- Niemand weet hoeveel illegale migranten er in Europa zijn 8 aug. 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in www.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-en- Ongedocumenteerden (illegalen) en uitgeprocedeerden Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenken- Nederland moet diep nadenken over de vergaande gevolgen 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt www.volkskrant.nl › nieuws-achtergrond › overeenkomst-tussen-vs-en- Overeenkomst tussen VS en Mexico over illegale migratie 8 jun. 2019 - Na drie dagen onderhandelen hebben de Verenigde Staten en Mexico een overeenkomst gesloten over de aanpak van illegale immigratie europadecentraal.nl › onderwerp › migratie Migratie - Europa decentraal Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn jalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-van- Bedreigt illegale migratie het voorbestaan van de EU? | Jalta 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de eur-lex.europa.eu › legal-content › TXT › HTML 52004DC0412 - NL - EUR-Lex DE REGIO'S - Studie naar de samenhang tussen legale en illegale migratie wijzigingen door te voeren om de gevolgen van de vergrijzing op te vangen. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegaal persoon in huis illegaal in nederland en ziek illegaal verblijf niet strafbaar anoniem melden ind illegaal in nederland en trouwen hoeveel illegalen in nederland 2018 illegale vluchteling in huis nemen illegaal in nederland en zwanger Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandDe Baarsjes Amsterdam - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Abortus tot hoeveel weken? Ongeveer 174.000 resultaten (0 32 seconden) Looking for results in English? Change to English Nederlands blijven gebruiken Taalinstellingen Advertenties Advertentie· www.siriz.nl/Abortus/Hoeveel-Weken ‎ Tot Hoeveel Weken Abortus? | Twijfel je over Abortus? | siriz.nl‎ ‎ Bespreek de mogelijkheden &amp; zet alles op een rij. Bel e-mail of chat met Siriz. Specialist bij onbedoelde zwangerschap. Wij bieden preventie ondersteuning en zorg. Keuzegesprekken. Gratis hulp. Persoonlijke begeleiding. Services: Zwanger en je keuze Abortus en je keuze. Chat voor hulp De chat van Siriz is voor iedereen die met onbedoeld zwangerschap zit. Contact Hulp nodig? Je kunt ons bereiken via de telefoon e-mail of chat. Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord › a Tot hoeveel weken kan ik een abortus laten uitvoeren Feedback Over samenvattingen Webresultaten www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortus 13 tot 17 weken - Uitleg over de behandeling Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. www.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhove Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn www.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisarts 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. www.trouw.nl › nieuws › bij-abortus-telt-alleen-de-moeder~be9b8150 'Bij abortus telt alléén de moeder' | Trouw 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. Dankzij vooruitgang in de neonatologie is die grens verlaagd tot 24 weken. Sommige www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer en hoe kun je een abortus plegen? - Dossier Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet fiom.nl › ongewenst-zwanger › abortus › abortusbehandeling De abortusbehandeling | Fiom Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken-no 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ingreep 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen nog maar vijf weken zwanger en kon deze zwangerschap dus 'makkelijk' Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later vaginaal www.schreeuwomleven.nl › abortusmethoden Abortusmethoden - Schreeuw om Leven Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus tot hoeveel weken duitsland abortus kosten abortus 22 weken abortus 24 weken procedure abortus 24 weken hoe gaat dat abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandWest Tilburg Tilburg - Gebaseerd op je internetadres - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Oorzaken klimaatverandering About 160.000 results (0 34 seconds) Ads Ad· www.worldanimalprotection.nl/ ‎ 10 feiten op een rij over | Klimaatverandering‎ ‎ Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. We stoppen dierenleed. Dieren horen in het wild. +50 jr actief voor dieren. Dieren beschermenDoe meeDoneer nuActuele informatie Ad· www.oxfamnovib.nl/ ‎ Maatregelen klimaatverandering | Samen verslaan we armoede‎ ‎ Help klimaatverandering tegen te gaan. Steun ons. Doneer nu. Oxfam Novib verslaat honger redt levens en maakt de wereld eerlijker. Ook jij kunt helpen. Lees wat jij kunt doen. Maak het verschil. Steun Oxfam Novib. Wereldwijde steun. Typen: Onderwijs en voorlichting Water. Versla armoedeOnze projectenHelp boeren in CambodjaWij verslaan armoede Ad· www.wwf.nl/ ‎ Oorzaken Opwarming Aarde | Kom Samen Met WNF In Actie‎ ‎ Lees hier wat WNF doet om de opwarming van de aarde tegen te gaan en help mee! Interessen: Activiteiten Nieuwsbrief Donaties. Word donateurWord Vrijwilliger Search Results Scholarly articles for Oorzaken klimaatverandering Klimaatverandering en klimaatbeleid - ‎Bollen - Cited by 12 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Cited by 5 Klimaatverandering als journalistieke uitdaging: een … - ‎Wurff - Cited by 3 www.wur.nl › artikel › Oorzaken-klimaatveranderi Oorzaken klimaatverandering - WUR Translate this page Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. www.hier.nu › Thema's › Klimaatwoordenboek Klimaatverandering: oorzaken en gevolgen | HIER Translate this page May 15 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot www.rijksoverheid.nl › onderwerpen › gevolgen-kl Klimaatverandering en gevolgen - Rijksoverheid Translate this page Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de ec.europa.eu › clima › change › causes_nl Causes of climate change | Klimaat - European Commission Translate this page Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van www.klimaat.be › klimaatverandering › het-klimaat Oorzaken - Klimaat.be Translate this page De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig www.ce.nl › publicaties › download Klimaatverandering: oorzaken gevolgen en - CE Delft PDFTranslate this page Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. www.climategate.nl › 2017/10 › klimaatveranderin Klimaatverandering : oorzaken - Climategate Translate this page Oct 30 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “Climate change: The facts 2017” uitgegeven door het Institute www.climategate.nl › 2016/11 Oorzaken van klimaatverandering - Climategate Translate this page Oct 7 2017 - Oorzaken waar de mens invloed op heeft. 1.a Antropogene emissie van CO2. In een vorige bijdrage is over dit onderwerp “CO2 in onze www.energievergelijk.nl › Onderwerpen Klimaatverandering (oorzaak &amp; gevolg) – Energievergelijk Translate this page Oct 2 2019 - Klimaatverandering kent veel verschillende oorzaken. In de intro hierboven zijn de natuurlijke oorzaken al even kort aan bod gekomen. www.urgenda.nl › themas › klimaatvragen › waaro waarom weten we zeker dat de mens klimaatverandering Translate this page Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsWest Tilburg Tilburg - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Zwarte piet of roetveegpiet? About 37.200 results (0 38 seconds) Search Results Featured snippet from the web Image result for Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. nl.wikipedia.org › wiki › Roetpiet Roetpiet - Wikipedia Feedback About Featured Snippets Web results www.ad.nl › rotterdam › rotterdam-keert-zwarte-pi Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nl Translate this page Nov 17 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is www.volkskrant.nl › nieuws-achtergrond › de-roet De roetveegpiet wint terrein al nemen veel - Volkskrant- Translate this page Nov 15 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in www.trouw.nl › binnenland › waarom-roetveegpiet Waarom Roetveegpiet er bij Sylvie en Danny niet in komt Translate this page Nov 16 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. www.nu.nl › sinterklaas › gemeenten-kiezen-vaker- Gemeenten kiezen vaker voor roetveegpiet maar merendeel Translate this page Nov 15 2019 - In 2017 liep de roetveegpiet nog in zeventien gemeenten mee bleek uit Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet eenvandaag.avrotros.nl › › Alle uitslagen Weinig draagvlak voor roetveegpieten bij landelijke intocht Translate this page Nov 14 2019 - Dat blijkt uit het jaarlijkse Zwarte Piet-onderzoek van EenVandaag. 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. eenvandaag.avrotros.nl › › Alle uitslagen 5 meningen over Zwarte Piet: van 'niet aanpassen' tot Translate this page Nov 14 2019 - Wat moet er gebeuren met het uiterlijk van Zwarte Piet? En hoe wordt er 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. www.nrc.nl › nieuws › 2019/11/07 › de-pieten-lop Zwarte pieten willen niet meer - NRC- Translate this page Nov 7 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker Lees het volledige nieuwsbericht: De roetveegpiet kruipt de regio in nos.nl › Rechter wijst bezwaar tegen roetveegpieten bij landelijke Translate this page Nov 7 2019 - De rechtbank in Arnhem heeft de eis dat er ook zwarte pieten bij moeten Bekijk hieronder de verandering van Zwarte Piet naar roetveegpiet:. www.omroepbrabant.nl › nieuws › Roetveegpiet-wi Roetveegpiet wint het op scholen in grote steden zwarte piet Translate this page Nov 26 2019 - Uit een inventarisatie van Omroep Brabant blijkt dat in de grote steden roetveegpiet het wint van Zwarte Piet. Scholen gaan daar mee met het Searches related to Zwarte piet of roetveegpiet? roetveegpiet english zwarte piet geschiedenis zwarte piet song kick out zwarte piet sinterklaasjournaal zwarte piet 2018 sinterklaas en zwarte piet Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsWest Tilburg Tilburg - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Gevaren vaccinaties About 89.200 results (0 44 seconds) Ads Ad· www.npofocus.nl/ ‎ Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ ‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. Verdieping. Weet meer. NPO Focus. Search Results Nadelen vaccinatie De nadelen van vaccinaties Vaak zijn er lichte bijwerkingen zoals een rode huid en koorts. In sommige gevallen zijn er heftigere bijwerkingen zoals een koortsstuip. Feb 6 2020 rijksvaccinatieprogramma.nl › vaccinaties › twijfels Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nl Search for: Nadelen vaccinatie Feedback About Featured Snippets Web results www.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren-v De verborgen gevaren van vaccinaties - WantToKnowPDF Jul 1 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' www.nvkp.nl › over-het-rijksvaccinatieprogramma Heeft het niet vaccineren van kinderen nadelige gevolgen? Translate this page Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden stichtingvaccinvrij.nl Stichting Vaccinvrij Translate this page Wij vaccineren niet! Trailer Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de www.thuisvaccinatie.nl › vaccinaties › bijwerkinge Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer! Translate this page Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? www.scientias.nl › vaccineren-levensgevaarlijk-leve Vaccineren: levensgevaarlijk of levensreddend? - Scientias Translate this page Jan 15 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. mens-en-gezondheid.infonu.nl › diversen › 14224 Gevaren van vaccinaties | Mens en Gezondheid: Diversen Translate this page Oct 9 2014 - Maar een steeds groter deel van de vaccinatieweigeraars zijn zich bewust geworden van de gevaren van vaccinaties. Het eerste vaccin www.volkskrant.nl › columns-opinie › janneke-baz Janneke Bazelmans: 'Over nadelen vaccinatie wordt veelal - Translate this page Jul 22 2013 - Ouders die geen fervente tegenstanders van vaccinaties zijn maar kritisch kinderen maar ook de kinderen van anderen in gevaar brengen. www.umcutrecht.nl › Nieuws › Vaccineren-jezelf-e Vaccineren: jezelf en anderen beschermen - UMC Utrecht Translate this page May 3 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt www.laatjevaccineren.be › 5-misvattingen-over-vac 5 misvattingen over vaccinatie - Laat je vaccineren Translate this page Er bestaan veel mythes en misvattingen over vaccinatie. De 5 meest Vaccinaties uitstellen kan je gezondheid onnodig in gevaar brengen. Het is beter om het Searches related to Gevaren vaccinaties anti vaccinatie vaccinvrij nadelen vaccinatie bijwerkingen vaccinaties vaccineren betekenis stichting vaccinvrij wat is vaccinatie vaccinaties nederland Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsWest Tilburg Tilburg - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Gevolgen illegale immigratie About 131.000 results (0 38 seconds) Search Results Web results nl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie - Wikipedia Translate this page Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen ‎Oorzaken · ‎Neoklassieke model · ‎Structurele vraag in · ‎Oorlog en asiel www.rijksoverheid.nl › onderwerpen › minder-ille Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nl Translate this page Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom www.politie.nl › themas › illegaliteit-vreemdelingen Illegaliteit/vreemdelingen | politie.nl Translate this page Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk www.amnesty.nl › encyclopedie › ongedocumentee Ongedocumenteerden (illegalen) en uitgeprocedeerden Translate this page Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de decorrespondent.nl › niemand-weet-hoeveel-illegal Niemand weet hoeveel illegale migranten er in Europa zijn Translate this page Aug 8 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in europadecentraal.nl › onderwerp › migratie Migratie - Europa decentraal Translate this page Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn www.volkskrant.nl › columns-opinie › nederland- Nederland moet diep nadenken over de vergaande gevolgen - Translate this page Oct 23 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt jalta.nl › buitenland › bedreigt-illegale-migratie-het Bedreigt illegale migratie het voorbestaan van de EU? | Jalta Translate this page Jun 7 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de eur-lex.europa.eu › legal-content › TXT › HTML 52004DC0412 - NL - EUR-Lex Translate this page DE REGIO'S - Studie naar de samenhang tussen legale en illegale migratie wijzigingen door te voeren om de gevolgen van de vergrijzing op te vangen. www.europarl.europa.eu › news › headlines › society › asiel-en-migratie Asiel en migratie in de EU: feiten en cijfers | Nieuws Jun 29 2017 - Bekijk de nieuwste feiten en cijfers over migratie en asiel in onze infografiek. om de situatie beheersbaar te maken en over de financiële gevolgen. In 2018 zakte het totale aantal illegale grensovergangen naar de EU tot Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsWest Tilburg Tilburg - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Abortus tot hoeveel weken? Ongeveer 192.000 resultaten (0 32 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord › a Feedback Over samenvattingen Webresultaten Abortus 13 tot 17 weken - Uitleg over de behandelingwww.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhovewww.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisartswww.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouwwww.trouw.nl › nieuws › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. Dankzij vooruitgang in de neonatologie is die grens verlaagd tot 24 weken. Sommige Tot wanneer en hoe kun je een abortus plegen? - Dossier www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer je abortus kunt laten plegen verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Dan is het embryo nog niet De abortusbehandeling | Fiomfiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken-no 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ingreep 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen nog maar vijf weken zwanger en kon deze zwangerschap dus 'makkelijk' Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later vaginaal Abortusmethoden - Schreeuw om Levenwww.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus tot hoeveel weken duitsland abortus kosten abortus 22 weken abortus 24 weken procedure abortus 24 weken hoe gaat dat abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland8017 Zwolle - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Oorzaken klimaatverandering Ongeveer 149.000 resultaten (0 32 seconden) Advertenties Advertentie· www.wwf.nl/ ‎ Oorzaken Opwarming Aarde | Kom Samen Met WNF In Actie‎ ‎ Lees hier wat WNF doet om de opwarming van de aarde tegen te gaan en help mee! Interessen: Activiteiten Nieuwsbrief Donaties. Wat we doenKom in actieActiviteitenkalenderBedreigde dierenVoor de jeugd Advertentie· www.worldanimalprotection.nl/ ‎ 10 feiten op een rij over | Klimaatverandering‎ ‎ Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. We stoppen dierenleed. +50 jr actief voor dieren. Dieren horen in het wild. Doneer nuActuele informatieDoe meeDieren beschermen Advertentie· www.klimaatplein.com/ ‎ Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ ‎ 073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. CO2 neutraal ondernemen. Inzicht in besparing. Besparing energieverbruik. Verduurzamen bedrijf. Services: SDE+ EIA MIA VAMIL. Energie Besparen Op ICTZelf Energie OpwekkenContact KlimaatpleinSubsidiewijzer Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering als journalistieke uitdaging: een … - ‎Wurff - Geciteerd door 3 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering Afbeeldingsresultaat voor Oorzaken klimaatverandering Afbeeldingsresultaat voor Oorzaken klimaatverandering Alles bekijken Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delftwww.ce.nl › publicaties › downloadPDF Feedback Over samenvattingen Webresultaten Klimaatverandering en gevolgen - Rijksoverheidwww.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WURwww.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. Oorzaken - Klimaat.bewww.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: oorzaken en effecten | Compendium voor www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie Causes of climate change | Klimaat - European Commissionec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van waarom weten we zeker dat de mens klimaatverandering www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › wa Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Wat is klimaatverandering? — Milieudefensiemilieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Klimaatverandering: oorzaken en gevolgen | HIERwww.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Wat zijn de oorzaken en gevolgen van klimaatverandering www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland8011 CV Zwolle - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zwarte piet of roetveegpiet? Ongeveer 59.300 resultaten (0 34 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedianl.wikipedia.org › wiki › Roetpiet Feedback Over samenvattingen Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nlwww.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-rug 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrantwww.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terrein- 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en-d 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Weinig draagvlak voor roetveegpieten bij landelijke intocht eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Gemeenten kiezen vaker voor roetveegpiet maar merendeel www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpiet 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Afbeeldingen van Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Alles bekijken Meer afbeeldingen voor Zwarte piet of roetveegpiet? Afbeeldingen melden Webresultaten Zwarte pieten willen niet meer - NRCwww.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Rechter wijst bezwaar tegen roetveegpieten bij landelijke nos.nl › 7 nov. 2019 - De rechtbank in Arnhem heeft de eis dat er ook zwarte pieten bij moeten zijn afgewezen de gemeente hoeft de vergunning voor de intocht niet Alternatieve Sintjournaals zonder roetveegpiet: 'Er is vraag nos.nl › 11 nov. 2019 - Wie geen afscheid wil nemen van de zwart geschminkte Piet kan terecht bij verschillende alternatieve Sinterklaasjournaals. Op veel plaatsen Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie roetveegpiet schminken zwarte piet geschiedenis kick out zwarte piet roetveegpiet tekening sinterklaas en zwarte piet roetveegpiet cartoon regenboog piet Paginanavigatie 1 2 3 4 5 6 7 8 9 Volgende Links in voettekst Nederland8011 CV Zwolle - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevaren vaccinaties Ongeveer 31.100 resultaten (0 31 seconden) Advertenties Advertentie· www.npofocus.nl/ ‎ Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ ‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. NPO Focus. Weet meer. Verdieping. Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nlrijksvaccinatieprogramma.nl › vaccinaties › twijfels 6 feb. 2020 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn De verborgen gevaren van vaccinaties - WantToKnowwww.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren-v PDF 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrijstichtingvaccinvrij.nl Wij vaccineren niet! Trailer Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de Heeft het niet vaccineren van kinderen nadelige gevolgen?www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer!www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? Vaccineren: levensgevaarlijk of levensreddend? - Scientiaswww.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Vaccineren: jezelf en anderen beschermen - UMC Utrechtwww.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-bescher 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Vaccineren van je kind is niet - Nieuwetijds kindercoachwww.nieuwetijds-kindercoach.nl › Advies Wie met z'n kind bij het consultatiebureau komt merkt al snel dat men ervan uitgaat dat je je kind zonder twijfel laat vaccineren. Er wordt niet gevraagd of en Artikel - Veelgestelde vragen over vaccinerendekennisvannu.nl › site › artikel › Veelgestelde-vragen-over-vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. Vaccinatieweigeraars: waarom anti-vaxxers zo veel www.volkskrant.nl › nieuws-achtergrond › vaccinatieweigeraars-waaro 14 feb. 2019 - De discussie over vaccinaties loopt de laatste tijd hoog op. Wat er de gevaren zijn van een te lage vaccinatiegraad is goed te zien in deze Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie niet vaccineren bijwerkingen vaccinaties vaccineren autisme niet vaccineren forum spijt van niet vaccineren wetenschappelijk onderzoek vaccinaties stichting vaccinvrij Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland8011 CV Zwolle - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 156.000 resultaten (0 37 seconden) Zoekresultaten Webresultaten Illegale immigratie - Wikipedianl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen ‎Oorzaken · ‎Neoklassieke model · ‎Structurele vraag in · ‎Oorlog en asiel Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nlwww.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-terug Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Illegaliteit/vreemdelingen | politie.nlwww.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Ongedocumenteerden (illegalen) en uitgeprocedeerdenwww.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-en- Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Niemand weet hoeveel illegale migranten er in Europa zijn decorrespondent.nl › niemand-weet-hoeveel-illegale-migranten-er-in- 8 aug. 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in Migratie - Europa decentraaleuropadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Nederland moet diep nadenken over de vergaande gevolgen www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenken- 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Overeenkomst tussen VS en Mexico over illegale migratie www.volkskrant.nl › nieuws-achtergrond › overeenkomst-tussen-vs-en- 8 jun. 2019 - Na drie dagen onderhandelen hebben de Verenigde Staten en Mexico een overeenkomst gesloten over de aanpak van illegale immigratie Bedreigt illegale migratie het voorbestaan van de EU? | Jaltajalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-van- 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Je kunt migratie ook met andere ogen bekijken – Sociale www.socialevraagstukken.nl › je-kunt-migratie-ook-met-andere-ogen 15 nov. 2018 - -Krachtig bestrijden van mensenhandel en van illegale immigratie. reacties die de internationale migratie en haar gevolgen oproepen Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegaal persoon in huis illegaal in nederland en ziek illegaal verblijf niet strafbaar illegaal in nederland en trouwen anoniem melden ind hoeveel illegalen in nederland 2018 illegale vluchteling in huis nemen illegaal in nederland en zwanger Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland8011 CV Zwolle - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Abortus tot hoeveel weken? Ongeveer 189.000 resultaten (0 44 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord › a Feedback Over samenvattingen Webresultaten Abortus 13 tot 17 weken - Uitleg over de behandelingwww.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhovewww.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisartswww.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouwwww.trouw.nl › nieuws › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. Dankzij vooruitgang in de neonatologie is die grens verlaagd tot 24 weken. Sommige Tot wanneer en hoe kun je een abortus plegen? - Dossier www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer een abortus mogelijk is verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Er is voor deze grens gekozen De abortusbehandeling | Fiomfiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken-no 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ingreep 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen nog maar vijf weken zwanger en kon deze zwangerschap dus 'makkelijk' Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later vaginaal Abortusmethoden - Schreeuw om Levenwww.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus tot hoeveel weken duitsland abortus kosten abortus 22 weken abortus 24 weken procedure abortus 24 weken hoe gaat dat abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1017 GN Amsterdam - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Oorzaken klimaatverandering Ongeveer 191.000 resultaten (0 38 seconden) Advertenties Advertentie· www.greenpeace.org/ ‎ De gevolgen van klimaatverandering - Greenpeace Nederland‎ ‎ 0800 4223344 Help ook mee aan een duurzamere wereld teken onze petities of steun ons met een donatie! Het milieu en de natuur worden ernstig bedreigd door overheden en bedrijven. Internationaal Actief. Actie Is Noodzakelijk. Milieuorganisatie. Co2 Probleem Aanpakken. Groene Stroom RanglijstDonerenPetitie KlimaatcrisisOnze ActiesPetitie Schiphol Advertentie· www.worldanimalprotection.nl/ ‎ 10 feiten op een rij over | Klimaatverandering‎ ‎ Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. Dieren horen in het wild. We stoppen dierenleed. +50 jr actief voor dieren. Dieren beschermenActuele informatieDoe meeDoneer nu Advertentie· www.klimaatplein.com/ ‎ Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ ‎ 073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. CO2 neutraal ondernemen. Inzicht in besparing. Besparing energieverbruik. Verduurzamen bedrijf. Services: SDE+ EIA MIA VAMIL. Energie Besparen Op ICTSubsidiewijzerDuurzaam BouwenEnergiebesparing Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering als journalistieke uitdaging: een … - ‎Wurff - Geciteerd door 3 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering Afbeeldingsresultaat voor Oorzaken klimaatverandering Afbeeldingsresultaat voor Oorzaken klimaatverandering Alles bekijken Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delftwww.ce.nl › publicaties › downloadPDF Feedback Over samenvattingen Webresultaten Klimaatverandering en gevolgen - Rijksoverheidwww.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WURwww.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. Klimaatverandering: oorzaken en effecten | Compendium voor www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie Oorzaken - Klimaat.bewww.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Causes of climate change | Klimaat - European Commissionec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van waarom weten we zeker dat de mens klimaatverandering www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › wa Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Wat is klimaatverandering? — Milieudefensiemilieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Wat zijn de oorzaken en gevolgen van klimaatverandering www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Klimaatverandering: oorzaken en gevolgen | HIERwww.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1017 GN Amsterdam - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zwarte piet of roetveegpiet? Ongeveer 61.300 resultaten (0 41 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedianl.wikipedia.org › wiki › Roetpiet Feedback Over samenvattingen Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - Adwww.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-rug 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrantwww.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terrein- 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en-d 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Weinig draagvlak voor roetveegpieten bij landelijke intocht eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch Rechter wijst bezwaar tegen roetveegpieten bij landelijke nos.nl › 7 nov. 2019 - De rechtbank in Arnhem heeft de eis dat er ook zwarte pieten bij moeten zijn afgewezen de gemeente hoeft de vergunning voor de intocht niet Gemeenten kiezen vaker voor roetveegpiet maar merendeel www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpiet 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Zwarte pieten willen niet meer - NRCwww.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Kijk Nou: Pro-Piet demonstreert onbedoeld als roetveegpiet joop.bnnvara.nl › kijk-nou › pro-piet-demonstreert-onbedoeld-als-roe 14 nov. 2019 - Tijdens een demonstratie in Den Bosch voor het behoud van de racistische kenmerken van Zwarte Piet heeft een demonstrant per ongeluk Roetveegpiet wint het op scholen in grote steden zwarte piet www.omroepbrabant.nl › nieuws › Roetveegpiet-wint-het-op-scholen- 26 nov. 2019 - Uit een inventarisatie van Omroep Brabant blijkt dat in de grote steden roetveegpiet het wint van Zwarte Piet. Scholen gaan daar mee met het Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie zwarte piet geschiedenis roetveegpiet schminken kick out zwarte piet roetveegpiet tekening roetveegpieten 2019 zwarte piet 2019 regenboog piet Paginanavigatie 1 2 3 4 5 6 7 8 9 Volgende Links in voettekst Nederland1017 GN Amsterdam - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevaren vaccinaties Ongeveer 41.500 resultaten (0 34 seconden) Advertenties Advertentie· www.npofocus.nl/ ‎ Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ ‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. NPO Focus. Weet meer. Verdieping. Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nlrijksvaccinatieprogramma.nl › vaccinaties › twijfels 6 feb. 2020 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn De verborgen gevaren van vaccinaties - WantToKnowwww.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren-v PDF 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrijstichtingvaccinvrij.nl Wij vaccineren niet! Trailer Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de Heeft het niet vaccineren van kinderen nadelige gevolgen?www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer!www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? Vaccineren: levensgevaarlijk of levensreddend? - Scientiaswww.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Vaccineren: jezelf en anderen beschermen - UMC Utrechtwww.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-bescher 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Vaccineren van je kind is niet - Nieuwetijds kindercoachwww.nieuwetijds-kindercoach.nl › Advies Wie met z'n kind bij het consultatiebureau komt merkt al snel dat men ervan uitgaat dat je je kind zonder twijfel laat vaccineren. Er wordt niet gevraagd of en VACCINATIES PER LAND I GGDREISVACCINATIESwww.ggdreisvaccinaties.nl › heb-ik-een-vaccinatie-nodig Voor welk land heeft u vaccinaties nodig? Dat verschilt per land. In de landenzoeker kunt u vinden of u vaccinaties of inentingen nodig heeft voor uw reis. Mazelen | RIVMwww.rivm.nl › mazelen Een patiënt met mazelen is besmettelijk zodra de eerste symptomen beginnen. Mazelen kan voorkómen worden door vaccinatie. In Nederland wordt sinds 1976 Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie niet vaccineren bijwerkingen vaccinaties vaccineren autisme niet vaccineren forum spijt van niet vaccineren wetenschappelijk onderzoek vaccinaties stichting vaccinvrij Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1017 GN Amsterdam - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 129.000 resultaten (0 42 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedianl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen ‎Oorzaken · ‎Neoklassieke model · ‎Structurele vraag in · ‎Oorlog en asiel Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nlwww.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-terug Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Illegaliteit/vreemdelingen | politie.nlwww.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Nederland moet diep nadenken over de vergaande gevolgen www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenken- 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Niemand weet hoeveel illegale migranten er in Europa zijn decorrespondent.nl › niemand-weet-hoeveel-illegale-migranten-er-in- 8 aug. 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in Migratie - Europa decentraaleuropadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Ongedocumenteerden (illegalen) en uitgeprocedeerdenwww.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-en- Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Europese maatregelen in verband met migratie - Europa Nuwww.europa-nu.nl › europese_maatregelen_in_verband_met Migratieroutes naar Europa Opvang en verdelen vluchtelingen Asielprocedures voor de terugkeer van illegaal verblijvende derdelanders (herschikking). Bedreigt illegale migratie het voorbestaan van de EU? | Jaltajalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-van- 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de 52002DC0703 - NL - EUR-Lexeur-lex.europa.eu › legal-content › TXT › HTML Gevolgen van internationale migratie voor ontwikkelingslanden Raad van Sevilla van juni 2002 is bijzondere aandacht besteed aan illegale immigratie. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegaal persoon in huis illegaal in nederland en ziek anoniem melden ind illegaal verblijf niet strafbaar gevolgen migratie illegaal in nederland en trouwen aangifte illegaal persoon illegale vluchteling in huis nemen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland1017 GN Amsterdam - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Abortus tot hoeveel weken? Ongeveer 192.000 resultaten (0 46 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord › a Feedback Over samenvattingen Webresultaten Abortus 13 tot 17 weken - Uitleg over de behandelingwww.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhovewww.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisartswww.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouwwww.trouw.nl › nieuws › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. Dankzij vooruitgang in de neonatologie is die grens verlaagd tot 24 weken. Sommige Tot wanneer en hoe kun je een abortus plegen? - Dossier www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer een abortus mogelijk is verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Er is voor deze grens gekozen De abortusbehandeling | Fiomfiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken-no 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ingreep 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen nog maar vijf weken zwanger en kon deze zwangerschap dus 'makkelijk' Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later vaginaal Abortusmethoden - Schreeuw om Levenwww.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus tot hoeveel weken duitsland abortus kosten abortus 22 weken abortus 24 weken procedure abortus 24 weken hoe gaat dat abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandIJmuiden - Gebaseerd op je Locatiegeschiedenis - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Oorzaken klimaatverandering Ongeveer 186.000 resultaten (0 40 seconden) Advertenties Advertentie· www.klimaatplein.com/klimaat/verandering ‎ Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ ‎ 073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. Besparing energieverbruik. Verduurzamen bedrijf. CO2 neutraal ondernemen. Inzicht in besparing. Services: SDE+ EIA MIA VAMIL. Zelf Energie OpwekkenKlimaatveranderingContact KlimaatpleinDuurzaam Bouwen Advertentie· www.worldanimalprotection.nl/ ‎ 10 feiten over klimaatverandering | World Animal Protection‎ ‎ World Animal Protection redt dieren in nood. Help ook mee en doneer! Dieren horen in het wild. We stoppen dierenleed. +50 jr actief voor dieren. Wat doen we?Olifanten - geen vermaakHoe kun je helpenDieren in de veehouderij Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering als journalistieke uitdaging: een … - ‎Wurff - Geciteerd door 3 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering Afbeeldingsresultaat voor Oorzaken klimaatverandering Afbeeldingsresultaat voor Oorzaken klimaatverandering Alles bekijken Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delftwww.ce.nl › publicaties › downloadPDF Feedback Over samenvattingen Webresultaten Klimaatverandering en gevolgen - Rijksoverheidwww.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WURwww.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. Klimaatverandering: oorzaken en effecten | Compendium voor www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie Causes of climate change | Klimaat - European Commissionec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Oorzaken - Klimaat.bewww.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig waarom weten we zeker dat de mens klimaatverandering www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › wa Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Wat is klimaatverandering? — Milieudefensiemilieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Wat zijn de oorzaken en gevolgen van klimaatverandering www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Klimaatverandering: oorzaken en gevolgen | HIERwww.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandIJmuiden - Gebaseerd op je Locatiegeschiedenis - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zwarte piet of roetveegpiet? Ongeveer 49.600 resultaten (0 44 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedianl.wikipedia.org › wiki › Roetpiet Feedback Over samenvattingen Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - Adwww.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-rug 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo www.ad.nl › rotterdam › regio-ziet-niets-in-roetveegpiet-bij-ons-blijft 8 nov. 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van De roetveegpiet wint terrein al nemen veel - Volkskrantwww.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terrein- 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en-d 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Gemeenten kiezen vaker voor roetveegpiet maar merendeel www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpiet 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Zwarte pieten willen niet meer - NRCwww.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Weinig draagvlak voor roetveegpieten bij landelijke intocht eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch 5 meningen over Zwarte Piet: van 'niet aanpassen' tot eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Wat moet er gebeuren met het uiterlijk van Zwarte Piet? En hoe wordt er 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Rechter wijst bezwaar tegen roetveegpieten bij landelijke nos.nl › 7 nov. 2019 - De rechtbank in Arnhem heeft de eis dat er ook zwarte pieten bij moeten zijn afgewezen de gemeente hoeft de vergunning voor de intocht niet Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie roetveegpiet schminken kick out zwarte piet zwarte piet geschiedenis roetveegpiet tekening zwarte piet rotterdam regenboog piet roetveegpieten 2019 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandIJmuiden - Gebaseerd op je Locatiegeschiedenis - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevaren vaccinaties Ongeveer 31.400 resultaten (0 47 seconden) Advertenties Advertentie· www.npofocus.nl/Vaccineren ‎ Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ ‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. Weet meer. Verdieping. NPO Focus. Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nlrijksvaccinatieprogramma.nl › vaccinaties › twijfels 6 feb. 2020 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Stichting Vaccinvrijstichtingvaccinvrij.nl Wij vaccineren niet! Trailer Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de De verborgen gevaren van vaccinaties - WantToKnowwww.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren-v PDF 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Heeft het niet vaccineren van kinderen nadelige gevolgen?www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer!www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? Vaccineren: levensgevaarlijk of levensreddend? - Scientiaswww.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Vaccineren: jezelf en anderen beschermen - UMC Utrechtwww.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-bescher 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Vaccineren van je kind is niet - Nieuwetijds kindercoachwww.nieuwetijds-kindercoach.nl › Advies Wie met z'n kind bij het consultatiebureau komt merkt al snel dat men ervan uitgaat dat je je kind zonder twijfel laat vaccineren. Er wordt niet gevraagd of en Artikel - Veelgestelde vragen over vaccinerendekennisvannu.nl › site › artikel › Veelgestelde-vragen-over-vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. VACCINATIES PER LAND I GGDREISVACCINATIESwww.ggdreisvaccinaties.nl › heb-ik-een-vaccinatie-nodig Voor welk land heeft u vaccinaties nodig? Dat verschilt per land. In de landenzoeker kunt u vinden of u vaccinaties of inentingen nodig heeft voor uw reis. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie niet vaccineren bijwerkingen vaccinaties vaccineren autisme niet vaccineren forum spijt van niet vaccineren wetenschappelijk onderzoek vaccinaties stichting vaccinvrij Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandIJmuiden - Gebaseerd op je Locatiegeschiedenis - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 158.000 resultaten (0 42 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedianl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen ‎Oorzaken · ‎Neoklassieke model · ‎Structurele vraag in · ‎Oorlog en asiel Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nlwww.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-terug Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Illegaliteit/vreemdelingen | politie.nlwww.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Nederland moet diep nadenken over de vergaande gevolgen www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenken- 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Niemand weet hoeveel illegale migranten er in Europa zijn decorrespondent.nl › niemand-weet-hoeveel-illegale-migranten-er-in- 8 aug. 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in Ongedocumenteerden (illegalen) en uitgeprocedeerdenwww.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-en- Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Migratie - Europa decentraaleuropadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Europese Commissie: migratiebeleid EU gaat totaal op de www.elsevierweekblad.nl › nederland › achtergrond › 2020/01 › mig 30 jan. 2020 - Vooral landen aan de zuidgrens van Europa zoals Italië zijn ontevreden over die verordening omdat de gevolgen van (illegale) immigratie Bedreigt illegale migratie het voorbestaan van de EU? | Jaltajalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-van- 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de 52002DC0703 - NL - EUR-Lexeur-lex.europa.eu › legal-content › TXT › HTML Gevolgen van internationale migratie voor ontwikkelingslanden Raad van Sevilla van juni 2002 is bijzondere aandacht besteed aan illegale immigratie. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegaal persoon in huis illegaal in nederland en ziek anoniem melden ind illegaal verblijf niet strafbaar gevolgen migratie illegaal in nederland en trouwen aangifte illegaal persoon illegale vluchteling in huis nemen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandIJmuiden - Gebaseerd op je Locatiegeschiedenis - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Abortus tot hoeveel weken? Ongeveer 192.000 resultaten (0 43 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord › a Feedback Over samenvattingen Webresultaten Abortus 13 tot 17 weken - Uitleg over de behandelingwww.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhovewww.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisartswww.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouwwww.trouw.nl › nieuws › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. Dankzij vooruitgang in de neonatologie is die grens verlaagd tot 24 weken. Sommige Tot wanneer en hoe kun je een abortus plegen? - Dossier www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer een abortus mogelijk is verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Er is voor deze grens gekozen De abortusbehandeling | Fiomfiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken-no 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap 'De abortuspil? Echt een heel heftige ingreep!' | Vrouw www.telegraaf.nl › vrouw › de-abortuspil-echt-een-heel-heftige-ingreep 8 sep. 2016 - De abortuspil ligt wederom onder vuur: als het aan een groep artsen nog maar vijf weken zwanger en kon deze zwangerschap dus 'makkelijk' Vervolgens zou ik vier pillen mee krijgen die thuis 24 tot 48 uur later vaginaal Abortusmethoden - Schreeuw om Levenwww.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus tot hoeveel weken duitsland abortus kosten abortus 22 weken abortus 24 weken procedure abortus 24 weken hoe gaat dat abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandVelsen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Oorzaken klimaatverandering Ongeveer 186.000 resultaten (0 36 seconden) Advertenties Advertentie· www.worldanimalprotection.nl/ ‎ 10 feiten over klimaatverandering | World Animal Protection‎ ‎ World Animal Protection redt dieren in nood. Help ook mee en doneer! Dieren horen in het wild. We stoppen dierenleed. +50 jr actief voor dieren. Hoe kun je helpenDieren in de veehouderijDieren in rampsituatiesWat doen we? Advertentie· www.klimaatplein.com/klimaat/verandering ‎ Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ ‎ 073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. CO2 neutraal ondernemen. Verduurzamen bedrijf. Inzicht in besparing. Besparing energieverbruik. Services: SDE+ EIA MIA VAMIL. Duurzame EnergieWat is klimaatveranderingContact KlimaatpleinSubsidiewijzer Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering als journalistieke uitdaging: een … - ‎Wurff - Geciteerd door 3 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Klimaatverandering en klimaatbeleid - ‎Bollen - Geciteerd door 12 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering Afbeeldingsresultaat voor Oorzaken klimaatverandering Afbeeldingsresultaat voor Oorzaken klimaatverandering Alles bekijken Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delftwww.ce.nl › publicaties › downloadPDF Feedback Over samenvattingen Webresultaten Klimaatverandering en gevolgen - Rijksoverheidwww.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WURwww.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. Klimaatverandering: oorzaken en effecten | Compendium voor www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie Causes of climate change | Klimaat - European Commissionec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Oorzaken - Klimaat.bewww.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig waarom weten we zeker dat de mens klimaatverandering www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › wa Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Wat is klimaatverandering? — Milieudefensiemilieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Wat zijn de oorzaken en gevolgen van klimaatverandering www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Klimaatverandering: oorzaken en gevolgen | HIERwww.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandVelsen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zwarte piet of roetveegpiet? Ongeveer 48.600 resultaten (0 44 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedianl.wikipedia.org › wiki › Roetpiet Feedback Over samenvattingen Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - Adwww.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-rug 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrantwww.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terrein- 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en-d 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Gemeenten kiezen vaker voor roetveegpiet maar merendeel www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpiet 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Weinig draagvlak voor roetveegpieten bij landelijke intocht eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch 5 meningen over Zwarte Piet: van 'niet aanpassen' tot eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Wat moet er gebeuren met het uiterlijk van Zwarte Piet? En hoe wordt er 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Rechter wijst bezwaar tegen roetveegpieten bij landelijke nos.nl › 7 nov. 2019 - De rechtbank in Arnhem heeft de eis dat er ook zwarte pieten bij moeten zijn afgewezen de gemeente hoeft de vergunning voor de intocht niet Afbeeldingen van Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Alles bekijken Meer afbeeldingen voor Zwarte piet of roetveegpiet? Afbeeldingen melden Webresultaten Zwarte pieten willen niet meer - NRCwww.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? roetveegpiet sinterklaasjournaal roetveegpiet schminken zwarte piet discussie zwarte piet geschiedenis kick out zwarte piet roetveegpiet tekening roetveegpiet cartoon roetveegpieten 2019 Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandVelsen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevaren vaccinaties Ongeveer 31.400 resultaten (0 54 seconden) Advertenties Advertentie· www.npofocus.nl/Vaccineren ‎ Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ ‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. Weet meer. NPO Focus. Verdieping. Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nlrijksvaccinatieprogramma.nl › vaccinaties › twijfels 6 feb. 2020 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Stichting Vaccinvrijstichtingvaccinvrij.nl Wij vaccineren niet! Trailer Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de De verborgen gevaren van vaccinaties - WantToKnowwww.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren-v PDF 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Heeft het niet vaccineren van kinderen nadelige gevolgen?www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer!www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? Vaccineren: levensgevaarlijk of levensreddend? - Scientiaswww.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Vaccineren: jezelf en anderen beschermen - UMC Utrechtwww.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-bescher 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Vaccineren van je kind is niet - Nieuwetijds kindercoachwww.nieuwetijds-kindercoach.nl › Advies Wie met z'n kind bij het consultatiebureau komt merkt al snel dat men ervan uitgaat dat je je kind zonder twijfel laat vaccineren. Er wordt niet gevraagd of en Artikel - Veelgestelde vragen over vaccinerendekennisvannu.nl › site › artikel › Veelgestelde-vragen-over-vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. VACCINATIES PER LAND I GGDREISVACCINATIESwww.ggdreisvaccinaties.nl › heb-ik-een-vaccinatie-nodig Voor welk land heeft u vaccinaties nodig? Dat verschilt per land. In de landenzoeker kunt u vinden of u vaccinaties of inentingen nodig heeft voor uw reis. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie niet vaccineren bijwerkingen vaccinaties vaccineren autisme niet vaccineren forum spijt van niet vaccineren wetenschappelijk onderzoek vaccinaties stichting vaccinvrij Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandVelsen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 162.000 resultaten (0 42 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedianl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen ‎Oorzaken · ‎Neoklassieke model · ‎Structurele vraag in · ‎Oorlog en asiel Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nlwww.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-terug Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Illegaliteit/vreemdelingen | politie.nlwww.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Nederland moet diep nadenken over de vergaande gevolgen www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenken- 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Niemand weet hoeveel illegale migranten er in Europa zijn decorrespondent.nl › niemand-weet-hoeveel-illegale-migranten-er-in- 8 aug. 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in Ongedocumenteerden (illegalen) en uitgeprocedeerdenwww.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-en- Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Migratie - Europa decentraaleuropadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Europese Commissie: migratiebeleid EU gaat totaal op de www.elsevierweekblad.nl › nederland › achtergrond › 2020/01 › mig 30 jan. 2020 - Vooral landen aan de zuidgrens van Europa zoals Italië zijn ontevreden over die verordening omdat de gevolgen van (illegale) immigratie Bedreigt illegale migratie het voorbestaan van de EU? | Jaltajalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-van- 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de 52002DC0703 - NL - EUR-Lexeur-lex.europa.eu › legal-content › TXT › HTML Gevolgen van internationale migratie voor ontwikkelingslanden Raad van Sevilla van juni 2002 is bijzondere aandacht besteed aan illegale immigratie. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegaal persoon in huis illegaal in nederland en ziek anoniem melden ind illegaal verblijf niet strafbaar gevolgen migratie illegaal in nederland en trouwen aangifte illegaal persoon illegale vluchteling in huis nemen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst NederlandVelsen - Gebaseerd op je eerdere activiteit - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Zoekmodi AlleAfbeeldingenNieuwsVideo'sMapsMeer InstellingenTools Ongeveer 180.000 resultaten (0 55 seconden) Advertenties Advertentie· www.fiom.nl/ ‎ Zwanger &amp; Abortus | Twijfel je over een Abortus? | fiom.nl‎ ‎ 088 126 4900 Ongepland Zwanger en Twijfel je over je Beslissing? Fiom Helpt bij jouw Keuze. Online hulp of een persoonlijk face-to-face gesprek. Anoniem is mogelijk. €0 - Zwangerschapsduur &amp; Optie. Fiom helpt je. Opties bij Zwangerschap. Anoniem. Ongewenste Zwangerschap. Online HulpZwanger wat nu?Over FiomOnline Hulp &amp; BegeleidingContact Advertentie· www.siriz.nl/Abortus/Hoeveel-Weken ‎ Tot Hoeveel Weken Abortus? | Twijfel je over Abortus? | siriz.nl‎ ‎ Bespreek de mogelijkheden &amp; zet alles op een rij. Bel e-mail of chat met Siriz. Specialist bij onbedoelde zwangerschap. Wij bieden preventie ondersteuning en zorg. Keuzegesprekken. Gratis hulp. Persoonlijke begeleiding. Services: Zwanger en je keuze Abortus en je keuze. Chat voor hulpBen ik zwanger?Contact Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord › a Feedback Over samenvattingen Webresultaten Abortus 13 tot 17 weken - Uitleg over de behandelingwww.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhovewww.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisartswww.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouwwww.trouw.nl › nieuws › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. Dankzij vooruitgang in de neonatologie is die grens verlaagd tot 24 weken. Sommige Tot wanneer en hoe kun je een abortus plegen? - Dossier www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer een abortus mogelijk is verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Er is voor deze grens gekozen De abortusbehandeling | Fiomfiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken-no 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap Abortusmethoden - Schreeuw om Levenwww.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Welke manier? | Sense.infosense.info › zwanger › zwanger-en-dan › zwangerschap-afbreken › w De abortuspil kun je tot 9 weken na het begin van je laatste menstruatie gebruiken. Er zijn 2 verschillende medicijnen. Op de 1ste dag van de behandeling krijg Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? abortus tot hoeveel weken belgie tot hoeveel weken abortuspil abortus tot hoeveel weken duitsland abortus kosten abortus 22 weken abortus 24 weken procedure abortus 24 weken hoe gaat dat abortus kliniek Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ongeveer 153.000 resultaten (0 45 seconden) Advertenties Advertentie· www.greenpeace.org/ ‎ De gevolgen van klimaatverandering - Greenpeace Nederland‎ ‎ 0800 4223344 Het milieu en de natuur worden ernstig bedreigd door overheden en bedrijven. Toekijken kan niet langer steun onze acties door onze petities te tekenen of te doneren! Milieuorganisatie. Onafhankelijk. CBF Keurmerk. Teken Onze Petities. Steun Ons Met Een Donatie. Petitie SchipholDonerenOnze ActiesPetitie KlimaatcrisisGroene Stroom Ranglijst Advertentie· www.wwf.nl/Opwarming-Aarde/Oorzaken ‎ Oorzaken Opwarming Aarde | Lees Meer En Kom In Actie‎ ‎ WNF zet zich wereldwijd in voor een beter klimaat. Lees meer en kom in actie! Interessen: Activiteiten Nieuwsbrief Donaties. Een Gift aan de NatuurWord VrijwilligerWord donateur Advertentie· www.groene.nl/ ‎ Klimaatverandering - Dossier | De Groene Amsterdammer‎ ‎ Lees hier het dossier van De Groene Amsterdammer over klimaatverandering. Advertentie· www.nemosciencemuseum.nl/WarmereAarde ‎ Waarom wordt de aarde warmer? | Info over Klimaatverandering‎ ‎ Ontdek waarom het steeds warmer wordt op aarde. Lees nu het verhaal online. Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering als journalistieke uitdaging: een … - ‎Wurff - Geciteerd door 3 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering Afbeeldingsresultaat voor Oorzaken klimaatverandering Afbeeldingsresultaat voor Oorzaken klimaatverandering Alles bekijken Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delftwww.ce.nl › publicaties › downloadPDF Feedback Over samenvattingen Webresultaten Klimaatverandering en gevolgen - Rijksoverheidwww.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WURwww.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. Klimaatverandering: oorzaken en effecten | Compendium voor www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie Causes of climate change | Klimaat - European Commissionec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Oorzaken - Klimaat.bewww.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig waarom weten we zeker dat de mens klimaatverandering www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › wa Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Wat is klimaatverandering? — Milieudefensiemilieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Wat zijn de oorzaken en gevolgen van klimaatverandering www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Klimaatverandering: oorzaken en gevolgen | HIERwww.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Advertenties Advertentie· www.klimaatplein.com/klimaat/verandering ‎ Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ ‎ 073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. Besparing energieverbruik. Verduurzamen bedrijf. Inzicht in besparing. CO2 neutraal ondernemen. Services: SDE+ EIA MIA VAMIL. Zelf Energie OpwekkenWat is klimaatveranderingDuurzame EnergieEnergiebesparing Advertentie· www.oxfamnovib.nl/Klimaat/Verandering ‎ Het klimaat verandert | Ontdek wat jij kunt doen‎ ‎ Beoordeling voor oxfamnovib.nl: 4 6 - 723 reviews Met jouw hulp kunnen wij vechten tegen klimaatverandering. Help je mee? Wat zijn de maatregelen om klimaatverandering tegen te gaan? Ontdek wat jij kunt doen. Maak het verschil. Steun Oxfam Novib. Ook jij kunt helpen. Lees wat jij kunt doen. Wereldwijde steun. Onze projectenHelp boeren in CambodjaGrote bedrijvenNoodhulpVersla armoede Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Ongeveer 48.700 resultaten (0 45 seconden) Advertenties Advertentie· www.npofocus.nl/Zwarte_Piet ‎ Waar komt Zwarte Piet vandaan? | NPO Focus geeft uitleg‎ ‎ De Sint en zijn knecht hoe onstonde de traditie? Is er een link met slavernij? Verdieping. Weet meer. NPO Focus. Categorie cultuurCategorie geschiedenisCategorie politiekCategorie economie Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedianl.wikipedia.org › wiki › Roetpiet Feedback Over samenvattingen Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - Adwww.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-rug 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrantwww.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terrein- 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en-d 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Gemeenten kiezen vaker voor roetveegpiet maar merendeel www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpiet 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Weinig draagvlak voor roetveegpieten bij landelijke intocht eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch 5 meningen over Zwarte Piet: van 'niet aanpassen' tot eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Wat moet er gebeuren met het uiterlijk van Zwarte Piet? En hoe wordt er 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Rechter wijst bezwaar tegen roetveegpieten bij landelijke nos.nl › 7 nov. 2019 - De rechtbank in Arnhem heeft de eis dat er ook zwarte pieten bij moeten zijn afgewezen de gemeente hoeft de vergunning voor de intocht niet Afbeeldingen van Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Alles bekijken Meer afbeeldingen voor Zwarte piet of roetveegpiet? Afbeeldingen melden Webresultaten Zwarte pieten willen niet meer - NRCwww.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? roetveegpiet sinterklaasjournaal roetveegpiet schminken zwarte piet discussie kick out zwarte piet zwarte piet geschiedenis roetveegpiet tekening roetveegpieten 2019 roetveegpiet cartoon Paginanavigatie 1 2 3 4 5 6 7 8 9 Volgende Links in voettekst Nederland7553 EL Hengelo - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ongeveer 31.500 resultaten (0 47 seconden) Advertenties Advertentie· www.npofocus.nl/Vaccineren ‎ Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ ‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. Verdieping. NPO Focus. Weet meer. Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nlrijksvaccinatieprogramma.nl › vaccinaties › twijfels 6 feb. 2020 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Stichting Vaccinvrijstichtingvaccinvrij.nl Wij vaccineren niet! Trailer Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de De verborgen gevaren van vaccinaties - WantToKnowwww.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren-v PDF 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Heeft het niet vaccineren van kinderen nadelige gevolgen?www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer!www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? Vaccineren: levensgevaarlijk of levensreddend? - Scientiaswww.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Vaccineren: jezelf en anderen beschermen - UMC Utrechtwww.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-bescher 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Vaccineren van je kind is niet - Nieuwetijds kindercoachwww.nieuwetijds-kindercoach.nl › Advies Wie met z'n kind bij het consultatiebureau komt merkt al snel dat men ervan uitgaat dat je je kind zonder twijfel laat vaccineren. Er wordt niet gevraagd of en VACCINATIES PER LAND I GGDREISVACCINATIESwww.ggdreisvaccinaties.nl › heb-ik-een-vaccinatie-nodig Voor welk land heeft u vaccinaties nodig? Dat verschilt per land. In de landenzoeker kunt u vinden of u vaccinaties of inentingen nodig heeft voor uw reis. Artikel - Veelgestelde vragen over vaccinerendekennisvannu.nl › site › artikel › Veelgestelde-vragen-over-vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie niet vaccineren bijwerkingen vaccinaties vaccineren autisme niet vaccineren forum spijt van niet vaccineren wetenschappelijk onderzoek vaccinaties stichting vaccinvrij Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende </t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Zoekmodi AlleNieuwsAfbeeldingenVideo'sMapsMeer InstellingenTools Ongeveer 145.000 resultaten (0 42 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedianl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen ‎Oorzaken · ‎Neoklassieke model · ‎Structurele vraag in · ‎Oorlog en asiel Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nlwww.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-terug Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Illegaliteit/vreemdelingen | politie.nlwww.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Nederland moet diep nadenken over de vergaande gevolgen www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenken- 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Niemand weet hoeveel illegale migranten er in Europa zijn decorrespondent.nl › niemand-weet-hoeveel-illegale-migranten-er-in- 8 aug. 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in Ongedocumenteerden (illegalen) en uitgeprocedeerdenwww.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-en- Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Migratie - Europa decentraaleuropadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Bedreigt illegale migratie het voorbestaan van de EU? | Jaltajalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-van- 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Europese Commissie: migratiebeleid EU gaat totaal op de www.elsevierweekblad.nl › nederland › achtergrond › 2020/01 › mig 30 jan. 2020 - Vooral landen aan de zuidgrens van Europa zoals Italië zijn ontevreden over die verordening omdat de gevolgen van (illegale) immigratie 52002DC0703 - NL - EUR-Lexeur-lex.europa.eu › legal-content › TXT › HTML Gevolgen van internationale migratie voor ontwikkelingslanden Raad van Sevilla van juni 2002 is bijzondere aandacht besteed aan illegale immigratie. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegaal persoon in huis illegaal in nederland en ziek anoniem melden ind illegaal verblijf niet strafbaar illegaal in nederland en trouwen gevolgen migratie aangifte illegaal persoon illegale vluchteling in huis nemen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Abortus tot hoeveel weken? About 108.000 results (0 30 seconds) Ads Ad· www.siriz.nl/Abortus/Hoeveel-Weken ‎ Tot Hoeveel Weken Abortus? | Twijfel je over Abortus? | siriz.nl‎ ‎ 0800 4400003 Bespreek de mogelijkheden &amp; zet alles op een rij. App of Chat met Siriz. Specialist bij onbedoelde zwangerschap. Wij bieden preventie ondersteuning en zorg. Gratis hulp. Keuzegesprekken. Persoonlijke begeleiding. Chat voor hulp De chat van Siriz is voor iedereen die met onbedoeld zwangerschap zit. Ben ik zwanger? Zwanger en geschrokken of hulp nodig? Bekijk de website. Search Results Featured snippet from the web Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord › a Feedback About Featured Snippets Web results Abortus 13 tot 17 weken - Uitleg over de behandelingwww.bloemenhove.nl › abortus_hulpverlening › a Translate this page Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhovewww.bloemenhove.nl › abortus_hulpverlening › a Translate this page Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Tot wanneer en hoe kun je een abortus plegen? - Dossier www.gezondheidsplein.nl › dossiers › item42703 Translate this page Tot wanneer een abortus mogelijk is verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Er is voor deze grens gekozen Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisartswww.thuisarts.nl › abortus › ik-ben-ongewenst-zwa Translate this page Mar 17 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouwwww.trouw.nl › nieuws › bij-abortus-telt-alleen-de- Translate this page Nov 30 2014 - De grens tot wanneer abortus mag staat ter discussie. rechtvaardigt dat een vrouw die 24 weken en 2 dagen zwanger is géén abortus mag De abortusbehandeling | Fiomfiom.nl › ongewenst-zwanger › abortus › abortusbe Translate this page Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is www.telegraaf.nl › vrouw › ridicuul-dat-een-abortu Translate this page Jan 23 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap 'Laat 24-wekengrens bij abortus los' | Wonen | AD.nlwww.ad.nl › home › laat-24-wekengrens-bij-abortu Translate this page Sep 30 2013 - Laat de grens van 24 weken bij abortus los. Daarvoor pleiten onderzoekers van het Erasmus MC en het AMC bij minister Edith Schippers van Abortusmethoden - Schreeuw om Levenwww.schreeuwomleven.nl › abortusmethoden Translate this page Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Searches related to Abortus tot hoeveel weken? tot hoeveel weken abortuspil abortus kosten abortus nederland wat is abortus instrumentele abortus baby 24 weken abortuspil kopen hoeveel kost abortus Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsDelfshaven Rotterdam - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Oorzaken klimaatverandering About 154.000 results (0 41 seconds) Ads Ad· www.mijnstadklimaatbestendig.nl/ ‎ Klimaatstress | Klimaatadaptatie | mijnstadklimaatbestendig.nl‎ ‎ Heeft u al inzicht in de gevolgen van klimaatverandering in uw stad? We helpen u graag om daar wat aan te doen. Advies. Onderzoek. Uitvoering. Engineering. Interessen: Projecten Doelgroep Aanpak Advies Uitdagingen. Neem contact opVoor wie is hetLaat u volledig ontzorgenVoorbeeld projecten Ad· www.wwf.nl/ ‎ Oorzaken Opwarming Aarde | Kom Samen Met WNF In Actie‎ ‎ Lees hier wat WNF doet om de opwarming van de aarde tegen te gaan en help mee! Interessen: Activiteiten Nieuwsbrief Donaties. Een Gift aan de NatuurWord donateurWord Vrijwilliger Ad· www.heifer.nl/projecten ‎ Oorzaken Klimaatverandering | Heifer Nederland | heifer.nl‎ ‎ Help de Afrikaanse boeren zodat ze armoede kunnen overwinnen. Doneer! Kom in Actie. Ad· www.nemosciencemuseum.nl/WarmereAarde ‎ Waarom wordt de aarde warmer? | Info over Klimaatverandering‎ ‎ Ontdek waarom het steeds warmer wordt op aarde. Lees nu het verhaal online. Search Results Scholarly articles for Oorzaken klimaatverandering Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Cited by 5 Klimaatverandering als journalistieke uitdaging: een … - ‎Wurff - Cited by 3 Featured snippet from the web Image result for Oorzaken klimaatverandering Image result for Oorzaken klimaatverandering Image result for Oorzaken klimaatverandering View all De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van fossiele brandstoffen grootschalige houtkap en veeteelt. Hierdoor komen onnatuurlijk grote hoeveelheden broeikasgassen in de atmosfeer wat het broeikaseffect versterkt en de opwarming van de aarde versnelt. Causes of climate change | Klimaat - European Commissionec.europa.eu › clima › change › causes_nl Feedback About Featured Snippets Web results Oorzaken klimaatverandering - WURwww.wur.nl › artikel › Oorzaken-klimaatveranderi Translate this page Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. Klimaatverandering en gevolgen - Rijksoverheidwww.rijksoverheid.nl › onderwerpen › gevolgen-kl Translate this page Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Klimaatverandering: oorzaken en gevolgen | HIERwww.hier.nu › Thema's › Klimaatwoordenboek Translate this page May 15 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Klimaatverandering: oorzaken gevolgen en - CE Delftwww.ce.nl › publicaties › download PDFTranslate this page Klimaatverandering: oorzaken gevolgen en oplossingen. Wetenschappelijke achtergrond bij het on-line platform Climate Quest. Achtergrond document. Klimaatverandering : oorzaken - Climategatewww.climategate.nl › 2017/10 › klimaatveranderin Translate this page Oct 30 2017 - Klimaatverandering : oorzaken. Dick Thoenes. Enige hoogtepunten uit het boek “Climate change: The facts 2017” uitgegeven door het Institute Oorzaken - Klimaat.bewww.klimaat.be › klimaatverandering › het-klimaat Translate this page De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering (oorzaak &amp; gevolg) – Energievergelijkwww.energievergelijk.nl › Onderwerpen Translate this page Oct 2 2019 - Klimaatverandering kent veel verschillende oorzaken. In de intro hierboven zijn de natuurlijke oorzaken al even kort aan bod gekomen. Wat zijn de oorzaken en gevolgen van klimaatverandering www.knaw.nl › de-nederlandse-wetenschapsagenda Translate this page Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn waarom weten we zeker dat de mens klimaatverandering www.urgenda.nl › themas › klimaatvragen › waaro Translate this page Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Ads Ad· www.greenpeace.org/ ‎ De gevolgen van klimaatverandering - Greenpeace Nederland‎ ‎ 0800 4223344 Samen hebben we de kracht kennis en het lef om grote milieproblemen aan te pakken. Toekijken kan niet langer steun onze acties door onze petities te tekenen of te doneren! Internationaal Actief. Onafhankelijk. Milieuorganisatie. Voor Een Vreedzame Aarde. Petitie KlimaatcrisisPetitie SchipholDonerenOnze ActiesGroene Stroom Ranglijst Ad· www.groene.nl/ ‎ Klimaatverandering - Dossier | De Groene Amsterdammer‎ ‎ Lees hier het dossier van De Groene Amsterdammer over klimaatverandering. Bomen helpen elkaarTien jaar Al GoreDan maar naar de donderWetboek als breekijzer Ad· www.oxfamnovib.nl/klimaat/problemen ‎ Klimaat problemen | Klimaatverandering &amp; armoede‎ ‎ Rating for oxfamnovib.nl: 4 6 - 724 reviews Lees wat jij kan doen tegen klimaatverandering en help armoede te verslaan. Welke ContactAlle vacaturesOxfam Novib ShopNoodhulpWat jij kan doenDoe een gift Searches related to Oorzaken klimaatverandering broeikaseffect broeikasgassen Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsDelfshaven Rotterdam - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Zwarte piet of roetveegpiet? About 35.200 results (0 41 seconds) Search Results Featured snippet from the web Image result for Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedianl.wikipedia.org › wiki › Roetpiet Feedback About Featured Snippets Web results Rotterdam keert Zwarte Piet definitief de rug toe: 'De - Adwww.ad.nl › rotterdam › rotterdam-keert-zwarte-pi Translate this page Nov 17 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo www.ad.nl › rotterdam › regio-ziet-niets-in-roetvee Translate this page Nov 8 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van De roetveegpiet wint terrein al nemen veel - Volkskrantwww.volkskrant.nl › nieuws-achtergrond › de-roet - Translate this page Nov 15 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt www.trouw.nl › binnenland › waarom-roetveegpiet Translate this page Nov 16 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Gemeenten kiezen vaker voor roetveegpiet maar merendeel www.nu.nl › sinterklaas › gemeenten-kiezen-vaker- Translate this page Nov 15 2019 - In 2017 liep de roetveegpiet nog in zeventien gemeenten mee bleek uit Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet Weinig draagvlak voor roetveegpieten bij landelijke intocht eenvandaag.avrotros.nl › › Alle uitslagen Translate this page Nov 14 2019 - Dat blijkt uit het jaarlijkse Zwarte Piet-onderzoek van EenVandaag. 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. 5 meningen over Zwarte Piet: van 'niet aanpassen' tot eenvandaag.avrotros.nl › › Alle uitslagen Translate this page Nov 14 2019 - Wat moet er gebeuren met het uiterlijk van Zwarte Piet? En hoe wordt er 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Rechter wijst bezwaar tegen roetveegpieten bij landelijke nos.nl › Translate this page Nov 7 2019 - De rechtbank in Arnhem heeft de eis dat er ook zwarte pieten bij moeten Bekijk hieronder de verandering van Zwarte Piet naar roetveegpiet:. Zwarte pieten willen niet meer - NRCwww.nrc.nl › nieuws › 2019/11/07 › de-pieten-lop - Translate this page Nov 7 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Searches related to Zwarte piet of roetveegpiet? roetveegpiet english sinterklaasjournaal kick out zwarte piet zwarte piet geschiedenis zwarte piet song zwarte piet 2018 sinterklaas en zwarte piet Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsDelfshaven Rotterdam - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Gevaren vaccinaties About 81.600 results (0 44 seconds) Ads Ad· www.npofocus.nl/Vaccineren ‎ Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ ‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. Weet meer. Verdieping. NPO Focus. Search Results Web results Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nlrijksvaccinatieprogramma.nl › vaccinaties › twijfels Translate this page Feb 6 2020 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn De verborgen gevaren van vaccinaties - WantToKnowwww.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren-v PDF Jul 1 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Stichting Vaccinvrijstichtingvaccinvrij.nl Translate this page Wij vaccineren niet! Trailer Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de Heeft het niet vaccineren van kinderen nadelige gevolgen?www.nvkp.nl › over-het-rijksvaccinatieprogramma Translate this page Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer!www.thuisvaccinatie.nl › vaccinaties › bijwerkinge Translate this page Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? Vaccineren: levensgevaarlijk of levensreddend? - Scientiaswww.scientias.nl › vaccineren-levensgevaarlijk-leve Translate this page Jan 15 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. 5 misvattingen over vaccinatie - Laat je vaccinerenwww.laatjevaccineren.be › 5-misvattingen-over-vac Translate this page Er bestaan veel mythes en misvattingen over vaccinatie. De 5 meest Vaccinaties uitstellen kan je gezondheid onnodig in gevaar brengen. Het is beter om het Gevaren van vaccinaties | Mens en Gezondheid: Diversenmens-en-gezondheid.infonu.nl › diversen › 14224 Translate this page Oct 9 2014 - Maar een steeds groter deel van de vaccinatieweigeraars zijn zich bewust geworden van de gevaren van vaccinaties. Het eerste vaccin Janneke Bazelmans: 'Over nadelen vaccinatie wordt veelal www.volkskrant.nl › columns-opinie › janneke-baz - Translate this page Jul 22 2013 - In de discussie omtrent vaccinaties mist het standpunt van een hun eigen kinderen maar ook de kinderen van anderen in gevaar brengen. Vaccineren: jezelf en anderen beschermen - UMC Utrechtwww.umcutrecht.nl › Nieuws › Vaccineren-jezelf-e Translate this page May 3 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Searches related to Gevaren vaccinaties anti vaccinatie waarom vaccineren nadelen vaccinatie vaccinvrij bijwerkingen vaccinaties vaccineren betekenis stichting vaccinvrij wat is vaccinatie Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsDelfshaven Rotterdam - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Gevolgen illegale immigratie About 159.000 results (0 43 seconds) Search Results Web results Illegale immigratie - Wikipedianl.wikipedia.org › wiki › Illegale_immigratie Translate this page Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen ‎Oorzaken · ‎Neoklassieke model · ‎Structurele vraag in · ‎Oorlog en asiel Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nlwww.rijksoverheid.nl › onderwerpen › minder-ille Translate this page Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Illegaliteit/vreemdelingen | politie.nlwww.politie.nl › themas › illegaliteit-vreemdelingen Translate this page Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Ongedocumenteerden (illegalen) en uitgeprocedeerdenwww.amnesty.nl › encyclopedie › ongedocumentee Translate this page Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Migratie - Europa decentraaleuropadecentraal.nl › onderwerp › migratie Translate this page Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Niemand weet hoeveel illegale migranten er in Europa zijn decorrespondent.nl › niemand-weet-hoeveel-illegal Translate this page Aug 8 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in Nederland moet diep nadenken over de vergaande gevolgen www.volkskrant.nl › columns-opinie › nederland- - Translate this page Oct 23 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Overeenkomst tussen VS en Mexico over illegale migratie www.volkskrant.nl › nieuws-achtergrond › overeen - Translate this page Jun 8 2019 - Na drie dagen onderhandelen hebben de Verenigde Staten en Mexico een overeenkomst gesloten over de aanpak van illegale immigratie Inreisverbod terugkeerbesluit en ongewenstverklaring - INDind.nl › Paginas › Inreisverbod-terugkeerbesluit-en Translate this page Wat zijn de gevolgen van een inreisverbod? Hebt u een inreisverbod? Dan mag u Immigratie- en Naturalisatiedienst Titel en Identiteit Postbus 10 ​9560 AA 52004DC0412 - NL - EUR-Lexeur-lex.europa.eu › legal-content › TXT › HTML Translate this page DE REGIO'S - Studie naar de samenhang tussen legale en illegale migratie wijzigingen door te voeren om de gevolgen van de vergrijzing op te vangen. Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links NetherlandsDelfshaven Rotterdam - From your Internet address - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Accessibility links Skip to main contentAccessibility help Accessibility feedback Google Abortus tot hoeveel weken? About 99.000 results (0 46 seconds) Search Results Featured snippet from the web Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord › a Feedback About Featured Snippets Web results Abortus 13 tot 17 weken - Uitleg over de behandelingwww.bloemenhove.nl › abortus_hulpverlening › a Translate this page Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Abortuspil tot 8 weken zwangerschap bij kliniek Bloemenhovewww.bloemenhove.nl › abortus_hulpverlening › a Translate this page Ben je ongewenst zwanger? Een zwangerschap afbreken met de abortuspil is mogelijk tot en met 8 weken zwangerschap. Lees meer over dit medicijn Tot wanneer en hoe kun je een abortus plegen? - Dossier www.gezondheidsplein.nl › dossiers › item42703 Translate this page Tot wanneer een abortus mogelijk is verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Er is voor deze grens gekozen Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisartswww.thuisarts.nl › abortus › ik-ben-ongewenst-zwa Translate this page Mar 17 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouwwww.trouw.nl › nieuws › bij-abortus-telt-alleen-de- Translate this page Nov 30 2014 - De grens tot wanneer abortus mag staat ter discussie. rechtvaardigt dat een vrouw die 24 weken en 2 dagen zwanger is géén abortus mag De abortusbehandeling | Fiomfiom.nl › ongewenst-zwanger › abortus › abortusbe Translate this page Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is www.telegraaf.nl › vrouw › ridicuul-dat-een-abortu Translate this page Jan 23 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap 'Laat 24-wekengrens bij abortus los' | Wonen | AD.nlwww.ad.nl › home › laat-24-wekengrens-bij-abortu Translate this page Sep 30 2013 - Laat de grens van 24 weken bij abortus los. Daarvoor pleiten onderzoekers van het Erasmus MC en het AMC bij minister Edith Schippers van Abortusmethoden - Schreeuw om Levenwww.schreeuwomleven.nl › abortusmethoden Translate this page Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Searches related to Abortus tot hoeveel weken? tot hoeveel weken abortuspil abortus kosten abortus nederland wat is abortus instrumentele abortus baby 24 weken abortuspil kopen hoeveel kost abortus Page navigation 1 2 3 4 5 6 7 8 9 10 Next Footer links Netherlands2312 BG Leiden - From your places (Home) - Use precise location - Learn more HelpSend feedbackPrivacyTerms</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Oorzaken klimaatverandering Ongeveer 161.000 resultaten (0 52 seconden) Advertenties Advertentie· www.klimaatplein.com/klimaat/verandering ‎ Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ ‎ 073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. Besparing energieverbruik. Inzicht in besparing. Verduurzamen bedrijf. CO2 neutraal ondernemen. Services: SDE+ EIA MIA VAMIL. Advertentie· www.worldanimalprotection.nl/ ‎ Klimaatverandering | 10 feiten op een rij‎ ‎ De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. We stoppen dierenleed. +50 jr actief voor dieren. Dieren horen in het wild. Actuele informatieDoneer nuDoe meeDieren beschermen Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering als journalistieke uitdaging: een … - ‎Wurff - Geciteerd door 3 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering Afbeeldingsresultaat voor Oorzaken klimaatverandering Afbeeldingsresultaat voor Oorzaken klimaatverandering Alles bekijken Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delftwww.ce.nl › publicaties › downloadPDF Feedback Over samenvattingen Webresultaten Klimaatverandering en gevolgen - Rijksoverheidwww.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WURwww.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. Klimaatverandering: oorzaken en effecten | Compendium voor www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie Causes of climate change | Klimaat - European Commissionec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van Oorzaken - Klimaat.bewww.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig waarom weten we zeker dat de mens klimaatverandering www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › wa Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Wat is klimaatverandering? — Milieudefensiemilieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Wat zijn de oorzaken en gevolgen van klimaatverandering www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Klimaatverandering: oorzaken en gevolgen | HIERwww.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland2312 BG Leiden - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zwarte piet of roetveegpiet? Ongeveer 49.600 resultaten (0 72 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedianl.wikipedia.org › wiki › Roetpiet Feedback Over samenvattingen Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - Adwww.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-rug 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is Regio ziet niets in roetveegpiet: 'Bij ons blijft Zwarte Piet zo www.ad.nl › rotterdam › regio-ziet-niets-in-roetveegpiet-bij-ons-blijft 8 nov. 2019 - Terwijl bij de officiële sinterklaasintocht van Rotterdam voor het eerst alleen roetveegieten meelopen blijven de pieten in een groot deel van De roetveegpiet wint terrein al nemen veel - Volkskrantwww.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terrein- 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en-d 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Gemeenten kiezen vaker voor roetveegpiet maar merendeel www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpiet 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Weinig draagvlak voor roetveegpieten bij landelijke intocht eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch 5 meningen over Zwarte Piet: van 'niet aanpassen' tot eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Wat moet er gebeuren met het uiterlijk van Zwarte Piet? En hoe wordt er 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Zwarte pieten willen niet meer - NRCwww.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Rechter wijst bezwaar tegen roetveegpieten bij landelijke nos.nl › 7 nov. 2019 - De rechtbank in Arnhem heeft de eis dat er ook zwarte pieten bij moeten zijn afgewezen de gemeente hoeft de vergunning voor de intocht niet Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie roetveegpiet schminken kick out zwarte piet zwarte piet geschiedenis roetveegpiet tekening roetveegpieten 2019 regenboog piet sinterklaas Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland2312 BG Leiden - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevaren vaccinaties Ongeveer 28.800 resultaten (0 60 seconden) Advertenties Advertentie· www.npofocus.nl/Vaccineren ‎ Zijn vaccinaties gevaarlijk? | Wel of niet inenten? | NPOFocus.nl‎ ‎ Een kleine maar groeiende groep mensen meent dat vaccinaties schadelijk kunnen zijn. NPO Focus neemt de meest gehoorde bezwaren tegen vaccinaties onder de loep. NPO Focus. Verdieping. Weet meer. Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nlrijksvaccinatieprogramma.nl › vaccinaties › twijfels 6 feb. 2020 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Stichting Vaccinvrijstichtingvaccinvrij.nl Wij vaccineren niet! Trailer Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de De verborgen gevaren van vaccinaties - WantToKnowwww.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren-v PDF 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Heeft het niet vaccineren van kinderen nadelige gevolgen?www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer!www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? Vaccineren: levensgevaarlijk of levensreddend? - Scientiaswww.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Vaccineren: jezelf en anderen beschermen - UMC Utrechtwww.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-bescher 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Vaccineren van je kind is niet - Nieuwetijds kindercoachwww.nieuwetijds-kindercoach.nl › Advies Wie met z'n kind bij het consultatiebureau komt merkt al snel dat men ervan uitgaat dat je je kind zonder twijfel laat vaccineren. Er wordt niet gevraagd of en Vaccinatieweigeraars: waarom anti-vaxxers zo veel www.volkskrant.nl › nieuws-achtergrond › vaccinatieweigeraars-waaro 14 feb. 2019 - De discussie over vaccinaties loopt de laatste tijd hoog op. Wat er de gevaren zijn van een te lage vaccinatiegraad is goed te zien in deze Artikel - Veelgestelde vragen over vaccinerendekennisvannu.nl › site › artikel › Veelgestelde-vragen-over-vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie niet vaccineren bijwerkingen vaccinaties vaccineren autisme niet vaccineren forum spijt van niet vaccineren wetenschappelijk onderzoek vaccinaties stichting vaccinvrij Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland2312 BG Leiden - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Gevolgen illegale immigratie Ongeveer 151.000 resultaten (0 44 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedianl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen ‎Oorzaken · ‎Neoklassieke model · ‎Structurele vraag in · ‎Oorlog en asiel Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nlwww.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-terug Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Illegaliteit/vreemdelingen | politie.nlwww.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. Een belangrijk Nederland moet diep nadenken over de vergaande gevolgen www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenken- 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Niemand weet hoeveel illegale migranten er in Europa zijn decorrespondent.nl › niemand-weet-hoeveel-illegale-migranten-er-in- 8 aug. 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in Ongedocumenteerden (illegalen) en uitgeprocedeerdenwww.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-en- Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Migratie - Europa decentraaleuropadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Europese Commissie: migratiebeleid EU gaat totaal op de www.elsevierweekblad.nl › nederland › achtergrond › 2020/01 › mig 30 jan. 2020 - Vooral landen aan de zuidgrens van Europa zoals Italië zijn ontevreden over die verordening omdat de gevolgen van (illegale) immigratie Bedreigt illegale migratie het voorbestaan van de EU? | Jaltajalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-van- 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de 52002DC0703 - NL - EUR-Lexeur-lex.europa.eu › legal-content › TXT › HTML Gevolgen van internationale migratie voor ontwikkelingslanden Raad van Sevilla van juni 2002 is bijzondere aandacht besteed aan illegale immigratie. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegaal persoon in huis illegaal in nederland en ziek anoniem melden ind illegaal verblijf niet strafbaar gevolgen migratie illegaal in nederland en trouwen aangifte illegaal persoon illegale vluchteling in huis nemen Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland2312 BG Leiden - Van je apparaat - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenNieuwsVideo'sMapsMeer InstellingenTools Ongeveer 187.000 resultaten (0 57 seconden) Zoekresultaten Samenvatting van internet Abortus tot 24 weken Abortus mag tot de vrucht buiten uw lichaam zou kunnen overleven. Die grens ligt voor het strafrecht bij 24 weken. Artsen houden in de praktijk 22 weken aan als grens. Dat is omdat zij tot op 2 weken nauwkeurig de duur van de zwangerschap kunnen bepalen. Tot hoeveel weken kan ik een abortus laten uitvoeren www.rijksoverheid.nl › onderwerpen › abortus › vraag-en-antwoord › a Feedback Over samenvattingen Webresultaten Abortus 13 tot 17 weken - Uitleg over de behandelingwww.bloemenhove.nl › abortus_hulpverlening › abortus_hulpverlening Uitleg over de abortus behandeling in het 2e trimester o.a. uitleg over de voorbereiding verdoving behandeltijd verblijfsduur en de controle achteraf. Ik ben onbedoeld zwanger: wat kan ik doen? | Thuisartswww.thuisarts.nl › abortus › ik-ben-ongewenst-zwanger 17 mrt. 2015 - Tot 8 weken na het begin van je laatste ongesteldheid In Nederlandse klinieken en ziekenhuizen kan abortus tot ongeveer 22 weken. 'Bij abortus telt alléén de moeder' | Trouwwww.trouw.nl › nieuws › bij-abortus-telt-alleen-de-moeder~be9b8150 30 nov. 2014 - De grens tot wanneer abortus mag staat ter discussie. Dankzij vooruitgang in de neonatologie is die grens verlaagd tot 24 weken. Sommige Tot wanneer en hoe kun je een abortus plegen? - Dossier www.gezondheidsplein.nl › dossiers › item42703 Tot wanneer een abortus mogelijk is verschilt per land. In Nederland kan een abortus plaatsvinden tot 24 weken zwangerschap. Er is voor deze grens gekozen De abortusbehandeling | Fiomfiom.nl › ongewenst-zwanger › abortus › abortusbehandeling Hierbij krijg je het eerste deel in de kliniek en volgt het tweede deel één tot drie dagen later. Vanaf 13 weken zwangerschap wordt er gebruik gemaakt van een 'Ridicuul dat een abortus tot 24 weken nog geoorloofd is www.telegraaf.nl › vrouw › ridicuul-dat-een-abortus-tot-24-weken-no 23 jan. 2019 - Naar aanleiding van dit stuk - over demonstreren voor een abortuskliniek - ontving onze VROUW-redactie de volgende Lezerscolumn: "Ik snap Abortusmethoden - Schreeuw om Levenwww.schreeuwomleven.nl › abortusmethoden Abortus is het voortijdig afbreken van een zwangerschap door medisch ingrijpen. In Nederland is abortus toegestaan tot 24 weken. Wie een abortus overweegt Welke manier? | Sense.infosense.info › zwanger › zwanger-en-dan › zwangerschap-afbreken › w De abortuspil kun je tot 9 weken na het begin van je laatste menstruatie gebruiken. Er zijn 2 verschillende medicijnen. Op de 1ste dag van de behandeling krijg 'Laat 24-wekengrens bij abortus los' | Wonen | AD.nlwww.ad.nl › home › laat-24-wekengrens-bij-abortus-los~ad0cfed7 30 sep. 2013 - Laat de grens van 24 weken bij abortus los. wordt er volgens de CU naar aanleiding van deze echo ook nog wel eens tot abortus besloten. Zoekopdrachten gerelateerd aan Abortus tot hoeveel weken? tot hoeveel weken abortuspil abortus tot hoeveel weken duitsland abortus 24 weken procedure abortus kosten abortus 22 weken abortus 24 weken hoe gaat dat abortus kliniek abortus in nederland Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland9715 BW Groningen - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenNieuwsVideo'sMapsMeer InstellingenTools Ongeveer 181.000 resultaten (0 44 seconden) Advertenties Advertentie· www.klimaatplein.com/klimaat/verandering ‎ Oorzaken Klimaatverandering? | Lees erover op Klimaatplein‎ ‎ 073 822 7486 Klimaatplein.com maakt duurzaam ondernemen makkelijk. Gebruik onze Tips en Tools. Inzicht in besparing. Besparing energieverbruik. Verduurzamen bedrijf. CO2 neutraal ondernemen. Services: SDE+ EIA MIA VAMIL. Zelf Energie OpwekkenKlimaatveranderingContact KlimaatpleinEnergiebesparing Advertentie· www.worldanimalprotection.nl/ ‎ 10 feiten op een rij over | Klimaatverandering‎ ‎ Hoeveel weten we over klimaatverandering? Wij zetten 10 feiten voor je op een rijtje. De effecten van klimaatverandering zijn er al jarenlang en uiten zich door natuurrampen. Dieren horen in het wild. +50 jr actief voor dieren. We stoppen dierenleed. Doe meeDieren beschermenDoneer nuActuele informatie Zoekresultaten Wetenschappelijke artikelen voor Oorzaken klimaatverandering Klimaatverandering als journalistieke uitdaging: een … - ‎Wurff - Geciteerd door 3 Verzilting in Nederland: oorzaken en perspectieven - ‎de Boer - Geciteerd door 5 Samenvatting van internet Afbeeldingsresultaat voor Oorzaken klimaatverandering Afbeeldingsresultaat voor Oorzaken klimaatverandering Afbeeldingsresultaat voor Oorzaken klimaatverandering Alles bekijken Door de uitstoot van broeikasgassen wordt het natuurlijke broeikaseffect versterkt en stijgt de temperatuur op aarde. De verbranding van fossiele brandstoffen is de belangrijkste oorzaak van klimaatverandering omdat daarbij het broeikasgas CO2 vrijkomt. Klimaatverandering: oorzaken gevolgen en - CE Delftwww.ce.nl › publicaties › downloadPDF Feedback Over samenvattingen Webresultaten Klimaatverandering en gevolgen - Rijksoverheidwww.rijksoverheid.nl › onderwerpen › gevolgen-klimaatverandering Oorzaken klimaatverandering. Het klimaat verandert door veel verschillende oorzaken zoals: de activiteit van de zon de toename van broeikasgassen in de Oorzaken klimaatverandering - WURwww.wur.nl › artikel › Oorzaken-klimaatverandering-1 Klimaatverandering is niet nieuw. Zo heeft de verplaatsing van continenten door de honderden miljoenen jaren heen invloed had op de temperatuur op aarde. Klimaatverandering: oorzaken en effecten | Compendium voor www.clo.nl › indicatoren Klimaatverandering: oorzaken en effecten. Indicator | 16 maart 2006. U bekijkt op dit moment een archiefversie van deze indicator. De actuele indicatorversie Causes of climate change | Klimaat - European Commissionec.europa.eu › clima › change › causes_nl Oorzaken en gevolgen van klimaatverandering. De mens heeft een steeds grotere invloed op het klimaat en de temperatuur op aarde door het gebruik van waarom weten we zeker dat de mens klimaatverandering www.urgenda.nl › themas › klimaat-en-energie › klimaatvragen › wa Naast de bewijzen voor menselijke invloed hebben wetenschappers vastgesteld dat geen enkele andere natuurlijke oorzaak voor klimaatverandering de Oorzaken - Klimaat.bewww.klimaat.be › nl-be › klimaatverandering › het-klimaat De oorzaken van klimaatverandering. De klimaatverandering die we momenteel kunnen waarnemen is eigenlijk een versterking van een overigens volledig Klimaatverandering: oorzaken en gevolgen | HIERwww.hier.nu › Thema's › Klimaatwoordenboek 15 mei 2017 - Het klimaat wordt gedefinieerd als het gemiddelde weer in een periode van minimaal 30 jaar. Het klimaat wordt beïnvloed door een groot Wat is klimaatverandering? — Milieudefensiemilieudefensie.nl › eerlijk-omschakelen › wat-is-klimaatverandering Spring naar Wat zijn de oorzaken? - Wetenschappers zijn het er over eens dat de mens de oorzaak is van de huidige klimaatverandering. Want de mens Wat zijn de oorzaken en gevolgen van klimaatverandering www.knaw.nl › thematisch › aarde-klimaat-energie-en-bio-omgeving Wat zijn de oorzaken en gevolgen van klimaatverandering? Het klimaat van de aarde is in de loop van de geschiedenis vaak veranderd. Mede daardoor zijn Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland9715 BW Groningen - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleAfbeeldingenMapsNieuwsVideo'sMeer InstellingenTools Ongeveer 45.600 resultaten (0 51 seconden) Zoekresultaten Samenvatting van internet Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? De roetpiet roetveegpiet of schoorsteenpiet is een variant van de figuur Zwarte Piet die Sinterklaas begeleidt bij het sinterklaasfeest in Nederland en België. Roetpiet - Wikipedianl.wikipedia.org › wiki › Roetpiet Feedback Over samenvattingen Webresultaten Rotterdam keert Zwarte Piet definitief de rug toe: 'De - AD.nlwww.ad.nl › rotterdam › rotterdam-keert-zwarte-piet-definitief-de-rug 17 nov. 2019 - De eerste intocht van Sinterklaas in Rotterdam zonder Zwarte Piet is een feit. Valt dat de kinderen zwaar? Totaal niet. De roetveegpiet is De roetveegpiet wint terrein al nemen veel - Volkskrantwww.volkskrant.nl › nieuws-achtergrond › de-roetveegpiet-wint-terrein- 15 nov. 2019 - In steeds meer gemeenten doet de roetveegpiet zijn intrede bij de sinterklaasintocht. De schoorsteenvariant van Zwarte Piet verschijnt vooral in Waarom Roetveegpiet er bij Sylvie en Danny niet in komt www.trouw.nl › binnenland › waarom-roetveegpiet-er-bij-sylvie-en-d 16 nov. 2019 - In steeds meer plaatsen vervangt de roetveegpiet Zwarte Piet. Dat zal dit weekend bij de intochten weer voor protest zorgen. Zwarte pieten willen niet meer - NRCwww.nrc.nl › 2019/11/07 › de-pieten-lopen-bij-bosjes-weg-a3979589 7 nov. 2019 - Roetveegpieten: Gemeentes wisselen hun zwarte pieten steeds vaker in voor roetveegpieten. Dat gaat niet zonder weerstand. „De intocht moet Weinig draagvlak voor roetveegpieten bij landelijke intocht eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Met de keuze voor alleen roetveegpieten is er volgens hen te veel aangepast aan een kleine groep die Zwarte Piet wel een racistisch 5 meningen over Zwarte Piet: van 'niet aanpassen' tot eenvandaag.avrotros.nl › Opiniepanel › Alle uitslagen 14 nov. 2019 - Wat moet er gebeuren met het uiterlijk van Zwarte Piet? En hoe wordt er 5 meningen over Zwarte Piet: van 'niet aanpassen' tot 'roetveegpiet'. Rechter wijst bezwaar tegen roetveegpieten bij landelijke nos.nl › 7 nov. 2019 - De rechtbank in Arnhem heeft de eis dat er ook zwarte pieten bij moeten zijn afgewezen de gemeente hoeft de vergunning voor de intocht niet Afbeeldingen van Zwarte piet of roetveegpiet? Filters voor begeleid zoeken amersfoorteenvandaaglandelijke intochtintocht sinterklaasavrotrossinterklaasintochtpieten discussiezwarte pietendiscussie Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Afbeeldingsresultaat voor Zwarte piet of roetveegpiet? Alles bekijken Meer afbeeldingen voor Zwarte piet of roetveegpiet? Afbeeldingen melden Webresultaten Gemeenten kiezen vaker voor roetveegpiet maar merendeel www.nu.nl › sinterklaas › gemeenten-kiezen-vaker-voor-roetveegpiet 15 nov. 2019 - Omdat de roetveegpieten volgens de voorstanders van Zwarte Piet in Assen toch zwart genoeg bleken keerde de rust terug rond de intocht in Zoekopdrachten gerelateerd aan Zwarte piet of roetveegpiet? zwarte piet discussie zwarte piet geschiedenis kick out zwarte piet roetveegpiet schminken zwarte piet 2019 roetveegpiet tekening regenboog piet roetveegpieten 2019 Paginanavigatie 1 2 3 4 5 6 7 8 9 Volgende Links in voettekst Nederland9715 BW Groningen - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleNieuwsAfbeeldingenShoppingMapsMeer InstellingenTools Ongeveer 32.000 resultaten (0 42 seconden) Zoekresultaten Webresultaten Bij twijfel over vaccinatie | Rijksvaccinatieprogramma.nlrijksvaccinatieprogramma.nl › vaccinaties › twijfels 6 feb. 2020 - Voor de meeste ouders is het vaccineren van hun kinderen vanzelfsprekend. Maar er zijn ook ouders die vragen hebben en aarzelen. Wat zijn Stichting Vaccinvrijstichtingvaccinvrij.nl Wij vaccineren niet! Trailer Het laat ouders artsen en wetenschappers aan het woord over de andere kant van van het vaccinatie verhaal. “Diep onder de De verborgen gevaren van vaccinaties - WantToKnow.nlwww.wanttoknow.nl › wp-content › uploads › De-verborgen-gevaren-v PDF 1 jul. 2019 - wetenschappelijke bewijzen voor de gevaren van vaccinaties. Specifieke gevaren van gentech vaccins met 'virus like particles' Heeft het niet vaccineren van kinderen nadelige gevolgen?www.nvkp.nl › over-het-rijksvaccinatieprogramma › heeft-het-niet-va Kinderen die niet gevaccineerd zijn hebben over het algemeen een heel goede en sterke gezondheid en minder last van chronische verkoudheden Bijwerkingen vaccinaties | Thuisvaccinatie.nl | Lees meer!www.thuisvaccinatie.nl › vaccinaties › bijwerkingen-vaccinaties Het gevaar van de bijwerkingen van inentingen is namelijk vele malen kleiner dan het Wat verstaan we onder niet ernstige bijwerkingen van vaccinaties? Vaccineren: levensgevaarlijk of levensreddend? - Scientiaswww.scientias.nl › vaccineren-levensgevaarlijk-levensreddend 15 jan. 2017 - Nu de mediastorm rond vaccinatie is gaan liggen is het tijd om eens rustig de feiten op een rij De kudde-immuniteit komt daarmee in gevaar. Vaccineren: jezelf en anderen beschermen - UMC Utrechtwww.umcutrecht.nl › Nieuws › Vaccineren-jezelf-en-anderen-bescher 3 mei 2019 - Het is volop in het nieuws: de vaccinatiegraad daalt. Maar waarom is een hoge vaccinatiegraad belangrijk? Wanneer veel mensen zijn ingeënt Vaccineren van je kind is niet - Nieuwetijds kindercoachwww.nieuwetijds-kindercoach.nl › Advies Wie met z'n kind bij het consultatiebureau komt merkt al snel dat men ervan uitgaat dat je je kind zonder twijfel laat vaccineren. Er wordt niet gevraagd of en VACCINATIES PER LAND I GGDREISVACCINATIESwww.ggdreisvaccinaties.nl › heb-ik-een-vaccinatie-nodig Voor welk land heeft u vaccinaties nodig? Dat verschilt per land. In de landenzoeker kunt u vinden of u vaccinaties of inentingen nodig heeft voor uw reis. Artikel - Veelgestelde vragen over vaccinerendekennisvannu.nl › site › artikel › Veelgestelde-vragen-over-vaccineren 7 nov. 2016 - Op internet verloopt het debat rondom vaccinaties vaak heftig. met beweringen en vragen rondom de vermeende gevaren van vaccins. Zoekopdrachten gerelateerd aan Gevaren vaccinaties nadelen vaccinatie niet vaccineren bijwerkingen vaccinaties vaccineren autisme niet vaccineren forum spijt van niet vaccineren wetenschappelijk onderzoek vaccinaties stichting vaccinvrij Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland9715 BW Groningen - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Toegankelijkheidslinks Naar hoofdcontentHulp bij toegankelijkheid Feedback over toegankelijkheid Google Zoekmodi AlleNieuwsAfbeeldingenVideo'sMapsMeer InstellingenTools Ongeveer 144.000 resultaten (0 45 seconden) Inclusief resultaten voor Gevolgen illegale migratie Alleen zoeken naar Gevolgen illegale immigratie Zoekresultaten Webresultaten Illegale immigratie - Wikipedianl.wikipedia.org › wiki › Illegale_immigratie Illegale immigratie duidt op menselijke immigratie over de staatsgrenzen van landen op een dergelijke wijze dat het de immigratiewetten van die landen ‎Oorzaken · ‎Neoklassieke model · ‎Structurele vraag in · ‎Oorlog en asiel Minder illegaliteit meer terugkeer | Migratie | Rijksoverheid.nlwww.rijksoverheid.nl › onderwerpen › minder-illegaliteit-meer-terug Tegengaan illegaal verblijf. Migranten die Nederland niet verlaten kunnen voor overlast zorgen. Gemeenten ondervinden hier negatieve gevolgen van. Daarom Illegaliteit/vreemdelingen | politie.nlwww.politie.nl › themas › illegaliteit-vreemdelingen Wat is de taak van de Immigratie- en Naturalisatiedienst? Links Zie ook Illegale vreemdelingen worden ook wel ongedocumenteerden genoemd. ‎Wat doet de politie met · ‎Hoe is de toelating van Nederland moet diep nadenken over de vergaande gevolgen www.volkskrant.nl › columns-opinie › nederland-moet-diep-nadenken- 23 okt. 2018 - De woorden 'legale en illegale migratie' komen niet voor. Het migratieakkoord spreekt over 'reguliere en niet-reguliere migratie'. Het ontwikkelt Ongedocumenteerden (illegalen) en uitgeprocedeerdenwww.amnesty.nl › encyclopedie › ongedocumenteerden-illegalen-en- Er zijn uitzonderingen: illegale vreemdelingen hebben wel recht op 'medisch noodzakelijke' zorg en rechtsbijstand en illegaal verblijvende kinderen (onder de Niemand weet hoeveel illegale migranten er in Europa zijn decorrespondent.nl › niemand-weet-hoeveel-illegale-migranten-er-in- 8 aug. 2019 - Tegenstanders van migratie gebruiken illegale migranten graag als zondebok. Maar niemand weet hoeveel illegale migranten er eigenlijk in Migratie - Europa decentraaleuropadecentraal.nl › onderwerp › migratie Levens redden en de buitengrenzen versterken Illegale migratie minder De gevolgen voor het vrij verkeer van personen na de transitieperiode zijn Bedreigt illegale migratie het voorbestaan van de EU? | Jaltajalta.nl › buitenland › bedreigt-illegale-migratie-het-voorbestaan-van- 7 jun. 2018 - De Europese Commissaris voor Migratie Dimitri Avamopoulos Hij meent dat de illegale migratie negatieve gevolgen heeft voor de Europese Commissie: migratiebeleid EU gaat totaal op de www.elsevierweekblad.nl › nederland › achtergrond › 2020/01 › mig 30 jan. 2020 - Vooral landen aan de zuidgrens van Europa zoals Italië zijn ontevreden over die verordening omdat de gevolgen van (illegale) immigratie 52002DC0703 - NL - EUR-Lexeur-lex.europa.eu › legal-content › TXT › HTML Gevolgen van internationale migratie voor ontwikkelingslanden Raad van Sevilla van juni 2002 is bijzondere aandacht besteed aan illegale immigratie. Zoekopdrachten gerelateerd aan Gevolgen illegale immigratie illegaal persoon in huis illegaal in nederland en ziek illegaal verblijf niet strafbaar illegaal in nederland en trouwen anoniem melden ind illegale vluchteling in huis nemen hoeveel illegalen in nederland 2018 illegaal in nederland en zwanger Paginanavigatie 1 2 3 4 5 6 7 8 9 10 Volgende Links in voettekst Nederland9715 BW Groningen - Uit je plaatsen (thuis) - Precieze locatie gebruiken - Meer informatie HelpFeedback sturenPrivacyVoorwaarden</t>
         </is>
       </c>
     </row>
